--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -16,7 +16,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="Bfcm49ugvENsbA3HZyNmjHY29x4VDsAzvkoHR+7cnUs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="B5dLvX50dmrEMMlgtjVzMi6jRNaRhjZ16qjb+VDRYAE="/>
     </ext>
   </extLst>
 </workbook>
@@ -88,14 +88,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miwpy/yeLmDNzXpAMphbBbrUu/nag=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgtvF+v4tNhFQeukhHG5ZC5kQh1WA=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="528">
   <si>
     <t>Date</t>
   </si>
@@ -1205,6 +1205,12 @@
   </si>
   <si>
     <t>FOREIGNKEY</t>
+  </si>
+  <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>GROUPE</t>
   </si>
   <si>
     <t>SEQUENCE</t>
@@ -6902,10 +6908,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -7873,315 +7879,117 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="47" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="45" t="s">
-        <v>9</v>
-      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="45"/>
-      <c r="L4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="N4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="R4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="T4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX4" s="45" t="s">
-        <v>9</v>
-      </c>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="45"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="45"/>
+      <c r="AI4" s="45"/>
+      <c r="AJ4" s="45"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45"/>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="45"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="45"/>
+      <c r="AW4" s="45"/>
+      <c r="AX4" s="45"/>
       <c r="AY4" s="45"/>
-      <c r="AZ4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX4" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY4" s="45" t="s">
-        <v>9</v>
-      </c>
+      <c r="AZ4" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="45"/>
+      <c r="BE4" s="45"/>
+      <c r="BF4" s="45"/>
+      <c r="BG4" s="45"/>
+      <c r="BH4" s="45"/>
+      <c r="BI4" s="45"/>
+      <c r="BJ4" s="45"/>
+      <c r="BK4" s="45"/>
+      <c r="BL4" s="45"/>
+      <c r="BM4" s="45"/>
+      <c r="BN4" s="45"/>
+      <c r="BO4" s="45"/>
+      <c r="BP4" s="45"/>
+      <c r="BQ4" s="45"/>
+      <c r="BR4" s="45"/>
+      <c r="BS4" s="45"/>
+      <c r="BT4" s="45"/>
+      <c r="BU4" s="45"/>
+      <c r="BV4" s="45"/>
+      <c r="BW4" s="45"/>
+      <c r="BX4" s="45"/>
+      <c r="BY4" s="45"/>
+      <c r="BZ4" s="45"/>
+      <c r="CA4" s="45"/>
+      <c r="CB4" s="45"/>
+      <c r="CC4" s="45"/>
+      <c r="CD4" s="45"/>
+      <c r="CE4" s="45"/>
+      <c r="CF4" s="45"/>
+      <c r="CG4" s="45"/>
+      <c r="CH4" s="45"/>
+      <c r="CI4" s="45"/>
+      <c r="CJ4" s="45"/>
+      <c r="CK4" s="45"/>
+      <c r="CL4" s="45"/>
+      <c r="CM4" s="45"/>
+      <c r="CN4" s="45"/>
+      <c r="CO4" s="45"/>
+      <c r="CP4" s="45"/>
+      <c r="CQ4" s="45"/>
+      <c r="CR4" s="45"/>
+      <c r="CS4" s="45"/>
+      <c r="CT4" s="45"/>
+      <c r="CU4" s="45"/>
+      <c r="CV4" s="45"/>
+      <c r="CW4" s="45"/>
+      <c r="CX4" s="45"/>
+      <c r="CY4" s="45"/>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>9</v>
@@ -8193,7 +8001,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>9</v>
@@ -8210,1067 +8018,1063 @@
       <c r="J5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>9</v>
-      </c>
+      <c r="K5" s="45"/>
       <c r="L5" s="45" t="s">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="M5" s="45" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="45" t="s">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="O5" s="45" t="s">
-        <v>309</v>
+        <v>9</v>
       </c>
       <c r="P5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY5" s="45"/>
+      <c r="AZ5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX5" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY5" s="45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="Q5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="S5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="U5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="45" t="s">
+      <c r="B6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>311</v>
       </c>
-      <c r="AF5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ5" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP5" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="AQ5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT5" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="AU5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS5" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="CT5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX5" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY5" s="45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="48" t="s">
+      <c r="F6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="P6" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="U6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="V6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="W6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BL6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BT6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BV6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CI6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CJ6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CK6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CL6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CM6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CN6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CO6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CP6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CQ6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CR6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CS6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CT6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CU6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CV6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CW6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CX6" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="CY6" s="48" t="s">
+      <c r="Q6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE6" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="AF6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="AQ6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS6" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="CT6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY6" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="50">
+      <c r="B7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="S7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="V7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BL7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BT7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CI7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CJ7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CK7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CL7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CM7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CO7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CQ7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CR7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CS7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CU7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CV7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CW7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CX7" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY7" s="48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="50">
         <v>1005.0</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>316</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="J7" s="19" t="s">
+      <c r="E8" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="K7" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="L7" s="19" t="s">
+      <c r="F8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="M7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N7" s="19" t="s">
+      <c r="K8" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="P7" s="53" t="s">
+      <c r="M8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="Q7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="S7" s="33" t="s">
+      <c r="O8" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="T7" s="19">
+      <c r="P8" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S8" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="T8" s="19">
         <v>10000.0</v>
       </c>
-      <c r="U7" s="54">
+      <c r="U8" s="54">
         <v>44562.0</v>
-      </c>
-      <c r="V7" s="54">
-        <v>45658.0</v>
-      </c>
-      <c r="W7" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="X7" s="54">
-        <v>44593.0</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="AC7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF7" s="56" t="s">
-        <v>329</v>
-      </c>
-      <c r="AG7" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="AI7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ7" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="AL7" s="19">
-        <v>9999.0</v>
-      </c>
-      <c r="AM7" s="54">
-        <v>49310.0</v>
-      </c>
-      <c r="AN7" s="19">
-        <v>1000000.0</v>
-      </c>
-      <c r="AO7" s="19">
-        <v>10000.0</v>
-      </c>
-      <c r="AP7" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="AQ7" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="AR7" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AS7" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="AT7" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="AU7" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="AV7" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="AW7" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="AX7" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="AY7" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="AZ7" s="53" t="s">
-        <v>334</v>
-      </c>
-      <c r="BA7" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="BB7" s="54">
-        <v>44562.0</v>
-      </c>
-      <c r="BC7" s="54">
-        <v>44713.0</v>
-      </c>
-      <c r="BD7" s="54">
-        <v>45078.0</v>
-      </c>
-      <c r="BE7" s="54">
-        <v>44743.0</v>
-      </c>
-      <c r="BF7" s="54">
-        <v>45108.0</v>
-      </c>
-      <c r="BG7" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="BH7" s="19">
-        <v>12.0</v>
-      </c>
-      <c r="BI7" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="BJ7" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="BK7" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="BL7" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="BM7" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="BN7" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="BO7" s="19">
-        <v>1000.0</v>
-      </c>
-      <c r="BP7" s="19">
-        <v>100.0</v>
-      </c>
-      <c r="BQ7" s="19">
-        <v>1100.0</v>
-      </c>
-      <c r="BR7" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="BS7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="BT7" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="BU7" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="BV7" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="BW7" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="BX7" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="BY7" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="BZ7" s="54">
-        <v>44562.0</v>
-      </c>
-      <c r="CA7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CB7" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="CC7" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="CD7" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="CE7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CF7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CG7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CH7" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="CI7" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="CJ7" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="CK7" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="CL7" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="CM7" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="CN7" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="CO7" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="CP7" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="CQ7" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="CR7" s="54">
-        <v>44227.0</v>
-      </c>
-      <c r="CS7" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="CT7" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="CU7" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="CV7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CW7" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="CX7" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="CY7" s="19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="49" t="s">
-        <v>348</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="K8" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="P8" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="T8" s="19">
-        <v>20000.0</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="V8" s="54">
         <v>45658.0</v>
       </c>
       <c r="W8" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X8" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="AC8" s="19">
-        <v>1010.0</v>
+        <v>1000.0</v>
       </c>
       <c r="AD8" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE8" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AE8" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="AF8" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AJ8" s="50" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL8" s="19">
-        <v>1999.0</v>
+        <v>9999.0</v>
       </c>
       <c r="AM8" s="54">
         <v>49310.0</v>
       </c>
       <c r="AN8" s="19">
-        <v>2000000.0</v>
+        <v>1000000.0</v>
       </c>
       <c r="AO8" s="19">
-        <v>20000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="AP8" s="19" t="s">
-        <v>358</v>
+        <v>333</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AT8" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AX8" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AY8" s="19" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="AZ8" s="53" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="BA8" s="19" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="BB8" s="54">
         <v>44562.0</v>
@@ -9294,294 +9098,294 @@
         <v>12.0</v>
       </c>
       <c r="BI8" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BJ8" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="BL8" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM8" s="19" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="BN8" s="19" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="BO8" s="19">
-        <v>1010.0</v>
+        <v>1000.0</v>
       </c>
       <c r="BP8" s="19">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
       <c r="BQ8" s="19">
-        <v>1110.0</v>
+        <v>1100.0</v>
       </c>
       <c r="BR8" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BS8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BT8" s="19" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="BU8" s="57" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="BV8" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW8" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BX8" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BY8" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ8" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CB8" s="19" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="CC8" s="19" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="CD8" s="19" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="CL8" s="50" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="CM8" s="50" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="CN8" s="50" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="CO8" s="50" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="CP8" s="50" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="CR8" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS8" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CT8" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CU8" s="19" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="CV8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CW8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CX8" s="58">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="CY8" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="E9" s="51" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>317</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="P9" s="53" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S9" s="33" t="s">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="T9" s="19">
-        <v>30000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="V9" s="54">
         <v>45658.0</v>
       </c>
       <c r="W9" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X9" s="54">
         <v>44593.0</v>
       </c>
-      <c r="Y9" s="54">
-        <v>44621.0</v>
-      </c>
-      <c r="Z9" s="54">
-        <v>44652.0</v>
+      <c r="Y9" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z9" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>380</v>
+        <v>358</v>
       </c>
       <c r="AC9" s="19">
-        <v>1020.0</v>
+        <v>1010.0</v>
       </c>
       <c r="AD9" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE9" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AE9" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="AF9" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AJ9" s="50" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AL9" s="19">
-        <v>2999.0</v>
+        <v>1999.0</v>
       </c>
       <c r="AM9" s="54">
         <v>49310.0</v>
       </c>
       <c r="AN9" s="19">
-        <v>3000000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="AO9" s="19">
-        <v>30000.0</v>
+        <v>20000.0</v>
       </c>
       <c r="AP9" s="19" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AT9" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AY9" s="19" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="AZ9" s="53" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="BA9" s="19" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="BB9" s="54">
         <v>44562.0</v>
@@ -9605,294 +9409,294 @@
         <v>12.0</v>
       </c>
       <c r="BI9" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BJ9" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="BL9" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BM9" s="19" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="BN9" s="19" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BO9" s="19">
-        <v>1020.0</v>
+        <v>1010.0</v>
       </c>
       <c r="BP9" s="19">
-        <v>120.0</v>
+        <v>110.0</v>
       </c>
       <c r="BQ9" s="19">
-        <v>1120.0</v>
+        <v>1110.0</v>
       </c>
       <c r="BR9" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BS9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="BU9" s="57" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="BV9" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW9" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BX9" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BY9" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ9" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CB9" s="19" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="CC9" s="19" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="CD9" s="19" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="CJ9" s="19" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="CK9" s="19" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="CL9" s="50" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="CM9" s="50" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="CN9" s="50" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="CO9" s="50" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="CP9" s="50" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="CQ9" s="19" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="CR9" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS9" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CT9" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CU9" s="19" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="CV9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CW9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CX9" s="58">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="CY9" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="E10" s="51" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K10" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S10" s="33" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="T10" s="19">
-        <v>40000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="V10" s="54">
         <v>45658.0</v>
       </c>
       <c r="W10" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X10" s="54">
         <v>44593.0</v>
       </c>
-      <c r="Y10" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z10" s="19" t="s">
-        <v>317</v>
+      <c r="Y10" s="54">
+        <v>44621.0</v>
+      </c>
+      <c r="Z10" s="54">
+        <v>44652.0</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="AC10" s="19">
-        <v>1030.0</v>
+        <v>1020.0</v>
       </c>
       <c r="AD10" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE10" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AE10" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="AF10" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AJ10" s="50" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="AL10" s="19">
-        <v>3999.0</v>
+        <v>2999.0</v>
       </c>
       <c r="AM10" s="54">
         <v>49310.0</v>
       </c>
       <c r="AN10" s="19">
-        <v>4000000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="AO10" s="19">
-        <v>40000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="AP10" s="19" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AT10" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AX10" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="AZ10" s="53" t="s">
-        <v>334</v>
+        <v>386</v>
       </c>
       <c r="BA10" s="19" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="BB10" s="54">
         <v>44562.0</v>
@@ -9916,294 +9720,294 @@
         <v>12.0</v>
       </c>
       <c r="BI10" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BJ10" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="BL10" s="19">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="BM10" s="19" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="BN10" s="19" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="BO10" s="19">
-        <v>1030.0</v>
+        <v>1020.0</v>
       </c>
       <c r="BP10" s="19">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
       <c r="BQ10" s="19">
-        <v>1130.0</v>
+        <v>1120.0</v>
       </c>
       <c r="BR10" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BS10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="BU10" s="57" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="BV10" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW10" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BX10" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BY10" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ10" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CB10" s="19" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="CC10" s="19" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="CD10" s="19" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CG10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="CI10" s="19" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="CJ10" s="19" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="CL10" s="50" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="CM10" s="50" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="CN10" s="50" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="CO10" s="50" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="CP10" s="50" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="CR10" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS10" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CT10" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CU10" s="19" t="s">
-        <v>347</v>
+        <v>397</v>
       </c>
       <c r="CV10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CW10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CX10" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="CY10" s="19">
         <v>3.0</v>
-      </c>
-      <c r="CY10" s="19">
-        <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="E11" s="51" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S11" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="P11" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>315</v>
-      </c>
       <c r="T11" s="19">
-        <v>50000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="V11" s="54">
         <v>45658.0</v>
       </c>
       <c r="W11" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X11" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="AC11" s="19">
-        <v>1040.0</v>
+        <v>1030.0</v>
       </c>
       <c r="AD11" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE11" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AE11" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="AF11" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AJ11" s="50" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL11" s="19">
-        <v>4999.0</v>
+        <v>3999.0</v>
       </c>
       <c r="AM11" s="54">
         <v>49310.0</v>
       </c>
       <c r="AN11" s="19">
-        <v>5000000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="AO11" s="19">
-        <v>50000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="AP11" s="19" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AR11" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AS11" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AT11" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AU11" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AX11" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="AZ11" s="53" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="BA11" s="19" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="BB11" s="54">
         <v>44562.0</v>
@@ -10227,294 +10031,294 @@
         <v>12.0</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BJ11" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="BL11" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="BN11" s="19" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="BO11" s="19">
-        <v>1040.0</v>
+        <v>1030.0</v>
       </c>
       <c r="BP11" s="19">
-        <v>140.0</v>
+        <v>130.0</v>
       </c>
       <c r="BQ11" s="19">
-        <v>1140.0</v>
+        <v>1130.0</v>
       </c>
       <c r="BR11" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BS11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="BU11" s="57" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="BV11" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW11" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BX11" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BY11" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ11" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CB11" s="19" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="CC11" s="19" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="CD11" s="19" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="CL11" s="50" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="CM11" s="50" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="CN11" s="50" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="CO11" s="50" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="CP11" s="50" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="CQ11" s="19" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="CR11" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS11" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CT11" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CU11" s="19" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="CV11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CW11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CX11" s="58">
+        <v>3.0</v>
+      </c>
+      <c r="CY11" s="19">
         <v>1.0</v>
-      </c>
-      <c r="CY11" s="19">
-        <v>3.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="E12" s="51" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="H12" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S12" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="I12" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="K12" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="P12" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>355</v>
-      </c>
       <c r="T12" s="19">
-        <v>60000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="V12" s="54">
         <v>45658.0</v>
       </c>
       <c r="W12" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X12" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="AC12" s="19">
-        <v>1050.0</v>
+        <v>1040.0</v>
       </c>
       <c r="AD12" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE12" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AE12" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="AF12" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AJ12" s="50" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="AL12" s="19">
-        <v>5999.0</v>
+        <v>4999.0</v>
       </c>
       <c r="AM12" s="54">
         <v>49310.0</v>
       </c>
       <c r="AN12" s="19">
-        <v>6000000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="AO12" s="19">
-        <v>60000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="AP12" s="19" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="AQ12" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AR12" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AT12" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AU12" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AX12" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AY12" s="19" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="AZ12" s="53" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="BA12" s="19" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="BB12" s="54">
         <v>44562.0</v>
@@ -10538,294 +10342,294 @@
         <v>12.0</v>
       </c>
       <c r="BI12" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BJ12" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BK12" s="19" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="BL12" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BM12" s="19" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="BN12" s="19" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BO12" s="19">
-        <v>1050.0</v>
+        <v>1040.0</v>
       </c>
       <c r="BP12" s="19">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
       <c r="BQ12" s="19">
-        <v>1150.0</v>
+        <v>1140.0</v>
       </c>
       <c r="BR12" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BS12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="BU12" s="57" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="BV12" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW12" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BX12" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BY12" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ12" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CB12" s="19" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="CC12" s="19" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="CD12" s="19" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="CE12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CF12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CG12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="CI12" s="19" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="CJ12" s="19" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="CL12" s="50" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="CM12" s="50" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="CN12" s="50" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="CO12" s="50" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="CP12" s="50" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="CQ12" s="19" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="CR12" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS12" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CT12" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CU12" s="19" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="CV12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CW12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CX12" s="58">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="CY12" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="E13" s="51" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>317</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K13" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="P13" s="53" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="T13" s="19">
-        <v>70000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="V13" s="54">
         <v>45658.0</v>
       </c>
       <c r="W13" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X13" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="AC13" s="19">
-        <v>1060.0</v>
+        <v>1050.0</v>
       </c>
       <c r="AD13" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE13" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AE13" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="AF13" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AJ13" s="50" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="AL13" s="19">
-        <v>6999.0</v>
+        <v>5999.0</v>
       </c>
       <c r="AM13" s="54">
         <v>49310.0</v>
       </c>
       <c r="AN13" s="19">
-        <v>7000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="AO13" s="19">
-        <v>70000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="AP13" s="19" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="AQ13" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AR13" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AS13" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AT13" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AU13" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AV13" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AW13" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AY13" s="19" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="AZ13" s="53" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="BA13" s="19" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="BB13" s="54">
         <v>44562.0</v>
@@ -10849,294 +10653,294 @@
         <v>12.0</v>
       </c>
       <c r="BI13" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BJ13" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BK13" s="19" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="BL13" s="19">
         <v>3.0</v>
       </c>
       <c r="BM13" s="19" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="BN13" s="19" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="BO13" s="19">
-        <v>1060.0</v>
+        <v>1050.0</v>
       </c>
       <c r="BP13" s="19">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
       <c r="BQ13" s="19">
-        <v>1160.0</v>
+        <v>1150.0</v>
       </c>
       <c r="BR13" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BS13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BT13" s="19" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="BU13" s="57" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="BV13" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW13" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BX13" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BY13" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ13" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CB13" s="19" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="CC13" s="19" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="CD13" s="19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="CE13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CF13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CG13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CH13" s="19" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="CI13" s="19" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="CJ13" s="19" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="CK13" s="19" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="CL13" s="50" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="CM13" s="50" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="CN13" s="50" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="CO13" s="50" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="CP13" s="50" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="CQ13" s="19" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="CR13" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS13" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CT13" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CU13" s="19" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="CV13" s="19" t="s">
-        <v>460</v>
+        <v>319</v>
       </c>
       <c r="CW13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CX13" s="58">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="CY13" s="19">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="E14" s="51" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S14" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="K14" s="59">
-        <v>1000.0</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="O14" s="50" t="s">
-        <v>462</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>315</v>
-      </c>
       <c r="T14" s="19">
-        <v>80000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="V14" s="54">
         <v>45658.0</v>
       </c>
       <c r="W14" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X14" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="AC14" s="19">
-        <v>1070.0</v>
+        <v>1060.0</v>
       </c>
       <c r="AD14" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE14" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AE14" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="AF14" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG14" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AJ14" s="50" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AL14" s="19">
-        <v>7999.0</v>
+        <v>6999.0</v>
       </c>
       <c r="AM14" s="54">
         <v>49310.0</v>
       </c>
       <c r="AN14" s="19">
-        <v>8000000.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="AO14" s="19">
-        <v>80000.0</v>
+        <v>70000.0</v>
       </c>
       <c r="AP14" s="19" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="AQ14" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AR14" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AT14" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AU14" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AV14" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AW14" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AX14" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AY14" s="19" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="AZ14" s="53" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="BA14" s="19" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="BB14" s="54">
         <v>44562.0</v>
@@ -11160,294 +10964,294 @@
         <v>12.0</v>
       </c>
       <c r="BI14" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BJ14" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BK14" s="19" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="BL14" s="19">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="BM14" s="19" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="BN14" s="19" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="BO14" s="19">
-        <v>1070.0</v>
+        <v>1060.0</v>
       </c>
       <c r="BP14" s="19">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
       <c r="BQ14" s="19">
-        <v>1170.0</v>
+        <v>1160.0</v>
       </c>
       <c r="BR14" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BS14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BT14" s="19" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="BU14" s="57" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="BV14" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW14" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BX14" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BY14" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ14" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CB14" s="19" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="CC14" s="19" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="CD14" s="19" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="CE14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CF14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CG14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CH14" s="19" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="CI14" s="19" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="CJ14" s="19" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="CK14" s="19" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="CL14" s="50" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="CM14" s="50" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="CN14" s="50" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="CO14" s="50" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="CP14" s="50" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="CQ14" s="19" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="CR14" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS14" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CT14" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CU14" s="19" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="CV14" s="19" t="s">
-        <v>317</v>
+        <v>462</v>
       </c>
       <c r="CW14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CX14" s="58">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="CY14" s="19">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="E15" s="51" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="F15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="K15" s="59">
+        <v>1000.0</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="O15" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S15" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="K15" s="59">
-        <v>1001.0</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>481</v>
-      </c>
-      <c r="P15" s="53" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>315</v>
-      </c>
       <c r="T15" s="19">
-        <v>90000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="V15" s="54">
         <v>45658.0</v>
       </c>
       <c r="W15" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="X15" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="AC15" s="19">
-        <v>1080.0</v>
+        <v>1070.0</v>
       </c>
       <c r="AD15" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE15" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AE15" s="19" t="s">
-        <v>326</v>
-      </c>
       <c r="AF15" s="56" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AJ15" s="50" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>484</v>
+        <v>407</v>
       </c>
       <c r="AL15" s="19">
-        <v>8999.0</v>
+        <v>7999.0</v>
       </c>
       <c r="AM15" s="54">
         <v>49310.0</v>
       </c>
       <c r="AN15" s="19">
-        <v>9000000.0</v>
+        <v>8000000.0</v>
       </c>
       <c r="AO15" s="19">
-        <v>90000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="AP15" s="19" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="AQ15" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AR15" s="19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AS15" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AT15" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AU15" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AV15" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AW15" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AX15" s="19" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="AY15" s="19" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="AZ15" s="53" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="BA15" s="19" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="BB15" s="54">
         <v>44562.0</v>
@@ -11471,243 +11275,445 @@
         <v>12.0</v>
       </c>
       <c r="BI15" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BJ15" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BK15" s="19" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="BL15" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="BM15" s="19" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="BN15" s="19" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="BO15" s="19">
-        <v>1080.0</v>
+        <v>1070.0</v>
       </c>
       <c r="BP15" s="19">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
       <c r="BQ15" s="19">
-        <v>1180.0</v>
+        <v>1170.0</v>
       </c>
       <c r="BR15" s="56" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="BS15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="BT15" s="19" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="BU15" s="57" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="BV15" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BW15" s="55" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="BX15" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BY15" s="33" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="BZ15" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CB15" s="19" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="CC15" s="19" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="CD15" s="19" t="s">
-        <v>491</v>
+        <v>370</v>
       </c>
       <c r="CE15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CF15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CG15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CH15" s="19" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="CI15" s="19" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="CJ15" s="19" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="CK15" s="19" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="CL15" s="50" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="CM15" s="50" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="CN15" s="50" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="CO15" s="50" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="CP15" s="50" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="CQ15" s="19" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="CR15" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS15" s="19" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="CT15" s="19" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="CU15" s="19" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="CV15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CW15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="CX15" s="58">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="CY15" s="19">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
+        <v>478</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>480</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="K16" s="59">
+        <v>1001.0</v>
+      </c>
+      <c r="L16" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="M16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="O16" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="T16" s="19">
+        <v>90000.0</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="V16" s="54">
+        <v>45658.0</v>
+      </c>
+      <c r="W16" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="X16" s="54">
+        <v>44593.0</v>
+      </c>
+      <c r="Y16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AB16" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="AC16" s="19">
+        <v>1080.0</v>
+      </c>
+      <c r="AD16" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE16" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AF16" s="56" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG16" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AI16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ16" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="AK16" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="AL16" s="19">
+        <v>8999.0</v>
+      </c>
+      <c r="AM16" s="54">
+        <v>49310.0</v>
+      </c>
+      <c r="AN16" s="19">
+        <v>9000000.0</v>
+      </c>
+      <c r="AO16" s="19">
+        <v>90000.0</v>
+      </c>
+      <c r="AP16" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="AQ16" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR16" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AS16" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AT16" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AU16" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AV16" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="AW16" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX16" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AY16" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="AZ16" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="BA16" s="19" t="s">
+        <v>489</v>
+      </c>
+      <c r="BB16" s="54">
+        <v>44562.0</v>
+      </c>
+      <c r="BC16" s="54">
+        <v>44713.0</v>
+      </c>
+      <c r="BD16" s="54">
+        <v>45078.0</v>
+      </c>
+      <c r="BE16" s="54">
+        <v>44743.0</v>
+      </c>
+      <c r="BF16" s="54">
+        <v>45108.0</v>
+      </c>
+      <c r="BG16" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="BH16" s="19">
+        <v>12.0</v>
+      </c>
+      <c r="BI16" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="BJ16" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="BK16" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="BL16" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="BM16" s="19" t="s">
+        <v>491</v>
+      </c>
+      <c r="BN16" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="BO16" s="19">
+        <v>1080.0</v>
+      </c>
+      <c r="BP16" s="19">
+        <v>180.0</v>
+      </c>
+      <c r="BQ16" s="19">
+        <v>1180.0</v>
+      </c>
+      <c r="BR16" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="BS16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="BT16" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="BU16" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="BV16" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="BW16" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="BX16" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="BY16" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="BZ16" s="54">
+        <v>44562.0</v>
+      </c>
+      <c r="CA16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="CB16" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="CC16" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="CD16" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="CE16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="CF16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="CG16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="CH16" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="CI16" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="CJ16" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="CK16" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="CL16" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="CM16" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="CN16" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="CO16" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="CP16" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="CQ16" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="60"/>
-      <c r="T16" s="60"/>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="60"/>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="60"/>
-      <c r="AN16" s="60"/>
-      <c r="AO16" s="60"/>
-      <c r="AP16" s="60"/>
-      <c r="AQ16" s="60"/>
-      <c r="AR16" s="60"/>
-      <c r="AS16" s="60"/>
-      <c r="AT16" s="60"/>
-      <c r="AU16" s="60"/>
-      <c r="AV16" s="60"/>
-      <c r="AW16" s="60"/>
-      <c r="AX16" s="60"/>
-      <c r="AY16" s="60"/>
-      <c r="AZ16" s="60"/>
-      <c r="BA16" s="60"/>
-      <c r="BB16" s="60"/>
-      <c r="BC16" s="60"/>
-      <c r="BD16" s="60"/>
-      <c r="BE16" s="60"/>
-      <c r="BF16" s="60"/>
-      <c r="BG16" s="60"/>
-      <c r="BH16" s="60"/>
-      <c r="BI16" s="60"/>
-      <c r="BJ16" s="60"/>
-      <c r="BK16" s="60"/>
-      <c r="BL16" s="60"/>
-      <c r="BM16" s="60"/>
-      <c r="BN16" s="60"/>
-      <c r="BO16" s="60"/>
-      <c r="BP16" s="60"/>
-      <c r="BQ16" s="60"/>
-      <c r="BR16" s="60"/>
-      <c r="BS16" s="60"/>
-      <c r="BT16" s="60"/>
-      <c r="BU16" s="60"/>
-      <c r="BV16" s="60"/>
-      <c r="BW16" s="60"/>
-      <c r="BX16" s="60"/>
-      <c r="BY16" s="60"/>
-      <c r="BZ16" s="60"/>
-      <c r="CA16" s="60"/>
-      <c r="CB16" s="60"/>
-      <c r="CC16" s="60"/>
-      <c r="CD16" s="60"/>
-      <c r="CE16" s="60"/>
-      <c r="CF16" s="60"/>
-      <c r="CG16" s="60"/>
-      <c r="CH16" s="60"/>
-      <c r="CI16" s="60"/>
-      <c r="CJ16" s="60"/>
-      <c r="CK16" s="60"/>
-      <c r="CL16" s="60"/>
-      <c r="CM16" s="60"/>
-      <c r="CN16" s="60"/>
-      <c r="CO16" s="60"/>
-      <c r="CP16" s="60"/>
-      <c r="CQ16" s="60"/>
-      <c r="CR16" s="60"/>
-      <c r="CS16" s="60"/>
-      <c r="CT16" s="60"/>
-      <c r="CU16" s="60"/>
-      <c r="CV16" s="60"/>
-      <c r="CW16" s="60"/>
-      <c r="CX16" s="60"/>
-      <c r="CY16" s="60"/>
+      <c r="CR16" s="54">
+        <v>44227.0</v>
+      </c>
+      <c r="CS16" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="CT16" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="CU16" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="CV16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="CW16" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="CX16" s="58">
+        <v>1.0</v>
+      </c>
+      <c r="CY16" s="19">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
@@ -11819,13 +11825,119 @@
       <c r="CY17" s="60"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="61"/>
+      <c r="A18" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="60"/>
+      <c r="Z18" s="60"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="60"/>
+      <c r="AC18" s="60"/>
+      <c r="AD18" s="60"/>
+      <c r="AE18" s="60"/>
+      <c r="AF18" s="60"/>
+      <c r="AG18" s="60"/>
+      <c r="AH18" s="60"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="60"/>
+      <c r="AK18" s="60"/>
+      <c r="AL18" s="60"/>
+      <c r="AM18" s="60"/>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="60"/>
+      <c r="AY18" s="60"/>
+      <c r="AZ18" s="60"/>
+      <c r="BA18" s="60"/>
+      <c r="BB18" s="60"/>
+      <c r="BC18" s="60"/>
+      <c r="BD18" s="60"/>
+      <c r="BE18" s="60"/>
+      <c r="BF18" s="60"/>
+      <c r="BG18" s="60"/>
+      <c r="BH18" s="60"/>
+      <c r="BI18" s="60"/>
+      <c r="BJ18" s="60"/>
+      <c r="BK18" s="60"/>
+      <c r="BL18" s="60"/>
+      <c r="BM18" s="60"/>
+      <c r="BN18" s="60"/>
+      <c r="BO18" s="60"/>
+      <c r="BP18" s="60"/>
+      <c r="BQ18" s="60"/>
+      <c r="BR18" s="60"/>
+      <c r="BS18" s="60"/>
+      <c r="BT18" s="60"/>
+      <c r="BU18" s="60"/>
+      <c r="BV18" s="60"/>
+      <c r="BW18" s="60"/>
+      <c r="BX18" s="60"/>
+      <c r="BY18" s="60"/>
+      <c r="BZ18" s="60"/>
+      <c r="CA18" s="60"/>
+      <c r="CB18" s="60"/>
+      <c r="CC18" s="60"/>
+      <c r="CD18" s="60"/>
+      <c r="CE18" s="60"/>
+      <c r="CF18" s="60"/>
+      <c r="CG18" s="60"/>
+      <c r="CH18" s="60"/>
+      <c r="CI18" s="60"/>
+      <c r="CJ18" s="60"/>
+      <c r="CK18" s="60"/>
+      <c r="CL18" s="60"/>
+      <c r="CM18" s="60"/>
+      <c r="CN18" s="60"/>
+      <c r="CO18" s="60"/>
+      <c r="CP18" s="60"/>
+      <c r="CQ18" s="60"/>
+      <c r="CR18" s="60"/>
+      <c r="CS18" s="60"/>
+      <c r="CT18" s="60"/>
+      <c r="CU18" s="60"/>
+      <c r="CV18" s="60"/>
+      <c r="CW18" s="60"/>
+      <c r="CX18" s="60"/>
+      <c r="CY18" s="60"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="61"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="61"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="62"/>
@@ -12445,7 +12557,9 @@
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="62"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="A227" s="62"/>
+    </row>
     <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
@@ -13225,6 +13339,7 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -13312,7 +13427,7 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -13321,7 +13436,7 @@
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
@@ -13330,7 +13445,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
@@ -14974,7 +15089,7 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -14987,7 +15102,7 @@
       <c r="J4" s="67"/>
       <c r="K4" s="67"/>
       <c r="L4" s="46" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M4" s="67"/>
       <c r="N4" s="67"/>
@@ -15011,7 +15126,7 @@
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
@@ -15031,11 +15146,11 @@
       <c r="Q5" s="67"/>
       <c r="R5" s="67"/>
       <c r="S5" s="46" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T5" s="67"/>
       <c r="U5" s="46" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="V5" s="67"/>
       <c r="W5" s="67"/>
@@ -15050,7 +15165,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
@@ -15085,1332 +15200,1332 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I7" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S7" s="50" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U7" s="50" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="V7" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="W7" s="53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X7" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA7" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB7" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC7" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD7" s="73" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AE7" s="53" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D8" s="50">
         <v>1005.0</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U8" s="50" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="W8" s="53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB8" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD8" s="73" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AE8" s="53" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S9" s="50" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U9" s="50" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="W9" s="53" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB9" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD9" s="73" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AE9" s="53" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U10" s="50" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="W10" s="53" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB10" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD10" s="73" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AE10" s="53" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U11" s="50" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="W11" s="53" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB11" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD11" s="73" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AE11" s="53" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U12" s="50" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="W12" s="53" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB12" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC12" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD12" s="73" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AE12" s="53" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U13" s="50" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W13" s="53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB13" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD13" s="73" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AE13" s="53" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="G14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="U14" s="50" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="W14" s="53" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB14" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC14" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD14" s="73" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AE14" s="53" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S15" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U15" s="50" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W15" s="53" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB15" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD15" s="73" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AE15" s="53" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S16" s="50" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="T16" s="19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="U16" s="50" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="W16" s="53" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="X16" s="19" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB16" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC16" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD16" s="73" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AE16" s="53" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S17" s="50" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U17" s="50" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="W17" s="53" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA17" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB17" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC17" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD17" s="73" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AE17" s="53" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D18" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="G18" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S18" s="50" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U18" s="50" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="W18" s="53" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB18" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC18" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD18" s="73" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="AE18" s="53" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="49" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S19" s="50" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U19" s="50" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="W19" s="53" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB19" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC19" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD19" s="73" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AE19" s="53" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="49" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="S20" s="50" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="U20" s="50" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="W20" s="53" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="X20" s="19" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AB20" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC20" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AD20" s="73" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AE20" s="53" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -17886,122 +18001,122 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B7" s="74">
         <v>1000.0</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B8" s="74">
         <v>1001.0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -19428,13 +19543,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="75" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -20468,7 +20583,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -20509,19 +20624,19 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="45"/>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B5" s="45"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B6" s="48"/>
     </row>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -16,7 +16,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="B5dLvX50dmrEMMlgtjVzMi6jRNaRhjZ16qjb+VDRYAE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="oGzrVfyb61K8dBXjxTnAhOnMmw/mAdENh5XJKznNebk="/>
     </ext>
   </extLst>
 </workbook>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2507" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="528">
   <si>
     <t>Date</t>
   </si>
@@ -1207,12 +1207,24 @@
     <t>FOREIGNKEY</t>
   </si>
   <si>
+    <t>ID_NUMEQU*EQU*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
+  </si>
+  <si>
     <t>INTERNALVALUE</t>
   </si>
   <si>
     <t>GROUPE</t>
   </si>
   <si>
+    <t>CRITICITE</t>
+  </si>
+  <si>
+    <t>TYPENJEU</t>
+  </si>
+  <si>
     <t>SEQUENCE</t>
   </si>
   <si>
@@ -1303,6 +1315,9 @@
     <t>IMP.RT.MAT.001.CRE.01.........</t>
   </si>
   <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
     <t>AFF COMPTABLE 01</t>
   </si>
   <si>
@@ -1336,6 +1351,9 @@
     <t>GAR12M</t>
   </si>
   <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
     <t>RT.MAT.001.CRE.02</t>
   </si>
   <si>
@@ -1381,6 +1399,9 @@
     <t>IMP.RT.MAT.001.CRE.02.........</t>
   </si>
   <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
     <t>AFF COMPTABLE 02</t>
   </si>
   <si>
@@ -1408,6 +1429,9 @@
     <t>GAR24M</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>RT.MAT.001.CRE.03</t>
   </si>
   <si>
@@ -1453,6 +1477,9 @@
     <t>IMP.RT.MAT.001.CRE.03.........</t>
   </si>
   <si>
+    <t>CRITICITE03</t>
+  </si>
+  <si>
     <t>AFF COMPTABLE 03</t>
   </si>
   <si>
@@ -1480,6 +1507,9 @@
     <t>GAR36M</t>
   </si>
   <si>
+    <t>Pérennité</t>
+  </si>
+  <si>
     <t>RT.MAT.001.CRE.04</t>
   </si>
   <si>
@@ -1633,6 +1663,9 @@
     <t>RT.MAT.001.CRE.07</t>
   </si>
   <si>
+    <t>MAT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
     <t>ART.RT.MAT.001.CRE.07</t>
   </si>
   <si>
@@ -1669,6 +1702,9 @@
     <t>MAT0007</t>
   </si>
   <si>
+    <t>ACT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
     <t>REF CONSTRUCTEUR 07</t>
   </si>
   <si>
@@ -1795,64 +1831,28 @@
     <t>EMP.RT.MAT.001.CRE.01</t>
   </si>
   <si>
-    <t>ORG.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>SECURITE</t>
-  </si>
-  <si>
-    <t>CRITICITE01</t>
-  </si>
-  <si>
     <t>EMP.RT.MAT.001.CRE.02</t>
   </si>
   <si>
-    <t>ORG.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
-    <t>CRITICITE02</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>EMP.RT.MAT.001.CRE.03</t>
   </si>
   <si>
-    <t>ORG.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
     <t>DURABILITE</t>
   </si>
   <si>
-    <t>CRITICITE03</t>
-  </si>
-  <si>
     <t>EMP.RT.MAT.001.CRE.04</t>
   </si>
   <si>
-    <t>ORG.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
     <t>EMP.RT.MAT.001.CRE.05</t>
   </si>
   <si>
-    <t>ORG.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
     <t>EMP.RT.MAT.001.CRE.06</t>
   </si>
   <si>
-    <t>ORG.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
     <t>EMP.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.07</t>
   </si>
   <si>
     <t>NOTES DU MATRICULE</t>
@@ -2325,7 +2325,7 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -7574,8 +7574,8 @@
       <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>9</v>
+      <c r="C3" s="47" t="s">
+        <v>307</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>9</v>
@@ -7718,8 +7718,8 @@
       <c r="AX3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AY3" s="45" t="s">
-        <v>9</v>
+      <c r="AY3" s="47" t="s">
+        <v>308</v>
       </c>
       <c r="AZ3" s="45" t="s">
         <v>9</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -7933,7 +7933,7 @@
       <c r="AX4" s="45"/>
       <c r="AY4" s="45"/>
       <c r="AZ4" s="47" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="BA4" s="45"/>
       <c r="BB4" s="45"/>
@@ -7946,7 +7946,9 @@
       <c r="BI4" s="45"/>
       <c r="BJ4" s="45"/>
       <c r="BK4" s="45"/>
-      <c r="BL4" s="45"/>
+      <c r="BL4" s="47" t="s">
+        <v>311</v>
+      </c>
       <c r="BM4" s="45"/>
       <c r="BN4" s="45"/>
       <c r="BO4" s="45"/>
@@ -7984,12 +7986,16 @@
       <c r="CU4" s="45"/>
       <c r="CV4" s="45"/>
       <c r="CW4" s="45"/>
-      <c r="CX4" s="45"/>
-      <c r="CY4" s="45"/>
+      <c r="CX4" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="CY4" s="47" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>9</v>
@@ -8287,16 +8293,14 @@
       <c r="CW5" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="CX5" s="45" t="s">
-        <v>9</v>
-      </c>
+      <c r="CX5" s="47"/>
       <c r="CY5" s="45" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>9</v>
@@ -8308,7 +8312,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>9</v>
@@ -8329,19 +8333,19 @@
         <v>9</v>
       </c>
       <c r="L6" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Q6" s="45" t="s">
         <v>9</v>
@@ -8386,7 +8390,7 @@
         <v>9</v>
       </c>
       <c r="AE6" s="45" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AF6" s="45" t="s">
         <v>9</v>
@@ -8401,7 +8405,7 @@
         <v>9</v>
       </c>
       <c r="AJ6" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AK6" s="45" t="s">
         <v>9</v>
@@ -8419,7 +8423,7 @@
         <v>9</v>
       </c>
       <c r="AP6" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AQ6" s="45" t="s">
         <v>9</v>
@@ -8431,7 +8435,7 @@
         <v>9</v>
       </c>
       <c r="AT6" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AU6" s="45" t="s">
         <v>9</v>
@@ -8584,7 +8588,7 @@
         <v>9</v>
       </c>
       <c r="CS6" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="CT6" s="45" t="s">
         <v>9</v>
@@ -8607,7 +8611,7 @@
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>9</v>
@@ -8918,61 +8922,61 @@
     </row>
     <row r="8">
       <c r="A8" s="49" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C8" s="50">
         <v>1005.0</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P8" s="53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S8" s="33" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="T8" s="19">
         <v>10000.0</v>
@@ -8984,49 +8988,49 @@
         <v>45658.0</v>
       </c>
       <c r="W8" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X8" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AC8" s="19">
         <v>1000.0</v>
       </c>
       <c r="AD8" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF8" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ8" s="50" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AL8" s="19">
         <v>9999.0</v>
@@ -9041,40 +9045,40 @@
         <v>10000.0</v>
       </c>
       <c r="AP8" s="19" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AT8" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AX8" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AY8" s="19" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AZ8" s="53" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="BA8" s="19" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="BB8" s="54">
         <v>44562.0</v>
@@ -9098,22 +9102,22 @@
         <v>12.0</v>
       </c>
       <c r="BI8" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ8" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="BL8" s="19">
-        <v>1.0</v>
+        <v>342</v>
+      </c>
+      <c r="BL8" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="BM8" s="19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="BN8" s="19" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="BO8" s="19">
         <v>1000.0</v>
@@ -9125,219 +9129,219 @@
         <v>1100.0</v>
       </c>
       <c r="BR8" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT8" s="19" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="BU8" s="57" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="BV8" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW8" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX8" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY8" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ8" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB8" s="19" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="CC8" s="19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="CD8" s="19" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="CL8" s="50" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="CM8" s="50" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="CN8" s="50" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="CO8" s="50" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="CP8" s="50" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="CR8" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS8" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT8" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU8" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="CV8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CW8" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX8" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="CY8" s="19">
-        <v>1.0</v>
+        <v>323</v>
+      </c>
+      <c r="CX8" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="CY8" s="19" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P9" s="53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S9" s="33" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="T9" s="19">
         <v>20000.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V9" s="54">
         <v>45658.0</v>
       </c>
       <c r="W9" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X9" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AC9" s="19">
         <v>1010.0</v>
       </c>
       <c r="AD9" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF9" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ9" s="50" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AL9" s="19">
         <v>1999.0</v>
@@ -9352,40 +9356,40 @@
         <v>20000.0</v>
       </c>
       <c r="AP9" s="19" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AT9" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AY9" s="19" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AZ9" s="53" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="BA9" s="19" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="BB9" s="54">
         <v>44562.0</v>
@@ -9409,22 +9413,22 @@
         <v>12.0</v>
       </c>
       <c r="BI9" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ9" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="BL9" s="19">
-        <v>2.0</v>
+        <v>370</v>
+      </c>
+      <c r="BL9" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="BM9" s="19" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="BN9" s="19" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="BO9" s="19">
         <v>1010.0</v>
@@ -9436,177 +9440,177 @@
         <v>1110.0</v>
       </c>
       <c r="BR9" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="BU9" s="57" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="BV9" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW9" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX9" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY9" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ9" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB9" s="19" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="CC9" s="19" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="CD9" s="19" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="CJ9" s="19" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="CK9" s="19" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="CL9" s="50" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="CM9" s="50" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="CN9" s="50" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="CO9" s="50" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="CP9" s="50" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="CQ9" s="19" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="CR9" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS9" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT9" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU9" s="19" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="CV9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CW9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX9" s="58">
-        <v>4.0</v>
-      </c>
-      <c r="CY9" s="19">
-        <v>2.0</v>
+        <v>323</v>
+      </c>
+      <c r="CX9" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="CY9" s="19" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K10" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S10" s="33" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="T10" s="19">
         <v>30000.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V10" s="54">
         <v>45658.0</v>
       </c>
       <c r="W10" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X10" s="54">
         <v>44593.0</v>
@@ -9618,37 +9622,37 @@
         <v>44652.0</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AC10" s="19">
         <v>1020.0</v>
       </c>
       <c r="AD10" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF10" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ10" s="50" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AL10" s="19">
         <v>2999.0</v>
@@ -9663,40 +9667,40 @@
         <v>30000.0</v>
       </c>
       <c r="AP10" s="19" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AT10" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AX10" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AZ10" s="53" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="BA10" s="19" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="BB10" s="54">
         <v>44562.0</v>
@@ -9720,22 +9724,22 @@
         <v>12.0</v>
       </c>
       <c r="BI10" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ10" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="BL10" s="19">
-        <v>3.0</v>
+        <v>396</v>
+      </c>
+      <c r="BL10" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="BM10" s="19" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="BN10" s="19" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="BO10" s="19">
         <v>1020.0</v>
@@ -9747,219 +9751,219 @@
         <v>1120.0</v>
       </c>
       <c r="BR10" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT10" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="BU10" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="BU10" s="57" t="s">
-        <v>383</v>
-      </c>
       <c r="BV10" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW10" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX10" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY10" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ10" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB10" s="19" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="CC10" s="19" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="CD10" s="19" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="CI10" s="19" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="CJ10" s="19" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="CL10" s="50" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="CM10" s="50" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="CN10" s="50" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="CO10" s="50" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="CP10" s="50" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="CR10" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS10" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT10" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU10" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="CV10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CW10" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CX10" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="CY10" s="19" t="s">
         <v>397</v>
-      </c>
-      <c r="CV10" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CW10" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX10" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="CY10" s="19">
-        <v>3.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K11" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S11" s="33" t="s">
         <v>321</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="P11" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>317</v>
       </c>
       <c r="T11" s="19">
         <v>40000.0</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V11" s="54">
         <v>45658.0</v>
       </c>
       <c r="W11" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X11" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="AC11" s="19">
         <v>1030.0</v>
       </c>
       <c r="AD11" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF11" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ11" s="50" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AL11" s="19">
         <v>3999.0</v>
@@ -9974,40 +9978,40 @@
         <v>40000.0</v>
       </c>
       <c r="AP11" s="19" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AR11" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AS11" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AT11" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AU11" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AX11" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="AZ11" s="53" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="BA11" s="19" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="BB11" s="54">
         <v>44562.0</v>
@@ -10031,22 +10035,22 @@
         <v>12.0</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ11" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="BL11" s="19">
-        <v>1.0</v>
+        <v>421</v>
+      </c>
+      <c r="BL11" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="BN11" s="19" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="BO11" s="19">
         <v>1030.0</v>
@@ -10058,219 +10062,219 @@
         <v>1130.0</v>
       </c>
       <c r="BR11" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="BU11" s="57" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="BV11" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW11" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX11" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY11" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ11" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB11" s="19" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="CC11" s="19" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="CD11" s="19" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="CL11" s="50" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="CM11" s="50" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="CN11" s="50" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="CO11" s="50" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="CP11" s="50" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="CQ11" s="19" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="CR11" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS11" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT11" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU11" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="CV11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CW11" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX11" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="CY11" s="19">
-        <v>1.0</v>
+        <v>323</v>
+      </c>
+      <c r="CX11" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="CY11" s="19" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K12" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S12" s="33" t="s">
         <v>321</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="P12" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>317</v>
       </c>
       <c r="T12" s="19">
         <v>50000.0</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V12" s="54">
         <v>45658.0</v>
       </c>
       <c r="W12" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X12" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AC12" s="19">
         <v>1040.0</v>
       </c>
       <c r="AD12" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE12" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF12" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ12" s="50" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AL12" s="19">
         <v>4999.0</v>
@@ -10285,40 +10289,40 @@
         <v>50000.0</v>
       </c>
       <c r="AP12" s="19" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="AQ12" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AR12" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AT12" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AU12" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AX12" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AY12" s="19" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AZ12" s="53" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="BA12" s="19" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="BB12" s="54">
         <v>44562.0</v>
@@ -10342,22 +10346,22 @@
         <v>12.0</v>
       </c>
       <c r="BI12" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ12" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK12" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="BL12" s="19">
-        <v>2.0</v>
+        <v>437</v>
+      </c>
+      <c r="BL12" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="BM12" s="19" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="BN12" s="19" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="BO12" s="19">
         <v>1040.0</v>
@@ -10369,219 +10373,219 @@
         <v>1140.0</v>
       </c>
       <c r="BR12" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="BU12" s="57" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="BV12" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW12" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX12" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY12" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ12" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB12" s="19" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="CC12" s="19" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="CD12" s="19" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="CE12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="CI12" s="19" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="CJ12" s="19" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="CL12" s="50" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="CM12" s="50" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="CN12" s="50" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="CO12" s="50" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="CP12" s="50" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="CQ12" s="19" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="CR12" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS12" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT12" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU12" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="CV12" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CW12" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CX12" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="CY12" s="19" t="s">
         <v>397</v>
-      </c>
-      <c r="CV12" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CW12" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX12" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="CY12" s="19">
-        <v>3.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K13" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="P13" s="53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="T13" s="19">
         <v>60000.0</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V13" s="54">
         <v>45658.0</v>
       </c>
       <c r="W13" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X13" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="AC13" s="19">
         <v>1050.0</v>
       </c>
       <c r="AD13" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE13" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF13" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ13" s="50" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AL13" s="19">
         <v>5999.0</v>
@@ -10596,40 +10600,40 @@
         <v>60000.0</v>
       </c>
       <c r="AP13" s="19" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AQ13" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AR13" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AS13" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AT13" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AU13" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AV13" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW13" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AY13" s="19" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AZ13" s="53" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="BA13" s="19" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="BB13" s="54">
         <v>44562.0</v>
@@ -10653,22 +10657,22 @@
         <v>12.0</v>
       </c>
       <c r="BI13" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ13" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK13" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="BL13" s="19">
-        <v>3.0</v>
+        <v>453</v>
+      </c>
+      <c r="BL13" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="BM13" s="19" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="BN13" s="19" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="BO13" s="19">
         <v>1050.0</v>
@@ -10680,219 +10684,219 @@
         <v>1150.0</v>
       </c>
       <c r="BR13" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT13" s="19" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="BU13" s="57" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="BV13" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW13" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX13" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY13" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ13" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB13" s="19" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="CC13" s="19" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="CD13" s="19" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="CE13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH13" s="19" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="CI13" s="19" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="CJ13" s="19" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="CK13" s="19" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="CL13" s="50" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="CM13" s="50" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="CN13" s="50" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="CO13" s="50" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="CP13" s="50" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="CQ13" s="19" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="CR13" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS13" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT13" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU13" s="19" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="CV13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CW13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX13" s="58">
-        <v>4.0</v>
-      </c>
-      <c r="CY13" s="19">
-        <v>2.0</v>
+        <v>323</v>
+      </c>
+      <c r="CX13" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="CY13" s="19" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K14" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S14" s="33" t="s">
         <v>321</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>317</v>
       </c>
       <c r="T14" s="19">
         <v>70000.0</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V14" s="54">
         <v>45658.0</v>
       </c>
       <c r="W14" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X14" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="AC14" s="19">
         <v>1060.0</v>
       </c>
       <c r="AD14" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE14" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF14" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG14" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ14" s="50" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AL14" s="19">
         <v>6999.0</v>
@@ -10907,40 +10911,40 @@
         <v>70000.0</v>
       </c>
       <c r="AP14" s="19" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="AQ14" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AR14" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AT14" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AU14" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AV14" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW14" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AX14" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AY14" s="19" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="AZ14" s="53" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="BA14" s="19" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="BB14" s="54">
         <v>44562.0</v>
@@ -10964,22 +10968,22 @@
         <v>12.0</v>
       </c>
       <c r="BI14" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ14" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK14" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="BL14" s="19">
-        <v>3.0</v>
+        <v>469</v>
+      </c>
+      <c r="BL14" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="BM14" s="19" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="BN14" s="19" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="BO14" s="19">
         <v>1060.0</v>
@@ -10991,219 +10995,219 @@
         <v>1160.0</v>
       </c>
       <c r="BR14" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT14" s="19" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="BU14" s="57" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="BV14" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW14" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX14" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY14" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ14" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB14" s="19" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="CC14" s="19" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="CD14" s="19" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="CE14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH14" s="19" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="CI14" s="19" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="CJ14" s="19" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="CK14" s="19" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="CL14" s="50" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="CM14" s="50" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="CN14" s="50" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="CO14" s="50" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="CP14" s="50" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="CQ14" s="19" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="CR14" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS14" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT14" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU14" s="19" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="CV14" s="19" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="CW14" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX14" s="58">
-        <v>3.0</v>
-      </c>
-      <c r="CY14" s="19">
-        <v>1.0</v>
+        <v>323</v>
+      </c>
+      <c r="CX14" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="CY14" s="19" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K15" s="59">
         <v>1000.0</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="O15" s="50" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="P15" s="53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="T15" s="19">
         <v>80000.0</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V15" s="54">
         <v>45658.0</v>
       </c>
       <c r="W15" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X15" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="AC15" s="19">
         <v>1070.0</v>
       </c>
       <c r="AD15" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE15" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF15" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ15" s="50" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="AL15" s="19">
         <v>7999.0</v>
@@ -11218,40 +11222,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP15" s="19" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="AQ15" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AR15" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AS15" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AT15" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AU15" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AV15" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW15" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AX15" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AY15" s="19" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="AZ15" s="53" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="BA15" s="19" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="BB15" s="54">
         <v>44562.0</v>
@@ -11275,22 +11279,22 @@
         <v>12.0</v>
       </c>
       <c r="BI15" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ15" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK15" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="BL15" s="19">
-        <v>2.0</v>
+        <v>485</v>
+      </c>
+      <c r="BL15" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="BM15" s="19" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="BN15" s="19" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="BO15" s="19">
         <v>1070.0</v>
@@ -11302,219 +11306,219 @@
         <v>1170.0</v>
       </c>
       <c r="BR15" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT15" s="19" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="BU15" s="57" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="BV15" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW15" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX15" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY15" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ15" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB15" s="19" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="CC15" s="19" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="CD15" s="19" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="CE15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH15" s="19" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="CI15" s="19" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="CJ15" s="19" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="CK15" s="19" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="CL15" s="50" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="CM15" s="50" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="CN15" s="50" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="CO15" s="50" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="CP15" s="50" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="CQ15" s="19" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="CR15" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS15" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT15" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU15" s="19" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="CV15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CW15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX15" s="58">
-        <v>4.0</v>
-      </c>
-      <c r="CY15" s="19">
-        <v>2.0</v>
+        <v>323</v>
+      </c>
+      <c r="CX15" s="58" t="s">
+        <v>381</v>
+      </c>
+      <c r="CY15" s="19" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K16" s="59">
         <v>1001.0</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="P16" s="53" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="T16" s="19">
         <v>90000.0</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="V16" s="54">
         <v>45658.0</v>
       </c>
       <c r="W16" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="X16" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AB16" s="19" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="AC16" s="19">
         <v>1080.0</v>
       </c>
       <c r="AD16" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE16" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AF16" s="56" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AJ16" s="50" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="AL16" s="19">
         <v>8999.0</v>
@@ -11529,40 +11533,40 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="19" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="AQ16" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AR16" s="19" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AS16" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AT16" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AU16" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AV16" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AW16" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AX16" s="19" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AY16" s="19" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AZ16" s="53" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="BA16" s="19" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="BB16" s="54">
         <v>44562.0</v>
@@ -11586,22 +11590,22 @@
         <v>12.0</v>
       </c>
       <c r="BI16" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BJ16" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BK16" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="BL16" s="19">
-        <v>3.0</v>
+        <v>502</v>
+      </c>
+      <c r="BL16" s="19" t="s">
+        <v>397</v>
       </c>
       <c r="BM16" s="19" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="BN16" s="19" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="BO16" s="19">
         <v>1080.0</v>
@@ -11613,114 +11617,114 @@
         <v>1180.0</v>
       </c>
       <c r="BR16" s="56" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="BS16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="BT16" s="19" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="BU16" s="57" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="BV16" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BW16" s="55" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="BX16" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BY16" s="33" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="BZ16" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CB16" s="19" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="CC16" s="19" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="CD16" s="19" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="CE16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CF16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CG16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="CH16" s="19" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="CI16" s="19" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="CJ16" s="19" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="CK16" s="19" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="CL16" s="50" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="CM16" s="50" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="CN16" s="50" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="CO16" s="50" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="CP16" s="50" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="CQ16" s="19" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="CR16" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS16" s="19" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="CT16" s="19" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="CU16" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="CV16" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CW16" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="CX16" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="CY16" s="19" t="s">
         <v>397</v>
-      </c>
-      <c r="CV16" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CW16" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="CX16" s="58">
-        <v>1.0</v>
-      </c>
-      <c r="CY16" s="19">
-        <v>3.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -11826,10 +11830,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
@@ -13427,7 +13431,7 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -13436,7 +13440,7 @@
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
@@ -13445,7 +13449,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
@@ -14890,10 +14894,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -14910,7 +14914,7 @@
     <col customWidth="1" min="17" max="17" width="11.63"/>
     <col customWidth="1" min="18" max="18" width="11.13"/>
     <col customWidth="1" min="19" max="19" width="20.25"/>
-    <col customWidth="1" min="21" max="21" width="20.5"/>
+    <col customWidth="1" min="21" max="21" width="28.13"/>
     <col customWidth="1" min="22" max="22" width="17.13"/>
   </cols>
   <sheetData>
@@ -15088,7 +15092,7 @@
       <c r="AE3" s="67"/>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="47" t="s">
         <v>309</v>
       </c>
       <c r="B4" s="66"/>
@@ -15101,9 +15105,7 @@
       <c r="I4" s="67"/>
       <c r="J4" s="67"/>
       <c r="K4" s="67"/>
-      <c r="L4" s="46" t="s">
-        <v>500</v>
-      </c>
+      <c r="L4" s="46"/>
       <c r="M4" s="67"/>
       <c r="N4" s="67"/>
       <c r="O4" s="67"/>
@@ -15121,12 +15123,16 @@
       <c r="AA4" s="67"/>
       <c r="AB4" s="67"/>
       <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
+      <c r="AD4" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE4" s="47" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
@@ -15138,20 +15144,18 @@
       <c r="I5" s="67"/>
       <c r="J5" s="67"/>
       <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
+      <c r="L5" s="46" t="s">
+        <v>512</v>
+      </c>
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
       <c r="O5" s="67"/>
       <c r="P5" s="67"/>
       <c r="Q5" s="67"/>
       <c r="R5" s="67"/>
-      <c r="S5" s="46" t="s">
-        <v>311</v>
-      </c>
+      <c r="S5" s="67"/>
       <c r="T5" s="67"/>
-      <c r="U5" s="46" t="s">
-        <v>311</v>
-      </c>
+      <c r="U5" s="67"/>
       <c r="V5" s="67"/>
       <c r="W5" s="67"/>
       <c r="X5" s="67"/>
@@ -15163,1214 +15167,1158 @@
       <c r="AD5" s="67"/>
       <c r="AE5" s="67"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="68" t="s">
+    <row r="6">
+      <c r="A6" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="49" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="B7" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="I7" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S7" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U7" s="50" t="s">
-        <v>503</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="W7" s="53" t="s">
-        <v>344</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="Y7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="Z7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB7" s="19">
-        <v>1100.0</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD7" s="73" t="s">
-        <v>504</v>
-      </c>
-      <c r="AE7" s="53" t="s">
-        <v>505</v>
-      </c>
+      <c r="T6" s="67"/>
+      <c r="U6" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="68" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="50">
-        <v>1005.0</v>
+        <v>320</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>323</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="I8" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>513</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S8" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="U8" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S8" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U8" s="50" t="s">
-        <v>503</v>
-      </c>
       <c r="V8" s="19" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="W8" s="53" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB8" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD8" s="73" t="s">
-        <v>504</v>
+        <v>334</v>
+      </c>
+      <c r="AD8" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE8" s="53" t="s">
-        <v>505</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="50">
+        <v>1005.0</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S9" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="W9" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="X9" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="B9" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="I9" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>506</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S9" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U9" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="W9" s="53" t="s">
-        <v>369</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>370</v>
-      </c>
       <c r="Y9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB9" s="19">
-        <v>1110.0</v>
+        <v>1100.0</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD9" s="73" t="s">
-        <v>508</v>
+        <v>334</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE9" s="53" t="s">
-        <v>509</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U10" s="50" t="s">
-        <v>507</v>
+        <v>323</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="W10" s="53" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB10" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD10" s="73" t="s">
-        <v>508</v>
+        <v>334</v>
+      </c>
+      <c r="AD10" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="AE10" s="53" t="s">
-        <v>509</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B11" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>375</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>319</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I11" s="72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U11" s="50" t="s">
-        <v>512</v>
+        <v>323</v>
+      </c>
+      <c r="U11" s="19" t="s">
+        <v>360</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="W11" s="53" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB11" s="19">
-        <v>1120.0</v>
+        <v>1110.0</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD11" s="73" t="s">
-        <v>513</v>
+        <v>334</v>
+      </c>
+      <c r="AD11" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="AE11" s="53" t="s">
-        <v>514</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U12" s="50" t="s">
-        <v>512</v>
+        <v>323</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="W12" s="53" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB12" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC12" s="19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AD12" s="73" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AE12" s="53" t="s">
-        <v>514</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="U13" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="V13" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>399</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S13" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U13" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>412</v>
-      </c>
       <c r="W13" s="53" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB13" s="19">
-        <v>1130.0</v>
+        <v>1120.0</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AD13" s="73" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="AE13" s="53" t="s">
-        <v>505</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="U14" s="50" t="s">
-        <v>516</v>
+        <v>323</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="W14" s="53" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB14" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC14" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD14" s="73" t="s">
-        <v>504</v>
+        <v>334</v>
+      </c>
+      <c r="AD14" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE14" s="53" t="s">
-        <v>505</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S15" s="50" t="s">
         <v>416</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>321</v>
-      </c>
-      <c r="C15" s="50" t="s">
+      <c r="T15" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="I15" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S15" s="50" t="s">
-        <v>423</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U15" s="50" t="s">
-        <v>518</v>
+      <c r="U15" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="W15" s="53" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB15" s="19">
-        <v>1140.0</v>
+        <v>1130.0</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD15" s="73" t="s">
-        <v>513</v>
+        <v>334</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE15" s="53" t="s">
-        <v>514</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S16" s="50" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="T16" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="U16" s="50" t="s">
-        <v>518</v>
+        <v>323</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>430</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="W16" s="53" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="X16" s="19" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB16" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC16" s="19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AD16" s="73" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="AE16" s="53" t="s">
-        <v>514</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C17" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R17" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S17" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="R17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="S17" s="50" t="s">
-        <v>439</v>
-      </c>
       <c r="T17" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U17" s="50" t="s">
-        <v>520</v>
+        <v>417</v>
+      </c>
+      <c r="U17" s="19" t="s">
+        <v>430</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="W17" s="53" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA17" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB17" s="19">
-        <v>1150.0</v>
+        <v>1140.0</v>
       </c>
       <c r="AC17" s="19" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AD17" s="73" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="AE17" s="53" t="s">
-        <v>509</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S18" s="50" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U18" s="50" t="s">
-        <v>520</v>
+        <v>323</v>
+      </c>
+      <c r="U18" s="19" t="s">
+        <v>446</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="W18" s="53" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB18" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC18" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD18" s="73" t="s">
-        <v>508</v>
+        <v>334</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="AE18" s="53" t="s">
-        <v>509</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="49" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B19" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="C19" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>319</v>
-      </c>
       <c r="G19" s="19" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L19" s="19" t="s">
         <v>521</v>
@@ -16379,161 +16327,253 @@
         <v>521</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S19" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="U19" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="V19" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="T19" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="U19" s="50" t="s">
-        <v>522</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>459</v>
-      </c>
       <c r="W19" s="53" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB19" s="19">
-        <v>1160.0</v>
+        <v>1150.0</v>
       </c>
       <c r="AC19" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD19" s="73" t="s">
-        <v>504</v>
+        <v>334</v>
+      </c>
+      <c r="AD19" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="AE19" s="53" t="s">
-        <v>505</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="49" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="S20" s="50" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="U20" s="50" t="s">
-        <v>522</v>
+        <v>323</v>
+      </c>
+      <c r="U20" s="19" t="s">
+        <v>462</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="W20" s="53" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="X20" s="19" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AB20" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC20" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD20" s="73" t="s">
-        <v>504</v>
+        <v>334</v>
+      </c>
+      <c r="AD20" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE20" s="53" t="s">
-        <v>505</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="U21" s="50"/>
+      <c r="A21" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="L21" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="O21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="R21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="S21" s="50" t="s">
+        <v>465</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="U21" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="W21" s="53" t="s">
+        <v>402</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA21" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB21" s="19">
+        <v>1160.0</v>
+      </c>
+      <c r="AC21" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD21" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE21" s="53" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="62"/>
+      <c r="U22" s="50"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="62"/>
@@ -17141,7 +17181,9 @@
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="62"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="A225" s="62"/>
+    </row>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
@@ -17921,6 +17963,7 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -18001,28 +18044,28 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B7" s="74">
         <v>1000.0</v>
@@ -18033,7 +18076,7 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B8" s="74">
         <v>1001.0</v>
@@ -18044,10 +18087,10 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>523</v>
@@ -18055,10 +18098,10 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>523</v>
@@ -18066,10 +18109,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>523</v>
@@ -18077,10 +18120,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>523</v>
@@ -18088,10 +18131,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>523</v>
@@ -18099,10 +18142,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>523</v>
@@ -18110,10 +18153,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>523</v>
@@ -20624,19 +20667,19 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B4" s="45"/>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B5" s="45"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B6" s="48"/>
     </row>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -1351,496 +1351,496 @@
     <t>GAR12M</t>
   </si>
   <si>
+    <t>Pérennité</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>MATRICULE DEPOSE EN STOCK</t>
+  </si>
+  <si>
+    <t>EN STOCK</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A1B2</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>GROUPE02</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 02</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 02</t>
+  </si>
+  <si>
+    <t>COMPTA02</t>
+  </si>
+  <si>
+    <t>MAT0002</t>
+  </si>
+  <si>
+    <t>METH02</t>
+  </si>
+  <si>
+    <t>ETAVIS02</t>
+  </si>
+  <si>
+    <t>PASSABLE</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 02</t>
+  </si>
+  <si>
+    <t>GAR24M</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>MATRICULE DEPOSE EN REPARATION</t>
+  </si>
+  <si>
+    <t>A REPARER</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A1B3</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>GROUPE03</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 03</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>CRITICITE03</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 03</t>
+  </si>
+  <si>
+    <t>COMPTA03</t>
+  </si>
+  <si>
+    <t>MAT0003</t>
+  </si>
+  <si>
+    <t>METH03</t>
+  </si>
+  <si>
+    <t>ETAVIS03</t>
+  </si>
+  <si>
+    <t>A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 03</t>
+  </si>
+  <si>
+    <t>GAR36M</t>
+  </si>
+  <si>
     <t>Sécurité</t>
   </si>
   <si>
-    <t>RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>MATRICULE DEPOSE EN STOCK</t>
-  </si>
-  <si>
-    <t>EN STOCK</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A1B2</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>GROUPE02</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 02</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>CRITICITE02</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 02</t>
-  </si>
-  <si>
-    <t>COMPTA02</t>
-  </si>
-  <si>
-    <t>MAT0002</t>
-  </si>
-  <si>
-    <t>METH02</t>
-  </si>
-  <si>
-    <t>ETAVIS02</t>
-  </si>
-  <si>
-    <t>PASSABLE</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 02</t>
-  </si>
-  <si>
-    <t>GAR24M</t>
+    <t>RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>MATRICULE DEPOSE AUTRE</t>
+  </si>
+  <si>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>A1B4</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>REMARQUE AUTRE</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 04</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 04</t>
+  </si>
+  <si>
+    <t>MAT0004</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 04</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>MATRICULE BIEN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>A1B5</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 05</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 05</t>
+  </si>
+  <si>
+    <t>MAT0005</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 05</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>MATRICULE GERE EN STOCK</t>
+  </si>
+  <si>
+    <t>A1B6</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 06</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 06</t>
+  </si>
+  <si>
+    <t>MAT0006</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 06</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>MATRICULE MOYEN</t>
+  </si>
+  <si>
+    <t>A1B7</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 07</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 07</t>
+  </si>
+  <si>
+    <t>MAT0007</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 07</t>
+  </si>
+  <si>
+    <t>MOY.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>A1B8</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 08</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 08</t>
+  </si>
+  <si>
+    <t>MAT0008</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 08</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ART.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>CPT.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.UPD.RT.MAT.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>UPD.MAT.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>UPD.A1B9</t>
+  </si>
+  <si>
+    <t>FOU.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>UPD.REMARQUE AUTRE</t>
+  </si>
+  <si>
+    <t>CAL.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EMP.UPD.RT.MAT.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>UPD.REF FOURNISSEUR 09</t>
+  </si>
+  <si>
+    <t>IMP.UPD.RT.MAT.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>UPD.AFF COMPTABLE 09</t>
+  </si>
+  <si>
+    <t>UPD.MAT0009</t>
+  </si>
+  <si>
+    <t>UPD.A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>UPD.REF CONSTRUCTEUR 09</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>EMP_ID</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.02</t>
   </si>
   <si>
     <t>Image</t>
   </si>
   <si>
-    <t>RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>MATRICULE DEPOSE EN REPARATION</t>
-  </si>
-  <si>
-    <t>A REPARER</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>A1B3</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>GROUPE03</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 03</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>CRITICITE03</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 03</t>
-  </si>
-  <si>
-    <t>COMPTA03</t>
-  </si>
-  <si>
-    <t>MAT0003</t>
-  </si>
-  <si>
-    <t>METH03</t>
-  </si>
-  <si>
-    <t>ETAVIS03</t>
-  </si>
-  <si>
-    <t>A REMPLACER</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 03</t>
-  </si>
-  <si>
-    <t>GAR36M</t>
-  </si>
-  <si>
-    <t>Pérennité</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>MATRICULE DEPOSE AUTRE</t>
-  </si>
-  <si>
-    <t>AUTRE</t>
-  </si>
-  <si>
-    <t>A1B4</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>REMARQUE AUTRE</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 04</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 04</t>
-  </si>
-  <si>
-    <t>MAT0004</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 04</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>MATRICULE BIEN PATRIMONIAL</t>
-  </si>
-  <si>
-    <t>A1B5</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 05</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 05</t>
-  </si>
-  <si>
-    <t>MAT0005</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 05</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>MATRICULE GERE EN STOCK</t>
-  </si>
-  <si>
-    <t>A1B6</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 06</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 06</t>
-  </si>
-  <si>
-    <t>MAT0006</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 06</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>MATRICULE MOYEN</t>
-  </si>
-  <si>
-    <t>A1B7</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 07</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 07</t>
-  </si>
-  <si>
-    <t>MAT0007</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 07</t>
-  </si>
-  <si>
-    <t>MOY.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>A1B8</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 08</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 08</t>
-  </si>
-  <si>
-    <t>MAT0008</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 08</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ART.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>CPT.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ORG.UPD.RT.MAT.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>UPD.MAT.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>UPD.A1B9</t>
-  </si>
-  <si>
-    <t>FOU.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>UPD.REMARQUE AUTRE</t>
-  </si>
-  <si>
-    <t>CAL.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>EMP.UPD.RT.MAT.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>UPD.REF FOURNISSEUR 09</t>
-  </si>
-  <si>
-    <t>IMP.UPD.RT.MAT.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>UPD.AFF COMPTABLE 09</t>
-  </si>
-  <si>
-    <t>UPD.MAT0009</t>
-  </si>
-  <si>
-    <t>UPD.A REMPLACER</t>
-  </si>
-  <si>
-    <t>ACT.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>UPD.REF CONSTRUCTEUR 09</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>EMP_ID</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
     <t>EMP.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>DURABILITE</t>
   </si>
   <si>
     <t>EMP.RT.MAT.001.CRE.04</t>
@@ -2161,7 +2161,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2325,7 +2325,7 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -2364,9 +2364,6 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
@@ -6949,6 +6946,7 @@
     <col customWidth="1" min="94" max="94" width="24.0"/>
     <col customWidth="1" min="95" max="95" width="25.13"/>
     <col customWidth="1" min="100" max="100" width="20.25"/>
+    <col customWidth="1" min="102" max="102" width="10.13"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -15330,7 +15328,7 @@
         <v>334</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="AE8" s="53" t="s">
         <v>343</v>
@@ -15425,7 +15423,7 @@
         <v>334</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="AE9" s="53" t="s">
         <v>343</v>
@@ -15520,7 +15518,7 @@
         <v>334</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
       <c r="AE10" s="53" t="s">
         <v>371</v>
@@ -15555,7 +15553,7 @@
         <v>331</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>323</v>
@@ -15615,7 +15613,7 @@
         <v>334</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
       <c r="AE11" s="53" t="s">
         <v>371</v>
@@ -15656,10 +15654,10 @@
         <v>323</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N12" s="19" t="s">
         <v>323</v>
@@ -15709,8 +15707,8 @@
       <c r="AC12" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AD12" s="73" t="s">
-        <v>518</v>
+      <c r="AD12" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE12" s="53" t="s">
         <v>397</v>
@@ -15745,16 +15743,16 @@
         <v>331</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>323</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="N13" s="19" t="s">
         <v>323</v>
@@ -15804,8 +15802,8 @@
       <c r="AC13" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AD13" s="73" t="s">
-        <v>518</v>
+      <c r="AD13" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE13" s="53" t="s">
         <v>397</v>
@@ -15900,7 +15898,7 @@
         <v>334</v>
       </c>
       <c r="AD14" s="19" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="AE14" s="53" t="s">
         <v>343</v>
@@ -15935,7 +15933,7 @@
         <v>331</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>323</v>
@@ -15995,7 +15993,7 @@
         <v>334</v>
       </c>
       <c r="AD15" s="19" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="AE15" s="53" t="s">
         <v>343</v>
@@ -16089,8 +16087,8 @@
       <c r="AC16" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AD16" s="73" t="s">
-        <v>518</v>
+      <c r="AD16" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE16" s="53" t="s">
         <v>397</v>
@@ -16125,7 +16123,7 @@
         <v>331</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K17" s="19" t="s">
         <v>323</v>
@@ -16184,8 +16182,8 @@
       <c r="AC17" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AD17" s="73" t="s">
-        <v>518</v>
+      <c r="AD17" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="AE17" s="53" t="s">
         <v>397</v>
@@ -16280,7 +16278,7 @@
         <v>334</v>
       </c>
       <c r="AD18" s="19" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
       <c r="AE18" s="53" t="s">
         <v>371</v>
@@ -16315,7 +16313,7 @@
         <v>331</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K19" s="19" t="s">
         <v>323</v>
@@ -16375,7 +16373,7 @@
         <v>334</v>
       </c>
       <c r="AD19" s="19" t="s">
-        <v>381</v>
+        <v>516</v>
       </c>
       <c r="AE19" s="53" t="s">
         <v>371</v>
@@ -16470,7 +16468,7 @@
         <v>334</v>
       </c>
       <c r="AD20" s="19" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="AE20" s="53" t="s">
         <v>343</v>
@@ -16505,7 +16503,7 @@
         <v>331</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K21" s="19" t="s">
         <v>323</v>
@@ -16565,7 +16563,7 @@
         <v>334</v>
       </c>
       <c r="AD21" s="19" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="AE21" s="53" t="s">
         <v>343</v>
@@ -18067,7 +18065,7 @@
       <c r="A7" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="73">
         <v>1000.0</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -18078,7 +18076,7 @@
       <c r="A8" s="49" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="73">
         <v>1001.0</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -19585,13 +19583,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="74" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="75" t="s">
         <v>525</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="75" t="s">
         <v>526</v>
       </c>
     </row>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -16,7 +16,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="oGzrVfyb61K8dBXjxTnAhOnMmw/mAdENh5XJKznNebk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="0V6X1EgEQ6CoLEoM+bEq6XrHH6AjOR3rhbna4lTXHjg="/>
     </ext>
   </extLst>
 </workbook>
@@ -82,20 +82,26 @@
 ------
 ID#AAAAwu1HAQY
 Jean-Marc LAFARGE    (2023-05-11 14:51:47)
-non mais je fais le mapping ;-)</t>
+non mais je fais le mapping ;-)
+------
+ID#AAAAzzovRSU
+Jean-Marc LAFARGE    (2023-06-27 14:34:02)
+@nicolas.huc@apave.com 
+J'ai mis des valeurs dans les colonnes, merci de vérifier
+_Réattribué à Nicolas HUC_</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgtvF+v4tNhFQeukhHG5ZC5kQh1WA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miWEVJAuvY2hN0XkYPUQxTucQvm1g=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="549">
   <si>
     <t>Date</t>
   </si>
@@ -421,238 +427,243 @@
     <t>Type de matricule</t>
   </si>
   <si>
+    <t>0 : Non suivi en Stock
+1 : Suivi en Stock
+2 : Moyen</t>
+  </si>
+  <si>
+    <t>ID_CODCONFIG</t>
+  </si>
+  <si>
+    <t>Identifiant de la configuration</t>
+  </si>
+  <si>
+    <t>ID_CODFAM</t>
+  </si>
+  <si>
+    <t>Identifiant de la famille du modèle d'équipement</t>
+  </si>
+  <si>
+    <t>ID_NUMMOD</t>
+  </si>
+  <si>
+    <t>Identifiant technique de la structure du modèle d'équipement</t>
+  </si>
+  <si>
+    <t>ID_CODFOU</t>
+  </si>
+  <si>
+    <t>Identifiant du fournisseur</t>
+  </si>
+  <si>
+    <t>ST_AUT</t>
+  </si>
+  <si>
+    <t>Remarque lors de la dépose</t>
+  </si>
+  <si>
+    <t>NU_PRIACT</t>
+  </si>
+  <si>
+    <t>Prix d'achat actuel</t>
+  </si>
+  <si>
+    <t>DT_FINVIE</t>
+  </si>
+  <si>
+    <t>Date de fin de vie</t>
+  </si>
+  <si>
+    <t>NU_FINUSA</t>
+  </si>
+  <si>
+    <t>Valeur de l'usage de fin de vie</t>
+  </si>
+  <si>
+    <t>NU_USAGAR</t>
+  </si>
+  <si>
+    <t>Valeur de fin d'usage de la garantie</t>
+  </si>
+  <si>
+    <t>ID_CODCAL</t>
+  </si>
+  <si>
+    <t>Identifiant du calendrier</t>
+  </si>
+  <si>
+    <t>ST_TEC</t>
+  </si>
+  <si>
+    <t>Bien technique</t>
+  </si>
+  <si>
+    <t>ST_PAT</t>
+  </si>
+  <si>
+    <t>Bien patrimonial</t>
+  </si>
+  <si>
+    <t>ST_INS</t>
+  </si>
+  <si>
+    <t>Point d'inspection</t>
+  </si>
+  <si>
+    <t>ST_PRE</t>
+  </si>
+  <si>
+    <t>Préventif obligatoire</t>
+  </si>
+  <si>
+    <t>ST_CONTRABT</t>
+  </si>
+  <si>
+    <t>Placer le contrat de service par défaut sur le BT</t>
+  </si>
+  <si>
+    <t>ST_CONTRA</t>
+  </si>
+  <si>
+    <t>Contrat de service</t>
+  </si>
+  <si>
+    <t>ST_SOUINV</t>
+  </si>
+  <si>
+    <t>Matricule est soumis à inventaire</t>
+  </si>
+  <si>
+    <t>ST_SOUASS</t>
+  </si>
+  <si>
+    <t>Matricule est soumis à assurance</t>
+  </si>
+  <si>
+    <t>ID_NUMEMP</t>
+  </si>
+  <si>
+    <t>Identifiant technique de l'emplacement géographique</t>
+  </si>
+  <si>
+    <t>ID_NUMGRO</t>
+  </si>
+  <si>
+    <t>Identifiant technique du groupe</t>
+  </si>
+  <si>
+    <t>ST_REFFOU</t>
+  </si>
+  <si>
+    <t>Référence chez le fournisseur</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>DT_ACH</t>
+  </si>
+  <si>
+    <t>Date d'achat</t>
+  </si>
+  <si>
+    <t>DT_INV</t>
+  </si>
+  <si>
+    <t>Date et heure du dernier inventaire</t>
+  </si>
+  <si>
+    <t>DT_INVPRO</t>
+  </si>
+  <si>
+    <t>Date du prochain inventaire</t>
+  </si>
+  <si>
+    <t>DT_ASS</t>
+  </si>
+  <si>
+    <t>Date et heure de la dernière estimation</t>
+  </si>
+  <si>
+    <t>DT_ASSPRO</t>
+  </si>
+  <si>
+    <t>Date de la prochaine estimation</t>
+  </si>
+  <si>
+    <t>NU_FREINV</t>
+  </si>
+  <si>
+    <t>Fréquence de l'inventaire en nombre de mois</t>
+  </si>
+  <si>
+    <t>NU_FREASS</t>
+  </si>
+  <si>
+    <t>Fréquence d'estimation en nombre de mois</t>
+  </si>
+  <si>
+    <t>ID_CODUTIINV</t>
+  </si>
+  <si>
+    <t>Utilisateur à l'origine du dernier inventaire</t>
+  </si>
+  <si>
+    <t>ID_CODUTIASS</t>
+  </si>
+  <si>
+    <t>Utilisateur à l'origine de la dernière estimation</t>
+  </si>
+  <si>
+    <t>ID_CODIMP</t>
+  </si>
+  <si>
+    <t>Identifiant de l'imputation analytique</t>
+  </si>
+  <si>
+    <t>ID_NUMCRI</t>
+  </si>
+  <si>
+    <t>Identifiant du niveau de criticité</t>
+  </si>
+  <si>
+    <t>ST_AFFCOM</t>
+  </si>
+  <si>
+    <t>Affectation comptable</t>
+  </si>
+  <si>
+    <t>ID_REFCOM</t>
+  </si>
+  <si>
+    <t>Identifiant du code de comptabilité générale</t>
+  </si>
+  <si>
+    <t>NU_VALINI</t>
+  </si>
+  <si>
+    <t>Valeur initiale du bien</t>
+  </si>
+  <si>
+    <t>NU_VALINV</t>
+  </si>
+  <si>
+    <t>Valeur des investissements</t>
+  </si>
+  <si>
+    <t>NU_VALASS</t>
+  </si>
+  <si>
+    <t>Valeur actuelle estimée</t>
+  </si>
+  <si>
+    <t>NU_TYPPRO</t>
+  </si>
+  <si>
+    <t>Type de bien patrimonial</t>
+  </si>
+  <si>
     <t>Question MOE: Quelles sont les valeurs attendues ?</t>
-  </si>
-  <si>
-    <t>ID_CODCONFIG</t>
-  </si>
-  <si>
-    <t>Identifiant de la configuration</t>
-  </si>
-  <si>
-    <t>ID_CODFAM</t>
-  </si>
-  <si>
-    <t>Identifiant de la famille du modèle d'équipement</t>
-  </si>
-  <si>
-    <t>ID_NUMMOD</t>
-  </si>
-  <si>
-    <t>Identifiant technique de la structure du modèle d'équipement</t>
-  </si>
-  <si>
-    <t>ID_CODFOU</t>
-  </si>
-  <si>
-    <t>Identifiant du fournisseur</t>
-  </si>
-  <si>
-    <t>ST_AUT</t>
-  </si>
-  <si>
-    <t>Remarque lors de la dépose</t>
-  </si>
-  <si>
-    <t>NU_PRIACT</t>
-  </si>
-  <si>
-    <t>Prix d'achat actuel</t>
-  </si>
-  <si>
-    <t>DT_FINVIE</t>
-  </si>
-  <si>
-    <t>Date de fin de vie</t>
-  </si>
-  <si>
-    <t>NU_FINUSA</t>
-  </si>
-  <si>
-    <t>Valeur de l'usage de fin de vie</t>
-  </si>
-  <si>
-    <t>NU_USAGAR</t>
-  </si>
-  <si>
-    <t>Valeur de fin d'usage de la garantie</t>
-  </si>
-  <si>
-    <t>ID_CODCAL</t>
-  </si>
-  <si>
-    <t>Identifiant du calendrier</t>
-  </si>
-  <si>
-    <t>ST_TEC</t>
-  </si>
-  <si>
-    <t>Bien technique</t>
-  </si>
-  <si>
-    <t>ST_PAT</t>
-  </si>
-  <si>
-    <t>Bien patrimonial</t>
-  </si>
-  <si>
-    <t>ST_INS</t>
-  </si>
-  <si>
-    <t>Point d'inspection</t>
-  </si>
-  <si>
-    <t>ST_PRE</t>
-  </si>
-  <si>
-    <t>Préventif obligatoire</t>
-  </si>
-  <si>
-    <t>ST_CONTRABT</t>
-  </si>
-  <si>
-    <t>Placer le contrat de service par défaut sur le BT</t>
-  </si>
-  <si>
-    <t>ST_CONTRA</t>
-  </si>
-  <si>
-    <t>Contrat de service</t>
-  </si>
-  <si>
-    <t>ST_SOUINV</t>
-  </si>
-  <si>
-    <t>Matricule est soumis à inventaire</t>
-  </si>
-  <si>
-    <t>ST_SOUASS</t>
-  </si>
-  <si>
-    <t>Matricule est soumis à assurance</t>
-  </si>
-  <si>
-    <t>ID_NUMEMP</t>
-  </si>
-  <si>
-    <t>Identifiant technique de l'emplacement géographique</t>
-  </si>
-  <si>
-    <t>ID_NUMGRO</t>
-  </si>
-  <si>
-    <t>Identifiant technique du groupe</t>
-  </si>
-  <si>
-    <t>ST_REFFOU</t>
-  </si>
-  <si>
-    <t>Référence chez le fournisseur</t>
-  </si>
-  <si>
-    <t>varchar(40)</t>
-  </si>
-  <si>
-    <t>DT_ACH</t>
-  </si>
-  <si>
-    <t>Date d'achat</t>
-  </si>
-  <si>
-    <t>DT_INV</t>
-  </si>
-  <si>
-    <t>Date et heure du dernier inventaire</t>
-  </si>
-  <si>
-    <t>DT_INVPRO</t>
-  </si>
-  <si>
-    <t>Date du prochain inventaire</t>
-  </si>
-  <si>
-    <t>DT_ASS</t>
-  </si>
-  <si>
-    <t>Date et heure de la dernière estimation</t>
-  </si>
-  <si>
-    <t>DT_ASSPRO</t>
-  </si>
-  <si>
-    <t>Date de la prochaine estimation</t>
-  </si>
-  <si>
-    <t>NU_FREINV</t>
-  </si>
-  <si>
-    <t>Fréquence de l'inventaire en nombre de mois</t>
-  </si>
-  <si>
-    <t>NU_FREASS</t>
-  </si>
-  <si>
-    <t>Fréquence d'estimation en nombre de mois</t>
-  </si>
-  <si>
-    <t>ID_CODUTIINV</t>
-  </si>
-  <si>
-    <t>Utilisateur à l'origine du dernier inventaire</t>
-  </si>
-  <si>
-    <t>ID_CODUTIASS</t>
-  </si>
-  <si>
-    <t>Utilisateur à l'origine de la dernière estimation</t>
-  </si>
-  <si>
-    <t>ID_CODIMP</t>
-  </si>
-  <si>
-    <t>Identifiant de l'imputation analytique</t>
-  </si>
-  <si>
-    <t>ID_NUMCRI</t>
-  </si>
-  <si>
-    <t>Identifiant du niveau de criticité</t>
-  </si>
-  <si>
-    <t>ST_AFFCOM</t>
-  </si>
-  <si>
-    <t>Affectation comptable</t>
-  </si>
-  <si>
-    <t>ID_REFCOM</t>
-  </si>
-  <si>
-    <t>Identifiant du code de comptabilité générale</t>
-  </si>
-  <si>
-    <t>NU_VALINI</t>
-  </si>
-  <si>
-    <t>Valeur initiale du bien</t>
-  </si>
-  <si>
-    <t>NU_VALINV</t>
-  </si>
-  <si>
-    <t>Valeur des investissements</t>
-  </si>
-  <si>
-    <t>NU_VALASS</t>
-  </si>
-  <si>
-    <t>Valeur actuelle estimée</t>
-  </si>
-  <si>
-    <t>NU_TYPPRO</t>
-  </si>
-  <si>
-    <t>Type de bien patrimonial</t>
   </si>
   <si>
     <t>ID_CODMATPRI</t>
@@ -1216,6 +1227,9 @@
     <t>INTERNALVALUE</t>
   </si>
   <si>
+    <t>TYPEMAT</t>
+  </si>
+  <si>
     <t>GROUPE</t>
   </si>
   <si>
@@ -1291,7 +1305,7 @@
     <t>TNR</t>
   </si>
   <si>
-    <t>ATTENTE réponse MOE</t>
+    <t>Non suivi en Stock</t>
   </si>
   <si>
     <t>FOU.RT.MAT.001.CRE.01</t>
@@ -1381,6 +1395,9 @@
     <t>A1B2</t>
   </si>
   <si>
+    <t>Suivi en Stock</t>
+  </si>
+  <si>
     <t>FOU.RT.MAT.001.CRE.02</t>
   </si>
   <si>
@@ -1679,6 +1696,9 @@
   </si>
   <si>
     <t>A1B7</t>
+  </si>
+  <si>
+    <t>Moyen</t>
   </si>
   <si>
     <t>FOU.RT.MAT.001.CRE.07</t>
@@ -1893,6 +1913,57 @@
     </r>
   </si>
   <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>tab_Matricule</t>
+  </si>
+  <si>
+    <t>$TAB$mat</t>
+  </si>
+  <si>
+    <t>tab_MatriculeSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$mat</t>
+  </si>
+  <si>
+    <t>tab_Fiche</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[text()='Fiche']</t>
+  </si>
+  <si>
+    <t>tab_FicheSelected</t>
+  </si>
+  <si>
+    <t>//li[@class ='nav-item']/a[text()='Fiche' and starts-with(@class,'nav-link active')]</t>
+  </si>
+  <si>
+    <t>tab_Notes</t>
+  </si>
+  <si>
+    <t>$TAB$textmat</t>
+  </si>
+  <si>
+    <t>tab_NotesSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$textmat</t>
+  </si>
+  <si>
+    <t>tab_Etat</t>
+  </si>
+  <si>
+    <t>$TAB$state</t>
+  </si>
+  <si>
+    <t>tab_EtatSelected</t>
+  </si>
+  <si>
+    <t>$TABSELECTED$state</t>
+  </si>
+  <si>
     <t>Champ</t>
   </si>
 </sst>
@@ -1905,7 +1976,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2011,6 +2082,11 @@
       <b/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2161,7 +2237,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2370,6 +2446,10 @@
     </xf>
     <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="15" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -4853,7 +4933,7 @@
         <v>31</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="E72" s="27" t="s">
         <v>28</v>
@@ -4861,10 +4941,10 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>27</v>
@@ -4878,10 +4958,10 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>27</v>
@@ -4892,10 +4972,10 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>27</v>
@@ -4909,10 +4989,10 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>77</v>
@@ -4926,10 +5006,10 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>77</v>
@@ -4943,10 +5023,10 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>66</v>
@@ -4963,10 +5043,10 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>66</v>
@@ -4983,10 +5063,10 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>77</v>
@@ -4997,10 +5077,10 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>77</v>
@@ -5011,10 +5091,10 @@
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>27</v>
@@ -5028,10 +5108,10 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>27</v>
@@ -5045,10 +5125,10 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>66</v>
@@ -5059,10 +5139,10 @@
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>27</v>
@@ -5076,10 +5156,10 @@
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>27</v>
@@ -5093,10 +5173,10 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>66</v>
@@ -5107,10 +5187,10 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>58</v>
@@ -5124,10 +5204,10 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>58</v>
@@ -5141,10 +5221,10 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>58</v>
@@ -5158,10 +5238,10 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>58</v>
@@ -5175,10 +5255,10 @@
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>66</v>
@@ -5192,10 +5272,10 @@
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>66</v>
@@ -5209,10 +5289,10 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>66</v>
@@ -5226,10 +5306,10 @@
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>66</v>
@@ -5243,10 +5323,10 @@
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>27</v>
@@ -5260,10 +5340,10 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B97" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>144</v>
@@ -5274,10 +5354,10 @@
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>77</v>
@@ -5288,10 +5368,10 @@
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C99" s="18" t="s">
         <v>27</v>
@@ -5308,10 +5388,10 @@
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>31</v>
@@ -5322,10 +5402,10 @@
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>27</v>
@@ -5339,10 +5419,10 @@
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>27</v>
@@ -5356,10 +5436,10 @@
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>31</v>
@@ -5370,10 +5450,10 @@
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>31</v>
@@ -5387,10 +5467,10 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>31</v>
@@ -5404,10 +5484,10 @@
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="34" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C106" s="36"/>
       <c r="D106" s="34">
@@ -5434,10 +5514,10 @@
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C108" s="39" t="s">
         <v>27</v>
@@ -5452,16 +5532,16 @@
     </row>
     <row r="109">
       <c r="A109" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C109" s="39" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D109" s="41" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E109" s="27" t="s">
         <v>28</v>
@@ -5470,13 +5550,13 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="38" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D110" s="40"/>
       <c r="E110" s="27" t="s">
@@ -5486,10 +5566,10 @@
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="34">
@@ -5500,10 +5580,10 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B112" s="38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C112" s="39" t="s">
         <v>31</v>
@@ -5521,7 +5601,7 @@
         <v>25</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>27</v>
@@ -5550,10 +5630,10 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C115" s="38" t="s">
         <v>31</v>
@@ -5569,7 +5649,7 @@
         <v>32</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C116" s="38" t="s">
         <v>27</v>
@@ -5587,7 +5667,7 @@
         <v>42</v>
       </c>
       <c r="B117" s="38" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C117" s="38" t="s">
         <v>27</v>
@@ -5603,7 +5683,7 @@
         <v>64</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C118" s="38" t="s">
         <v>66</v>
@@ -5616,10 +5696,10 @@
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="38" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B119" s="38" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C119" s="38" t="s">
         <v>77</v>
@@ -5634,16 +5714,16 @@
     </row>
     <row r="120">
       <c r="A120" s="38" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B120" s="38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D120" s="42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E120" s="27" t="s">
         <v>28</v>
@@ -5655,7 +5735,7 @@
         <v>67</v>
       </c>
       <c r="B121" s="38" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C121" s="38" t="s">
         <v>31</v>
@@ -5686,10 +5766,10 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="38" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B123" s="38" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C123" s="38" t="s">
         <v>61</v>
@@ -5705,7 +5785,7 @@
         <v>102</v>
       </c>
       <c r="B124" s="38" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C124" s="38" t="s">
         <v>27</v>
@@ -5718,10 +5798,10 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="38" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>31</v>
@@ -5734,13 +5814,13 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D126" s="40"/>
       <c r="E126" s="27" t="s">
@@ -5750,10 +5830,10 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C127" s="38" t="s">
         <v>27</v>
@@ -5766,10 +5846,10 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="38" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C128" s="38" t="s">
         <v>31</v>
@@ -5846,10 +5926,10 @@
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B133" s="38" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C133" s="38" t="s">
         <v>27</v>
@@ -5862,10 +5942,10 @@
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="38" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B134" s="38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C134" s="38" t="s">
         <v>66</v>
@@ -5878,10 +5958,10 @@
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B135" s="38" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C135" s="38" t="s">
         <v>27</v>
@@ -5894,10 +5974,10 @@
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B136" s="38" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C136" s="38" t="s">
         <v>27</v>
@@ -5910,10 +5990,10 @@
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C137" s="38" t="s">
         <v>66</v>
@@ -5929,7 +6009,7 @@
         <v>175</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C138" s="38" t="s">
         <v>31</v>
@@ -5945,7 +6025,7 @@
         <v>95</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C139" s="38" t="s">
         <v>66</v>
@@ -5960,10 +6040,10 @@
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C140" s="38" t="s">
         <v>31</v>
@@ -5976,10 +6056,10 @@
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B141" s="38" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C141" s="38" t="s">
         <v>31</v>
@@ -5992,10 +6072,10 @@
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C142" s="36"/>
       <c r="D142" s="34">
@@ -6009,7 +6089,7 @@
         <v>50</v>
       </c>
       <c r="B143" s="38" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C143" s="39" t="s">
         <v>31</v>
@@ -6024,13 +6104,13 @@
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B144" s="38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C144" s="38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D144" s="40"/>
       <c r="E144" s="27" t="s">
@@ -6926,6 +7006,7 @@
     <col customWidth="1" min="15" max="15" width="31.75"/>
     <col customWidth="1" min="23" max="23" width="13.5"/>
     <col customWidth="1" min="24" max="24" width="9.38"/>
+    <col customWidth="1" min="32" max="32" width="23.25"/>
     <col customWidth="1" min="36" max="36" width="21.5"/>
     <col customWidth="1" min="37" max="37" width="16.75"/>
     <col customWidth="1" min="42" max="42" width="20.63"/>
@@ -7161,103 +7242,103 @@
         <v>177</v>
       </c>
       <c r="BS1" s="44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="BT1" s="44" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BU1" s="44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="BV1" s="44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="BW1" s="44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="BX1" s="44" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="BY1" s="44" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BZ1" s="44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CA1" s="44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="CB1" s="44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="CC1" s="44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="CD1" s="44" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CE1" s="44" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF1" s="44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="CG1" s="44" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CH1" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="CI1" s="44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CJ1" s="44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CK1" s="44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="CL1" s="44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CM1" s="44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="CN1" s="44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CO1" s="44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CP1" s="44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="CQ1" s="44" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CR1" s="44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CS1" s="44" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="CT1" s="44" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CU1" s="44" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="CV1" s="44" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="CW1" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CX1" s="44" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="CY1" s="44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
@@ -7272,7 +7353,7 @@
         <v>35</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>9</v>
@@ -7289,13 +7370,13 @@
       </c>
       <c r="K2" s="45"/>
       <c r="L2" s="45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M2" s="45" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O2" s="45" t="s">
         <v>9</v>
@@ -7361,182 +7442,182 @@
         <v>9</v>
       </c>
       <c r="AJ2" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AN2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP2" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="AQ2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AU2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY2" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BC2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BD2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BF2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BG2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BH2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BI2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BJ2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BK2" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="BL2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BM2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BN2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BO2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BR2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BS2" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="BT2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BU2" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="BV2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BW2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BX2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BY2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BZ2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CA2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CC2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CE2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CF2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CG2" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH2" s="45" t="s">
         <v>299</v>
       </c>
-      <c r="AK2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AO2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AP2" s="45" t="s">
+      <c r="CI2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="CJ2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK2" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="CL2" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="CM2" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="CN2" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="CO2" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="CP2" s="47" t="s">
         <v>300</v>
       </c>
-      <c r="AQ2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY2" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="AZ2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BC2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BG2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BH2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BI2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BJ2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BK2" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="BL2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BM2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BN2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BO2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BP2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BQ2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BR2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BS2" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="BT2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BU2" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="BV2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BW2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BX2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BY2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BZ2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CA2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CB2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CC2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CD2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CE2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CF2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CG2" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH2" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="CI2" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="CJ2" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="CK2" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="CL2" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="CM2" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="CN2" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="CO2" s="47" t="s">
-        <v>304</v>
-      </c>
-      <c r="CP2" s="47" t="s">
-        <v>299</v>
-      </c>
       <c r="CQ2" s="45" t="s">
         <v>9</v>
       </c>
@@ -7553,7 +7634,7 @@
         <v>9</v>
       </c>
       <c r="CV2" s="47" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CW2" s="45" t="s">
         <v>9</v>
@@ -7567,13 +7648,13 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D3" s="45" t="s">
         <v>9</v>
@@ -7717,7 +7798,7 @@
         <v>9</v>
       </c>
       <c r="AY3" s="47" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AZ3" s="45" t="s">
         <v>9</v>
@@ -7878,7 +7959,7 @@
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -7910,7 +7991,9 @@
       <c r="AC4" s="45"/>
       <c r="AD4" s="45"/>
       <c r="AE4" s="45"/>
-      <c r="AF4" s="45"/>
+      <c r="AF4" s="47" t="s">
+        <v>311</v>
+      </c>
       <c r="AG4" s="45"/>
       <c r="AH4" s="45"/>
       <c r="AI4" s="45"/>
@@ -7931,7 +8014,7 @@
       <c r="AX4" s="45"/>
       <c r="AY4" s="45"/>
       <c r="AZ4" s="47" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="BA4" s="45"/>
       <c r="BB4" s="45"/>
@@ -7945,7 +8028,7 @@
       <c r="BJ4" s="45"/>
       <c r="BK4" s="45"/>
       <c r="BL4" s="47" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="BM4" s="45"/>
       <c r="BN4" s="45"/>
@@ -7985,15 +8068,15 @@
       <c r="CV4" s="45"/>
       <c r="CW4" s="45"/>
       <c r="CX4" s="47" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="CY4" s="47" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>9</v>
@@ -8298,7 +8381,7 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>9</v>
@@ -8310,7 +8393,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F6" s="45" t="s">
         <v>9</v>
@@ -8331,19 +8414,19 @@
         <v>9</v>
       </c>
       <c r="L6" s="45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="N6" s="45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O6" s="45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P6" s="45" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q6" s="45" t="s">
         <v>9</v>
@@ -8388,23 +8471,23 @@
         <v>9</v>
       </c>
       <c r="AE6" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF6" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ6" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="AF6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ6" s="45" t="s">
-        <v>315</v>
-      </c>
       <c r="AK6" s="45" t="s">
         <v>9</v>
       </c>
@@ -8421,7 +8504,7 @@
         <v>9</v>
       </c>
       <c r="AP6" s="45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AQ6" s="45" t="s">
         <v>9</v>
@@ -8433,7 +8516,7 @@
         <v>9</v>
       </c>
       <c r="AT6" s="45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AU6" s="45" t="s">
         <v>9</v>
@@ -8586,7 +8669,7 @@
         <v>9</v>
       </c>
       <c r="CS6" s="45" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="CT6" s="45" t="s">
         <v>9</v>
@@ -8609,7 +8692,7 @@
     </row>
     <row r="7">
       <c r="A7" s="48" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>9</v>
@@ -8920,61 +9003,61 @@
     </row>
     <row r="8">
       <c r="A8" s="49" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C8" s="50">
         <v>1005.0</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P8" s="53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S8" s="33" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T8" s="19">
         <v>10000.0</v>
@@ -8986,49 +9069,49 @@
         <v>45658.0</v>
       </c>
       <c r="W8" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X8" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AC8" s="19">
         <v>1000.0</v>
       </c>
       <c r="AD8" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE8" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE8" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF8" s="56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ8" s="50" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL8" s="19">
         <v>9999.0</v>
@@ -9043,40 +9126,40 @@
         <v>10000.0</v>
       </c>
       <c r="AP8" s="19" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AT8" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AX8" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AY8" s="19" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AZ8" s="53" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="BA8" s="19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="BB8" s="54">
         <v>44562.0</v>
@@ -9100,22 +9183,22 @@
         <v>12.0</v>
       </c>
       <c r="BI8" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ8" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="BL8" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="BM8" s="19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="BN8" s="19" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="BO8" s="19">
         <v>1000.0</v>
@@ -9127,219 +9210,219 @@
         <v>1100.0</v>
       </c>
       <c r="BR8" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT8" s="19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="BU8" s="57" t="s">
+        <v>338</v>
+      </c>
+      <c r="BV8" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="BW8" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="BX8" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="BV8" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="BW8" s="55" t="s">
-        <v>331</v>
-      </c>
-      <c r="BX8" s="33" t="s">
-        <v>334</v>
-      </c>
       <c r="BY8" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ8" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB8" s="19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="CC8" s="19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="CD8" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="CL8" s="50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CM8" s="50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CN8" s="50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CO8" s="50" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="CP8" s="50" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="CR8" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS8" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT8" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU8" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="CV8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CW8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX8" s="58" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="CY8" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="E9" s="51" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="P9" s="53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S9" s="33" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="T9" s="19">
         <v>20000.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V9" s="54">
         <v>45658.0</v>
       </c>
       <c r="W9" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X9" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AC9" s="19">
         <v>1010.0</v>
       </c>
       <c r="AD9" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE9" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE9" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF9" s="56" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ9" s="50" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL9" s="19">
         <v>1999.0</v>
@@ -9354,40 +9437,40 @@
         <v>20000.0</v>
       </c>
       <c r="AP9" s="19" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AT9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AY9" s="19" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AZ9" s="53" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="BA9" s="19" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="BB9" s="54">
         <v>44562.0</v>
@@ -9411,22 +9494,22 @@
         <v>12.0</v>
       </c>
       <c r="BI9" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ9" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="BL9" s="19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="BM9" s="19" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="BN9" s="19" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="BO9" s="19">
         <v>1010.0</v>
@@ -9438,177 +9521,177 @@
         <v>1110.0</v>
       </c>
       <c r="BR9" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="BU9" s="57" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="BV9" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BW9" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BX9" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BY9" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ9" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB9" s="19" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="CC9" s="19" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="CD9" s="19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="CJ9" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="CK9" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="CL9" s="50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="CM9" s="50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="CN9" s="50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="CO9" s="50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="CP9" s="50" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="CQ9" s="19" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="CR9" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS9" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT9" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU9" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CV9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CW9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX9" s="58" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="CY9" s="19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="E10" s="51" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K10" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P10" s="53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S10" s="33" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="T10" s="19">
         <v>30000.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V10" s="54">
         <v>45658.0</v>
       </c>
       <c r="W10" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X10" s="54">
         <v>44593.0</v>
@@ -9620,37 +9703,37 @@
         <v>44652.0</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AC10" s="19">
         <v>1020.0</v>
       </c>
       <c r="AD10" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE10" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE10" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF10" s="56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ10" s="50" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL10" s="19">
         <v>2999.0</v>
@@ -9665,40 +9748,40 @@
         <v>30000.0</v>
       </c>
       <c r="AP10" s="19" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AT10" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AX10" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AZ10" s="53" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="BA10" s="19" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="BB10" s="54">
         <v>44562.0</v>
@@ -9722,22 +9805,22 @@
         <v>12.0</v>
       </c>
       <c r="BI10" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ10" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="BL10" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="BM10" s="19" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="BN10" s="19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="BO10" s="19">
         <v>1020.0</v>
@@ -9749,219 +9832,219 @@
         <v>1120.0</v>
       </c>
       <c r="BR10" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="BU10" s="57" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="BV10" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BW10" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BX10" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BY10" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ10" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB10" s="19" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="CC10" s="19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="CD10" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="CI10" s="19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="CJ10" s="19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="CL10" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="CM10" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="CN10" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="CO10" s="50" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="CP10" s="50" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="CR10" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS10" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT10" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU10" s="19" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="CV10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CW10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX10" s="58" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="CY10" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="E11" s="51" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="P11" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="S11" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="P11" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="T11" s="19">
         <v>40000.0</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V11" s="54">
         <v>45658.0</v>
       </c>
       <c r="W11" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X11" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AC11" s="19">
         <v>1030.0</v>
       </c>
       <c r="AD11" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE11" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE11" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF11" s="56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ11" s="50" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AL11" s="19">
         <v>3999.0</v>
@@ -9976,40 +10059,40 @@
         <v>40000.0</v>
       </c>
       <c r="AP11" s="19" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AR11" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS11" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AT11" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AU11" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AX11" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AZ11" s="53" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="BA11" s="19" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="BB11" s="54">
         <v>44562.0</v>
@@ -10033,22 +10116,22 @@
         <v>12.0</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ11" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="BL11" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="BN11" s="19" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="BO11" s="19">
         <v>1030.0</v>
@@ -10060,219 +10143,219 @@
         <v>1130.0</v>
       </c>
       <c r="BR11" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="BU11" s="57" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="BV11" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BW11" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BX11" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BY11" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ11" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB11" s="19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="CC11" s="19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="CD11" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="CL11" s="50" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="CM11" s="50" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="CN11" s="50" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="CO11" s="50" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="CP11" s="50" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="CQ11" s="19" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="CR11" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS11" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT11" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU11" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="CV11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CW11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX11" s="58" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="CY11" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="E12" s="51" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="P12" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="S12" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="K12" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="P12" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="T12" s="19">
         <v>50000.0</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V12" s="54">
         <v>45658.0</v>
       </c>
       <c r="W12" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X12" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AC12" s="19">
         <v>1040.0</v>
       </c>
       <c r="AD12" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE12" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE12" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF12" s="56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ12" s="50" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AL12" s="19">
         <v>4999.0</v>
@@ -10287,40 +10370,40 @@
         <v>50000.0</v>
       </c>
       <c r="AP12" s="19" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AQ12" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AR12" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AT12" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AU12" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AX12" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AY12" s="19" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AZ12" s="53" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="BA12" s="19" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="BB12" s="54">
         <v>44562.0</v>
@@ -10344,22 +10427,22 @@
         <v>12.0</v>
       </c>
       <c r="BI12" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ12" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK12" s="19" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="BL12" s="19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="BM12" s="19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="BN12" s="19" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="BO12" s="19">
         <v>1040.0</v>
@@ -10371,219 +10454,219 @@
         <v>1140.0</v>
       </c>
       <c r="BR12" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="BU12" s="57" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="BV12" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BW12" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BX12" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BY12" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ12" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB12" s="19" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="CC12" s="19" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="CD12" s="19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="CE12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="CI12" s="19" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="CJ12" s="19" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="CL12" s="50" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="CM12" s="50" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="CN12" s="50" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="CO12" s="50" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="CP12" s="50" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="CQ12" s="19" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="CR12" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS12" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT12" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU12" s="19" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="CV12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CW12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX12" s="58" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="CY12" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="E13" s="51" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K13" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P13" s="53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="T13" s="19">
         <v>60000.0</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V13" s="54">
         <v>45658.0</v>
       </c>
       <c r="W13" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X13" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="AC13" s="19">
         <v>1050.0</v>
       </c>
       <c r="AD13" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE13" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE13" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF13" s="56" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ13" s="50" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL13" s="19">
         <v>5999.0</v>
@@ -10598,40 +10681,40 @@
         <v>60000.0</v>
       </c>
       <c r="AP13" s="19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AQ13" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AR13" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS13" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AT13" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AU13" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AV13" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW13" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AY13" s="19" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AZ13" s="53" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="BA13" s="19" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="BB13" s="54">
         <v>44562.0</v>
@@ -10655,22 +10738,22 @@
         <v>12.0</v>
       </c>
       <c r="BI13" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ13" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK13" s="19" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="BL13" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="BM13" s="19" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="BN13" s="19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="BO13" s="19">
         <v>1050.0</v>
@@ -10682,219 +10765,219 @@
         <v>1150.0</v>
       </c>
       <c r="BR13" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT13" s="19" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="BU13" s="57" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="BV13" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BW13" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BX13" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BY13" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ13" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB13" s="19" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="CC13" s="19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="CD13" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="CE13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH13" s="19" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="CI13" s="19" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="CJ13" s="19" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="CK13" s="19" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="CL13" s="50" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="CM13" s="50" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="CN13" s="50" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="CO13" s="50" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="CP13" s="50" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="CQ13" s="19" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="CR13" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS13" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT13" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU13" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CV13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CW13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX13" s="58" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="CY13" s="19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="E14" s="51" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F14" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="P14" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="S14" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="K14" s="52" t="s">
-        <v>325</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="P14" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="T14" s="19">
         <v>70000.0</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V14" s="54">
         <v>45658.0</v>
       </c>
       <c r="W14" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X14" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="AC14" s="19">
         <v>1060.0</v>
       </c>
       <c r="AD14" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE14" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE14" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF14" s="56" t="s">
-        <v>335</v>
+        <v>468</v>
       </c>
       <c r="AG14" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ14" s="50" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AL14" s="19">
         <v>6999.0</v>
@@ -10909,40 +10992,40 @@
         <v>70000.0</v>
       </c>
       <c r="AP14" s="19" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AQ14" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AR14" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AT14" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AU14" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AV14" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW14" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AX14" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AY14" s="19" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AZ14" s="53" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="BA14" s="19" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="BB14" s="54">
         <v>44562.0</v>
@@ -10966,22 +11049,22 @@
         <v>12.0</v>
       </c>
       <c r="BI14" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ14" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK14" s="19" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="BL14" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="BM14" s="19" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="BN14" s="19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="BO14" s="19">
         <v>1060.0</v>
@@ -10993,219 +11076,219 @@
         <v>1160.0</v>
       </c>
       <c r="BR14" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT14" s="19" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="BU14" s="57" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="BV14" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BW14" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BX14" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BY14" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ14" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB14" s="19" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="CC14" s="19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="CD14" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="CE14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH14" s="19" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="CI14" s="19" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="CJ14" s="19" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="CK14" s="19" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="CL14" s="50" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="CM14" s="50" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="CN14" s="50" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="CO14" s="50" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="CP14" s="50" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="CQ14" s="19" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="CR14" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS14" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT14" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU14" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="CV14" s="19" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="CW14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX14" s="58" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="CY14" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="E15" s="51" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K15" s="59">
         <v>1000.0</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="M15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="O15" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="P15" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="S15" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="P15" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="S15" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="T15" s="19">
         <v>80000.0</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V15" s="54">
         <v>45658.0</v>
       </c>
       <c r="W15" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X15" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AC15" s="19">
         <v>1070.0</v>
       </c>
       <c r="AD15" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE15" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE15" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF15" s="56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ15" s="50" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AL15" s="19">
         <v>7999.0</v>
@@ -11220,40 +11303,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP15" s="19" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AQ15" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AR15" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS15" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AT15" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AU15" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AV15" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW15" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AX15" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AY15" s="19" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AZ15" s="53" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="BA15" s="19" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="BB15" s="54">
         <v>44562.0</v>
@@ -11277,22 +11360,22 @@
         <v>12.0</v>
       </c>
       <c r="BI15" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ15" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK15" s="19" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="BL15" s="19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="BM15" s="19" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="BN15" s="19" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="BO15" s="19">
         <v>1070.0</v>
@@ -11304,219 +11387,219 @@
         <v>1170.0</v>
       </c>
       <c r="BR15" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT15" s="19" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="BU15" s="57" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="BV15" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BW15" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BX15" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BY15" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ15" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB15" s="19" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="CC15" s="19" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="CD15" s="19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="CE15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH15" s="19" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="CI15" s="19" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="CJ15" s="19" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="CK15" s="19" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="CL15" s="50" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="CM15" s="50" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="CN15" s="50" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="CO15" s="50" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="CP15" s="50" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="CQ15" s="19" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="CR15" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS15" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT15" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU15" s="19" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="CV15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CW15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX15" s="58" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="CY15" s="19" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="E16" s="51" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K16" s="59">
         <v>1001.0</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="M16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="O16" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="P16" s="53" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="R16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="S16" s="33" t="s">
         <v>323</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>495</v>
-      </c>
-      <c r="P16" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q16" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="R16" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="T16" s="19">
         <v>90000.0</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="V16" s="54">
         <v>45658.0</v>
       </c>
       <c r="W16" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="X16" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AB16" s="19" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AC16" s="19">
         <v>1080.0</v>
       </c>
       <c r="AD16" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE16" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="AE16" s="19" t="s">
-        <v>332</v>
-      </c>
       <c r="AF16" s="56" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AJ16" s="50" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AL16" s="19">
         <v>8999.0</v>
@@ -11531,40 +11614,40 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="19" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AQ16" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AR16" s="19" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AS16" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AT16" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AU16" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AV16" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AW16" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AX16" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AY16" s="19" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="AZ16" s="53" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="BA16" s="19" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="BB16" s="54">
         <v>44562.0</v>
@@ -11588,22 +11671,22 @@
         <v>12.0</v>
       </c>
       <c r="BI16" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BJ16" s="33" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BK16" s="19" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="BL16" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="BM16" s="19" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="BN16" s="19" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="BO16" s="19">
         <v>1080.0</v>
@@ -11615,114 +11698,114 @@
         <v>1180.0</v>
       </c>
       <c r="BR16" s="56" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="BS16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="BT16" s="19" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="BU16" s="57" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="BV16" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BW16" s="55" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="BX16" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BY16" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="BZ16" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CB16" s="19" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="CC16" s="19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="CD16" s="19" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="CE16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CF16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CG16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CH16" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="CI16" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="CJ16" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="CK16" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="CL16" s="50" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="CM16" s="50" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="CN16" s="50" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="CO16" s="50" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="CP16" s="50" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="CQ16" s="19" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="CR16" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS16" s="19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="CT16" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="CU16" s="19" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="CV16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CW16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="CX16" s="58" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="CY16" s="19" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -11828,10 +11911,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
@@ -13373,19 +13456,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
@@ -13420,7 +13503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
@@ -13429,7 +13512,7 @@
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -13438,7 +13521,7 @@
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
@@ -13447,7 +13530,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
@@ -14902,7 +14985,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="19.88"/>
+    <col customWidth="1" min="3" max="3" width="27.38"/>
     <col customWidth="1" min="4" max="6" width="12.63"/>
     <col customWidth="1" min="9" max="9" width="13.5"/>
     <col customWidth="1" min="12" max="13" width="20.13"/>
@@ -14918,10 +15001,10 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C1" s="64" t="s">
         <v>25</v>
@@ -14930,7 +15013,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F1" s="64" t="s">
         <v>32</v>
@@ -14942,10 +15025,10 @@
         <v>64</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>67</v>
@@ -14954,22 +15037,22 @@
         <v>138</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>102</v>
       </c>
       <c r="O1" s="64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P1" s="64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q1" s="64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R1" s="64" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S1" s="64" t="s">
         <v>108</v>
@@ -14984,19 +15067,19 @@
         <v>167</v>
       </c>
       <c r="W1" s="64" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="X1" s="64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Y1" s="64" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z1" s="64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA1" s="64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB1" s="64" t="s">
         <v>175</v>
@@ -15005,10 +15088,10 @@
         <v>95</v>
       </c>
       <c r="AD1" s="64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AE1" s="64" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
@@ -15037,11 +15120,11 @@
       <c r="Q2" s="67"/>
       <c r="R2" s="67"/>
       <c r="S2" s="46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T2" s="67"/>
       <c r="U2" s="46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V2" s="67"/>
       <c r="W2" s="67"/>
@@ -15056,7 +15139,7 @@
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
@@ -15091,7 +15174,7 @@
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -15122,15 +15205,15 @@
       <c r="AB4" s="67"/>
       <c r="AC4" s="67"/>
       <c r="AD4" s="47" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AE4" s="47" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
@@ -15143,7 +15226,7 @@
       <c r="J5" s="67"/>
       <c r="K5" s="67"/>
       <c r="L5" s="46" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
@@ -15167,7 +15250,7 @@
     </row>
     <row r="6">
       <c r="A6" s="65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -15187,11 +15270,11 @@
       <c r="Q6" s="67"/>
       <c r="R6" s="67"/>
       <c r="S6" s="46" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="T6" s="67"/>
       <c r="U6" s="46" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="V6" s="67"/>
       <c r="W6" s="67"/>
@@ -15206,7 +15289,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="68" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B7" s="69"/>
       <c r="C7" s="70"/>
@@ -15241,1332 +15324,1332 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I8" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="W8" s="53" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB8" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AE8" s="53" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D9" s="50">
         <v>1005.0</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I9" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S9" s="50" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="W9" s="53" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB9" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AE9" s="53" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I10" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="W10" s="53" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB10" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AE10" s="53" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H11" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="S11" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="U11" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="I11" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>515</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="S11" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>360</v>
-      </c>
       <c r="V11" s="19" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="W11" s="53" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB11" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AE11" s="53" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B12" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I12" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="W12" s="53" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB12" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC12" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD12" s="19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AE12" s="53" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B13" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="I13" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="W13" s="53" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB13" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD13" s="19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AE13" s="53" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B14" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I14" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="W14" s="53" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB14" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC14" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD14" s="19" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AE14" s="53" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I15" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S15" s="50" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="T15" s="19" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="W15" s="53" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB15" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD15" s="19" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AE15" s="53" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B16" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I16" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S16" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="U16" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="T16" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>430</v>
-      </c>
       <c r="V16" s="19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="W16" s="53" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="X16" s="19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB16" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC16" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD16" s="19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AE16" s="53" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B17" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I17" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S17" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="U17" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="T17" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>430</v>
-      </c>
       <c r="V17" s="19" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="W17" s="53" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA17" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB17" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC17" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD17" s="19" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AE17" s="53" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B18" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I18" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S18" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="U18" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="T18" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>446</v>
-      </c>
       <c r="V18" s="19" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="W18" s="53" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB18" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC18" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD18" s="19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AE18" s="53" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="49" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B19" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D19" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="G19" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I19" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S19" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="U19" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="T19" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>446</v>
-      </c>
       <c r="V19" s="19" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="W19" s="53" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB19" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC19" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD19" s="19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AE19" s="53" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="49" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I20" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S20" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="T20" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>462</v>
-      </c>
       <c r="V20" s="19" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="W20" s="53" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="X20" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB20" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC20" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD20" s="19" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AE20" s="53" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="49" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B21" s="71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="I21" s="72" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="S21" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="U21" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="T21" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>462</v>
-      </c>
       <c r="V21" s="19" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="W21" s="53" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="X21" s="19" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AA21" s="19" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB21" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC21" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AD21" s="19" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AE21" s="53" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -17994,13 +18077,13 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
@@ -18035,129 +18118,129 @@
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="67"/>
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
     </row>
     <row r="5">
       <c r="A5" s="65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="68" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B6" s="69"/>
       <c r="C6" s="70"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B7" s="73">
         <v>1000.0</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B8" s="73">
         <v>1001.0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -19584,26 +19667,108 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="74" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="2" ht="12.75" customHeight="1"/>
-    <row r="3" ht="12.75" customHeight="1"/>
-    <row r="4" ht="12.75" customHeight="1"/>
-    <row r="5" ht="12.75" customHeight="1"/>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="C9" s="76" t="s">
+        <v>547</v>
+      </c>
+    </row>
     <row r="10" ht="12.75" customHeight="1"/>
     <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="C12" s="77"/>
+    </row>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1"/>
     <row r="15" ht="12.75" customHeight="1"/>
@@ -20591,7 +20756,6 @@
     <row r="997" ht="12.75" customHeight="1"/>
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
-    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -20624,7 +20788,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
@@ -20659,25 +20823,25 @@
     </row>
     <row r="3">
       <c r="A3" s="45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B3" s="45"/>
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B4" s="45"/>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B5" s="45"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="48" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B6" s="48"/>
     </row>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -16,7 +16,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="0V6X1EgEQ6CoLEoM+bEq6XrHH6AjOR3rhbna4lTXHjg="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="rgHi7XYINph4HiS6Np5bNHokekgtgRx1D5XgUjSptf8="/>
     </ext>
   </extLst>
 </workbook>
@@ -60,41 +60,10 @@
 _Attribuée à Jean-Marc LAFARGE_</t>
       </text>
     </comment>
-    <comment authorId="0" ref="D34">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAww_SIUk
-Nicolas HUC    (2023-05-11 11:47:50)
-@jean-marc.lafarge-ext@apave.com
-_Attribuée à Jean-Marc LAFARGE_
-------
-ID#AAAAww_SIVM
-Jean-Marc LAFARGE    (2023-05-11 13:32:59)
-_Marqué comme terminé_
-Non suivi en Stock
-Moyen
-Suivi en Stock
-------
-ID#AAAAww_SIV0
-Nicolas HUC    (2023-05-11 14:20:36)
-_Rouverte_
-Ce sont ces valeurs qui sont stockées en BDD ?
-------
-ID#AAAAwu1HAQY
-Jean-Marc LAFARGE    (2023-05-11 14:51:47)
-non mais je fais le mapping ;-)
-------
-ID#AAAAzzovRSU
-Jean-Marc LAFARGE    (2023-06-27 14:34:02)
-@nicolas.huc@apave.com 
-J'ai mis des valeurs dans les colonnes, merci de vérifier
-_Réattribué à Nicolas HUC_</t>
-      </text>
-    </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miWEVJAuvY2hN0XkYPUQxTucQvm1g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjlLVlQrYwCyE3FblGK95Od0/JvcQ=="/>
     </ext>
   </extLst>
 </comments>
@@ -1338,7 +1307,7 @@
     <t>COMPTA01</t>
   </si>
   <si>
-    <t>ATTENTE REPONSE MOE</t>
+    <t>$TBD$0</t>
   </si>
   <si>
     <t>MAT0001</t>
@@ -1395,259 +1364,259 @@
     <t>A1B2</t>
   </si>
   <si>
+    <t>FOU.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>GROUPE02</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 02</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 02</t>
+  </si>
+  <si>
+    <t>COMPTA02</t>
+  </si>
+  <si>
+    <t>MAT0002</t>
+  </si>
+  <si>
+    <t>METH02</t>
+  </si>
+  <si>
+    <t>ETAVIS02</t>
+  </si>
+  <si>
+    <t>PASSABLE</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 02</t>
+  </si>
+  <si>
+    <t>GAR24M</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>MATRICULE DEPOSE EN REPARATION</t>
+  </si>
+  <si>
+    <t>A REPARER</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A1B3</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>GROUPE03</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 03</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>CRITICITE03</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 03</t>
+  </si>
+  <si>
+    <t>COMPTA03</t>
+  </si>
+  <si>
+    <t>MAT0003</t>
+  </si>
+  <si>
+    <t>METH03</t>
+  </si>
+  <si>
+    <t>ETAVIS03</t>
+  </si>
+  <si>
+    <t>A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 03</t>
+  </si>
+  <si>
+    <t>GAR36M</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>MATRICULE DEPOSE AUTRE</t>
+  </si>
+  <si>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>A1B4</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>REMARQUE AUTRE</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 04</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 04</t>
+  </si>
+  <si>
+    <t>MAT0004</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 04</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>MATRICULE BIEN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>A1B5</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 05</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 05</t>
+  </si>
+  <si>
+    <t>MAT0005</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 05</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>MAT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>ART.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>MATRICULE GERE EN STOCK</t>
+  </si>
+  <si>
+    <t>A1B6</t>
+  </si>
+  <si>
     <t>Suivi en Stock</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>GROUPE02</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 02</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>CRITICITE02</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 02</t>
-  </si>
-  <si>
-    <t>COMPTA02</t>
-  </si>
-  <si>
-    <t>MAT0002</t>
-  </si>
-  <si>
-    <t>METH02</t>
-  </si>
-  <si>
-    <t>ETAVIS02</t>
-  </si>
-  <si>
-    <t>PASSABLE</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 02</t>
-  </si>
-  <si>
-    <t>GAR24M</t>
-  </si>
-  <si>
-    <t>Accessibilité</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>MATRICULE DEPOSE EN REPARATION</t>
-  </si>
-  <si>
-    <t>A REPARER</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>A1B3</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>GROUPE03</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 03</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>CRITICITE03</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 03</t>
-  </si>
-  <si>
-    <t>COMPTA03</t>
-  </si>
-  <si>
-    <t>MAT0003</t>
-  </si>
-  <si>
-    <t>METH03</t>
-  </si>
-  <si>
-    <t>ETAVIS03</t>
-  </si>
-  <si>
-    <t>A REMPLACER</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 03</t>
-  </si>
-  <si>
-    <t>GAR36M</t>
-  </si>
-  <si>
-    <t>Sécurité</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>MATRICULE DEPOSE AUTRE</t>
-  </si>
-  <si>
-    <t>AUTRE</t>
-  </si>
-  <si>
-    <t>A1B4</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>REMARQUE AUTRE</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 04</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 04</t>
-  </si>
-  <si>
-    <t>MAT0004</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 04</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>MATRICULE BIEN PATRIMONIAL</t>
-  </si>
-  <si>
-    <t>A1B5</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 05</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 05</t>
-  </si>
-  <si>
-    <t>MAT0005</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 05</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>ART.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>MATRICULE GERE EN STOCK</t>
-  </si>
-  <si>
-    <t>A1B6</t>
   </si>
   <si>
     <t>FOU.RT.MAT.001.CRE.06</t>
@@ -2237,7 +2206,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2394,11 +2363,11 @@
     <xf borderId="0" fillId="6" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -2407,9 +2376,6 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="5" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -6997,7 +6963,7 @@
     <col customWidth="1" min="2" max="2" width="19.88"/>
     <col customWidth="1" min="3" max="3" width="20.25"/>
     <col customWidth="1" min="4" max="4" width="9.88"/>
-    <col customWidth="1" min="5" max="5" width="23.63"/>
+    <col customWidth="1" min="5" max="5" width="17.13"/>
     <col customWidth="1" min="6" max="6" width="10.13"/>
     <col customWidth="1" min="7" max="7" width="17.75"/>
     <col customWidth="1" min="11" max="11" width="13.0"/>
@@ -7015,7 +6981,7 @@
     <col customWidth="1" min="53" max="53" width="19.25"/>
     <col customWidth="1" min="63" max="63" width="25.5"/>
     <col customWidth="1" min="65" max="65" width="21.0"/>
-    <col customWidth="1" min="70" max="70" width="22.75"/>
+    <col customWidth="1" min="70" max="70" width="30.0"/>
     <col customWidth="1" min="73" max="73" width="22.13"/>
     <col customWidth="1" min="76" max="77" width="10.25"/>
     <col customWidth="1" min="79" max="79" width="7.75"/>
@@ -8383,8 +8349,8 @@
       <c r="A6" s="45" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>9</v>
+      <c r="B6" s="47" t="s">
+        <v>317</v>
       </c>
       <c r="C6" s="45" t="s">
         <v>9</v>
@@ -8401,8 +8367,8 @@
       <c r="G6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="45" t="s">
-        <v>9</v>
+      <c r="H6" s="47" t="s">
+        <v>317</v>
       </c>
       <c r="I6" s="45" t="s">
         <v>9</v>
@@ -8431,8 +8397,8 @@
       <c r="Q6" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="45" t="s">
-        <v>9</v>
+      <c r="R6" s="47" t="s">
+        <v>317</v>
       </c>
       <c r="S6" s="45" t="s">
         <v>9</v>
@@ -8459,13 +8425,13 @@
         <v>9</v>
       </c>
       <c r="AA6" s="45" t="s">
-        <v>9</v>
+        <v>319</v>
       </c>
       <c r="AB6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="AC6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="AD6" s="45" t="s">
         <v>9</v>
@@ -9209,7 +9175,7 @@
       <c r="BQ8" s="19">
         <v>1100.0</v>
       </c>
-      <c r="BR8" s="56" t="s">
+      <c r="BR8" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS8" s="19" t="s">
@@ -9218,7 +9184,7 @@
       <c r="BT8" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="BU8" s="57" t="s">
+      <c r="BU8" s="56" t="s">
         <v>338</v>
       </c>
       <c r="BV8" s="55" t="s">
@@ -9407,7 +9373,7 @@
         <v>334</v>
       </c>
       <c r="AF9" s="56" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="AG9" s="19" t="s">
         <v>326</v>
@@ -9419,7 +9385,7 @@
         <v>325</v>
       </c>
       <c r="AJ9" s="50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AK9" s="19" t="s">
         <v>325</v>
@@ -9437,7 +9403,7 @@
         <v>20000.0</v>
       </c>
       <c r="AP9" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AQ9" s="19" t="s">
         <v>340</v>
@@ -9464,13 +9430,13 @@
         <v>334</v>
       </c>
       <c r="AY9" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ9" s="53" t="s">
         <v>370</v>
       </c>
-      <c r="AZ9" s="53" t="s">
+      <c r="BA9" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="BA9" s="19" t="s">
-        <v>372</v>
       </c>
       <c r="BB9" s="54">
         <v>44562.0</v>
@@ -9500,16 +9466,16 @@
         <v>325</v>
       </c>
       <c r="BK9" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="BL9" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="BL9" s="19" t="s">
+      <c r="BM9" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="BM9" s="19" t="s">
+      <c r="BN9" s="19" t="s">
         <v>375</v>
-      </c>
-      <c r="BN9" s="19" t="s">
-        <v>376</v>
       </c>
       <c r="BO9" s="19">
         <v>1010.0</v>
@@ -9520,17 +9486,17 @@
       <c r="BQ9" s="19">
         <v>1110.0</v>
       </c>
-      <c r="BR9" s="56" t="s">
+      <c r="BR9" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS9" s="19" t="s">
         <v>325</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="BU9" s="57" t="s">
-        <v>368</v>
+        <v>376</v>
+      </c>
+      <c r="BU9" s="56" t="s">
+        <v>367</v>
       </c>
       <c r="BV9" s="55" t="s">
         <v>333</v>
@@ -9551,13 +9517,13 @@
         <v>325</v>
       </c>
       <c r="CB9" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="CC9" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="CC9" s="19" t="s">
+      <c r="CD9" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="CD9" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="CE9" s="19" t="s">
         <v>325</v>
@@ -9581,22 +9547,22 @@
         <v>362</v>
       </c>
       <c r="CL9" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="CM9" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="CN9" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="CO9" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="CP9" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="CQ9" s="19" t="s">
         <v>381</v>
-      </c>
-      <c r="CM9" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="CN9" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="CO9" s="50" t="s">
-        <v>381</v>
-      </c>
-      <c r="CP9" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="CQ9" s="19" t="s">
-        <v>382</v>
       </c>
       <c r="CR9" s="54">
         <v>44227.0</v>
@@ -9608,27 +9574,27 @@
         <v>326</v>
       </c>
       <c r="CU9" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV9" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW9" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX9" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="CV9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CW9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX9" s="58" t="s">
-        <v>384</v>
-      </c>
       <c r="CY9" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="50" t="s">
         <v>385</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>386</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>325</v>
@@ -9637,7 +9603,7 @@
         <v>323</v>
       </c>
       <c r="E10" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>325</v>
@@ -9658,28 +9624,28 @@
         <v>327</v>
       </c>
       <c r="L10" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N10" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N10" s="19" t="s">
+      <c r="O10" s="19" t="s">
         <v>389</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>390</v>
       </c>
       <c r="P10" s="53" t="s">
         <v>331</v>
       </c>
       <c r="Q10" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="S10" s="33" t="s">
         <v>391</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>392</v>
       </c>
       <c r="T10" s="19">
         <v>30000.0</v>
@@ -9706,7 +9672,7 @@
         <v>334</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AC10" s="19">
         <v>1020.0</v>
@@ -9730,7 +9696,7 @@
         <v>325</v>
       </c>
       <c r="AJ10" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AK10" s="19" t="s">
         <v>325</v>
@@ -9748,7 +9714,7 @@
         <v>30000.0</v>
       </c>
       <c r="AP10" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AQ10" s="19" t="s">
         <v>340</v>
@@ -9775,13 +9741,13 @@
         <v>340</v>
       </c>
       <c r="AY10" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="AZ10" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="AZ10" s="53" t="s">
+      <c r="BA10" s="19" t="s">
         <v>397</v>
-      </c>
-      <c r="BA10" s="19" t="s">
-        <v>398</v>
       </c>
       <c r="BB10" s="54">
         <v>44562.0</v>
@@ -9811,16 +9777,16 @@
         <v>325</v>
       </c>
       <c r="BK10" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="BL10" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="BL10" s="19" t="s">
+      <c r="BM10" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="BM10" s="19" t="s">
+      <c r="BN10" s="19" t="s">
         <v>401</v>
-      </c>
-      <c r="BN10" s="19" t="s">
-        <v>402</v>
       </c>
       <c r="BO10" s="19">
         <v>1020.0</v>
@@ -9831,17 +9797,17 @@
       <c r="BQ10" s="19">
         <v>1120.0</v>
       </c>
-      <c r="BR10" s="56" t="s">
+      <c r="BR10" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS10" s="19" t="s">
         <v>325</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="BU10" s="57" t="s">
-        <v>394</v>
+        <v>402</v>
+      </c>
+      <c r="BU10" s="56" t="s">
+        <v>393</v>
       </c>
       <c r="BV10" s="55" t="s">
         <v>333</v>
@@ -9862,52 +9828,52 @@
         <v>325</v>
       </c>
       <c r="CB10" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="CC10" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="CC10" s="19" t="s">
+      <c r="CD10" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="CD10" s="19" t="s">
+      <c r="CE10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CF10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CG10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CH10" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="CI10" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="CJ10" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="CK10" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="CL10" s="50" t="s">
         <v>406</v>
       </c>
-      <c r="CE10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CF10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CG10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CH10" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="CI10" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="CJ10" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="CK10" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="CL10" s="50" t="s">
+      <c r="CM10" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="CN10" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="CO10" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="CP10" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="CQ10" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="CM10" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="CN10" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="CO10" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="CP10" s="50" t="s">
-        <v>394</v>
-      </c>
-      <c r="CQ10" s="19" t="s">
-        <v>408</v>
       </c>
       <c r="CR10" s="54">
         <v>44227.0</v>
@@ -9919,27 +9885,27 @@
         <v>326</v>
       </c>
       <c r="CU10" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="CV10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX10" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="CV10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CW10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX10" s="58" t="s">
-        <v>410</v>
-      </c>
       <c r="CY10" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="B11" s="50" t="s">
         <v>411</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>412</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>325</v>
@@ -9948,7 +9914,7 @@
         <v>323</v>
       </c>
       <c r="E11" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>325</v>
@@ -9969,22 +9935,22 @@
         <v>327</v>
       </c>
       <c r="L11" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N11" s="19" t="s">
+      <c r="O11" s="19" t="s">
         <v>415</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>416</v>
       </c>
       <c r="P11" s="53" t="s">
         <v>331</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R11" s="19" t="s">
         <v>325</v>
@@ -10017,7 +9983,7 @@
         <v>334</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AC11" s="19">
         <v>1030.0</v>
@@ -10041,10 +10007,10 @@
         <v>325</v>
       </c>
       <c r="AJ11" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="AK11" s="19" t="s">
         <v>419</v>
-      </c>
-      <c r="AK11" s="19" t="s">
-        <v>420</v>
       </c>
       <c r="AL11" s="19">
         <v>3999.0</v>
@@ -10059,7 +10025,7 @@
         <v>40000.0</v>
       </c>
       <c r="AP11" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AQ11" s="19" t="s">
         <v>340</v>
@@ -10086,13 +10052,13 @@
         <v>334</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AZ11" s="53" t="s">
         <v>342</v>
       </c>
       <c r="BA11" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BB11" s="54">
         <v>44562.0</v>
@@ -10122,13 +10088,13 @@
         <v>325</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BL11" s="19" t="s">
         <v>345</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BN11" s="19" t="s">
         <v>347</v>
@@ -10142,17 +10108,17 @@
       <c r="BQ11" s="19">
         <v>1130.0</v>
       </c>
-      <c r="BR11" s="56" t="s">
+      <c r="BR11" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS11" s="19" t="s">
         <v>325</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="BU11" s="57" t="s">
-        <v>419</v>
+        <v>425</v>
+      </c>
+      <c r="BU11" s="56" t="s">
+        <v>418</v>
       </c>
       <c r="BV11" s="55" t="s">
         <v>333</v>
@@ -10191,34 +10157,34 @@
         <v>325</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CL11" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="CM11" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="CN11" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="CO11" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="CP11" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="CQ11" s="19" t="s">
         <v>427</v>
-      </c>
-      <c r="CM11" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="CN11" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="CO11" s="50" t="s">
-        <v>427</v>
-      </c>
-      <c r="CP11" s="50" t="s">
-        <v>419</v>
-      </c>
-      <c r="CQ11" s="19" t="s">
-        <v>428</v>
       </c>
       <c r="CR11" s="54">
         <v>44227.0</v>
@@ -10247,10 +10213,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" s="50" t="s">
         <v>429</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>430</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>325</v>
@@ -10259,7 +10225,7 @@
         <v>323</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>325</v>
@@ -10280,22 +10246,22 @@
         <v>327</v>
       </c>
       <c r="L12" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="M12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N12" s="19" t="s">
+      <c r="O12" s="19" t="s">
         <v>433</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>434</v>
       </c>
       <c r="P12" s="53" t="s">
         <v>331</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R12" s="19" t="s">
         <v>325</v>
@@ -10328,7 +10294,7 @@
         <v>334</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AC12" s="19">
         <v>1040.0</v>
@@ -10352,10 +10318,10 @@
         <v>325</v>
       </c>
       <c r="AJ12" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL12" s="19">
         <v>4999.0</v>
@@ -10370,7 +10336,7 @@
         <v>50000.0</v>
       </c>
       <c r="AP12" s="19" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ12" s="19" t="s">
         <v>334</v>
@@ -10397,13 +10363,13 @@
         <v>334</v>
       </c>
       <c r="AY12" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="AZ12" s="53" t="s">
+        <v>370</v>
+      </c>
+      <c r="BA12" s="19" t="s">
         <v>438</v>
-      </c>
-      <c r="AZ12" s="53" t="s">
-        <v>371</v>
-      </c>
-      <c r="BA12" s="19" t="s">
-        <v>439</v>
       </c>
       <c r="BB12" s="54">
         <v>44562.0</v>
@@ -10433,16 +10399,16 @@
         <v>325</v>
       </c>
       <c r="BK12" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="BL12" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="BM12" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="BL12" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="BM12" s="19" t="s">
-        <v>441</v>
-      </c>
       <c r="BN12" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BO12" s="19">
         <v>1040.0</v>
@@ -10453,17 +10419,17 @@
       <c r="BQ12" s="19">
         <v>1140.0</v>
       </c>
-      <c r="BR12" s="56" t="s">
+      <c r="BR12" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS12" s="19" t="s">
         <v>325</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="BU12" s="57" t="s">
-        <v>436</v>
+        <v>441</v>
+      </c>
+      <c r="BU12" s="56" t="s">
+        <v>435</v>
       </c>
       <c r="BV12" s="55" t="s">
         <v>333</v>
@@ -10484,14 +10450,14 @@
         <v>325</v>
       </c>
       <c r="CB12" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="CC12" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="CC12" s="19" t="s">
+      <c r="CD12" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="CD12" s="19" t="s">
-        <v>380</v>
-      </c>
       <c r="CE12" s="19" t="s">
         <v>325</v>
       </c>
@@ -10502,34 +10468,34 @@
         <v>325</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="CI12" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="CJ12" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="CL12" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="CM12" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="CN12" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="CO12" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="CP12" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="CQ12" s="19" t="s">
         <v>443</v>
-      </c>
-      <c r="CM12" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="CN12" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="CO12" s="50" t="s">
-        <v>443</v>
-      </c>
-      <c r="CP12" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="CQ12" s="19" t="s">
-        <v>444</v>
       </c>
       <c r="CR12" s="54">
         <v>44227.0</v>
@@ -10541,27 +10507,27 @@
         <v>326</v>
       </c>
       <c r="CU12" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="CV12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX12" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="CV12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CW12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX12" s="58" t="s">
-        <v>410</v>
-      </c>
       <c r="CY12" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="50" t="s">
         <v>445</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>446</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>325</v>
@@ -10570,7 +10536,7 @@
         <v>323</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>323</v>
@@ -10591,16 +10557,16 @@
         <v>327</v>
       </c>
       <c r="L13" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N13" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N13" s="19" t="s">
+      <c r="O13" s="19" t="s">
         <v>449</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>450</v>
       </c>
       <c r="P13" s="53" t="s">
         <v>331</v>
@@ -10639,7 +10605,7 @@
         <v>334</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC13" s="19">
         <v>1050.0</v>
@@ -10651,7 +10617,7 @@
         <v>334</v>
       </c>
       <c r="AF13" s="56" t="s">
-        <v>367</v>
+        <v>451</v>
       </c>
       <c r="AG13" s="19" t="s">
         <v>326</v>
@@ -10711,7 +10677,7 @@
         <v>454</v>
       </c>
       <c r="AZ13" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BA13" s="19" t="s">
         <v>455</v>
@@ -10747,13 +10713,13 @@
         <v>456</v>
       </c>
       <c r="BL13" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BM13" s="19" t="s">
         <v>457</v>
       </c>
       <c r="BN13" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BO13" s="19">
         <v>1050.0</v>
@@ -10764,7 +10730,7 @@
       <c r="BQ13" s="19">
         <v>1150.0</v>
       </c>
-      <c r="BR13" s="56" t="s">
+      <c r="BR13" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS13" s="19" t="s">
@@ -10773,7 +10739,7 @@
       <c r="BT13" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="BU13" s="57" t="s">
+      <c r="BU13" s="56" t="s">
         <v>452</v>
       </c>
       <c r="BV13" s="55" t="s">
@@ -10795,14 +10761,14 @@
         <v>325</v>
       </c>
       <c r="CB13" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="CC13" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="CC13" s="19" t="s">
+      <c r="CD13" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="CD13" s="19" t="s">
-        <v>406</v>
-      </c>
       <c r="CE13" s="19" t="s">
         <v>325</v>
       </c>
@@ -10813,16 +10779,16 @@
         <v>325</v>
       </c>
       <c r="CH13" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="CI13" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="CJ13" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="CK13" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="CL13" s="50" t="s">
         <v>459</v>
@@ -10852,19 +10818,19 @@
         <v>326</v>
       </c>
       <c r="CU13" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV13" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW13" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX13" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="CV13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CW13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX13" s="58" t="s">
-        <v>384</v>
-      </c>
       <c r="CY13" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -10917,7 +10883,7 @@
         <v>331</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R14" s="19" t="s">
         <v>325</v>
@@ -10977,7 +10943,7 @@
         <v>469</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL14" s="19">
         <v>6999.0</v>
@@ -11022,7 +10988,7 @@
         <v>471</v>
       </c>
       <c r="AZ14" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BA14" s="19" t="s">
         <v>472</v>
@@ -11058,13 +11024,13 @@
         <v>473</v>
       </c>
       <c r="BL14" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BM14" s="19" t="s">
         <v>474</v>
       </c>
       <c r="BN14" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BO14" s="19">
         <v>1060.0</v>
@@ -11075,7 +11041,7 @@
       <c r="BQ14" s="19">
         <v>1160.0</v>
       </c>
-      <c r="BR14" s="56" t="s">
+      <c r="BR14" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS14" s="19" t="s">
@@ -11084,7 +11050,7 @@
       <c r="BT14" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="BU14" s="57" t="s">
+      <c r="BU14" s="56" t="s">
         <v>469</v>
       </c>
       <c r="BV14" s="55" t="s">
@@ -11106,13 +11072,13 @@
         <v>325</v>
       </c>
       <c r="CB14" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="CC14" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="CC14" s="19" t="s">
+      <c r="CD14" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="CD14" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="CE14" s="19" t="s">
         <v>325</v>
@@ -11288,7 +11254,7 @@
         <v>485</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL15" s="19">
         <v>7999.0</v>
@@ -11333,7 +11299,7 @@
         <v>487</v>
       </c>
       <c r="AZ15" s="53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BA15" s="19" t="s">
         <v>488</v>
@@ -11369,13 +11335,13 @@
         <v>489</v>
       </c>
       <c r="BL15" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="BM15" s="19" t="s">
         <v>490</v>
       </c>
       <c r="BN15" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="BO15" s="19">
         <v>1070.0</v>
@@ -11386,7 +11352,7 @@
       <c r="BQ15" s="19">
         <v>1170.0</v>
       </c>
-      <c r="BR15" s="56" t="s">
+      <c r="BR15" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS15" s="19" t="s">
@@ -11395,7 +11361,7 @@
       <c r="BT15" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="BU15" s="57" t="s">
+      <c r="BU15" s="56" t="s">
         <v>485</v>
       </c>
       <c r="BV15" s="55" t="s">
@@ -11417,13 +11383,13 @@
         <v>325</v>
       </c>
       <c r="CB15" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="CC15" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="CC15" s="19" t="s">
+      <c r="CD15" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="CD15" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="CE15" s="19" t="s">
         <v>325</v>
@@ -11474,19 +11440,19 @@
         <v>326</v>
       </c>
       <c r="CU15" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="CV15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW15" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX15" s="58" t="s">
         <v>383</v>
       </c>
-      <c r="CV15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CW15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX15" s="58" t="s">
-        <v>384</v>
-      </c>
       <c r="CY15" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -11644,7 +11610,7 @@
         <v>504</v>
       </c>
       <c r="AZ16" s="53" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BA16" s="19" t="s">
         <v>505</v>
@@ -11680,13 +11646,13 @@
         <v>506</v>
       </c>
       <c r="BL16" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BM16" s="19" t="s">
         <v>507</v>
       </c>
       <c r="BN16" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BO16" s="19">
         <v>1080.0</v>
@@ -11697,7 +11663,7 @@
       <c r="BQ16" s="19">
         <v>1180.0</v>
       </c>
-      <c r="BR16" s="56" t="s">
+      <c r="BR16" s="57" t="s">
         <v>348</v>
       </c>
       <c r="BS16" s="19" t="s">
@@ -11706,7 +11672,7 @@
       <c r="BT16" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="BU16" s="57" t="s">
+      <c r="BU16" s="56" t="s">
         <v>501</v>
       </c>
       <c r="BV16" s="55" t="s">
@@ -11728,10 +11694,10 @@
         <v>325</v>
       </c>
       <c r="CB16" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="CC16" s="19" t="s">
         <v>404</v>
-      </c>
-      <c r="CC16" s="19" t="s">
-        <v>405</v>
       </c>
       <c r="CD16" s="19" t="s">
         <v>509</v>
@@ -11785,19 +11751,19 @@
         <v>326</v>
       </c>
       <c r="CU16" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="CV16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CW16" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CX16" s="58" t="s">
         <v>409</v>
       </c>
-      <c r="CV16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CW16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX16" s="58" t="s">
-        <v>410</v>
-      </c>
       <c r="CY16" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
@@ -12025,626 +11991,622 @@
       <c r="A20" s="61"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="61"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="61"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="61"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="61"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="61"/>
+      <c r="AF26" s="50"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="61"/>
+      <c r="AF27" s="50"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="61"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="61"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="61"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="61"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="61"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="61"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="61"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="61"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="61"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="61"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="61"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="61"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="61"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="61"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="61"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="61"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="61"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="61"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="61"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="61"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="61"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="61"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="61"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="61"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="61"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="61"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="61"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="61"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="61"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="61"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="61"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="61"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="61"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="61"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="61"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="61"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="61"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="61"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="61"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="61"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="61"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="61"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="61"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="61"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="61"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="61"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="61"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="61"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="61"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="61"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="61"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="61"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="61"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="61"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="61"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="61"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="61"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="61"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="61"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="61"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="61"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="61"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="61"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="61"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="61"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="61"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="61"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="61"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="61"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="61"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="61"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="61"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="61"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="61"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="61"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="61"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="61"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="61"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="61"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="61"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="61"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="61"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="61"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="61"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="61"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="61"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="61"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="61"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="61"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="61"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="61"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="61"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="61"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="61"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="61"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="61"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="61"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="61"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="61"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="61"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="61"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="61"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="61"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="61"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="61"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="61"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="61"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="61"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="61"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="61"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="61"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="61"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="61"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="61"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="61"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="61"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="61"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="61"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="61"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="61"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="61"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="61"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="61"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="61"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="61"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="61"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="61"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="61"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="61"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="61"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="61"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="61"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="61"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="61"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="61"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="61"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="61"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="61"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="61"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="61"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="61"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="61"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="61"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="61"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="61"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="61"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="61"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="61"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="61"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="61"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="61"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="61"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="61"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="61"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="61"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="61"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="61"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="61"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="61"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="61"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="61"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="61"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="61"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="61"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="61"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="61"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="61"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="61"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="61"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="61"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="61"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="61"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="61"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="61"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="61"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="61"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="61"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="61"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="61"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="61"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="61"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="61"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="61"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="61"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="62"/>
+      <c r="A221" s="61"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="62"/>
+      <c r="A222" s="61"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="62"/>
+      <c r="A223" s="61"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="62"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="62"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="62"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="62"/>
-    </row>
+      <c r="A224" s="61"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
     <row r="230" ht="15.75" customHeight="1"/>
@@ -13422,9 +13384,6 @@
     <row r="1002" ht="15.75" customHeight="1"/>
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
-    <row r="1005" ht="15.75" customHeight="1"/>
-    <row r="1006" ht="15.75" customHeight="1"/>
-    <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -13455,7 +13414,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>247</v>
       </c>
       <c r="B1" s="39" t="s">
@@ -13467,7 +13426,7 @@
       <c r="D1" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>254</v>
       </c>
       <c r="F1" s="44"/>
@@ -13493,691 +13452,691 @@
       <c r="Z1" s="44"/>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
     </row>
     <row r="3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="61"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="61"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="61"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="61"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
+      <c r="A15" s="61"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="61"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="61"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="61"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="61"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="61"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="61"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="61"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="61"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="61"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="61"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="61"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="61"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="61"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="61"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="61"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="61"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="61"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="61"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="61"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="61"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="61"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="61"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="61"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="61"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="61"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="61"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="61"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="61"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="61"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="61"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="61"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="61"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="61"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="61"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="61"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="61"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="61"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="61"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="61"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="61"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="61"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="61"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="61"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="61"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="61"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="61"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="61"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="61"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="61"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="61"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="61"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="61"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="61"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="61"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="61"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="61"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="61"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="61"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="61"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="61"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="61"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="61"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="61"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="61"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="61"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="61"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="61"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="61"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="61"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="61"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="61"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="61"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="61"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="61"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="61"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="61"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="61"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="61"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="61"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="61"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="61"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="61"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="61"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="61"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="61"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="61"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="61"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="61"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="61"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="61"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="61"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="61"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="61"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="61"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="61"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="61"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="61"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="61"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="61"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="61"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="61"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="61"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="61"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="61"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="61"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="61"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="61"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="61"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="61"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="61"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="61"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="61"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="61"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="61"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="61"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="61"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="61"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="61"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="61"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="61"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="61"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="61"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="61"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="61"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="61"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="61"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="61"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="61"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="61"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="61"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="61"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="61"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="61"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="61"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="61"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="61"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="61"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="61"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="61"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="61"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="61"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="61"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="61"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="61"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="61"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="61"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="61"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="61"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="61"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="61"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="61"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="61"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="61"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="61"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="61"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="61"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="61"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="61"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="61"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="61"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="61"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="61"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="61"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="61"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="61"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="61"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="61"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="61"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="61"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="61"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="61"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="61"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="61"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="61"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="61"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="61"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="61"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="61"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="61"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="61"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="61"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="61"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="61"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="61"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="61"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="61"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="61"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="61"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="61"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="61"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="61"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="61"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="61"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="61"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -15000,210 +14959,210 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>257</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="64" t="s">
+      <c r="Y1" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="Z1" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AE1" s="63" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="46"/>
-      <c r="E2" s="67"/>
+      <c r="E2" s="66"/>
       <c r="F2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
       <c r="S2" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="T2" s="67"/>
+      <c r="T2" s="66"/>
       <c r="U2" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
     </row>
     <row r="3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="46"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
       <c r="AD4" s="47" t="s">
         <v>314</v>
       </c>
@@ -15212,121 +15171,121 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
       <c r="L5" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
     </row>
     <row r="6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
       <c r="S6" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="T6" s="67"/>
+      <c r="T6" s="66"/>
       <c r="U6" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="66"/>
+      <c r="AE6" s="66"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="69"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="70" t="s">
         <v>327</v>
       </c>
       <c r="C8" s="50" t="s">
@@ -15347,7 +15306,7 @@
       <c r="H8" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I8" s="72" t="s">
+      <c r="I8" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J8" s="19" t="s">
@@ -15411,7 +15370,7 @@
         <v>336</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE8" s="53" t="s">
         <v>345</v>
@@ -15421,7 +15380,7 @@
       <c r="A9" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="70" t="s">
         <v>327</v>
       </c>
       <c r="C9" s="50" t="s">
@@ -15442,7 +15401,7 @@
       <c r="H9" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J9" s="19" t="s">
@@ -15506,7 +15465,7 @@
         <v>336</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE9" s="53" t="s">
         <v>345</v>
@@ -15516,7 +15475,7 @@
       <c r="A10" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>327</v>
       </c>
       <c r="C10" s="50" t="s">
@@ -15537,7 +15496,7 @@
       <c r="H10" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I10" s="72" t="s">
+      <c r="I10" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -15568,7 +15527,7 @@
         <v>325</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T10" s="19" t="s">
         <v>325</v>
@@ -15577,13 +15536,13 @@
         <v>362</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W10" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="X10" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="X10" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="Y10" s="19" t="s">
         <v>325</v>
@@ -15604,14 +15563,14 @@
         <v>520</v>
       </c>
       <c r="AE10" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="70" t="s">
         <v>327</v>
       </c>
       <c r="C11" s="50" t="s">
@@ -15632,7 +15591,7 @@
       <c r="H11" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J11" s="19" t="s">
@@ -15663,7 +15622,7 @@
         <v>325</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T11" s="19" t="s">
         <v>325</v>
@@ -15672,13 +15631,13 @@
         <v>362</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W11" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="X11" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="X11" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="Y11" s="19" t="s">
         <v>325</v>
@@ -15699,19 +15658,19 @@
         <v>520</v>
       </c>
       <c r="AE11" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>386</v>
-      </c>
       <c r="D12" s="19" t="s">
         <v>325</v>
       </c>
@@ -15727,7 +15686,7 @@
       <c r="H12" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I12" s="72" t="s">
+      <c r="I12" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -15758,22 +15717,22 @@
         <v>325</v>
       </c>
       <c r="S12" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T12" s="19" t="s">
         <v>325</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W12" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X12" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="Y12" s="19" t="s">
         <v>325</v>
@@ -15794,19 +15753,19 @@
         <v>357</v>
       </c>
       <c r="AE12" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>386</v>
-      </c>
       <c r="D13" s="19" t="s">
         <v>325</v>
       </c>
@@ -15820,9 +15779,9 @@
         <v>325</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="I13" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="I13" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J13" s="19" t="s">
@@ -15853,22 +15812,22 @@
         <v>325</v>
       </c>
       <c r="S13" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="T13" s="19" t="s">
         <v>325</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="W13" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X13" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="X13" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="Y13" s="19" t="s">
         <v>325</v>
@@ -15889,19 +15848,19 @@
         <v>357</v>
       </c>
       <c r="AE13" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" s="50" t="s">
         <v>411</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>412</v>
-      </c>
       <c r="D14" s="19" t="s">
         <v>325</v>
       </c>
@@ -15917,7 +15876,7 @@
       <c r="H14" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="I14" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J14" s="19" t="s">
@@ -15948,16 +15907,16 @@
         <v>325</v>
       </c>
       <c r="S14" s="50" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T14" s="19" t="s">
         <v>325</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V14" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W14" s="53" t="s">
         <v>351</v>
@@ -15981,7 +15940,7 @@
         <v>336</v>
       </c>
       <c r="AD14" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE14" s="53" t="s">
         <v>345</v>
@@ -15989,13 +15948,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C15" s="50" t="s">
         <v>411</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>412</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>325</v>
@@ -16010,9 +15969,9 @@
         <v>325</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="I15" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="I15" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J15" s="19" t="s">
@@ -16043,16 +16002,16 @@
         <v>325</v>
       </c>
       <c r="S15" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="T15" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="T15" s="19" t="s">
-        <v>420</v>
-      </c>
       <c r="U15" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W15" s="53" t="s">
         <v>351</v>
@@ -16076,7 +16035,7 @@
         <v>336</v>
       </c>
       <c r="AD15" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE15" s="53" t="s">
         <v>345</v>
@@ -16084,14 +16043,14 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="50" t="s">
         <v>429</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>430</v>
-      </c>
       <c r="D16" s="19" t="s">
         <v>325</v>
       </c>
@@ -16107,7 +16066,7 @@
       <c r="H16" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I16" s="72" t="s">
+      <c r="I16" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J16" s="19" t="s">
@@ -16138,22 +16097,22 @@
         <v>325</v>
       </c>
       <c r="S16" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T16" s="19" t="s">
         <v>325</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W16" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="X16" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="X16" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="Y16" s="19" t="s">
         <v>325</v>
@@ -16174,19 +16133,19 @@
         <v>357</v>
       </c>
       <c r="AE16" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>429</v>
       </c>
-      <c r="B17" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>430</v>
-      </c>
       <c r="D17" s="19" t="s">
         <v>325</v>
       </c>
@@ -16200,9 +16159,9 @@
         <v>325</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="I17" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="I17" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J17" s="19" t="s">
@@ -16233,22 +16192,22 @@
         <v>325</v>
       </c>
       <c r="S17" s="50" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W17" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="X17" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="X17" s="19" t="s">
-        <v>380</v>
       </c>
       <c r="Y17" s="19" t="s">
         <v>325</v>
@@ -16269,19 +16228,19 @@
         <v>357</v>
       </c>
       <c r="AE17" s="53" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C18" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="B18" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>446</v>
-      </c>
       <c r="D18" s="19" t="s">
         <v>325</v>
       </c>
@@ -16297,7 +16256,7 @@
       <c r="H18" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I18" s="72" t="s">
+      <c r="I18" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J18" s="19" t="s">
@@ -16334,16 +16293,16 @@
         <v>325</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="V18" s="19" t="s">
         <v>457</v>
       </c>
       <c r="W18" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X18" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="X18" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="Y18" s="19" t="s">
         <v>325</v>
@@ -16364,18 +16323,18 @@
         <v>520</v>
       </c>
       <c r="AE18" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="49" t="s">
+        <v>444</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="50" t="s">
         <v>445</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>327</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>446</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>325</v>
@@ -16392,7 +16351,7 @@
       <c r="H19" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J19" s="19" t="s">
@@ -16429,16 +16388,16 @@
         <v>325</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="V19" s="19" t="s">
         <v>457</v>
       </c>
       <c r="W19" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X19" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="X19" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="Y19" s="19" t="s">
         <v>325</v>
@@ -16459,18 +16418,18 @@
         <v>520</v>
       </c>
       <c r="AE19" s="53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="70" t="s">
         <v>327</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>325</v>
@@ -16487,7 +16446,7 @@
       <c r="H20" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -16530,10 +16489,10 @@
         <v>474</v>
       </c>
       <c r="W20" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X20" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="X20" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="Y20" s="19" t="s">
         <v>325</v>
@@ -16551,7 +16510,7 @@
         <v>336</v>
       </c>
       <c r="AD20" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE20" s="53" t="s">
         <v>345</v>
@@ -16561,11 +16520,11 @@
       <c r="A21" s="49" t="s">
         <v>461</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="70" t="s">
         <v>327</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D21" s="19" t="s">
         <v>325</v>
@@ -16580,9 +16539,9 @@
         <v>325</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="I21" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="I21" s="71" t="s">
         <v>333</v>
       </c>
       <c r="J21" s="19" t="s">
@@ -16616,7 +16575,7 @@
         <v>469</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="U21" s="19" t="s">
         <v>465</v>
@@ -16625,10 +16584,10 @@
         <v>474</v>
       </c>
       <c r="W21" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X21" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="X21" s="19" t="s">
-        <v>406</v>
       </c>
       <c r="Y21" s="19" t="s">
         <v>325</v>
@@ -16646,624 +16605,624 @@
         <v>336</v>
       </c>
       <c r="AD21" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AE21" s="53" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="61"/>
       <c r="U22" s="50"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="61"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="61"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="61"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="61"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="61"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="61"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="61"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="61"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="61"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="61"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="61"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="61"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="61"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="61"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="61"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="61"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="61"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="61"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="61"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="61"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="61"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="61"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="61"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="61"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="61"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="61"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="61"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="61"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="61"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="61"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="61"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="61"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="61"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="61"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="61"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="61"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="61"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="61"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="61"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="61"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="61"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="61"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="61"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="61"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="61"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="61"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="61"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="61"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="61"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="61"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="61"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="61"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="61"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="61"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="61"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="61"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="61"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="61"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="61"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="61"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="61"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="61"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="61"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="61"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="61"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="61"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="61"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="61"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="61"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="61"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="61"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="61"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="61"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="61"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="61"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="61"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="61"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="61"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="61"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="61"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="61"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="61"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="61"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="61"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="61"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="61"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="61"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="61"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="61"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="61"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="61"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="61"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="61"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="61"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="61"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="61"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="61"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="61"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="61"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="61"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="61"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="61"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="61"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="61"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="61"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="61"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="61"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="61"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="61"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="61"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="61"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="61"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="61"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="61"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="61"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="61"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="61"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="61"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="61"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="61"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="61"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="61"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="61"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="61"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="61"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="61"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="61"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="61"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="61"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="61"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="61"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="61"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="61"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="61"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="61"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="61"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="61"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="61"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="61"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="61"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="61"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="61"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="61"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="61"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="61"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="61"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="61"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="61"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="61"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="61"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="61"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="61"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="61"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="61"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="61"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="61"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="61"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="61"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="61"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="61"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="61"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="61"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="61"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="61"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="61"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="61"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="61"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="61"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="61"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="61"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="61"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="61"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="61"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="61"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="61"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="61"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="61"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="61"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="61"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="61"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="61"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="61"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="61"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="61"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="61"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="61"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="61"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="61"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="62"/>
+      <c r="A221" s="61"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="62"/>
+      <c r="A222" s="61"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="62"/>
+      <c r="A223" s="61"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="62"/>
+      <c r="A224" s="61"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="62"/>
+      <c r="A225" s="61"/>
     </row>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -18076,13 +18035,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
         <v>292</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="63" t="s">
         <v>294</v>
       </c>
       <c r="D1" s="44"/>
@@ -18110,45 +18069,45 @@
       <c r="Z1" s="44"/>
     </row>
     <row r="2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
     </row>
     <row r="3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
     </row>
     <row r="5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>479</v>
       </c>
-      <c r="B7" s="73">
+      <c r="B7" s="72">
         <v>1000.0</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -18159,7 +18118,7 @@
       <c r="A8" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="B8" s="73">
+      <c r="B8" s="72">
         <v>1001.0</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -18190,7 +18149,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>327</v>
@@ -18201,7 +18160,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B12" s="52" t="s">
         <v>327</v>
@@ -18212,7 +18171,7 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" s="52" t="s">
         <v>327</v>
@@ -18223,7 +18182,7 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B14" s="52" t="s">
         <v>327</v>
@@ -18244,619 +18203,619 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="61"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="61"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="61"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="61"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="61"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="61"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="61"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="61"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="61"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="61"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="61"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="61"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="61"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="61"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="61"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="61"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="61"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="61"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="61"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="61"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="61"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="61"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="61"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="61"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="61"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="61"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="61"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="61"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="61"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="61"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="61"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="61"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="61"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="61"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="61"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="61"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="61"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="61"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="61"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="61"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="61"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="61"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="61"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="61"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="61"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="61"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="61"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="61"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="61"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="61"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="61"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="61"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="61"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="61"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="61"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="61"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="61"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="61"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="61"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="61"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="61"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="61"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="61"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="61"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="61"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="61"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="61"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="61"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="61"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="61"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="61"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="61"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="61"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="61"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="61"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="61"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="61"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="61"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="61"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="61"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="61"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="61"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="61"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="61"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="61"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="61"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="61"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="61"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="61"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="61"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="61"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="61"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="61"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="61"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="61"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="61"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="61"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="61"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="61"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="61"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="61"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="61"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="61"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="61"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="61"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="61"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="61"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="61"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="61"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="61"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="61"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="61"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="61"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="61"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="61"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="61"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="61"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="61"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="61"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="61"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="61"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="61"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="61"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="61"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="61"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="61"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="61"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="61"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="61"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="61"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="61"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="61"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="61"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="61"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="61"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="61"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="61"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="61"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="61"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="61"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="61"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="61"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="61"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="61"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="61"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="61"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="61"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="61"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="61"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="61"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="61"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="61"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="61"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="61"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="61"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="61"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="61"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="61"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="61"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="61"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="61"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="61"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="61"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="61"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="61"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="61"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="61"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="61"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="61"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="61"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="61"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="61"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="61"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="61"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="61"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="61"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="61"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="61"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="61"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="61"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="61"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="61"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="61"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="61"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="61"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="61"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="61"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="61"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="61"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="61"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="61"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="61"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="61"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="61"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -19666,13 +19625,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>528</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="74" t="s">
         <v>529</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="74" t="s">
         <v>530</v>
       </c>
     </row>
@@ -19680,10 +19639,10 @@
       <c r="A2" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>532</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="75" t="s">
         <v>533</v>
       </c>
     </row>
@@ -19691,10 +19650,10 @@
       <c r="A3" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="75" t="s">
         <v>534</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>535</v>
       </c>
     </row>
@@ -19702,7 +19661,7 @@
       <c r="A4" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>536</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -19713,7 +19672,7 @@
       <c r="A5" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="75" t="s">
         <v>538</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -19724,10 +19683,10 @@
       <c r="A6" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>540</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="75" t="s">
         <v>541</v>
       </c>
     </row>
@@ -19735,10 +19694,10 @@
       <c r="A7" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="75" t="s">
         <v>542</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>543</v>
       </c>
     </row>
@@ -19746,10 +19705,10 @@
       <c r="A8" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="75" t="s">
         <v>544</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="75" t="s">
         <v>545</v>
       </c>
     </row>
@@ -19757,17 +19716,17 @@
       <c r="A9" s="26" t="s">
         <v>531</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="75" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1"/>
     <row r="11" ht="12.75" customHeight="1"/>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="C12" s="77"/>
+      <c r="C12" s="76"/>
     </row>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1"/>
@@ -20846,646 +20805,646 @@
       <c r="B6" s="48"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="62"/>
+      <c r="A7" s="61"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="62"/>
+      <c r="A8" s="61"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="62"/>
+      <c r="A9" s="61"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="62"/>
+      <c r="A10" s="61"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="62"/>
+      <c r="A11" s="61"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="62"/>
+      <c r="A12" s="61"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
+      <c r="A13" s="61"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
+      <c r="A14" s="61"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
+      <c r="A15" s="61"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
+      <c r="A16" s="61"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
+      <c r="A17" s="61"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="61"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
+      <c r="A19" s="61"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
+      <c r="A20" s="61"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
+      <c r="A21" s="61"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
+      <c r="A22" s="61"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
+      <c r="A23" s="61"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
+      <c r="A24" s="61"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
+      <c r="A25" s="61"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
+      <c r="A26" s="61"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="62"/>
+      <c r="A27" s="61"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="62"/>
+      <c r="A28" s="61"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="62"/>
+      <c r="A29" s="61"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="62"/>
+      <c r="A30" s="61"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="62"/>
+      <c r="A31" s="61"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="62"/>
+      <c r="A32" s="61"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="62"/>
+      <c r="A33" s="61"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="62"/>
+      <c r="A34" s="61"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="62"/>
+      <c r="A35" s="61"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="62"/>
+      <c r="A36" s="61"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="62"/>
+      <c r="A37" s="61"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="62"/>
+      <c r="A38" s="61"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="62"/>
+      <c r="A39" s="61"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="62"/>
+      <c r="A40" s="61"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="62"/>
+      <c r="A41" s="61"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="62"/>
+      <c r="A42" s="61"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="62"/>
+      <c r="A43" s="61"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="62"/>
+      <c r="A44" s="61"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="62"/>
+      <c r="A45" s="61"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="62"/>
+      <c r="A46" s="61"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="62"/>
+      <c r="A47" s="61"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="62"/>
+      <c r="A49" s="61"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="62"/>
+      <c r="A50" s="61"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="62"/>
+      <c r="A51" s="61"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="62"/>
+      <c r="A52" s="61"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="62"/>
+      <c r="A53" s="61"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="62"/>
+      <c r="A54" s="61"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="62"/>
+      <c r="A55" s="61"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="62"/>
+      <c r="A56" s="61"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="62"/>
+      <c r="A57" s="61"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="62"/>
+      <c r="A58" s="61"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="62"/>
+      <c r="A59" s="61"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="62"/>
+      <c r="A60" s="61"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="62"/>
+      <c r="A61" s="61"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="62"/>
+      <c r="A62" s="61"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="62"/>
+      <c r="A63" s="61"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="62"/>
+      <c r="A64" s="61"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="62"/>
+      <c r="A65" s="61"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="62"/>
+      <c r="A66" s="61"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="62"/>
+      <c r="A67" s="61"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="62"/>
+      <c r="A68" s="61"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="62"/>
+      <c r="A69" s="61"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="62"/>
+      <c r="A70" s="61"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="62"/>
+      <c r="A71" s="61"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="62"/>
+      <c r="A72" s="61"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="62"/>
+      <c r="A73" s="61"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="62"/>
+      <c r="A74" s="61"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="62"/>
+      <c r="A75" s="61"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="62"/>
+      <c r="A76" s="61"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="62"/>
+      <c r="A77" s="61"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="62"/>
+      <c r="A78" s="61"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="62"/>
+      <c r="A79" s="61"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="62"/>
+      <c r="A80" s="61"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="62"/>
+      <c r="A81" s="61"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="62"/>
+      <c r="A82" s="61"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="62"/>
+      <c r="A83" s="61"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="62"/>
+      <c r="A84" s="61"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="62"/>
+      <c r="A85" s="61"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="62"/>
+      <c r="A86" s="61"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="62"/>
+      <c r="A87" s="61"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
+      <c r="A88" s="61"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="62"/>
+      <c r="A89" s="61"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="62"/>
+      <c r="A90" s="61"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="62"/>
+      <c r="A91" s="61"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="62"/>
+      <c r="A92" s="61"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="62"/>
+      <c r="A93" s="61"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="62"/>
+      <c r="A94" s="61"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="62"/>
+      <c r="A95" s="61"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="62"/>
+      <c r="A96" s="61"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="62"/>
+      <c r="A97" s="61"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="62"/>
+      <c r="A98" s="61"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="62"/>
+      <c r="A99" s="61"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="62"/>
+      <c r="A100" s="61"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="62"/>
+      <c r="A101" s="61"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="62"/>
+      <c r="A102" s="61"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="62"/>
+      <c r="A103" s="61"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="62"/>
+      <c r="A104" s="61"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="62"/>
+      <c r="A105" s="61"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="62"/>
+      <c r="A106" s="61"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="62"/>
+      <c r="A107" s="61"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="62"/>
+      <c r="A108" s="61"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="62"/>
+      <c r="A109" s="61"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="62"/>
+      <c r="A110" s="61"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="62"/>
+      <c r="A111" s="61"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="62"/>
+      <c r="A112" s="61"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="62"/>
+      <c r="A113" s="61"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="62"/>
+      <c r="A114" s="61"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="62"/>
+      <c r="A115" s="61"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="62"/>
+      <c r="A116" s="61"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="62"/>
+      <c r="A117" s="61"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="62"/>
+      <c r="A118" s="61"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="62"/>
+      <c r="A119" s="61"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="62"/>
+      <c r="A120" s="61"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="62"/>
+      <c r="A121" s="61"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="62"/>
+      <c r="A122" s="61"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="62"/>
+      <c r="A123" s="61"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="62"/>
+      <c r="A124" s="61"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="62"/>
+      <c r="A125" s="61"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="62"/>
+      <c r="A126" s="61"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="62"/>
+      <c r="A127" s="61"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="62"/>
+      <c r="A128" s="61"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="62"/>
+      <c r="A129" s="61"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="62"/>
+      <c r="A130" s="61"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="62"/>
+      <c r="A131" s="61"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="62"/>
+      <c r="A132" s="61"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="62"/>
+      <c r="A133" s="61"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="62"/>
+      <c r="A134" s="61"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="62"/>
+      <c r="A135" s="61"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="62"/>
+      <c r="A136" s="61"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="62"/>
+      <c r="A137" s="61"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="62"/>
+      <c r="A138" s="61"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="62"/>
+      <c r="A139" s="61"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="62"/>
+      <c r="A140" s="61"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="62"/>
+      <c r="A141" s="61"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="62"/>
+      <c r="A142" s="61"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="62"/>
+      <c r="A143" s="61"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="62"/>
+      <c r="A144" s="61"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="62"/>
+      <c r="A145" s="61"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="62"/>
+      <c r="A146" s="61"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="62"/>
+      <c r="A147" s="61"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="62"/>
+      <c r="A148" s="61"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="62"/>
+      <c r="A149" s="61"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="62"/>
+      <c r="A150" s="61"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="62"/>
+      <c r="A151" s="61"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="62"/>
+      <c r="A152" s="61"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="62"/>
+      <c r="A153" s="61"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="62"/>
+      <c r="A154" s="61"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="62"/>
+      <c r="A155" s="61"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="62"/>
+      <c r="A156" s="61"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="62"/>
+      <c r="A157" s="61"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="62"/>
+      <c r="A158" s="61"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="62"/>
+      <c r="A159" s="61"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="62"/>
+      <c r="A160" s="61"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="62"/>
+      <c r="A161" s="61"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="62"/>
+      <c r="A162" s="61"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="62"/>
+      <c r="A163" s="61"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="62"/>
+      <c r="A164" s="61"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="62"/>
+      <c r="A165" s="61"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="62"/>
+      <c r="A166" s="61"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="62"/>
+      <c r="A167" s="61"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="62"/>
+      <c r="A168" s="61"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="62"/>
+      <c r="A169" s="61"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="62"/>
+      <c r="A170" s="61"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="62"/>
+      <c r="A171" s="61"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="62"/>
+      <c r="A172" s="61"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="62"/>
+      <c r="A173" s="61"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="62"/>
+      <c r="A174" s="61"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="62"/>
+      <c r="A175" s="61"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="62"/>
+      <c r="A176" s="61"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="62"/>
+      <c r="A177" s="61"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="62"/>
+      <c r="A178" s="61"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="62"/>
+      <c r="A179" s="61"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="62"/>
+      <c r="A180" s="61"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="62"/>
+      <c r="A181" s="61"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="62"/>
+      <c r="A182" s="61"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="62"/>
+      <c r="A183" s="61"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="62"/>
+      <c r="A184" s="61"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="62"/>
+      <c r="A185" s="61"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="62"/>
+      <c r="A186" s="61"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="62"/>
+      <c r="A187" s="61"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="62"/>
+      <c r="A188" s="61"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="62"/>
+      <c r="A189" s="61"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="62"/>
+      <c r="A190" s="61"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="62"/>
+      <c r="A191" s="61"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="62"/>
+      <c r="A192" s="61"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="62"/>
+      <c r="A193" s="61"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="62"/>
+      <c r="A194" s="61"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="62"/>
+      <c r="A195" s="61"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="62"/>
+      <c r="A196" s="61"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="62"/>
+      <c r="A197" s="61"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="62"/>
+      <c r="A198" s="61"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="62"/>
+      <c r="A199" s="61"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="62"/>
+      <c r="A200" s="61"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="62"/>
+      <c r="A201" s="61"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="62"/>
+      <c r="A202" s="61"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="62"/>
+      <c r="A203" s="61"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="62"/>
+      <c r="A204" s="61"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="62"/>
+      <c r="A205" s="61"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="62"/>
+      <c r="A206" s="61"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="62"/>
+      <c r="A207" s="61"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="62"/>
+      <c r="A208" s="61"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="62"/>
+      <c r="A209" s="61"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="62"/>
+      <c r="A210" s="61"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="62"/>
+      <c r="A211" s="61"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="62"/>
+      <c r="A212" s="61"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="62"/>
+      <c r="A213" s="61"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="62"/>
+      <c r="A214" s="61"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="62"/>
+      <c r="A215" s="61"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="62"/>
+      <c r="A216" s="61"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="62"/>
+      <c r="A217" s="61"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="62"/>
+      <c r="A218" s="61"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="62"/>
+      <c r="A219" s="61"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="62"/>
+      <c r="A220" s="61"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="542">
   <si>
     <t>Date</t>
   </si>
@@ -1229,9 +1229,6 @@
     <t>RT.MAT.001.CRE.01</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -1340,9 +1337,6 @@
     <t>RT.MAT.001.CRE.02</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
     <t>ART.RT.MAT.001.CRE.02</t>
   </si>
   <si>
@@ -1418,9 +1412,6 @@
     <t>RT.MAT.001.CRE.03</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
     <t>ART.RT.MAT.001.CRE.03</t>
   </si>
   <si>
@@ -1496,9 +1487,6 @@
     <t>RT.MAT.001.CRE.04</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
     <t>ART.RT.MAT.001.CRE.04</t>
   </si>
   <si>
@@ -1550,9 +1538,6 @@
     <t>RT.MAT.001.CRE.05</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
     <t>ART.RT.MAT.001.CRE.05</t>
   </si>
   <si>
@@ -1598,9 +1583,6 @@
     <t>RT.MAT.001.CRE.06</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
     <t>ART.RT.MAT.001.CRE.06</t>
   </si>
   <si>
@@ -1649,9 +1631,6 @@
     <t>RT.MAT.001.CRE.07</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
     <t>ART.RT.MAT.001.CRE.07</t>
   </si>
   <si>
@@ -1703,9 +1682,6 @@
     <t>RT.MAT.001.LEC.01</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
     <t>ART.RT.MAT.001.LEC.01</t>
   </si>
   <si>
@@ -1748,9 +1724,6 @@
     <t>RT.MAT.001.MAJ.01</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
     <t>ART.UPD.RT.MAT.001.MAJ.01</t>
   </si>
   <si>
@@ -1760,7 +1733,7 @@
     <t>ORG.UPD.RT.MAT.001.MAJ.01.....</t>
   </si>
   <si>
-    <t>UPD.MAT.RT.MAT.001.MAJ.01</t>
+    <t>UPD.RT.MAT.001.MAJ.01</t>
   </si>
   <si>
     <t>UPD.A1B9</t>
@@ -1802,13 +1775,7 @@
     <t>RT.MAT.001.SUP.01</t>
   </si>
   <si>
-    <t>MAT.RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
     <t>RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>MAT.RT.MAT.001.REC.01</t>
   </si>
   <si>
     <t>EMP_ID</t>
@@ -1931,6 +1898,18 @@
   </si>
   <si>
     <t>$TABSELECTED$state</t>
+  </si>
+  <si>
+    <t>input_Filtre_Grille</t>
+  </si>
+  <si>
+    <t>$FILTREGRILLE$ID_NUMMAT</t>
+  </si>
+  <si>
+    <t>td_Grille</t>
+  </si>
+  <si>
+    <t>$TDGRILLE$4$ID_NUMMAT</t>
   </si>
   <si>
     <t>Champ</t>
@@ -2206,7 +2185,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2415,7 +2394,12 @@
     <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -6967,7 +6951,7 @@
     <col customWidth="1" min="6" max="6" width="10.13"/>
     <col customWidth="1" min="7" max="7" width="17.75"/>
     <col customWidth="1" min="11" max="11" width="13.0"/>
-    <col customWidth="1" min="12" max="12" width="19.88"/>
+    <col customWidth="1" min="12" max="12" width="28.88"/>
     <col customWidth="1" min="14" max="14" width="26.63"/>
     <col customWidth="1" min="15" max="15" width="31.75"/>
     <col customWidth="1" min="23" max="23" width="13.5"/>
@@ -8972,58 +8956,58 @@
         <v>321</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C8" s="50">
         <v>1005.0</v>
       </c>
       <c r="D8" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="E8" s="51" t="s">
-        <v>324</v>
-      </c>
       <c r="F8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="K8" s="52" t="s">
+      <c r="L8" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="M8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N8" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="P8" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="P8" s="53" t="s">
+      <c r="Q8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S8" s="33" t="s">
         <v>331</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>332</v>
       </c>
       <c r="T8" s="19">
         <v>10000.0</v>
@@ -9035,49 +9019,49 @@
         <v>45658.0</v>
       </c>
       <c r="W8" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X8" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA8" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB8" s="19" t="s">
         <v>334</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>335</v>
       </c>
       <c r="AC8" s="19">
         <v>1000.0</v>
       </c>
       <c r="AD8" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE8" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF8" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="AE8" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF8" s="56" t="s">
+      <c r="AG8" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="AH8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ8" s="50" t="s">
         <v>337</v>
       </c>
-      <c r="AG8" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ8" s="50" t="s">
-        <v>338</v>
-      </c>
       <c r="AK8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL8" s="19">
         <v>9999.0</v>
@@ -9092,40 +9076,40 @@
         <v>10000.0</v>
       </c>
       <c r="AP8" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="AQ8" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="AQ8" s="19" t="s">
+      <c r="AR8" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS8" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT8" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AU8" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV8" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW8" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AX8" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY8" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="AR8" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AS8" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AT8" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AU8" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AV8" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW8" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AX8" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AY8" s="19" t="s">
+      <c r="AZ8" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="AZ8" s="53" t="s">
+      <c r="BA8" s="19" t="s">
         <v>342</v>
-      </c>
-      <c r="BA8" s="19" t="s">
-        <v>343</v>
       </c>
       <c r="BB8" s="54">
         <v>44562.0</v>
@@ -9149,22 +9133,22 @@
         <v>12.0</v>
       </c>
       <c r="BI8" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ8" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK8" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="BL8" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="BL8" s="19" t="s">
+      <c r="BM8" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="BM8" s="19" t="s">
+      <c r="BN8" s="19" t="s">
         <v>346</v>
-      </c>
-      <c r="BN8" s="19" t="s">
-        <v>347</v>
       </c>
       <c r="BO8" s="19">
         <v>1000.0</v>
@@ -9176,219 +9160,219 @@
         <v>1100.0</v>
       </c>
       <c r="BR8" s="57" t="s">
+        <v>347</v>
+      </c>
+      <c r="BS8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="BT8" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="BS8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="BT8" s="19" t="s">
-        <v>349</v>
-      </c>
       <c r="BU8" s="56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="BV8" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW8" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX8" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY8" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ8" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB8" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="CC8" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="CC8" s="19" t="s">
+      <c r="CD8" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="CD8" s="19" t="s">
+      <c r="CE8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CG8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CH8" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="CI8" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="CJ8" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK8" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="CL8" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="CE8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CF8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CG8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CH8" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="CI8" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="CJ8" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="CK8" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="CL8" s="50" t="s">
+      <c r="CM8" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="CN8" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="CO8" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="CP8" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="CQ8" s="19" t="s">
         <v>353</v>
-      </c>
-      <c r="CM8" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="CN8" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="CO8" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="CP8" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="CQ8" s="19" t="s">
-        <v>354</v>
       </c>
       <c r="CR8" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS8" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="CT8" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CU8" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="CT8" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="CU8" s="19" t="s">
+      <c r="CV8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CW8" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX8" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="CV8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CW8" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX8" s="58" t="s">
-        <v>357</v>
-      </c>
       <c r="CY8" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="51" t="s">
         <v>358</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="F9" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9" s="51" t="s">
+      <c r="M9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="K9" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="L9" s="19" t="s">
+      <c r="O9" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="M9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N9" s="19" t="s">
+      <c r="P9" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="O9" s="19" t="s">
+      <c r="R9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S9" s="33" t="s">
         <v>363</v>
-      </c>
-      <c r="P9" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S9" s="33" t="s">
-        <v>365</v>
       </c>
       <c r="T9" s="19">
         <v>20000.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V9" s="54">
         <v>45658.0</v>
       </c>
       <c r="W9" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X9" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AC9" s="19">
         <v>1010.0</v>
       </c>
       <c r="AD9" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE9" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF9" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="AE9" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF9" s="56" t="s">
-        <v>337</v>
-      </c>
       <c r="AG9" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ9" s="50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL9" s="19">
         <v>1999.0</v>
@@ -9403,40 +9387,40 @@
         <v>20000.0</v>
       </c>
       <c r="AP9" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ9" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AR9" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS9" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AT9" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AU9" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AV9" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW9" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AX9" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AY9" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ9" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="AQ9" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AR9" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AS9" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AT9" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AU9" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AV9" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW9" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AX9" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AY9" s="19" t="s">
+      <c r="BA9" s="19" t="s">
         <v>369</v>
-      </c>
-      <c r="AZ9" s="53" t="s">
-        <v>370</v>
-      </c>
-      <c r="BA9" s="19" t="s">
-        <v>371</v>
       </c>
       <c r="BB9" s="54">
         <v>44562.0</v>
@@ -9460,22 +9444,22 @@
         <v>12.0</v>
       </c>
       <c r="BI9" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ9" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK9" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="BL9" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="BM9" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="BL9" s="19" t="s">
+      <c r="BN9" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="BM9" s="19" t="s">
-        <v>374</v>
-      </c>
-      <c r="BN9" s="19" t="s">
-        <v>375</v>
       </c>
       <c r="BO9" s="19">
         <v>1010.0</v>
@@ -9487,177 +9471,177 @@
         <v>1110.0</v>
       </c>
       <c r="BR9" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BS9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU9" s="56" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="BV9" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW9" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX9" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY9" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ9" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB9" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="CC9" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="CD9" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="CC9" s="19" t="s">
+      <c r="CE9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CG9" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CH9" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="CI9" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="CJ9" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="CK9" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="CL9" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="CD9" s="19" t="s">
+      <c r="CM9" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="CN9" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="CO9" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="CP9" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="CQ9" s="19" t="s">
         <v>379</v>
-      </c>
-      <c r="CE9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CF9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CG9" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CH9" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="CI9" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="CJ9" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="CK9" s="19" t="s">
-        <v>362</v>
-      </c>
-      <c r="CL9" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="CM9" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="CN9" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="CO9" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="CP9" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="CQ9" s="19" t="s">
-        <v>381</v>
       </c>
       <c r="CR9" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS9" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CT9" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CU9" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="CV9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CW9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CX9" s="58" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="CY9" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="M10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="N10" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10" s="51" t="s">
+      <c r="O10" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="L10" s="19" t="s">
+      <c r="P10" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q10" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="M10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N10" s="19" t="s">
+      <c r="R10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S10" s="33" t="s">
         <v>388</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="P10" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="R10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>391</v>
       </c>
       <c r="T10" s="19">
         <v>30000.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V10" s="54">
         <v>45658.0</v>
       </c>
       <c r="W10" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X10" s="54">
         <v>44593.0</v>
@@ -9669,37 +9653,37 @@
         <v>44652.0</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AC10" s="19">
         <v>1020.0</v>
       </c>
       <c r="AD10" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE10" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF10" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="AE10" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF10" s="56" t="s">
-        <v>337</v>
-      </c>
       <c r="AG10" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ10" s="50" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL10" s="19">
         <v>2999.0</v>
@@ -9714,40 +9698,40 @@
         <v>30000.0</v>
       </c>
       <c r="AP10" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AR10" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AS10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AU10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV10" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AX10" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AY10" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="AZ10" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="BA10" s="19" t="s">
         <v>394</v>
-      </c>
-      <c r="AQ10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AR10" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AS10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AT10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AU10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AV10" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="AW10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AX10" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="AY10" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="AZ10" s="53" t="s">
-        <v>396</v>
-      </c>
-      <c r="BA10" s="19" t="s">
-        <v>397</v>
       </c>
       <c r="BB10" s="54">
         <v>44562.0</v>
@@ -9771,22 +9755,22 @@
         <v>12.0</v>
       </c>
       <c r="BI10" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ10" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK10" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="BL10" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="BM10" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="BN10" s="19" t="s">
         <v>398</v>
-      </c>
-      <c r="BL10" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="BM10" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="BN10" s="19" t="s">
-        <v>401</v>
       </c>
       <c r="BO10" s="19">
         <v>1020.0</v>
@@ -9798,219 +9782,219 @@
         <v>1120.0</v>
       </c>
       <c r="BR10" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BS10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="BU10" s="56" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="BV10" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW10" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX10" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY10" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ10" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB10" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="CC10" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="CD10" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="CE10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CF10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CG10" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CH10" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="CI10" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="CJ10" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="CK10" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="CL10" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="CC10" s="19" t="s">
+      <c r="CM10" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="CN10" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="CO10" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="CP10" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="CQ10" s="19" t="s">
         <v>404</v>
-      </c>
-      <c r="CD10" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="CE10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CF10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CG10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CH10" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="CI10" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="CJ10" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="CK10" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="CL10" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="CM10" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="CN10" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="CO10" s="50" t="s">
-        <v>406</v>
-      </c>
-      <c r="CP10" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="CQ10" s="19" t="s">
-        <v>407</v>
       </c>
       <c r="CR10" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS10" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CT10" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CU10" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="CV10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CW10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CX10" s="58" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="CY10" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="O11" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="51" t="s">
+      <c r="P11" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q11" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="P11" s="53" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>416</v>
-      </c>
       <c r="R11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S11" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T11" s="19">
         <v>40000.0</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V11" s="54">
         <v>45658.0</v>
       </c>
       <c r="W11" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X11" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AC11" s="19">
         <v>1030.0</v>
       </c>
       <c r="AD11" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE11" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF11" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="AE11" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF11" s="56" t="s">
-        <v>337</v>
-      </c>
       <c r="AG11" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ11" s="50" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AL11" s="19">
         <v>3999.0</v>
@@ -10025,40 +10009,40 @@
         <v>40000.0</v>
       </c>
       <c r="AP11" s="19" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AR11" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AS11" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AT11" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU11" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AX11" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AZ11" s="53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BA11" s="19" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="BB11" s="54">
         <v>44562.0</v>
@@ -10082,22 +10066,22 @@
         <v>12.0</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ11" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="BL11" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="BN11" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BO11" s="19">
         <v>1030.0</v>
@@ -10109,219 +10093,219 @@
         <v>1130.0</v>
       </c>
       <c r="BR11" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BS11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="BU11" s="56" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="BV11" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW11" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX11" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY11" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ11" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB11" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="CC11" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="CC11" s="19" t="s">
+      <c r="CD11" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="CD11" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="CE11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CH11" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="CI11" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="CJ11" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="CK11" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="CL11" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CM11" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CN11" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CO11" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="CP11" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="CI11" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="CJ11" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="CK11" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="CL11" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="CM11" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="CN11" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="CO11" s="50" t="s">
-        <v>426</v>
-      </c>
-      <c r="CP11" s="50" t="s">
-        <v>418</v>
-      </c>
       <c r="CQ11" s="19" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="CR11" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS11" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="CT11" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CU11" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="CT11" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="CU11" s="19" t="s">
+      <c r="CV11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CW11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX11" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="CV11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CW11" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX11" s="58" t="s">
-        <v>357</v>
-      </c>
       <c r="CY11" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="B12" s="50" t="s">
-        <v>429</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>430</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="K12" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>433</v>
-      </c>
       <c r="P12" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S12" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T12" s="19">
         <v>50000.0</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V12" s="54">
         <v>45658.0</v>
       </c>
       <c r="W12" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X12" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AC12" s="19">
         <v>1040.0</v>
       </c>
       <c r="AD12" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE12" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF12" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="AE12" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF12" s="56" t="s">
-        <v>337</v>
-      </c>
       <c r="AG12" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ12" s="50" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AL12" s="19">
         <v>4999.0</v>
@@ -10336,40 +10320,40 @@
         <v>50000.0</v>
       </c>
       <c r="AP12" s="19" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AQ12" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AR12" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AT12" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU12" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AX12" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AY12" s="19" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="AZ12" s="53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="BA12" s="19" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="BB12" s="54">
         <v>44562.0</v>
@@ -10393,22 +10377,22 @@
         <v>12.0</v>
       </c>
       <c r="BI12" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ12" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK12" s="19" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="BL12" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="BM12" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="BN12" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="BM12" s="19" t="s">
-        <v>440</v>
-      </c>
-      <c r="BN12" s="19" t="s">
-        <v>375</v>
       </c>
       <c r="BO12" s="19">
         <v>1040.0</v>
@@ -10420,219 +10404,219 @@
         <v>1140.0</v>
       </c>
       <c r="BR12" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BS12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="BU12" s="56" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="BV12" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW12" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX12" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY12" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ12" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB12" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="CC12" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="CD12" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="CC12" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="CD12" s="19" t="s">
-        <v>379</v>
-      </c>
       <c r="CE12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CG12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="CI12" s="19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="CJ12" s="19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="CL12" s="50" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="CM12" s="50" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="CN12" s="50" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="CO12" s="50" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="CP12" s="50" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="CQ12" s="19" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="CR12" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS12" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CT12" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CU12" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="CV12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CW12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CX12" s="58" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="CY12" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J13" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>446</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J13" s="19" t="s">
+      <c r="K13" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="K13" s="52" t="s">
-        <v>327</v>
-      </c>
       <c r="L13" s="19" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P13" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="T13" s="19">
         <v>60000.0</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V13" s="54">
         <v>45658.0</v>
       </c>
       <c r="W13" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X13" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="AC13" s="19">
         <v>1050.0</v>
       </c>
       <c r="AD13" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE13" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF13" s="56" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ13" s="50" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AL13" s="19">
         <v>5999.0</v>
@@ -10647,40 +10631,40 @@
         <v>60000.0</v>
       </c>
       <c r="AP13" s="19" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="AQ13" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AR13" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AS13" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AT13" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU13" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AV13" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AW13" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AY13" s="19" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="AZ13" s="53" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="BA13" s="19" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="BB13" s="54">
         <v>44562.0</v>
@@ -10704,22 +10688,22 @@
         <v>12.0</v>
       </c>
       <c r="BI13" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ13" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK13" s="19" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="BL13" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="BM13" s="19" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="BN13" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BO13" s="19">
         <v>1050.0</v>
@@ -10731,219 +10715,219 @@
         <v>1150.0</v>
       </c>
       <c r="BR13" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BS13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT13" s="19" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="BU13" s="56" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="BV13" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW13" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX13" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY13" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ13" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB13" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="CC13" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="CD13" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="CE13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CG13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CH13" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="CI13" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="CJ13" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="CK13" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="CL13" s="50" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="CM13" s="50" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="CN13" s="50" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="CO13" s="50" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="CP13" s="50" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="CQ13" s="19" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="CR13" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS13" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CT13" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CU13" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="CV13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CW13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CX13" s="58" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="CY13" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J14" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E14" s="51" t="s">
-        <v>463</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J14" s="19" t="s">
+      <c r="K14" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="K14" s="52" t="s">
-        <v>327</v>
-      </c>
       <c r="L14" s="19" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="P14" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S14" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T14" s="19">
         <v>70000.0</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V14" s="54">
         <v>45658.0</v>
       </c>
       <c r="W14" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X14" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="AC14" s="19">
         <v>1060.0</v>
       </c>
       <c r="AD14" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AE14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF14" s="56" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AG14" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ14" s="50" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AL14" s="19">
         <v>6999.0</v>
@@ -10958,40 +10942,40 @@
         <v>70000.0</v>
       </c>
       <c r="AP14" s="19" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="AQ14" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AR14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AT14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AV14" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AW14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AX14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AY14" s="19" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="AZ14" s="53" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="BA14" s="19" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="BB14" s="54">
         <v>44562.0</v>
@@ -11015,22 +10999,22 @@
         <v>12.0</v>
       </c>
       <c r="BI14" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ14" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK14" s="19" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="BL14" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="BM14" s="19" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="BN14" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BO14" s="19">
         <v>1060.0</v>
@@ -11042,219 +11026,219 @@
         <v>1160.0</v>
       </c>
       <c r="BR14" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BS14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT14" s="19" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="BU14" s="56" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="BV14" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW14" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX14" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY14" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ14" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB14" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="CC14" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="CD14" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="CE14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CG14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CH14" s="19" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="CI14" s="19" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="CJ14" s="19" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="CK14" s="19" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="CL14" s="50" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="CM14" s="50" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="CN14" s="50" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="CO14" s="50" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="CP14" s="50" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="CQ14" s="19" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="CR14" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS14" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="CT14" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="CU14" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="CT14" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="CU14" s="19" t="s">
+      <c r="CV14" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="CW14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="CX14" s="58" t="s">
         <v>356</v>
       </c>
-      <c r="CV14" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="CW14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="CX14" s="58" t="s">
-        <v>357</v>
-      </c>
       <c r="CY14" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>473</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E15" s="51" t="s">
-        <v>481</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>326</v>
       </c>
       <c r="K15" s="59">
         <v>1000.0</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="O15" s="50" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>411</v>
       </c>
       <c r="P15" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T15" s="19">
         <v>80000.0</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V15" s="54">
         <v>45658.0</v>
       </c>
       <c r="W15" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X15" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="AC15" s="19">
         <v>1070.0</v>
       </c>
       <c r="AD15" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE15" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF15" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="AE15" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF15" s="56" t="s">
-        <v>337</v>
-      </c>
       <c r="AG15" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ15" s="50" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AL15" s="19">
         <v>7999.0</v>
@@ -11269,40 +11253,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP15" s="19" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="AQ15" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AR15" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AS15" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AT15" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AU15" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AV15" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AW15" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AX15" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AY15" s="19" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AZ15" s="53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="BA15" s="19" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="BB15" s="54">
         <v>44562.0</v>
@@ -11326,22 +11310,22 @@
         <v>12.0</v>
       </c>
       <c r="BI15" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ15" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK15" s="19" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="BL15" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="BM15" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="BN15" s="19" t="s">
         <v>373</v>
-      </c>
-      <c r="BM15" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="BN15" s="19" t="s">
-        <v>375</v>
       </c>
       <c r="BO15" s="19">
         <v>1070.0</v>
@@ -11353,219 +11337,219 @@
         <v>1170.0</v>
       </c>
       <c r="BR15" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BS15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT15" s="19" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="BU15" s="56" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="BV15" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW15" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX15" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY15" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ15" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB15" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="CC15" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="CD15" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="CC15" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="CD15" s="19" t="s">
-        <v>379</v>
-      </c>
       <c r="CE15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CG15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CH15" s="19" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="CI15" s="19" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="CJ15" s="19" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="CK15" s="19" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="CL15" s="50" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="CM15" s="50" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="CN15" s="50" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="CO15" s="50" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="CP15" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="CQ15" s="19" t="s">
         <v>485</v>
-      </c>
-      <c r="CQ15" s="19" t="s">
-        <v>493</v>
       </c>
       <c r="CR15" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS15" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CT15" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CU15" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="CV15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CW15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CX15" s="58" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="CY15" s="19" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="C16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="J16" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="E16" s="51" t="s">
-        <v>496</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>326</v>
       </c>
       <c r="K16" s="59">
         <v>1001.0</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="P16" s="53" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T16" s="19">
         <v>90000.0</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="V16" s="54">
         <v>45658.0</v>
       </c>
       <c r="W16" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="X16" s="54">
         <v>44593.0</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AB16" s="19" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="AC16" s="19">
         <v>1080.0</v>
       </c>
       <c r="AD16" s="33" t="s">
+        <v>335</v>
+      </c>
+      <c r="AE16" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="AF16" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="AE16" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="AF16" s="56" t="s">
-        <v>337</v>
-      </c>
       <c r="AG16" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AJ16" s="50" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="AL16" s="19">
         <v>8999.0</v>
@@ -11580,40 +11564,40 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="19" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="AQ16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AR16" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AS16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AT16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AU16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AV16" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AW16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AX16" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AY16" s="19" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="AZ16" s="53" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="BA16" s="19" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="BB16" s="54">
         <v>44562.0</v>
@@ -11637,22 +11621,22 @@
         <v>12.0</v>
       </c>
       <c r="BI16" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BJ16" s="33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BK16" s="19" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="BL16" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="BM16" s="19" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="BN16" s="19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BO16" s="19">
         <v>1080.0</v>
@@ -11664,114 +11648,114 @@
         <v>1180.0</v>
       </c>
       <c r="BR16" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BS16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BT16" s="19" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="BU16" s="56" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="BV16" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BW16" s="55" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BX16" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BY16" s="33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BZ16" s="54">
         <v>44562.0</v>
       </c>
       <c r="CA16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CB16" s="19" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="CC16" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="CD16" s="19" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="CE16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CF16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CG16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CH16" s="19" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="CI16" s="19" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="CJ16" s="19" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="CK16" s="19" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="CL16" s="50" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="CM16" s="50" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="CN16" s="50" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="CO16" s="50" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="CP16" s="50" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="CQ16" s="19" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="CR16" s="54">
         <v>44227.0</v>
       </c>
       <c r="CS16" s="19" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="CT16" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CU16" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="CV16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CW16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="CX16" s="58" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="CY16" s="19" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C17" s="60"/>
       <c r="D17" s="60"/>
@@ -11877,10 +11861,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="60"/>
@@ -15185,7 +15169,7 @@
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="46" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="M5" s="66"/>
       <c r="N5" s="66"/>
@@ -15286,94 +15270,94 @@
         <v>321</v>
       </c>
       <c r="B8" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I8" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V8" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W8" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="X8" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="X8" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="Y8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB8" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AE8" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -15381,1234 +15365,1234 @@
         <v>321</v>
       </c>
       <c r="B9" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D9" s="50">
         <v>1005.0</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S9" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V9" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W9" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="X9" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="X9" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="Y9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB9" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AE9" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S10" s="50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="W10" s="53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB10" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AE10" s="53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I11" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="W11" s="53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB11" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AE11" s="53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B12" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C12" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S12" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="U12" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I12" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S12" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="T12" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>388</v>
-      </c>
       <c r="V12" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="W12" s="53" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB12" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC12" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD12" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE12" s="53" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="I13" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>511</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="U13" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>390</v>
-      </c>
-      <c r="I13" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>522</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="R13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S13" s="50" t="s">
-        <v>393</v>
-      </c>
-      <c r="T13" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>388</v>
-      </c>
       <c r="V13" s="19" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="W13" s="53" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB13" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD13" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE13" s="53" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="I14" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S14" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="U14" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B14" s="70" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="I14" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>517</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S14" s="50" t="s">
-        <v>418</v>
-      </c>
-      <c r="T14" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>414</v>
-      </c>
       <c r="V14" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W14" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="X14" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="X14" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="Y14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB14" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC14" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD14" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AE14" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="I15" s="71" t="s">
+        <v>332</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>512</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="S15" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="U15" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B15" s="70" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="I15" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>521</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>523</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="R15" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="S15" s="50" t="s">
-        <v>418</v>
-      </c>
-      <c r="T15" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>414</v>
-      </c>
       <c r="V15" s="19" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="W15" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="X15" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="X15" s="19" t="s">
-        <v>352</v>
-      </c>
       <c r="Y15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB15" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD15" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AE15" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B16" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I16" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S16" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="T16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="V16" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="T16" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>440</v>
-      </c>
       <c r="W16" s="53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="X16" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB16" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC16" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD16" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE16" s="53" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I17" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S17" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="T17" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="U17" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="V17" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="T17" s="19" t="s">
-        <v>419</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>440</v>
-      </c>
       <c r="W17" s="53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA17" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB17" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC17" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD17" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AE17" s="53" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B18" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S18" s="50" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="T18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="V18" s="19" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="W18" s="53" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB18" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC18" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD18" s="19" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AE18" s="53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="49" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I19" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S19" s="50" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="V19" s="19" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="W19" s="53" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB19" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC19" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD19" s="19" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="AE19" s="53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="49" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B20" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I20" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S20" s="50" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="T20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U20" s="19" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="V20" s="19" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="W20" s="53" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="X20" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB20" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC20" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD20" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AE20" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="49" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B21" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I21" s="71" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S21" s="50" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="V21" s="19" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="W21" s="53" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="X21" s="19" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Z21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AA21" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AB21" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC21" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD21" s="19" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AE21" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -18105,24 +18089,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B7" s="72">
         <v>1000.0</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B8" s="72">
         <v>1001.0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -18130,76 +18114,76 @@
         <v>321</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B14" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -19626,107 +19610,127 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="73" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B1" s="74" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C3" s="75" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="B7" s="75" t="s">
-        <v>542</v>
-      </c>
       <c r="C7" s="75" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="76" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>540</v>
+      </c>
+    </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="C12" s="76"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1"/>
@@ -20747,7 +20751,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="324" yWindow="516" windowWidth="21852" windowHeight="6828" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="001A" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="001B" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="001C" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="IHMTO" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="MODELE" sheetId="8" r:id="rId11"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="001" sheetId="3" r:id="rId3"/>
+    <sheet name="001A" sheetId="4" r:id="rId4"/>
+    <sheet name="001B" sheetId="5" r:id="rId5"/>
+    <sheet name="001C" sheetId="6" r:id="rId6"/>
+    <sheet name="IHMTO" sheetId="7" r:id="rId7"/>
+    <sheet name="MODELE" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="rgHi7XYINph4HiS6Np5bNHokekgtgRx1D5XgUjSptf8="/>
@@ -23,23 +26,38 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D109">
+    <comment ref="D72" authorId="0">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAwzOfp5k
-Nicolas HUC    (2023-05-12 05:46:59)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAww_SIUo
+Nicolas HUC    (2023-05-11 11:48:01)
 @jean-marc.lafarge-ext@apave.com
 _Attribuée à Jean-Marc LAFARGE_</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G106">
+    <comment ref="G106" authorId="0">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAAAww_SIU8
 Jean-Marc LAFARGE    (2023-05-11 13:21:28)
 J'ai ajouté 
@@ -49,19 +67,28 @@
 Les JDD ADR et LIE existent déjà
 @nicolas.huc@apave.com
 _Attribuée à Nicolas HUC_</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D72">
+    <comment ref="D109" authorId="0">
       <text>
-        <t xml:space="preserve">======
-ID#AAAAww_SIUo
-Nicolas HUC    (2023-05-11 11:48:01)
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAAAwzOfp5k
+Nicolas HUC    (2023-05-12 05:46:59)
 @jean-marc.lafarge-ext@apave.com
 _Attribuée à Jean-Marc LAFARGE_</t>
+        </r>
       </text>
     </comment>
   </commentList>
-  <extLst>
+  <extLst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjlLVlQrYwCyE3FblGK95Od0/JvcQ=="/>
     </ext>
@@ -137,19 +164,19 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">PK en </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>rouge</t>
     </r>
@@ -905,168 +932,189 @@
   <si>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Calculé
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Z </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Création initiale du matricule
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">P </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Pose du matricule sur un équipement
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">D </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Dépose du matricule de l’équipement vers le stock ou en réparation. 
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">T </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Action de maintenance réalisée sur le matricule via un bon de travail
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t>X</t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> Suppression du matricule
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">G </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Changement du gestionnaire du matricule.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">I </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Inventaire du matricule.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">E </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Estimation de la valeur du matricule.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">A </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Changement de l'affectation comptable du matricule.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">B </t>
     </r>
     <r>
       <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
-        <color theme="1"/>
       </rPr>
       <t xml:space="preserve">Changement du bien patrimonial associé au matricule
 </t>
@@ -1822,28 +1870,28 @@
   <si>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve">XPATH (if xpath is dynamic, put </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FFFF0000"/>
-        <sz val="10.0"/>
       </rPr>
       <t>${FIELDNAME}</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> instead of the value of the mentioned field name.</t>
     </r>
@@ -1918,121 +1966,131 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="21">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -2042,7 +2100,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2130,7 +2188,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -2144,8 +2208,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2155,6 +2221,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2163,285 +2230,188 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="78">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="9" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="9" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="10" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="11" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="15" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -2631,31 +2601,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="17.75"/>
-    <col customWidth="1" min="3" max="3" width="59.0"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="6" width="10.63"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2675,7 +2645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -2692,9 +2662,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="5">
-        <v>45057.0</v>
+        <v>45057</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -2705,9 +2675,9 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="8">
-        <v>45057.0</v>
+        <v>45057</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>7</v>
@@ -2718,9 +2688,9 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="8">
-        <v>45057.0</v>
+        <v>45057</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>7</v>
@@ -2731,17 +2701,17 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1"/>
-    <row r="7" ht="12.75" customHeight="1"/>
-    <row r="8" ht="12.75" customHeight="1"/>
-    <row r="9" ht="12.75" customHeight="1"/>
-    <row r="10" ht="12.75" customHeight="1"/>
-    <row r="11" ht="12.75" customHeight="1"/>
-    <row r="12" ht="12.75" customHeight="1"/>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -3727,37 +3697,33 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="2.0" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A3" sqref="A3" pane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.88"/>
-    <col customWidth="1" min="2" max="2" width="53.0"/>
-    <col customWidth="1" min="3" max="3" width="24.5"/>
-    <col customWidth="1" min="4" max="4" width="28.13"/>
-    <col customWidth="1" min="5" max="5" width="10.63"/>
-    <col customWidth="1" min="6" max="6" width="11.88"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="28.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
@@ -3777,7 +3743,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -3793,7 +3759,7 @@
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
@@ -3804,7 +3770,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="11">
-        <v>1029.0</v>
+        <v>1029</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>9</v>
@@ -3813,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>25</v>
       </c>
@@ -3827,7 +3793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="18" t="s">
         <v>29</v>
       </c>
@@ -3841,7 +3807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
@@ -3861,7 +3827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>37</v>
       </c>
@@ -3878,7 +3844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
@@ -3898,7 +3864,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
@@ -3915,7 +3881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>44</v>
       </c>
@@ -3932,7 +3898,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>46</v>
       </c>
@@ -3949,7 +3915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>48</v>
       </c>
@@ -3963,7 +3929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>50</v>
       </c>
@@ -3980,7 +3946,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" s="18" t="s">
         <v>52</v>
       </c>
@@ -3997,7 +3963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>54</v>
       </c>
@@ -4014,7 +3980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>56</v>
       </c>
@@ -4031,7 +3997,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>59</v>
       </c>
@@ -4045,7 +4011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>62</v>
       </c>
@@ -4063,7 +4029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>64</v>
       </c>
@@ -4077,7 +4043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>67</v>
       </c>
@@ -4091,7 +4057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="13.2">
       <c r="A21" s="18" t="s">
         <v>69</v>
       </c>
@@ -4108,7 +4074,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>73</v>
       </c>
@@ -4122,7 +4088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>75</v>
       </c>
@@ -4136,7 +4102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>78</v>
       </c>
@@ -4150,7 +4116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" ht="12.75" customHeight="1">
+    <row r="25" spans="1:6" ht="12.75" customHeight="1">
       <c r="A25" s="18" t="s">
         <v>80</v>
       </c>
@@ -4167,7 +4133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" ht="12.75" customHeight="1">
+    <row r="26" spans="1:6" ht="12.75" customHeight="1">
       <c r="A26" s="18" t="s">
         <v>82</v>
       </c>
@@ -4181,7 +4147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" ht="12.75" customHeight="1">
+    <row r="27" spans="1:6" ht="12.75" customHeight="1">
       <c r="A27" s="18" t="s">
         <v>84</v>
       </c>
@@ -4195,7 +4161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" ht="12.75" customHeight="1">
+    <row r="28" spans="1:6" ht="12.75" customHeight="1">
       <c r="A28" s="18" t="s">
         <v>86</v>
       </c>
@@ -4209,7 +4175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="12.75" customHeight="1">
+    <row r="29" spans="1:6" ht="12.75" customHeight="1">
       <c r="A29" s="18" t="s">
         <v>88</v>
       </c>
@@ -4223,7 +4189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1">
+    <row r="30" spans="1:6" ht="12.75" customHeight="1">
       <c r="A30" s="18" t="s">
         <v>90</v>
       </c>
@@ -4237,7 +4203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" ht="12.75" customHeight="1">
+    <row r="31" spans="1:6" ht="12.75" customHeight="1">
       <c r="A31" s="18" t="s">
         <v>93</v>
       </c>
@@ -4252,7 +4218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" ht="12.75" customHeight="1">
+    <row r="32" spans="1:6" ht="12.75" customHeight="1">
       <c r="A32" s="18" t="s">
         <v>95</v>
       </c>
@@ -4272,7 +4238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" ht="12.75" customHeight="1">
+    <row r="33" spans="1:6" ht="12.75" customHeight="1">
       <c r="A33" s="18" t="s">
         <v>97</v>
       </c>
@@ -4286,7 +4252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="39.6">
       <c r="A34" s="18" t="s">
         <v>99</v>
       </c>
@@ -4303,7 +4269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" ht="12.75" customHeight="1">
+    <row r="35" spans="1:6" ht="12.75" customHeight="1">
       <c r="A35" s="18" t="s">
         <v>102</v>
       </c>
@@ -4317,7 +4283,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" ht="12.75" customHeight="1">
+    <row r="36" spans="1:6" ht="12.75" customHeight="1">
       <c r="A36" s="18" t="s">
         <v>104</v>
       </c>
@@ -4335,7 +4301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1">
+    <row r="37" spans="1:6" ht="12.75" customHeight="1">
       <c r="A37" s="18" t="s">
         <v>106</v>
       </c>
@@ -4353,7 +4319,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" ht="12.75" customHeight="1">
+    <row r="38" spans="1:6" ht="12.75" customHeight="1">
       <c r="A38" s="18" t="s">
         <v>108</v>
       </c>
@@ -4370,7 +4336,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" ht="12.75" customHeight="1">
+    <row r="39" spans="1:6" ht="12.75" customHeight="1">
       <c r="A39" s="18" t="s">
         <v>110</v>
       </c>
@@ -4384,7 +4350,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
+    <row r="40" spans="1:6" ht="12.75" customHeight="1">
       <c r="A40" s="18" t="s">
         <v>112</v>
       </c>
@@ -4398,7 +4364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
+    <row r="41" spans="1:6" ht="12.75" customHeight="1">
       <c r="A41" s="18" t="s">
         <v>114</v>
       </c>
@@ -4412,7 +4378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
+    <row r="42" spans="1:6" ht="12.75" customHeight="1">
       <c r="A42" s="18" t="s">
         <v>116</v>
       </c>
@@ -4426,7 +4392,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
+    <row r="43" spans="1:6" ht="12.75" customHeight="1">
       <c r="A43" s="18" t="s">
         <v>118</v>
       </c>
@@ -4440,7 +4406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
+    <row r="44" spans="1:6" ht="12.75" customHeight="1">
       <c r="A44" s="18" t="s">
         <v>120</v>
       </c>
@@ -4458,7 +4424,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
+    <row r="45" spans="1:6" ht="12.75" customHeight="1">
       <c r="A45" s="18" t="s">
         <v>122</v>
       </c>
@@ -4472,7 +4438,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
+    <row r="46" spans="1:6" ht="12.75" customHeight="1">
       <c r="A46" s="18" t="s">
         <v>124</v>
       </c>
@@ -4486,7 +4452,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
+    <row r="47" spans="1:6" ht="12.75" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>126</v>
       </c>
@@ -4500,7 +4466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
+    <row r="48" spans="1:6" ht="12.75" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>128</v>
       </c>
@@ -4514,7 +4480,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
+    <row r="49" spans="1:6" ht="12.75" customHeight="1">
       <c r="A49" s="18" t="s">
         <v>130</v>
       </c>
@@ -4528,7 +4494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
+    <row r="50" spans="1:6" ht="12.75" customHeight="1">
       <c r="A50" s="18" t="s">
         <v>132</v>
       </c>
@@ -4542,7 +4508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" ht="12.75" customHeight="1">
+    <row r="51" spans="1:6" ht="12.75" customHeight="1">
       <c r="A51" s="18" t="s">
         <v>134</v>
       </c>
@@ -4556,7 +4522,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" ht="12.75" customHeight="1">
+    <row r="52" spans="1:6" ht="12.75" customHeight="1">
       <c r="A52" s="18" t="s">
         <v>136</v>
       </c>
@@ -4570,7 +4536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" ht="12.75" customHeight="1">
+    <row r="53" spans="1:6" ht="12.75" customHeight="1">
       <c r="A53" s="18" t="s">
         <v>138</v>
       </c>
@@ -4587,7 +4553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" ht="12.75" customHeight="1">
+    <row r="54" spans="1:6" ht="12.75" customHeight="1">
       <c r="A54" s="18" t="s">
         <v>140</v>
       </c>
@@ -4604,7 +4570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
+    <row r="55" spans="1:6" ht="12.75" customHeight="1">
       <c r="A55" s="18" t="s">
         <v>142</v>
       </c>
@@ -4618,7 +4584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" ht="12.75" customHeight="1">
+    <row r="56" spans="1:6" ht="12.75" customHeight="1">
       <c r="A56" s="18" t="s">
         <v>145</v>
       </c>
@@ -4632,7 +4598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" ht="12.75" customHeight="1">
+    <row r="57" spans="1:6" ht="12.75" customHeight="1">
       <c r="A57" s="18" t="s">
         <v>147</v>
       </c>
@@ -4649,7 +4615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" ht="12.75" customHeight="1">
+    <row r="58" spans="1:6" ht="12.75" customHeight="1">
       <c r="A58" s="18" t="s">
         <v>149</v>
       </c>
@@ -4663,7 +4629,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
+    <row r="59" spans="1:6" ht="12.75" customHeight="1">
       <c r="A59" s="18" t="s">
         <v>151</v>
       </c>
@@ -4680,7 +4646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
+    <row r="60" spans="1:6" ht="12.75" customHeight="1">
       <c r="A60" s="18" t="s">
         <v>153</v>
       </c>
@@ -4694,7 +4660,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" ht="12.75" customHeight="1">
+    <row r="61" spans="1:6" ht="12.75" customHeight="1">
       <c r="A61" s="18" t="s">
         <v>155</v>
       </c>
@@ -4708,7 +4674,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" ht="12.75" customHeight="1">
+    <row r="62" spans="1:6" ht="12.75" customHeight="1">
       <c r="A62" s="18" t="s">
         <v>157</v>
       </c>
@@ -4722,7 +4688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" ht="12.75" customHeight="1">
+    <row r="63" spans="1:6" ht="12.75" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>159</v>
       </c>
@@ -4742,7 +4708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" ht="12.75" customHeight="1">
+    <row r="64" spans="1:6" ht="12.75" customHeight="1">
       <c r="A64" s="18" t="s">
         <v>161</v>
       </c>
@@ -4762,7 +4728,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
+    <row r="65" spans="1:6" ht="12.75" customHeight="1">
       <c r="A65" s="18" t="s">
         <v>163</v>
       </c>
@@ -4780,7 +4746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
+    <row r="66" spans="1:6" ht="12.75" customHeight="1">
       <c r="A66" s="18" t="s">
         <v>165</v>
       </c>
@@ -4798,7 +4764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" ht="12.75" customHeight="1">
+    <row r="67" spans="1:6" ht="12.75" customHeight="1">
       <c r="A67" s="18" t="s">
         <v>167</v>
       </c>
@@ -4813,7 +4779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" ht="12.75" customHeight="1">
+    <row r="68" spans="1:6" ht="12.75" customHeight="1">
       <c r="A68" s="18" t="s">
         <v>169</v>
       </c>
@@ -4830,7 +4796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" ht="12.75" customHeight="1">
+    <row r="69" spans="1:6" ht="12.75" customHeight="1">
       <c r="A69" s="18" t="s">
         <v>171</v>
       </c>
@@ -4844,7 +4810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" ht="12.75" customHeight="1">
+    <row r="70" spans="1:6" ht="12.75" customHeight="1">
       <c r="A70" s="18" t="s">
         <v>173</v>
       </c>
@@ -4858,7 +4824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" ht="12.75" customHeight="1">
+    <row r="71" spans="1:6" ht="12.75" customHeight="1">
       <c r="A71" s="18" t="s">
         <v>175</v>
       </c>
@@ -4872,7 +4838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" ht="26.4">
       <c r="A72" s="18" t="s">
         <v>177</v>
       </c>
@@ -4889,7 +4855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" ht="12.75" customHeight="1">
+    <row r="73" spans="1:6" ht="12.75" customHeight="1">
       <c r="A73" s="18" t="s">
         <v>180</v>
       </c>
@@ -4906,7 +4872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" ht="12.75" customHeight="1">
+    <row r="74" spans="1:6" ht="12.75" customHeight="1">
       <c r="A74" s="18" t="s">
         <v>182</v>
       </c>
@@ -4920,7 +4886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" ht="12.75" customHeight="1">
+    <row r="75" spans="1:6" ht="12.75" customHeight="1">
       <c r="A75" s="18" t="s">
         <v>184</v>
       </c>
@@ -4937,7 +4903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="76" ht="12.75" customHeight="1">
+    <row r="76" spans="1:6" ht="12.75" customHeight="1">
       <c r="A76" s="18" t="s">
         <v>186</v>
       </c>
@@ -4954,7 +4920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" ht="12.75" customHeight="1">
+    <row r="77" spans="1:6" ht="12.75" customHeight="1">
       <c r="A77" s="18" t="s">
         <v>188</v>
       </c>
@@ -4971,7 +4937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" ht="12.75" customHeight="1">
+    <row r="78" spans="1:6" ht="12.75" customHeight="1">
       <c r="A78" s="18" t="s">
         <v>190</v>
       </c>
@@ -4991,7 +4957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" ht="12.75" customHeight="1">
+    <row r="79" spans="1:6" ht="12.75" customHeight="1">
       <c r="A79" s="18" t="s">
         <v>192</v>
       </c>
@@ -5011,7 +4977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
+    <row r="80" spans="1:6" ht="12.75" customHeight="1">
       <c r="A80" s="18" t="s">
         <v>194</v>
       </c>
@@ -5025,7 +4991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
+    <row r="81" spans="1:6" ht="12.75" customHeight="1">
       <c r="A81" s="18" t="s">
         <v>196</v>
       </c>
@@ -5039,7 +5005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" ht="12.75" customHeight="1">
+    <row r="82" spans="1:6" ht="12.75" customHeight="1">
       <c r="A82" s="18" t="s">
         <v>198</v>
       </c>
@@ -5056,7 +5022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" ht="12.75" customHeight="1">
+    <row r="83" spans="1:6" ht="12.75" customHeight="1">
       <c r="A83" s="18" t="s">
         <v>200</v>
       </c>
@@ -5073,7 +5039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" ht="12.75" customHeight="1">
+    <row r="84" spans="1:6" ht="12.75" customHeight="1">
       <c r="A84" s="18" t="s">
         <v>202</v>
       </c>
@@ -5087,7 +5053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" ht="12.75" customHeight="1">
+    <row r="85" spans="1:6" ht="12.75" customHeight="1">
       <c r="A85" s="18" t="s">
         <v>204</v>
       </c>
@@ -5104,7 +5070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" ht="12.75" customHeight="1">
+    <row r="86" spans="1:6" ht="12.75" customHeight="1">
       <c r="A86" s="18" t="s">
         <v>206</v>
       </c>
@@ -5121,7 +5087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" ht="12.75" customHeight="1">
+    <row r="87" spans="1:6" ht="12.75" customHeight="1">
       <c r="A87" s="18" t="s">
         <v>208</v>
       </c>
@@ -5135,7 +5101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" ht="12.75" customHeight="1">
+    <row r="88" spans="1:6" ht="12.75" customHeight="1">
       <c r="A88" s="18" t="s">
         <v>210</v>
       </c>
@@ -5152,7 +5118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" ht="12.75" customHeight="1">
+    <row r="89" spans="1:6" ht="12.75" customHeight="1">
       <c r="A89" s="18" t="s">
         <v>212</v>
       </c>
@@ -5169,7 +5135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" ht="12.75" customHeight="1">
+    <row r="90" spans="1:6" ht="12.75" customHeight="1">
       <c r="A90" s="18" t="s">
         <v>214</v>
       </c>
@@ -5186,7 +5152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" ht="12.75" customHeight="1">
+    <row r="91" spans="1:6" ht="12.75" customHeight="1">
       <c r="A91" s="18" t="s">
         <v>216</v>
       </c>
@@ -5203,7 +5169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" ht="12.75" customHeight="1">
+    <row r="92" spans="1:6" ht="12.75" customHeight="1">
       <c r="A92" s="18" t="s">
         <v>218</v>
       </c>
@@ -5220,7 +5186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" ht="12.75" customHeight="1">
+    <row r="93" spans="1:6" ht="12.75" customHeight="1">
       <c r="A93" s="18" t="s">
         <v>220</v>
       </c>
@@ -5237,7 +5203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" ht="12.75" customHeight="1">
+    <row r="94" spans="1:6" ht="12.75" customHeight="1">
       <c r="A94" s="18" t="s">
         <v>222</v>
       </c>
@@ -5254,7 +5220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" ht="12.75" customHeight="1">
+    <row r="95" spans="1:6" ht="12.75" customHeight="1">
       <c r="A95" s="18" t="s">
         <v>224</v>
       </c>
@@ -5271,7 +5237,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" ht="12.75" customHeight="1">
+    <row r="96" spans="1:6" ht="12.75" customHeight="1">
       <c r="A96" s="18" t="s">
         <v>226</v>
       </c>
@@ -5288,7 +5254,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" ht="12.75" customHeight="1">
+    <row r="97" spans="1:7" ht="12.75" customHeight="1">
       <c r="A97" s="18" t="s">
         <v>228</v>
       </c>
@@ -5302,7 +5268,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" ht="12.75" customHeight="1">
+    <row r="98" spans="1:7" ht="12.75" customHeight="1">
       <c r="A98" s="18" t="s">
         <v>230</v>
       </c>
@@ -5316,7 +5282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" ht="12.75" customHeight="1">
+    <row r="99" spans="1:7" ht="12.75" customHeight="1">
       <c r="A99" s="18" t="s">
         <v>232</v>
       </c>
@@ -5336,7 +5302,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" ht="12.75" customHeight="1">
+    <row r="100" spans="1:7" ht="12.75" customHeight="1">
       <c r="A100" s="18" t="s">
         <v>234</v>
       </c>
@@ -5350,7 +5316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" ht="12.75" customHeight="1">
+    <row r="101" spans="1:7" ht="12.75" customHeight="1">
       <c r="A101" s="18" t="s">
         <v>236</v>
       </c>
@@ -5367,7 +5333,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" ht="12.75" customHeight="1">
+    <row r="102" spans="1:7" ht="12.75" customHeight="1">
       <c r="A102" s="18" t="s">
         <v>238</v>
       </c>
@@ -5384,7 +5350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" ht="12.75" customHeight="1">
+    <row r="103" spans="1:7" ht="12.75" customHeight="1">
       <c r="A103" s="18" t="s">
         <v>240</v>
       </c>
@@ -5398,7 +5364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" ht="12.75" customHeight="1">
+    <row r="104" spans="1:7" ht="12.75" customHeight="1">
       <c r="A104" s="18" t="s">
         <v>242</v>
       </c>
@@ -5415,7 +5381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" ht="12.75" customHeight="1">
+    <row r="105" spans="1:7" ht="12.75" customHeight="1">
       <c r="A105" s="18" t="s">
         <v>244</v>
       </c>
@@ -5432,7 +5398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" ht="12.75" customHeight="1">
+    <row r="106" spans="1:7" ht="12.75" customHeight="1">
       <c r="A106" s="34" t="s">
         <v>246</v>
       </c>
@@ -5441,12 +5407,12 @@
       </c>
       <c r="C106" s="36"/>
       <c r="D106" s="34">
-        <v>1381.0</v>
+        <v>1381</v>
       </c>
       <c r="E106" s="37"/>
       <c r="F106" s="37"/>
     </row>
-    <row r="107" ht="12.75" customHeight="1">
+    <row r="107" spans="1:7" ht="12.75" customHeight="1">
       <c r="A107" s="38" t="s">
         <v>25</v>
       </c>
@@ -5462,7 +5428,7 @@
       </c>
       <c r="F107" s="31"/>
     </row>
-    <row r="108" ht="12.75" customHeight="1">
+    <row r="108" spans="1:7" ht="12.75" customHeight="1">
       <c r="A108" s="38" t="s">
         <v>248</v>
       </c>
@@ -5480,7 +5446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:7" ht="53.4">
       <c r="A109" s="38" t="s">
         <v>250</v>
       </c>
@@ -5498,7 +5464,7 @@
       </c>
       <c r="F109" s="40"/>
     </row>
-    <row r="110" ht="12.75" customHeight="1">
+    <row r="110" spans="1:7" ht="12.75" customHeight="1">
       <c r="A110" s="38" t="s">
         <v>254</v>
       </c>
@@ -5514,7 +5480,7 @@
       </c>
       <c r="F110" s="40"/>
     </row>
-    <row r="111" ht="12.75" customHeight="1">
+    <row r="111" spans="1:7" ht="12.75" customHeight="1">
       <c r="A111" s="34" t="s">
         <v>256</v>
       </c>
@@ -5523,12 +5489,12 @@
       </c>
       <c r="C111" s="36"/>
       <c r="D111" s="34">
-        <v>1031.0</v>
+        <v>1031</v>
       </c>
       <c r="E111" s="37"/>
       <c r="F111" s="37"/>
     </row>
-    <row r="112" ht="12.75" customHeight="1">
+    <row r="112" spans="1:7" ht="12.75" customHeight="1">
       <c r="A112" s="38" t="s">
         <v>258</v>
       </c>
@@ -5546,7 +5512,7 @@
       </c>
       <c r="F112" s="40"/>
     </row>
-    <row r="113" ht="12.75" customHeight="1">
+    <row r="113" spans="1:6" ht="12.75" customHeight="1">
       <c r="A113" s="38" t="s">
         <v>25</v>
       </c>
@@ -5562,7 +5528,7 @@
       </c>
       <c r="F113" s="40"/>
     </row>
-    <row r="114" ht="12.75" customHeight="1">
+    <row r="114" spans="1:6" ht="12.75" customHeight="1">
       <c r="A114" s="38" t="s">
         <v>29</v>
       </c>
@@ -5578,7 +5544,7 @@
       </c>
       <c r="F114" s="40"/>
     </row>
-    <row r="115" ht="12.75" customHeight="1">
+    <row r="115" spans="1:6" ht="12.75" customHeight="1">
       <c r="A115" s="38" t="s">
         <v>261</v>
       </c>
@@ -5594,7 +5560,7 @@
       </c>
       <c r="F115" s="40"/>
     </row>
-    <row r="116" ht="12.75" customHeight="1">
+    <row r="116" spans="1:6" ht="12.75" customHeight="1">
       <c r="A116" s="38" t="s">
         <v>32</v>
       </c>
@@ -5612,7 +5578,7 @@
       </c>
       <c r="F116" s="40"/>
     </row>
-    <row r="117" ht="12.75" customHeight="1">
+    <row r="117" spans="1:6" ht="12.75" customHeight="1">
       <c r="A117" s="38" t="s">
         <v>42</v>
       </c>
@@ -5628,7 +5594,7 @@
       </c>
       <c r="F117" s="40"/>
     </row>
-    <row r="118" ht="12.75" customHeight="1">
+    <row r="118" spans="1:6" ht="12.75" customHeight="1">
       <c r="A118" s="38" t="s">
         <v>64</v>
       </c>
@@ -5644,7 +5610,7 @@
       </c>
       <c r="F118" s="40"/>
     </row>
-    <row r="119" ht="12.75" customHeight="1">
+    <row r="119" spans="1:6" ht="12.75" customHeight="1">
       <c r="A119" s="38" t="s">
         <v>266</v>
       </c>
@@ -5662,7 +5628,7 @@
       </c>
       <c r="F119" s="40"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" ht="277.2">
       <c r="A120" s="38" t="s">
         <v>250</v>
       </c>
@@ -5680,7 +5646,7 @@
       </c>
       <c r="F120" s="40"/>
     </row>
-    <row r="121" ht="12.75" customHeight="1">
+    <row r="121" spans="1:6" ht="12.75" customHeight="1">
       <c r="A121" s="38" t="s">
         <v>67</v>
       </c>
@@ -5698,7 +5664,7 @@
       </c>
       <c r="F121" s="40"/>
     </row>
-    <row r="122" ht="12.75" customHeight="1">
+    <row r="122" spans="1:6" ht="12.75" customHeight="1">
       <c r="A122" s="38" t="s">
         <v>138</v>
       </c>
@@ -5714,7 +5680,7 @@
       </c>
       <c r="F122" s="40"/>
     </row>
-    <row r="123" ht="12.75" customHeight="1">
+    <row r="123" spans="1:6" ht="12.75" customHeight="1">
       <c r="A123" s="38" t="s">
         <v>271</v>
       </c>
@@ -5730,7 +5696,7 @@
       </c>
       <c r="F123" s="40"/>
     </row>
-    <row r="124" ht="12.75" customHeight="1">
+    <row r="124" spans="1:6" ht="12.75" customHeight="1">
       <c r="A124" s="38" t="s">
         <v>102</v>
       </c>
@@ -5746,7 +5712,7 @@
       </c>
       <c r="F124" s="40"/>
     </row>
-    <row r="125" ht="12.75" customHeight="1">
+    <row r="125" spans="1:6" ht="12.75" customHeight="1">
       <c r="A125" s="38" t="s">
         <v>274</v>
       </c>
@@ -5762,7 +5728,7 @@
       </c>
       <c r="F125" s="40"/>
     </row>
-    <row r="126" ht="12.75" customHeight="1">
+    <row r="126" spans="1:6" ht="12.75" customHeight="1">
       <c r="A126" s="38" t="s">
         <v>276</v>
       </c>
@@ -5778,7 +5744,7 @@
       </c>
       <c r="F126" s="40"/>
     </row>
-    <row r="127" ht="12.75" customHeight="1">
+    <row r="127" spans="1:6" ht="12.75" customHeight="1">
       <c r="A127" s="38" t="s">
         <v>279</v>
       </c>
@@ -5794,7 +5760,7 @@
       </c>
       <c r="F127" s="40"/>
     </row>
-    <row r="128" ht="12.75" customHeight="1">
+    <row r="128" spans="1:6" ht="12.75" customHeight="1">
       <c r="A128" s="38" t="s">
         <v>281</v>
       </c>
@@ -5810,7 +5776,7 @@
       </c>
       <c r="F128" s="40"/>
     </row>
-    <row r="129" ht="12.75" customHeight="1">
+    <row r="129" spans="1:6" ht="12.75" customHeight="1">
       <c r="A129" s="38" t="s">
         <v>108</v>
       </c>
@@ -5826,7 +5792,7 @@
       </c>
       <c r="F129" s="40"/>
     </row>
-    <row r="130" ht="12.75" customHeight="1">
+    <row r="130" spans="1:6" ht="12.75" customHeight="1">
       <c r="A130" s="38" t="s">
         <v>110</v>
       </c>
@@ -5842,7 +5808,7 @@
       </c>
       <c r="F130" s="40"/>
     </row>
-    <row r="131" ht="12.75" customHeight="1">
+    <row r="131" spans="1:6" ht="12.75" customHeight="1">
       <c r="A131" s="38" t="s">
         <v>56</v>
       </c>
@@ -5858,7 +5824,7 @@
       </c>
       <c r="F131" s="40"/>
     </row>
-    <row r="132" ht="12.75" customHeight="1">
+    <row r="132" spans="1:6" ht="12.75" customHeight="1">
       <c r="A132" s="38" t="s">
         <v>167</v>
       </c>
@@ -5874,7 +5840,7 @@
       </c>
       <c r="F132" s="40"/>
     </row>
-    <row r="133" ht="12.75" customHeight="1">
+    <row r="133" spans="1:6" ht="12.75" customHeight="1">
       <c r="A133" s="38" t="s">
         <v>200</v>
       </c>
@@ -5890,7 +5856,7 @@
       </c>
       <c r="F133" s="40"/>
     </row>
-    <row r="134" ht="12.75" customHeight="1">
+    <row r="134" spans="1:6" ht="12.75" customHeight="1">
       <c r="A134" s="38" t="s">
         <v>202</v>
       </c>
@@ -5906,7 +5872,7 @@
       </c>
       <c r="F134" s="40"/>
     </row>
-    <row r="135" ht="12.75" customHeight="1">
+    <row r="135" spans="1:6" ht="12.75" customHeight="1">
       <c r="A135" s="38" t="s">
         <v>204</v>
       </c>
@@ -5922,7 +5888,7 @@
       </c>
       <c r="F135" s="40"/>
     </row>
-    <row r="136" ht="12.75" customHeight="1">
+    <row r="136" spans="1:6" ht="12.75" customHeight="1">
       <c r="A136" s="38" t="s">
         <v>206</v>
       </c>
@@ -5938,7 +5904,7 @@
       </c>
       <c r="F136" s="40"/>
     </row>
-    <row r="137" ht="12.75" customHeight="1">
+    <row r="137" spans="1:6" ht="12.75" customHeight="1">
       <c r="A137" s="38" t="s">
         <v>208</v>
       </c>
@@ -5954,7 +5920,7 @@
       </c>
       <c r="F137" s="40"/>
     </row>
-    <row r="138" ht="12.75" customHeight="1">
+    <row r="138" spans="1:6" ht="12.75" customHeight="1">
       <c r="A138" s="38" t="s">
         <v>175</v>
       </c>
@@ -5970,7 +5936,7 @@
       </c>
       <c r="F138" s="40"/>
     </row>
-    <row r="139" ht="12.75" customHeight="1">
+    <row r="139" spans="1:6" ht="12.75" customHeight="1">
       <c r="A139" s="38" t="s">
         <v>95</v>
       </c>
@@ -5988,7 +5954,7 @@
       </c>
       <c r="F139" s="40"/>
     </row>
-    <row r="140" ht="12.75" customHeight="1">
+    <row r="140" spans="1:6" ht="12.75" customHeight="1">
       <c r="A140" s="38" t="s">
         <v>242</v>
       </c>
@@ -6004,7 +5970,7 @@
       </c>
       <c r="F140" s="40"/>
     </row>
-    <row r="141" ht="12.75" customHeight="1">
+    <row r="141" spans="1:6" ht="12.75" customHeight="1">
       <c r="A141" s="38" t="s">
         <v>244</v>
       </c>
@@ -6020,7 +5986,7 @@
       </c>
       <c r="F141" s="40"/>
     </row>
-    <row r="142" ht="12.75" customHeight="1">
+    <row r="142" spans="1:6" ht="12.75" customHeight="1">
       <c r="A142" s="34" t="s">
         <v>291</v>
       </c>
@@ -6029,12 +5995,12 @@
       </c>
       <c r="C142" s="36"/>
       <c r="D142" s="34">
-        <v>1073.0</v>
+        <v>1073</v>
       </c>
       <c r="E142" s="37"/>
       <c r="F142" s="37"/>
     </row>
-    <row r="143" ht="12.75" customHeight="1">
+    <row r="143" spans="1:6" ht="12.75" customHeight="1">
       <c r="A143" s="38" t="s">
         <v>50</v>
       </c>
@@ -6052,7 +6018,7 @@
       </c>
       <c r="F143" s="40"/>
     </row>
-    <row r="144" ht="12.75" customHeight="1">
+    <row r="144" spans="1:6" ht="12.75" customHeight="1">
       <c r="A144" s="38" t="s">
         <v>294</v>
       </c>
@@ -6919,68 +6885,66 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:CY1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="7" topLeftCell="AN8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="AV10" sqref="AV10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
-    <col customWidth="1" min="2" max="2" width="19.88"/>
-    <col customWidth="1" min="3" max="3" width="20.25"/>
-    <col customWidth="1" min="4" max="4" width="9.88"/>
-    <col customWidth="1" min="5" max="5" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="10.13"/>
-    <col customWidth="1" min="7" max="7" width="17.75"/>
-    <col customWidth="1" min="11" max="11" width="13.0"/>
-    <col customWidth="1" min="12" max="12" width="28.88"/>
-    <col customWidth="1" min="14" max="14" width="26.63"/>
-    <col customWidth="1" min="15" max="15" width="31.75"/>
-    <col customWidth="1" min="23" max="23" width="13.5"/>
-    <col customWidth="1" min="24" max="24" width="9.38"/>
-    <col customWidth="1" min="32" max="32" width="23.25"/>
-    <col customWidth="1" min="36" max="36" width="21.5"/>
-    <col customWidth="1" min="37" max="37" width="16.75"/>
-    <col customWidth="1" min="42" max="42" width="20.63"/>
-    <col customWidth="1" min="47" max="47" width="13.38"/>
-    <col customWidth="1" min="51" max="51" width="26.13"/>
-    <col customWidth="1" min="53" max="53" width="19.25"/>
-    <col customWidth="1" min="63" max="63" width="25.5"/>
-    <col customWidth="1" min="65" max="65" width="21.0"/>
-    <col customWidth="1" min="70" max="70" width="30.0"/>
-    <col customWidth="1" min="73" max="73" width="22.13"/>
-    <col customWidth="1" min="76" max="77" width="10.25"/>
-    <col customWidth="1" min="79" max="79" width="7.75"/>
-    <col customWidth="1" min="80" max="80" width="13.63"/>
-    <col customWidth="1" min="81" max="81" width="13.13"/>
-    <col customWidth="1" min="82" max="82" width="16.88"/>
-    <col customWidth="1" min="86" max="89" width="26.63"/>
-    <col customWidth="1" min="90" max="93" width="23.63"/>
-    <col customWidth="1" min="94" max="94" width="24.0"/>
-    <col customWidth="1" min="95" max="95" width="25.13"/>
-    <col customWidth="1" min="100" max="100" width="20.25"/>
-    <col customWidth="1" min="102" max="102" width="10.13"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="28.88671875" customWidth="1"/>
+    <col min="14" max="14" width="26.6640625" customWidth="1"/>
+    <col min="15" max="15" width="31.77734375" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" customWidth="1"/>
+    <col min="24" max="24" width="9.33203125" customWidth="1"/>
+    <col min="32" max="32" width="23.21875" customWidth="1"/>
+    <col min="36" max="36" width="21.44140625" customWidth="1"/>
+    <col min="37" max="37" width="16.77734375" customWidth="1"/>
+    <col min="42" max="42" width="20.6640625" customWidth="1"/>
+    <col min="47" max="47" width="13.33203125" customWidth="1"/>
+    <col min="51" max="51" width="26.109375" customWidth="1"/>
+    <col min="53" max="53" width="19.21875" customWidth="1"/>
+    <col min="63" max="63" width="25.44140625" customWidth="1"/>
+    <col min="65" max="65" width="21" customWidth="1"/>
+    <col min="70" max="70" width="30" customWidth="1"/>
+    <col min="73" max="73" width="22.109375" customWidth="1"/>
+    <col min="76" max="77" width="10.21875" customWidth="1"/>
+    <col min="79" max="79" width="7.77734375" customWidth="1"/>
+    <col min="80" max="80" width="13.6640625" customWidth="1"/>
+    <col min="81" max="81" width="13.109375" customWidth="1"/>
+    <col min="82" max="82" width="16.88671875" customWidth="1"/>
+    <col min="86" max="89" width="26.6640625" customWidth="1"/>
+    <col min="90" max="93" width="23.6640625" customWidth="1"/>
+    <col min="94" max="94" width="24" customWidth="1"/>
+    <col min="95" max="95" width="25.109375" customWidth="1"/>
+    <col min="100" max="100" width="20.21875" customWidth="1"/>
+    <col min="102" max="102" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:103" ht="15.75" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>24</v>
       </c>
@@ -7291,7 +7255,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:103" ht="36">
       <c r="A2" s="45" t="s">
         <v>39</v>
       </c>
@@ -7596,7 +7560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:103" ht="24">
       <c r="A3" s="45" t="s">
         <v>307</v>
       </c>
@@ -7907,7 +7871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:103" ht="13.2">
       <c r="A4" s="47" t="s">
         <v>310</v>
       </c>
@@ -8024,7 +7988,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:103" ht="13.2">
       <c r="A5" s="45" t="s">
         <v>315</v>
       </c>
@@ -8329,7 +8293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:103" ht="13.2">
       <c r="A6" s="45" t="s">
         <v>316</v>
       </c>
@@ -8349,7 +8313,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="H6" s="47" t="s">
         <v>317</v>
@@ -8388,13 +8352,13 @@
         <v>9</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="U6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="V6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="W6" s="45" t="s">
         <v>9</v>
@@ -8403,10 +8367,10 @@
         <v>9</v>
       </c>
       <c r="Y6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="Z6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="AA6" s="45" t="s">
         <v>319</v>
@@ -8439,58 +8403,58 @@
         <v>317</v>
       </c>
       <c r="AK6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="AL6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="AM6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="AN6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="AO6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="AP6" s="45" t="s">
         <v>317</v>
       </c>
       <c r="AQ6" s="45" t="s">
-        <v>9</v>
+        <v>319</v>
       </c>
       <c r="AR6" s="45" t="s">
         <v>9</v>
       </c>
       <c r="AS6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AT6" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="AT6" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU6" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV6" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AX6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AY6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AZ6" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA6" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="AU6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AV6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AX6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AY6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="AZ6" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA6" s="45" t="s">
-        <v>9</v>
-      </c>
       <c r="BB6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="BC6" s="45" t="s">
         <v>9</v>
@@ -8517,16 +8481,16 @@
         <v>9</v>
       </c>
       <c r="BK6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="BL6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="BM6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="BN6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="BO6" s="45" t="s">
         <v>9</v>
@@ -8544,10 +8508,10 @@
         <v>9</v>
       </c>
       <c r="BT6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="BU6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="BV6" s="45" t="s">
         <v>9</v>
@@ -8598,25 +8562,25 @@
         <v>9</v>
       </c>
       <c r="CL6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CM6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CN6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CO6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CP6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CQ6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CR6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CS6" s="45" t="s">
         <v>317</v>
@@ -8625,10 +8589,10 @@
         <v>9</v>
       </c>
       <c r="CU6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CV6" s="45" t="s">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="CW6" s="45" t="s">
         <v>9</v>
@@ -8640,7 +8604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:103" ht="13.2">
       <c r="A7" s="48" t="s">
         <v>320</v>
       </c>
@@ -8951,7 +8915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:103" ht="26.4">
       <c r="A8" s="49" t="s">
         <v>321</v>
       </c>
@@ -8959,7 +8923,7 @@
         <v>321</v>
       </c>
       <c r="C8" s="50">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>322</v>
@@ -9010,19 +8974,19 @@
         <v>331</v>
       </c>
       <c r="T8" s="19">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="U8" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="V8" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W8" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X8" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y8" s="19" t="s">
         <v>324</v>
@@ -9037,7 +9001,7 @@
         <v>334</v>
       </c>
       <c r="AC8" s="19">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" s="33" t="s">
         <v>335</v>
@@ -9064,16 +9028,16 @@
         <v>324</v>
       </c>
       <c r="AL8" s="19">
-        <v>9999.0</v>
+        <v>9999</v>
       </c>
       <c r="AM8" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN8" s="19">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="AO8" s="19">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="AP8" s="19" t="s">
         <v>338</v>
@@ -9112,25 +9076,25 @@
         <v>342</v>
       </c>
       <c r="BB8" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC8" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD8" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE8" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF8" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG8" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH8" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI8" s="33" t="s">
         <v>324</v>
@@ -9151,13 +9115,13 @@
         <v>346</v>
       </c>
       <c r="BO8" s="19">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="BP8" s="19">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="BQ8" s="19">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="BR8" s="57" t="s">
         <v>347</v>
@@ -9184,7 +9148,7 @@
         <v>335</v>
       </c>
       <c r="BZ8" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA8" s="19" t="s">
         <v>324</v>
@@ -9238,7 +9202,7 @@
         <v>353</v>
       </c>
       <c r="CR8" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS8" s="19" t="s">
         <v>354</v>
@@ -9262,7 +9226,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:103" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
         <v>357</v>
       </c>
@@ -9321,19 +9285,19 @@
         <v>363</v>
       </c>
       <c r="T9" s="19">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="U9" s="19" t="s">
         <v>324</v>
       </c>
       <c r="V9" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W9" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X9" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y9" s="19" t="s">
         <v>324</v>
@@ -9348,7 +9312,7 @@
         <v>364</v>
       </c>
       <c r="AC9" s="19">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="AD9" s="33" t="s">
         <v>335</v>
@@ -9375,16 +9339,16 @@
         <v>324</v>
       </c>
       <c r="AL9" s="19">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="AM9" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN9" s="19">
-        <v>2000000.0</v>
+        <v>2000000</v>
       </c>
       <c r="AO9" s="19">
-        <v>20000.0</v>
+        <v>20000</v>
       </c>
       <c r="AP9" s="19" t="s">
         <v>366</v>
@@ -9423,25 +9387,25 @@
         <v>369</v>
       </c>
       <c r="BB9" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC9" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD9" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE9" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF9" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG9" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH9" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI9" s="33" t="s">
         <v>324</v>
@@ -9462,13 +9426,13 @@
         <v>373</v>
       </c>
       <c r="BO9" s="19">
-        <v>1010.0</v>
+        <v>1010</v>
       </c>
       <c r="BP9" s="19">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="BQ9" s="19">
-        <v>1110.0</v>
+        <v>1110</v>
       </c>
       <c r="BR9" s="57" t="s">
         <v>347</v>
@@ -9495,7 +9459,7 @@
         <v>335</v>
       </c>
       <c r="BZ9" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA9" s="19" t="s">
         <v>324</v>
@@ -9549,7 +9513,7 @@
         <v>379</v>
       </c>
       <c r="CR9" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS9" s="19" t="s">
         <v>354</v>
@@ -9573,7 +9537,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:103" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
         <v>382</v>
       </c>
@@ -9632,25 +9596,25 @@
         <v>388</v>
       </c>
       <c r="T10" s="19">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="U10" s="19" t="s">
         <v>324</v>
       </c>
       <c r="V10" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W10" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X10" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y10" s="54">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="Z10" s="54">
-        <v>44652.0</v>
+        <v>44652</v>
       </c>
       <c r="AA10" s="19" t="s">
         <v>333</v>
@@ -9659,7 +9623,7 @@
         <v>389</v>
       </c>
       <c r="AC10" s="19">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="AD10" s="33" t="s">
         <v>335</v>
@@ -9686,16 +9650,16 @@
         <v>324</v>
       </c>
       <c r="AL10" s="19">
-        <v>2999.0</v>
+        <v>2999</v>
       </c>
       <c r="AM10" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN10" s="19">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="AO10" s="19">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="AP10" s="19" t="s">
         <v>391</v>
@@ -9734,25 +9698,25 @@
         <v>394</v>
       </c>
       <c r="BB10" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC10" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD10" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE10" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF10" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG10" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH10" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI10" s="33" t="s">
         <v>324</v>
@@ -9773,13 +9737,13 @@
         <v>398</v>
       </c>
       <c r="BO10" s="19">
-        <v>1020.0</v>
+        <v>1020</v>
       </c>
       <c r="BP10" s="19">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="BQ10" s="19">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="BR10" s="57" t="s">
         <v>347</v>
@@ -9806,7 +9770,7 @@
         <v>335</v>
       </c>
       <c r="BZ10" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA10" s="19" t="s">
         <v>324</v>
@@ -9860,7 +9824,7 @@
         <v>404</v>
       </c>
       <c r="CR10" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS10" s="19" t="s">
         <v>354</v>
@@ -9884,7 +9848,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:103" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
         <v>407</v>
       </c>
@@ -9943,19 +9907,19 @@
         <v>322</v>
       </c>
       <c r="T11" s="19">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="U11" s="19" t="s">
         <v>324</v>
       </c>
       <c r="V11" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W11" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X11" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y11" s="19" t="s">
         <v>324</v>
@@ -9970,7 +9934,7 @@
         <v>413</v>
       </c>
       <c r="AC11" s="19">
-        <v>1030.0</v>
+        <v>1030</v>
       </c>
       <c r="AD11" s="33" t="s">
         <v>335</v>
@@ -9997,16 +9961,16 @@
         <v>415</v>
       </c>
       <c r="AL11" s="19">
-        <v>3999.0</v>
+        <v>3999</v>
       </c>
       <c r="AM11" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN11" s="19">
-        <v>4000000.0</v>
+        <v>4000000</v>
       </c>
       <c r="AO11" s="19">
-        <v>40000.0</v>
+        <v>40000</v>
       </c>
       <c r="AP11" s="19" t="s">
         <v>416</v>
@@ -10045,25 +10009,25 @@
         <v>418</v>
       </c>
       <c r="BB11" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC11" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD11" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE11" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF11" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG11" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH11" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI11" s="33" t="s">
         <v>324</v>
@@ -10084,13 +10048,13 @@
         <v>346</v>
       </c>
       <c r="BO11" s="19">
-        <v>1030.0</v>
+        <v>1030</v>
       </c>
       <c r="BP11" s="19">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="BQ11" s="19">
-        <v>1130.0</v>
+        <v>1130</v>
       </c>
       <c r="BR11" s="57" t="s">
         <v>347</v>
@@ -10117,7 +10081,7 @@
         <v>335</v>
       </c>
       <c r="BZ11" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA11" s="19" t="s">
         <v>324</v>
@@ -10171,7 +10135,7 @@
         <v>423</v>
       </c>
       <c r="CR11" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS11" s="19" t="s">
         <v>354</v>
@@ -10195,7 +10159,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:103" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
         <v>424</v>
       </c>
@@ -10254,19 +10218,19 @@
         <v>322</v>
       </c>
       <c r="T12" s="19">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="U12" s="19" t="s">
         <v>324</v>
       </c>
       <c r="V12" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W12" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X12" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y12" s="19" t="s">
         <v>324</v>
@@ -10281,7 +10245,7 @@
         <v>429</v>
       </c>
       <c r="AC12" s="19">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="AD12" s="33" t="s">
         <v>335</v>
@@ -10308,16 +10272,16 @@
         <v>415</v>
       </c>
       <c r="AL12" s="19">
-        <v>4999.0</v>
+        <v>4999</v>
       </c>
       <c r="AM12" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN12" s="19">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="AO12" s="19">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="AP12" s="19" t="s">
         <v>431</v>
@@ -10356,25 +10320,25 @@
         <v>433</v>
       </c>
       <c r="BB12" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC12" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD12" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE12" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF12" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG12" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH12" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI12" s="33" t="s">
         <v>324</v>
@@ -10395,13 +10359,13 @@
         <v>373</v>
       </c>
       <c r="BO12" s="19">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="BP12" s="19">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="BQ12" s="19">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="BR12" s="57" t="s">
         <v>347</v>
@@ -10428,7 +10392,7 @@
         <v>335</v>
       </c>
       <c r="BZ12" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA12" s="19" t="s">
         <v>324</v>
@@ -10482,7 +10446,7 @@
         <v>438</v>
       </c>
       <c r="CR12" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS12" s="19" t="s">
         <v>354</v>
@@ -10506,7 +10470,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:103" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
         <v>439</v>
       </c>
@@ -10565,19 +10529,19 @@
         <v>363</v>
       </c>
       <c r="T13" s="19">
-        <v>60000.0</v>
+        <v>60000</v>
       </c>
       <c r="U13" s="19" t="s">
         <v>324</v>
       </c>
       <c r="V13" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W13" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X13" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y13" s="19" t="s">
         <v>324</v>
@@ -10592,7 +10556,7 @@
         <v>444</v>
       </c>
       <c r="AC13" s="19">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="AD13" s="33" t="s">
         <v>335</v>
@@ -10619,16 +10583,16 @@
         <v>324</v>
       </c>
       <c r="AL13" s="19">
-        <v>5999.0</v>
+        <v>5999</v>
       </c>
       <c r="AM13" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN13" s="19">
-        <v>6000000.0</v>
+        <v>6000000</v>
       </c>
       <c r="AO13" s="19">
-        <v>60000.0</v>
+        <v>60000</v>
       </c>
       <c r="AP13" s="19" t="s">
         <v>447</v>
@@ -10667,25 +10631,25 @@
         <v>449</v>
       </c>
       <c r="BB13" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC13" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD13" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE13" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF13" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG13" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH13" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI13" s="33" t="s">
         <v>324</v>
@@ -10706,13 +10670,13 @@
         <v>398</v>
       </c>
       <c r="BO13" s="19">
-        <v>1050.0</v>
+        <v>1050</v>
       </c>
       <c r="BP13" s="19">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="BQ13" s="19">
-        <v>1150.0</v>
+        <v>1150</v>
       </c>
       <c r="BR13" s="57" t="s">
         <v>347</v>
@@ -10739,7 +10703,7 @@
         <v>335</v>
       </c>
       <c r="BZ13" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA13" s="19" t="s">
         <v>324</v>
@@ -10793,7 +10757,7 @@
         <v>454</v>
       </c>
       <c r="CR13" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS13" s="19" t="s">
         <v>354</v>
@@ -10817,7 +10781,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:103" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
         <v>455</v>
       </c>
@@ -10876,19 +10840,19 @@
         <v>322</v>
       </c>
       <c r="T14" s="19">
-        <v>70000.0</v>
+        <v>70000</v>
       </c>
       <c r="U14" s="19" t="s">
         <v>324</v>
       </c>
       <c r="V14" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W14" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X14" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y14" s="19" t="s">
         <v>324</v>
@@ -10903,7 +10867,7 @@
         <v>460</v>
       </c>
       <c r="AC14" s="19">
-        <v>1060.0</v>
+        <v>1060</v>
       </c>
       <c r="AD14" s="33" t="s">
         <v>335</v>
@@ -10930,16 +10894,16 @@
         <v>415</v>
       </c>
       <c r="AL14" s="19">
-        <v>6999.0</v>
+        <v>6999</v>
       </c>
       <c r="AM14" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN14" s="19">
-        <v>7000000.0</v>
+        <v>7000000</v>
       </c>
       <c r="AO14" s="19">
-        <v>70000.0</v>
+        <v>70000</v>
       </c>
       <c r="AP14" s="19" t="s">
         <v>463</v>
@@ -10978,25 +10942,25 @@
         <v>465</v>
       </c>
       <c r="BB14" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC14" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD14" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE14" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF14" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG14" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH14" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI14" s="33" t="s">
         <v>324</v>
@@ -11017,13 +10981,13 @@
         <v>398</v>
       </c>
       <c r="BO14" s="19">
-        <v>1060.0</v>
+        <v>1060</v>
       </c>
       <c r="BP14" s="19">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="BQ14" s="19">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="BR14" s="57" t="s">
         <v>347</v>
@@ -11050,7 +11014,7 @@
         <v>335</v>
       </c>
       <c r="BZ14" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA14" s="19" t="s">
         <v>324</v>
@@ -11104,7 +11068,7 @@
         <v>470</v>
       </c>
       <c r="CR14" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS14" s="19" t="s">
         <v>354</v>
@@ -11128,7 +11092,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:103" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
         <v>472</v>
       </c>
@@ -11160,7 +11124,7 @@
         <v>325</v>
       </c>
       <c r="K15" s="59">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>474</v>
@@ -11187,19 +11151,19 @@
         <v>322</v>
       </c>
       <c r="T15" s="19">
-        <v>80000.0</v>
+        <v>80000</v>
       </c>
       <c r="U15" s="19" t="s">
         <v>324</v>
       </c>
       <c r="V15" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W15" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X15" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y15" s="19" t="s">
         <v>324</v>
@@ -11214,7 +11178,7 @@
         <v>476</v>
       </c>
       <c r="AC15" s="19">
-        <v>1070.0</v>
+        <v>1070</v>
       </c>
       <c r="AD15" s="33" t="s">
         <v>335</v>
@@ -11241,16 +11205,16 @@
         <v>415</v>
       </c>
       <c r="AL15" s="19">
-        <v>7999.0</v>
+        <v>7999</v>
       </c>
       <c r="AM15" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN15" s="19">
-        <v>8000000.0</v>
+        <v>8000000</v>
       </c>
       <c r="AO15" s="19">
-        <v>80000.0</v>
+        <v>80000</v>
       </c>
       <c r="AP15" s="19" t="s">
         <v>478</v>
@@ -11289,25 +11253,25 @@
         <v>480</v>
       </c>
       <c r="BB15" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC15" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD15" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE15" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF15" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG15" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH15" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI15" s="33" t="s">
         <v>324</v>
@@ -11328,13 +11292,13 @@
         <v>373</v>
       </c>
       <c r="BO15" s="19">
-        <v>1070.0</v>
+        <v>1070</v>
       </c>
       <c r="BP15" s="19">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="BQ15" s="19">
-        <v>1170.0</v>
+        <v>1170</v>
       </c>
       <c r="BR15" s="57" t="s">
         <v>347</v>
@@ -11361,7 +11325,7 @@
         <v>335</v>
       </c>
       <c r="BZ15" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA15" s="19" t="s">
         <v>324</v>
@@ -11415,7 +11379,7 @@
         <v>485</v>
       </c>
       <c r="CR15" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS15" s="19" t="s">
         <v>354</v>
@@ -11439,7 +11403,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:103" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
         <v>486</v>
       </c>
@@ -11471,7 +11435,7 @@
         <v>325</v>
       </c>
       <c r="K16" s="59">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>488</v>
@@ -11498,19 +11462,19 @@
         <v>322</v>
       </c>
       <c r="T16" s="19">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="U16" s="19" t="s">
         <v>324</v>
       </c>
       <c r="V16" s="54">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="W16" s="55" t="s">
         <v>332</v>
       </c>
       <c r="X16" s="54">
-        <v>44593.0</v>
+        <v>44593</v>
       </c>
       <c r="Y16" s="19" t="s">
         <v>324</v>
@@ -11525,7 +11489,7 @@
         <v>491</v>
       </c>
       <c r="AC16" s="19">
-        <v>1080.0</v>
+        <v>1080</v>
       </c>
       <c r="AD16" s="33" t="s">
         <v>335</v>
@@ -11552,16 +11516,16 @@
         <v>493</v>
       </c>
       <c r="AL16" s="19">
-        <v>8999.0</v>
+        <v>8999</v>
       </c>
       <c r="AM16" s="54">
-        <v>49310.0</v>
+        <v>49310</v>
       </c>
       <c r="AN16" s="19">
-        <v>9000000.0</v>
+        <v>9000000</v>
       </c>
       <c r="AO16" s="19">
-        <v>90000.0</v>
+        <v>90000</v>
       </c>
       <c r="AP16" s="19" t="s">
         <v>494</v>
@@ -11600,25 +11564,25 @@
         <v>496</v>
       </c>
       <c r="BB16" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="BC16" s="54">
-        <v>44713.0</v>
+        <v>44713</v>
       </c>
       <c r="BD16" s="54">
-        <v>45078.0</v>
+        <v>45078</v>
       </c>
       <c r="BE16" s="54">
-        <v>44743.0</v>
+        <v>44743</v>
       </c>
       <c r="BF16" s="54">
-        <v>45108.0</v>
+        <v>45108</v>
       </c>
       <c r="BG16" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH16" s="19">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BI16" s="33" t="s">
         <v>324</v>
@@ -11639,13 +11603,13 @@
         <v>398</v>
       </c>
       <c r="BO16" s="19">
-        <v>1080.0</v>
+        <v>1080</v>
       </c>
       <c r="BP16" s="19">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="BQ16" s="19">
-        <v>1180.0</v>
+        <v>1180</v>
       </c>
       <c r="BR16" s="57" t="s">
         <v>347</v>
@@ -11672,7 +11636,7 @@
         <v>335</v>
       </c>
       <c r="BZ16" s="54">
-        <v>44562.0</v>
+        <v>44562</v>
       </c>
       <c r="CA16" s="19" t="s">
         <v>324</v>
@@ -11726,7 +11690,7 @@
         <v>502</v>
       </c>
       <c r="CR16" s="54">
-        <v>44227.0</v>
+        <v>44227</v>
       </c>
       <c r="CS16" s="19" t="s">
         <v>354</v>
@@ -11750,7 +11714,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:103" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
         <v>503</v>
       </c>
@@ -11859,7 +11823,7 @@
       <c r="CX17" s="60"/>
       <c r="CY17" s="60"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:103" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
         <v>504</v>
       </c>
@@ -11968,624 +11932,624 @@
       <c r="CX18" s="60"/>
       <c r="CY18" s="60"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:103" ht="15.75" customHeight="1">
       <c r="A19" s="61"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:103" ht="15.75" customHeight="1">
       <c r="A20" s="61"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:103" ht="15.75" customHeight="1">
       <c r="A21" s="61"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:103" ht="15.75" customHeight="1">
       <c r="A22" s="61"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:103" ht="15.75" customHeight="1">
       <c r="A23" s="61"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:103" ht="15.75" customHeight="1">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:103" ht="15.75" customHeight="1">
       <c r="A25" s="61"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:103" ht="15.75" customHeight="1">
       <c r="A26" s="61"/>
       <c r="AF26" s="50"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:103" ht="15.75" customHeight="1">
       <c r="A27" s="61"/>
       <c r="AF27" s="50"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:103" ht="15.75" customHeight="1">
       <c r="A28" s="61"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:103" ht="15.75" customHeight="1">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:103" ht="15.75" customHeight="1">
       <c r="A30" s="61"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:103" ht="15.75" customHeight="1">
       <c r="A31" s="61"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:103" ht="15.75" customHeight="1">
       <c r="A32" s="61"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="61"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="61"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="61"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="61"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="61"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="61"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="61"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="61"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="61"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="61"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="61"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="61"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="61"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="61"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="61"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="61"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="61"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="61"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="61"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="61"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="61"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="61"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="61"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="61"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="61"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="61"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="61"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="61"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="61"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="61"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="61"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="61"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="61"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="61"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="61"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="61"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="61"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="61"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="61"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="61"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="61"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="61"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="61"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="61"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="61"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="61"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="61"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="61"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="61"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="61"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="61"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="61"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="61"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="61"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="61"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="61"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="61"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="61"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="61"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="61"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="61"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="61"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="61"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="61"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="61"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="61"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="61"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="61"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="61"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="61"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="61"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="61"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="61"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="61"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="61"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="61"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="61"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="61"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="61"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="61"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="61"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="61"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="61"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="61"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="61"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="61"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="61"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="61"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="61"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="61"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="61"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="61"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="61"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="61"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="61"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="61"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="61"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="61"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="61"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="61"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="61"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="61"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="61"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="61"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="61"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="61"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="61"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="61"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="61"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="61"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="61"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="61"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="61"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="61"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="61"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="61"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="61"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="61"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="61"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="61"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="61"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="61"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="61"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="61"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="61"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="61"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="61"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="61"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="61"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="61"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="61"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="61"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="61"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="61"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="61"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="61"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="61"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="61"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="61"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="61"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="61"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="61"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="61"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="61"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="61"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="61"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="61"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="61"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="61"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="61"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="61"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="61"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="61"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="61"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="61"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="61"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="61"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="61"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="61"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="61"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="61"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="61"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="61"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="61"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="61"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="61"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="61"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="61"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="61"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="61"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="61"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="61"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="61"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="61"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="61"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="61"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="61"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="61"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="61"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="61"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1">
       <c r="A221" s="61"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1">
       <c r="A222" s="61"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1">
       <c r="A223" s="61"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1">
       <c r="A224" s="61"/>
     </row>
     <row r="225" ht="15.75" customHeight="1"/>
@@ -13369,35 +13333,33 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.88"/>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>247</v>
       </c>
@@ -13435,7 +13397,7 @@
       <c r="Y1" s="44"/>
       <c r="Z1" s="44"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="13.2">
       <c r="A2" s="64" t="s">
         <v>39</v>
       </c>
@@ -13444,7 +13406,7 @@
       <c r="D2" s="66"/>
       <c r="E2" s="66"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="13.2">
       <c r="A3" s="64" t="s">
         <v>307</v>
       </c>
@@ -13453,7 +13415,7 @@
       <c r="D3" s="66"/>
       <c r="E3" s="66"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="13.2">
       <c r="A4" s="64" t="s">
         <v>315</v>
       </c>
@@ -13462,7 +13424,7 @@
       <c r="D4" s="66"/>
       <c r="E4" s="66"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="64" t="s">
         <v>316</v>
       </c>
@@ -13471,7 +13433,7 @@
       <c r="D5" s="66"/>
       <c r="E5" s="66"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="67" t="s">
         <v>320</v>
       </c>
@@ -13480,652 +13442,652 @@
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="61"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="61"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="61"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="61"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="61"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="61"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="61"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="61"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="61"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="61"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="61"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="61"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="61"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="61"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="61"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="61"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="61"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="61"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="61"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="61"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="61"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="61"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="61"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="61"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="61"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="61"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="61"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="61"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="61"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="61"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="61"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="61"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="61"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="61"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="61"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="61"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="61"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="61"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="61"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="61"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="61"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="61"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="61"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="61"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="61"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="61"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="61"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="61"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="61"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="61"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="61"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="61"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="61"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="61"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="61"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="61"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="61"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="61"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="61"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="61"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="61"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="61"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="61"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="61"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="61"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="61"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="61"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="61"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="61"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="61"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="61"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="61"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="61"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="61"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="61"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="61"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="61"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="61"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="61"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="61"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="61"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="61"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="61"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="61"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="61"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="61"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="61"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="61"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="61"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="61"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="61"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="61"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="61"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="61"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="61"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="61"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="61"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="61"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="61"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="61"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="61"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="61"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="61"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="61"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="61"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="61"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="61"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="61"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="61"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="61"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="61"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="61"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="61"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="61"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="61"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="61"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="61"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="61"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="61"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="61"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="61"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="61"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="61"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="61"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="61"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="61"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="61"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="61"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="61"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="61"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="61"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="61"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="61"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="61"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="61"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="61"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="61"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="61"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="61"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="61"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="61"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="61"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="61"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="61"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="61"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="61"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="61"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="61"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="61"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="61"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="61"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="61"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="61"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="61"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="61"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="61"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="61"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="61"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="61"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="61"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="61"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="61"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="61"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="61"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="61"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="61"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="61"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="61"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="61"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="61"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="61"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="61"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="61"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="61"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="61"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="61"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="61"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="61"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="61"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="61"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="61"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="61"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="61"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="61"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="61"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="61"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="61"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="61"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="61"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="61"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="61"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="61"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="61"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="61"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="61"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="61"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="61"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="61"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="61"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="61"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="61"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="61"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="61"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="61"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -14903,46 +14865,44 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AE1005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.88"/>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="3" width="27.38"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
-    <col customWidth="1" min="9" max="9" width="13.5"/>
-    <col customWidth="1" min="12" max="13" width="20.13"/>
-    <col customWidth="1" min="14" max="14" width="13.75"/>
-    <col customWidth="1" min="15" max="15" width="10.88"/>
-    <col customWidth="1" min="16" max="16" width="11.0"/>
-    <col customWidth="1" min="17" max="17" width="11.63"/>
-    <col customWidth="1" min="18" max="18" width="11.13"/>
-    <col customWidth="1" min="19" max="19" width="20.25"/>
-    <col customWidth="1" min="21" max="21" width="28.13"/>
-    <col customWidth="1" min="22" max="22" width="17.13"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
+    <col min="12" max="13" width="20.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" customWidth="1"/>
+    <col min="19" max="19" width="20.21875" customWidth="1"/>
+    <col min="21" max="21" width="28.109375" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:31" ht="15.75" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>257</v>
       </c>
@@ -15037,7 +14997,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:31" ht="13.2">
       <c r="A2" s="64" t="s">
         <v>39</v>
       </c>
@@ -15080,7 +15040,7 @@
       <c r="AD2" s="66"/>
       <c r="AE2" s="66"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:31" ht="13.2">
       <c r="A3" s="64" t="s">
         <v>307</v>
       </c>
@@ -15115,7 +15075,7 @@
       <c r="AD3" s="66"/>
       <c r="AE3" s="66"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:31" ht="13.2">
       <c r="A4" s="47" t="s">
         <v>310</v>
       </c>
@@ -15154,7 +15114,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:31" ht="13.2">
       <c r="A5" s="64" t="s">
         <v>315</v>
       </c>
@@ -15191,7 +15151,7 @@
       <c r="AD5" s="66"/>
       <c r="AE5" s="66"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:31" ht="13.2">
       <c r="A6" s="64" t="s">
         <v>316</v>
       </c>
@@ -15230,7 +15190,7 @@
       <c r="AD6" s="66"/>
       <c r="AE6" s="66"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:31" ht="14.25" customHeight="1">
       <c r="A7" s="67" t="s">
         <v>320</v>
       </c>
@@ -15265,7 +15225,7 @@
       <c r="AD7" s="69"/>
       <c r="AE7" s="69"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:31" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>321</v>
       </c>
@@ -15348,7 +15308,7 @@
         <v>324</v>
       </c>
       <c r="AB8" s="19">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="AC8" s="19" t="s">
         <v>335</v>
@@ -15360,7 +15320,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:31" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
         <v>321</v>
       </c>
@@ -15371,7 +15331,7 @@
         <v>321</v>
       </c>
       <c r="D9" s="50">
-        <v>1005.0</v>
+        <v>1005</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>324</v>
@@ -15443,7 +15403,7 @@
         <v>324</v>
       </c>
       <c r="AB9" s="19">
-        <v>1100.0</v>
+        <v>1100</v>
       </c>
       <c r="AC9" s="19" t="s">
         <v>335</v>
@@ -15455,7 +15415,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
         <v>357</v>
       </c>
@@ -15538,7 +15498,7 @@
         <v>324</v>
       </c>
       <c r="AB10" s="19">
-        <v>1110.0</v>
+        <v>1110</v>
       </c>
       <c r="AC10" s="19" t="s">
         <v>335</v>
@@ -15550,7 +15510,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:31" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
         <v>357</v>
       </c>
@@ -15633,7 +15593,7 @@
         <v>324</v>
       </c>
       <c r="AB11" s="19">
-        <v>1110.0</v>
+        <v>1110</v>
       </c>
       <c r="AC11" s="19" t="s">
         <v>335</v>
@@ -15645,7 +15605,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
         <v>382</v>
       </c>
@@ -15728,7 +15688,7 @@
         <v>324</v>
       </c>
       <c r="AB12" s="19">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="AC12" s="19" t="s">
         <v>335</v>
@@ -15740,7 +15700,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
         <v>382</v>
       </c>
@@ -15823,7 +15783,7 @@
         <v>324</v>
       </c>
       <c r="AB13" s="19">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="AC13" s="19" t="s">
         <v>335</v>
@@ -15835,7 +15795,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:31" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
         <v>407</v>
       </c>
@@ -15918,7 +15878,7 @@
         <v>324</v>
       </c>
       <c r="AB14" s="19">
-        <v>1130.0</v>
+        <v>1130</v>
       </c>
       <c r="AC14" s="19" t="s">
         <v>335</v>
@@ -15930,7 +15890,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:31" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
         <v>407</v>
       </c>
@@ -16013,7 +15973,7 @@
         <v>324</v>
       </c>
       <c r="AB15" s="19">
-        <v>1130.0</v>
+        <v>1130</v>
       </c>
       <c r="AC15" s="19" t="s">
         <v>335</v>
@@ -16025,7 +15985,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:31" ht="15.75" customHeight="1">
       <c r="A16" s="49" t="s">
         <v>424</v>
       </c>
@@ -16108,7 +16068,7 @@
         <v>324</v>
       </c>
       <c r="AB16" s="19">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="AC16" s="19" t="s">
         <v>335</v>
@@ -16120,7 +16080,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:31" ht="15.75" customHeight="1">
       <c r="A17" s="49" t="s">
         <v>424</v>
       </c>
@@ -16203,7 +16163,7 @@
         <v>324</v>
       </c>
       <c r="AB17" s="19">
-        <v>1140.0</v>
+        <v>1140</v>
       </c>
       <c r="AC17" s="19" t="s">
         <v>335</v>
@@ -16215,7 +16175,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:31" ht="15.75" customHeight="1">
       <c r="A18" s="49" t="s">
         <v>439</v>
       </c>
@@ -16298,7 +16258,7 @@
         <v>324</v>
       </c>
       <c r="AB18" s="19">
-        <v>1150.0</v>
+        <v>1150</v>
       </c>
       <c r="AC18" s="19" t="s">
         <v>335</v>
@@ -16310,7 +16270,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:31" ht="15.75" customHeight="1">
       <c r="A19" s="49" t="s">
         <v>439</v>
       </c>
@@ -16393,7 +16353,7 @@
         <v>324</v>
       </c>
       <c r="AB19" s="19">
-        <v>1150.0</v>
+        <v>1150</v>
       </c>
       <c r="AC19" s="19" t="s">
         <v>335</v>
@@ -16405,7 +16365,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:31" ht="15.75" customHeight="1">
       <c r="A20" s="49" t="s">
         <v>455</v>
       </c>
@@ -16488,7 +16448,7 @@
         <v>324</v>
       </c>
       <c r="AB20" s="19">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="AC20" s="19" t="s">
         <v>335</v>
@@ -16500,7 +16460,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:31" ht="15.75" customHeight="1">
       <c r="A21" s="49" t="s">
         <v>455</v>
       </c>
@@ -16583,7 +16543,7 @@
         <v>324</v>
       </c>
       <c r="AB21" s="19">
-        <v>1160.0</v>
+        <v>1160</v>
       </c>
       <c r="AC21" s="19" t="s">
         <v>335</v>
@@ -16595,634 +16555,634 @@
         <v>344</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1">
       <c r="A22" s="61"/>
       <c r="U22" s="50"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:31" ht="15.75" customHeight="1">
       <c r="A23" s="61"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:31" ht="15.75" customHeight="1">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1">
       <c r="A25" s="61"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1">
       <c r="A26" s="61"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="61"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="61"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1">
       <c r="A30" s="61"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1">
       <c r="A31" s="61"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1">
       <c r="A32" s="61"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="61"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="61"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="61"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="61"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="61"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="61"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="61"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="61"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="61"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="61"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="61"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="61"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="61"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="61"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="61"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="61"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="61"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="61"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="61"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="61"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="61"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="61"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="61"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="61"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="61"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="61"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="61"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="61"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="61"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="61"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="61"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="61"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="61"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="61"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="61"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="61"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="61"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="61"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="61"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="61"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="61"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="61"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="61"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="61"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="61"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="61"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="61"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="61"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="61"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="61"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="61"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="61"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="61"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="61"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="61"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="61"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="61"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="61"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="61"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="61"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="61"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="61"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="61"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="61"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="61"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="61"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="61"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="61"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="61"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="61"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="61"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="61"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="61"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="61"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="61"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="61"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="61"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="61"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="61"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="61"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="61"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="61"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="61"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="61"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="61"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="61"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="61"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="61"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="61"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="61"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="61"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="61"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="61"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="61"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="61"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="61"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="61"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="61"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="61"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="61"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="61"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="61"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="61"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="61"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="61"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="61"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="61"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="61"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="61"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="61"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="61"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="61"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="61"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="61"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="61"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="61"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="61"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="61"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="61"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="61"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="61"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="61"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="61"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="61"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="61"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="61"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="61"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="61"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="61"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="61"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="61"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="61"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="61"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="61"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="61"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="61"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="61"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="61"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="61"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="61"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="61"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="61"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="61"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="61"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="61"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="61"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="61"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="61"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="61"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="61"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="61"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="61"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="61"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="61"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="61"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="61"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="61"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="61"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="61"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="61"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="61"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="61"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="61"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="61"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="61"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="61"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="61"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="61"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="61"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="61"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="61"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="61"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="61"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="61"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="61"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="61"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="61"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="61"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="61"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="61"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1">
       <c r="A221" s="61"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1">
       <c r="A222" s="61"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1">
       <c r="A223" s="61"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1">
       <c r="A224" s="61"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1">
       <c r="A225" s="61"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="226" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="227" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="228" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="229" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="230" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="231" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="232" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="233" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="234" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="235" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="236" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="237" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="238" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="239" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="240" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="241" ht="15.75" customHeight="1"/>
     <row r="242" ht="15.75" customHeight="1"/>
     <row r="243" ht="15.75" customHeight="1"/>
@@ -17989,36 +17949,34 @@
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.88"/>
-    <col customWidth="1" min="2" max="2" width="10.88"/>
-    <col customWidth="1" min="3" max="3" width="19.63"/>
-    <col customWidth="1" min="4" max="6" width="12.63"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>292</v>
       </c>
@@ -18052,64 +18010,64 @@
       <c r="Y1" s="44"/>
       <c r="Z1" s="44"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="13.2">
       <c r="A2" s="64" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="66"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="13.2">
       <c r="A3" s="64" t="s">
         <v>307</v>
       </c>
       <c r="B3" s="65"/>
       <c r="C3" s="66"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="13.2">
       <c r="A4" s="64" t="s">
         <v>315</v>
       </c>
       <c r="B4" s="65"/>
       <c r="C4" s="66"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="64" t="s">
         <v>316</v>
       </c>
       <c r="B5" s="65"/>
       <c r="C5" s="66"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="67" t="s">
         <v>320</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="69"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>472</v>
       </c>
       <c r="B7" s="72">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="49" t="s">
         <v>486</v>
       </c>
       <c r="B8" s="72">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="C8" s="19" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="49" t="s">
         <v>321</v>
       </c>
@@ -18120,7 +18078,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="49" t="s">
         <v>357</v>
       </c>
@@ -18131,7 +18089,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="49" t="s">
         <v>382</v>
       </c>
@@ -18142,7 +18100,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="49" t="s">
         <v>407</v>
       </c>
@@ -18153,7 +18111,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="49" t="s">
         <v>424</v>
       </c>
@@ -18164,7 +18122,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="49" t="s">
         <v>439</v>
       </c>
@@ -18175,7 +18133,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="49" t="s">
         <v>455</v>
       </c>
@@ -18186,625 +18144,625 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="61"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="61"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="61"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="61"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="61"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="61"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="61"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="61"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="61"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="61"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="61"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="61"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="61"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="61"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="61"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="61"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="61"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="61"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="61"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="61"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="61"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="61"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="61"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="61"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="61"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="61"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="61"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="61"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="61"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="61"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="61"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="61"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="61"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="61"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="61"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="61"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="61"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="61"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="61"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="61"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="61"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="61"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="61"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="61"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="61"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="61"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="61"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="61"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="61"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="61"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="61"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="61"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="61"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="61"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="61"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="61"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="61"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="61"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="61"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="61"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="61"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="61"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="61"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="61"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="61"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="61"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="61"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="61"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="61"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="61"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="61"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="61"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="61"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="61"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="61"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="61"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="61"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="61"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="61"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="61"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="61"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="61"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="61"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="61"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="61"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="61"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="61"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="61"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="61"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="61"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="61"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="61"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="61"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="61"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="61"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="61"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="61"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="61"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="61"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="61"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="61"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="61"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="61"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="61"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="61"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="61"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="61"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="61"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="61"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="61"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="61"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="61"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="61"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="61"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="61"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="61"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="61"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="61"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="61"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="61"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="61"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="61"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="61"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="61"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="61"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="61"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="61"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="61"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="61"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="61"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="61"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="61"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="61"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="61"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="61"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="61"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="61"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="61"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="61"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="61"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="61"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="61"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="61"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="61"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="61"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="61"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="61"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="61"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="61"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="61"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="61"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="61"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="61"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="61"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="61"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="61"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="61"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="61"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="61"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="61"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="61"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="61"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="61"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="61"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="61"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="61"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="61"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="61"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="61"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="61"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="61"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="61"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="61"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="61"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="61"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="61"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="61"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="61"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="61"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="61"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="61"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="61"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="61"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="61"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="61"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="61"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="61"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="61"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="61"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="61"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="61"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="61"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="61"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="61"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="61"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -19582,33 +19540,29 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.63"/>
-    <col customWidth="1" min="2" max="2" width="17.5"/>
-    <col customWidth="1" min="3" max="3" width="86.38"/>
-    <col customWidth="1" min="4" max="26" width="10.63"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" customWidth="1"/>
+    <col min="4" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>517</v>
       </c>
@@ -19619,7 +19573,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" s="26" t="s">
         <v>520</v>
       </c>
@@ -19630,7 +19584,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" s="26" t="s">
         <v>520</v>
       </c>
@@ -19641,7 +19595,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="26" t="s">
         <v>520</v>
       </c>
@@ -19652,7 +19606,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>520</v>
       </c>
@@ -19663,7 +19617,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="26" t="s">
         <v>520</v>
       </c>
@@ -19674,7 +19628,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:3" ht="12.75" customHeight="1">
       <c r="A7" s="26" t="s">
         <v>520</v>
       </c>
@@ -19685,7 +19639,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:3" ht="12.75" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>520</v>
       </c>
@@ -19696,7 +19650,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>520</v>
       </c>
@@ -19707,7 +19661,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>520</v>
       </c>
@@ -19718,7 +19672,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>520</v>
       </c>
@@ -19729,13 +19683,13 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:3" ht="12.75" customHeight="1">
       <c r="C12" s="77"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="13" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="14" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -20720,35 +20674,33 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.88"/>
-    <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col min="1" max="1" width="31.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="43"/>
       <c r="B1" s="44" t="s">
         <v>541</v>
@@ -20778,682 +20730,682 @@
       <c r="Y1" s="44"/>
       <c r="Z1" s="44"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="13.2">
       <c r="A2" s="45" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="45"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="13.2">
       <c r="A3" s="45" t="s">
         <v>307</v>
       </c>
       <c r="B3" s="45"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="13.2">
       <c r="A4" s="45" t="s">
         <v>315</v>
       </c>
       <c r="B4" s="45"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="45" t="s">
         <v>316</v>
       </c>
       <c r="B5" s="45"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="48" t="s">
         <v>320</v>
       </c>
       <c r="B6" s="48"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="61"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="61"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="61"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="61"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="61"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="61"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="61"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="61"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="61"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="61"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="61"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="61"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="61"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1">
       <c r="A20" s="61"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="61"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1">
       <c r="A22" s="61"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1">
       <c r="A23" s="61"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1">
       <c r="A24" s="61"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1">
       <c r="A25" s="61"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1">
       <c r="A26" s="61"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1">
       <c r="A27" s="61"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1">
       <c r="A28" s="61"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1">
       <c r="A30" s="61"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1">
       <c r="A31" s="61"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1">
       <c r="A32" s="61"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="61"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" s="61"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" s="61"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" s="61"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="61"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" s="61"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" s="61"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" s="61"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" s="61"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" s="61"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" s="61"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" s="61"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" s="61"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" s="61"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" s="61"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" s="61"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" s="61"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" s="61"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" s="61"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" s="61"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" s="61"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" s="61"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" s="61"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" s="61"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="61"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" s="61"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" s="61"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" s="61"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" s="61"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" s="61"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" s="61"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="61"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" s="61"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" s="61"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" s="61"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" s="61"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" s="61"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" s="61"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" s="61"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" s="61"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" s="61"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" s="61"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" s="61"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" s="61"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" s="61"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" s="61"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" s="61"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" s="61"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" s="61"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" s="61"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" s="61"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" s="61"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" s="61"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" s="61"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" s="61"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" s="61"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" s="61"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" s="61"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" s="61"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" s="61"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" s="61"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" s="61"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" s="61"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" s="61"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" s="61"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" s="61"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" s="61"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" s="61"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" s="61"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" s="61"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" s="61"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" s="61"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" s="61"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" s="61"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" s="61"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" s="61"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" s="61"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" s="61"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" s="61"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" s="61"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" s="61"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" s="61"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" s="61"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" s="61"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" s="61"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" s="61"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1">
       <c r="A127" s="61"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1">
       <c r="A128" s="61"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1">
       <c r="A129" s="61"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1">
       <c r="A130" s="61"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1">
       <c r="A131" s="61"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1">
       <c r="A132" s="61"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1">
       <c r="A133" s="61"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1">
       <c r="A134" s="61"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1">
       <c r="A135" s="61"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1">
       <c r="A136" s="61"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1">
       <c r="A137" s="61"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1">
       <c r="A138" s="61"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1">
       <c r="A139" s="61"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1">
       <c r="A140" s="61"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1">
       <c r="A141" s="61"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1">
       <c r="A142" s="61"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1">
       <c r="A143" s="61"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1">
       <c r="A144" s="61"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1">
       <c r="A145" s="61"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1">
       <c r="A146" s="61"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1">
       <c r="A147" s="61"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1">
       <c r="A148" s="61"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1">
       <c r="A149" s="61"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1">
       <c r="A150" s="61"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1">
       <c r="A151" s="61"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1">
       <c r="A152" s="61"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1">
       <c r="A153" s="61"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1">
       <c r="A154" s="61"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1">
       <c r="A155" s="61"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1">
       <c r="A156" s="61"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1">
       <c r="A157" s="61"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1">
       <c r="A158" s="61"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1">
       <c r="A159" s="61"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1">
       <c r="A160" s="61"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1">
       <c r="A161" s="61"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1">
       <c r="A162" s="61"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1">
       <c r="A163" s="61"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1">
       <c r="A164" s="61"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1">
       <c r="A165" s="61"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1">
       <c r="A166" s="61"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1">
       <c r="A167" s="61"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1">
       <c r="A168" s="61"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1">
       <c r="A169" s="61"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1">
       <c r="A170" s="61"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1">
       <c r="A171" s="61"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1">
       <c r="A172" s="61"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1">
       <c r="A173" s="61"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1">
       <c r="A174" s="61"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1">
       <c r="A175" s="61"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1">
       <c r="A176" s="61"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1">
       <c r="A177" s="61"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1">
       <c r="A178" s="61"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1">
       <c r="A179" s="61"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1">
       <c r="A180" s="61"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1">
       <c r="A181" s="61"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1">
       <c r="A182" s="61"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1">
       <c r="A183" s="61"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1">
       <c r="A184" s="61"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1">
       <c r="A185" s="61"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1">
       <c r="A186" s="61"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1">
       <c r="A187" s="61"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1">
       <c r="A188" s="61"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1">
       <c r="A189" s="61"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1">
       <c r="A190" s="61"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1">
       <c r="A191" s="61"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1">
       <c r="A192" s="61"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1">
       <c r="A193" s="61"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1">
       <c r="A194" s="61"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1">
       <c r="A195" s="61"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1">
       <c r="A196" s="61"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1">
       <c r="A197" s="61"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1">
       <c r="A198" s="61"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1">
       <c r="A199" s="61"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1">
       <c r="A200" s="61"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1">
       <c r="A201" s="61"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1">
       <c r="A202" s="61"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1">
       <c r="A203" s="61"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1">
       <c r="A204" s="61"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1">
       <c r="A205" s="61"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1">
       <c r="A206" s="61"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1">
       <c r="A207" s="61"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1">
       <c r="A208" s="61"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1">
       <c r="A209" s="61"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1">
       <c r="A210" s="61"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1">
       <c r="A211" s="61"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1">
       <c r="A212" s="61"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1">
       <c r="A213" s="61"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1">
       <c r="A214" s="61"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1">
       <c r="A215" s="61"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1">
       <c r="A216" s="61"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1">
       <c r="A217" s="61"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1">
       <c r="A218" s="61"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1">
       <c r="A219" s="61"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1">
       <c r="A220" s="61"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="221" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -22231,9 +22183,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -1292,7 +1292,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.CRE.01</t>
+    <t>ART_RT_MAT_001_CRE_01</t>
   </si>
   <si>
     <t>$NULL</t>
@@ -1397,7 +1397,7 @@
     <t>RT.MAT.001.CRE.02</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.CRE.02</t>
+    <t>ART_RT_MAT_001_CRE_02</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.CRE.02</t>
@@ -1472,7 +1472,7 @@
     <t>RT.MAT.001.CRE.03</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.CRE.03</t>
+    <t>ART_RT_MAT_001_CRE_03</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.CRE.03</t>
@@ -1547,7 +1547,7 @@
     <t>RT.MAT.001.CRE.04</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.CRE.04</t>
+    <t>ART_RT_MAT_001_CRE_04</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.CRE.04</t>
@@ -1598,7 +1598,7 @@
     <t>RT.MAT.001.CRE.05</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.CRE.05</t>
+    <t>ART_RT_MAT_001_CRE_05</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.CRE.05</t>
@@ -1643,7 +1643,7 @@
     <t>RT.MAT.001.CRE.06</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.CRE.06</t>
+    <t>ART_RT_MAT_001_CRE_06</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.CRE.06</t>
@@ -1691,7 +1691,7 @@
     <t>RT.MAT.001.CRE.07</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.CRE.07</t>
+    <t>ART_RT_MAT_001_CRE_07</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.CRE.07</t>
@@ -1742,7 +1742,7 @@
     <t>RT.MAT.001.LEC.01</t>
   </si>
   <si>
-    <t>ART.RT.MAT.001.LEC.01</t>
+    <t>ART_RT_MAT_001_LEC_01</t>
   </si>
   <si>
     <t>CPT.RT.MAT.001.LEC.01</t>
@@ -1784,7 +1784,7 @@
     <t>RT.MAT.001.MAJ.01</t>
   </si>
   <si>
-    <t>ART.UPD.RT.MAT.001.MAJ.01</t>
+    <t>ART_UPD_RT_MAT_001_MAJ_01</t>
   </si>
   <si>
     <t>CPT.UPD.RT.MAT.001.MAJ.01</t>
@@ -1838,7 +1838,7 @@
     <t>RT.MAT.001.REC.01</t>
   </si>
   <si>
-    <t>EMP_ID</t>
+    <t>BTMAT_ID</t>
   </si>
   <si>
     <t>Z</t>
@@ -2287,7 +2287,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2439,9 +2439,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7063,9 +7060,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.0"/>
     <col customWidth="1" min="2" max="2" width="19.88"/>
-    <col customWidth="1" min="3" max="3" width="20.25"/>
+    <col customWidth="1" min="3" max="3" width="24.63"/>
     <col customWidth="1" min="4" max="4" width="9.88"/>
-    <col customWidth="1" min="5" max="5" width="17.13"/>
+    <col customWidth="1" min="5" max="5" width="24.38"/>
     <col customWidth="1" min="6" max="6" width="10.13"/>
     <col customWidth="1" min="7" max="7" width="17.75"/>
     <col customWidth="1" min="11" max="11" width="13.0"/>
@@ -9183,7 +9180,7 @@
       <c r="D8" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="28" t="s">
         <v>343</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -9201,7 +9198,7 @@
       <c r="J8" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K8" s="55" t="s">
         <v>346</v>
       </c>
       <c r="L8" s="19" t="s">
@@ -9216,7 +9213,7 @@
       <c r="O8" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="P8" s="57" t="s">
+      <c r="P8" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q8" s="19" t="s">
@@ -9231,16 +9228,16 @@
       <c r="T8" s="19">
         <v>10000.0</v>
       </c>
-      <c r="U8" s="58">
+      <c r="U8" s="57">
         <v>44562.0</v>
       </c>
-      <c r="V8" s="58">
+      <c r="V8" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W8" s="59" t="s">
+      <c r="W8" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X8" s="58">
+      <c r="X8" s="57">
         <v>44593.0</v>
       </c>
       <c r="Y8" s="19" t="s">
@@ -9264,7 +9261,7 @@
       <c r="AE8" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF8" s="60" t="s">
+      <c r="AF8" s="59" t="s">
         <v>356</v>
       </c>
       <c r="AG8" s="19" t="s">
@@ -9285,7 +9282,7 @@
       <c r="AL8" s="19">
         <v>9999.0</v>
       </c>
-      <c r="AM8" s="58">
+      <c r="AM8" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN8" s="19">
@@ -9324,25 +9321,25 @@
       <c r="AY8" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="AZ8" s="57" t="s">
+      <c r="AZ8" s="56" t="s">
         <v>361</v>
       </c>
       <c r="BA8" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="BB8" s="58">
+      <c r="BB8" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC8" s="58">
+      <c r="BC8" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD8" s="58">
+      <c r="BD8" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE8" s="58">
+      <c r="BE8" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF8" s="58">
+      <c r="BF8" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG8" s="19">
@@ -9378,7 +9375,7 @@
       <c r="BQ8" s="19">
         <v>1100.0</v>
       </c>
-      <c r="BR8" s="61" t="s">
+      <c r="BR8" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS8" s="19" t="s">
@@ -9387,13 +9384,13 @@
       <c r="BT8" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="BU8" s="60" t="s">
+      <c r="BU8" s="59" t="s">
         <v>357</v>
       </c>
-      <c r="BV8" s="59" t="s">
+      <c r="BV8" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW8" s="59" t="s">
+      <c r="BW8" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX8" s="33" t="s">
@@ -9402,7 +9399,7 @@
       <c r="BY8" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ8" s="58">
+      <c r="BZ8" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA8" s="19" t="s">
@@ -9456,7 +9453,7 @@
       <c r="CQ8" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="CR8" s="58">
+      <c r="CR8" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS8" s="19" t="s">
@@ -9474,31 +9471,31 @@
       <c r="CW8" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX8" s="62" t="s">
+      <c r="CX8" s="61" t="s">
         <v>376</v>
       </c>
       <c r="CY8" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="CZ8" s="63"/>
-      <c r="DA8" s="63"/>
-      <c r="DB8" s="63"/>
-      <c r="DC8" s="63"/>
-      <c r="DD8" s="63"/>
-      <c r="DE8" s="63"/>
-      <c r="DF8" s="63"/>
-      <c r="DG8" s="63"/>
-      <c r="DH8" s="63"/>
-      <c r="DI8" s="63"/>
-      <c r="DJ8" s="63"/>
-      <c r="DK8" s="63"/>
-      <c r="DL8" s="63"/>
-      <c r="DM8" s="63"/>
-      <c r="DN8" s="63"/>
-      <c r="DO8" s="63"/>
-      <c r="DP8" s="63"/>
-      <c r="DQ8" s="63"/>
-      <c r="DR8" s="63"/>
+      <c r="CZ8" s="62"/>
+      <c r="DA8" s="62"/>
+      <c r="DB8" s="62"/>
+      <c r="DC8" s="62"/>
+      <c r="DD8" s="62"/>
+      <c r="DE8" s="62"/>
+      <c r="DF8" s="62"/>
+      <c r="DG8" s="62"/>
+      <c r="DH8" s="62"/>
+      <c r="DI8" s="62"/>
+      <c r="DJ8" s="62"/>
+      <c r="DK8" s="62"/>
+      <c r="DL8" s="62"/>
+      <c r="DM8" s="62"/>
+      <c r="DN8" s="62"/>
+      <c r="DO8" s="62"/>
+      <c r="DP8" s="62"/>
+      <c r="DQ8" s="62"/>
+      <c r="DR8" s="62"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="53" t="s">
@@ -9513,7 +9510,7 @@
       <c r="D9" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="28" t="s">
         <v>378</v>
       </c>
       <c r="F9" s="19" t="s">
@@ -9531,7 +9528,7 @@
       <c r="J9" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K9" s="55" t="s">
         <v>346</v>
       </c>
       <c r="L9" s="19" t="s">
@@ -9546,7 +9543,7 @@
       <c r="O9" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="P9" s="57" t="s">
+      <c r="P9" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q9" s="19" t="s">
@@ -9564,13 +9561,13 @@
       <c r="U9" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V9" s="58">
+      <c r="V9" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W9" s="59" t="s">
+      <c r="W9" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X9" s="58">
+      <c r="X9" s="57">
         <v>44593.0</v>
       </c>
       <c r="Y9" s="19" t="s">
@@ -9594,7 +9591,7 @@
       <c r="AE9" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF9" s="60" t="s">
+      <c r="AF9" s="59" t="s">
         <v>356</v>
       </c>
       <c r="AG9" s="19" t="s">
@@ -9615,7 +9612,7 @@
       <c r="AL9" s="19">
         <v>1999.0</v>
       </c>
-      <c r="AM9" s="58">
+      <c r="AM9" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN9" s="19">
@@ -9654,25 +9651,25 @@
       <c r="AY9" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="AZ9" s="57" t="s">
+      <c r="AZ9" s="56" t="s">
         <v>388</v>
       </c>
       <c r="BA9" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="BB9" s="58">
+      <c r="BB9" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC9" s="58">
+      <c r="BC9" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD9" s="58">
+      <c r="BD9" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE9" s="58">
+      <c r="BE9" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF9" s="58">
+      <c r="BF9" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG9" s="19">
@@ -9708,7 +9705,7 @@
       <c r="BQ9" s="19">
         <v>1110.0</v>
       </c>
-      <c r="BR9" s="61" t="s">
+      <c r="BR9" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS9" s="19" t="s">
@@ -9717,13 +9714,13 @@
       <c r="BT9" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="BU9" s="60" t="s">
+      <c r="BU9" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="BV9" s="59" t="s">
+      <c r="BV9" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW9" s="59" t="s">
+      <c r="BW9" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX9" s="33" t="s">
@@ -9732,7 +9729,7 @@
       <c r="BY9" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ9" s="58">
+      <c r="BZ9" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA9" s="19" t="s">
@@ -9786,7 +9783,7 @@
       <c r="CQ9" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="CR9" s="58">
+      <c r="CR9" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS9" s="19" t="s">
@@ -9804,31 +9801,31 @@
       <c r="CW9" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX9" s="62" t="s">
+      <c r="CX9" s="61" t="s">
         <v>401</v>
       </c>
       <c r="CY9" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="CZ9" s="63"/>
-      <c r="DA9" s="63"/>
-      <c r="DB9" s="63"/>
-      <c r="DC9" s="63"/>
-      <c r="DD9" s="63"/>
-      <c r="DE9" s="63"/>
-      <c r="DF9" s="63"/>
-      <c r="DG9" s="63"/>
-      <c r="DH9" s="63"/>
-      <c r="DI9" s="63"/>
-      <c r="DJ9" s="63"/>
-      <c r="DK9" s="63"/>
-      <c r="DL9" s="63"/>
-      <c r="DM9" s="63"/>
-      <c r="DN9" s="63"/>
-      <c r="DO9" s="63"/>
-      <c r="DP9" s="63"/>
-      <c r="DQ9" s="63"/>
-      <c r="DR9" s="63"/>
+      <c r="CZ9" s="62"/>
+      <c r="DA9" s="62"/>
+      <c r="DB9" s="62"/>
+      <c r="DC9" s="62"/>
+      <c r="DD9" s="62"/>
+      <c r="DE9" s="62"/>
+      <c r="DF9" s="62"/>
+      <c r="DG9" s="62"/>
+      <c r="DH9" s="62"/>
+      <c r="DI9" s="62"/>
+      <c r="DJ9" s="62"/>
+      <c r="DK9" s="62"/>
+      <c r="DL9" s="62"/>
+      <c r="DM9" s="62"/>
+      <c r="DN9" s="62"/>
+      <c r="DO9" s="62"/>
+      <c r="DP9" s="62"/>
+      <c r="DQ9" s="62"/>
+      <c r="DR9" s="62"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="53" t="s">
@@ -9843,7 +9840,7 @@
       <c r="D10" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="28" t="s">
         <v>403</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -9861,7 +9858,7 @@
       <c r="J10" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K10" s="55" t="s">
         <v>346</v>
       </c>
       <c r="L10" s="19" t="s">
@@ -9876,7 +9873,7 @@
       <c r="O10" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="P10" s="57" t="s">
+      <c r="P10" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q10" s="19" t="s">
@@ -9894,19 +9891,19 @@
       <c r="U10" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V10" s="58">
+      <c r="V10" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W10" s="59" t="s">
+      <c r="W10" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X10" s="58">
+      <c r="X10" s="57">
         <v>44593.0</v>
       </c>
-      <c r="Y10" s="58">
+      <c r="Y10" s="57">
         <v>44621.0</v>
       </c>
-      <c r="Z10" s="58">
+      <c r="Z10" s="57">
         <v>44652.0</v>
       </c>
       <c r="AA10" s="19" t="s">
@@ -9924,7 +9921,7 @@
       <c r="AE10" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF10" s="60" t="s">
+      <c r="AF10" s="59" t="s">
         <v>356</v>
       </c>
       <c r="AG10" s="19" t="s">
@@ -9945,7 +9942,7 @@
       <c r="AL10" s="19">
         <v>2999.0</v>
       </c>
-      <c r="AM10" s="58">
+      <c r="AM10" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN10" s="19">
@@ -9984,25 +9981,25 @@
       <c r="AY10" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="AZ10" s="57" t="s">
+      <c r="AZ10" s="56" t="s">
         <v>413</v>
       </c>
       <c r="BA10" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="BB10" s="58">
+      <c r="BB10" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC10" s="58">
+      <c r="BC10" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD10" s="58">
+      <c r="BD10" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE10" s="58">
+      <c r="BE10" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF10" s="58">
+      <c r="BF10" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG10" s="19">
@@ -10038,7 +10035,7 @@
       <c r="BQ10" s="19">
         <v>1120.0</v>
       </c>
-      <c r="BR10" s="61" t="s">
+      <c r="BR10" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS10" s="19" t="s">
@@ -10047,13 +10044,13 @@
       <c r="BT10" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="BU10" s="60" t="s">
+      <c r="BU10" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="BV10" s="59" t="s">
+      <c r="BV10" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW10" s="59" t="s">
+      <c r="BW10" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX10" s="33" t="s">
@@ -10062,7 +10059,7 @@
       <c r="BY10" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ10" s="58">
+      <c r="BZ10" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA10" s="19" t="s">
@@ -10116,7 +10113,7 @@
       <c r="CQ10" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="CR10" s="58">
+      <c r="CR10" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS10" s="19" t="s">
@@ -10134,31 +10131,31 @@
       <c r="CW10" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX10" s="62" t="s">
+      <c r="CX10" s="61" t="s">
         <v>426</v>
       </c>
       <c r="CY10" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="CZ10" s="63"/>
-      <c r="DA10" s="63"/>
-      <c r="DB10" s="63"/>
-      <c r="DC10" s="63"/>
-      <c r="DD10" s="63"/>
-      <c r="DE10" s="63"/>
-      <c r="DF10" s="63"/>
-      <c r="DG10" s="63"/>
-      <c r="DH10" s="63"/>
-      <c r="DI10" s="63"/>
-      <c r="DJ10" s="63"/>
-      <c r="DK10" s="63"/>
-      <c r="DL10" s="63"/>
-      <c r="DM10" s="63"/>
-      <c r="DN10" s="63"/>
-      <c r="DO10" s="63"/>
-      <c r="DP10" s="63"/>
-      <c r="DQ10" s="63"/>
-      <c r="DR10" s="63"/>
+      <c r="CZ10" s="62"/>
+      <c r="DA10" s="62"/>
+      <c r="DB10" s="62"/>
+      <c r="DC10" s="62"/>
+      <c r="DD10" s="62"/>
+      <c r="DE10" s="62"/>
+      <c r="DF10" s="62"/>
+      <c r="DG10" s="62"/>
+      <c r="DH10" s="62"/>
+      <c r="DI10" s="62"/>
+      <c r="DJ10" s="62"/>
+      <c r="DK10" s="62"/>
+      <c r="DL10" s="62"/>
+      <c r="DM10" s="62"/>
+      <c r="DN10" s="62"/>
+      <c r="DO10" s="62"/>
+      <c r="DP10" s="62"/>
+      <c r="DQ10" s="62"/>
+      <c r="DR10" s="62"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="53" t="s">
@@ -10173,7 +10170,7 @@
       <c r="D11" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="28" t="s">
         <v>428</v>
       </c>
       <c r="F11" s="19" t="s">
@@ -10191,7 +10188,7 @@
       <c r="J11" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K11" s="55" t="s">
         <v>346</v>
       </c>
       <c r="L11" s="19" t="s">
@@ -10206,7 +10203,7 @@
       <c r="O11" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q11" s="19" t="s">
@@ -10224,13 +10221,13 @@
       <c r="U11" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V11" s="58">
+      <c r="V11" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W11" s="59" t="s">
+      <c r="W11" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X11" s="58">
+      <c r="X11" s="57">
         <v>44593.0</v>
       </c>
       <c r="Y11" s="19" t="s">
@@ -10254,7 +10251,7 @@
       <c r="AE11" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF11" s="60" t="s">
+      <c r="AF11" s="59" t="s">
         <v>356</v>
       </c>
       <c r="AG11" s="19" t="s">
@@ -10275,7 +10272,7 @@
       <c r="AL11" s="19">
         <v>3999.0</v>
       </c>
-      <c r="AM11" s="58">
+      <c r="AM11" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN11" s="19">
@@ -10314,25 +10311,25 @@
       <c r="AY11" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="AZ11" s="57" t="s">
+      <c r="AZ11" s="56" t="s">
         <v>361</v>
       </c>
       <c r="BA11" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="BB11" s="58">
+      <c r="BB11" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC11" s="58">
+      <c r="BC11" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD11" s="58">
+      <c r="BD11" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE11" s="58">
+      <c r="BE11" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF11" s="58">
+      <c r="BF11" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG11" s="19">
@@ -10368,7 +10365,7 @@
       <c r="BQ11" s="19">
         <v>1130.0</v>
       </c>
-      <c r="BR11" s="61" t="s">
+      <c r="BR11" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS11" s="19" t="s">
@@ -10377,13 +10374,13 @@
       <c r="BT11" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="BU11" s="60" t="s">
+      <c r="BU11" s="59" t="s">
         <v>434</v>
       </c>
-      <c r="BV11" s="59" t="s">
+      <c r="BV11" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW11" s="59" t="s">
+      <c r="BW11" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX11" s="33" t="s">
@@ -10392,7 +10389,7 @@
       <c r="BY11" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ11" s="58">
+      <c r="BZ11" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA11" s="19" t="s">
@@ -10446,7 +10443,7 @@
       <c r="CQ11" s="19" t="s">
         <v>443</v>
       </c>
-      <c r="CR11" s="58">
+      <c r="CR11" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS11" s="19" t="s">
@@ -10464,31 +10461,31 @@
       <c r="CW11" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX11" s="62" t="s">
+      <c r="CX11" s="61" t="s">
         <v>376</v>
       </c>
       <c r="CY11" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="CZ11" s="63"/>
-      <c r="DA11" s="63"/>
-      <c r="DB11" s="63"/>
-      <c r="DC11" s="63"/>
-      <c r="DD11" s="63"/>
-      <c r="DE11" s="63"/>
-      <c r="DF11" s="63"/>
-      <c r="DG11" s="63"/>
-      <c r="DH11" s="63"/>
-      <c r="DI11" s="63"/>
-      <c r="DJ11" s="63"/>
-      <c r="DK11" s="63"/>
-      <c r="DL11" s="63"/>
-      <c r="DM11" s="63"/>
-      <c r="DN11" s="63"/>
-      <c r="DO11" s="63"/>
-      <c r="DP11" s="63"/>
-      <c r="DQ11" s="63"/>
-      <c r="DR11" s="63"/>
+      <c r="CZ11" s="62"/>
+      <c r="DA11" s="62"/>
+      <c r="DB11" s="62"/>
+      <c r="DC11" s="62"/>
+      <c r="DD11" s="62"/>
+      <c r="DE11" s="62"/>
+      <c r="DF11" s="62"/>
+      <c r="DG11" s="62"/>
+      <c r="DH11" s="62"/>
+      <c r="DI11" s="62"/>
+      <c r="DJ11" s="62"/>
+      <c r="DK11" s="62"/>
+      <c r="DL11" s="62"/>
+      <c r="DM11" s="62"/>
+      <c r="DN11" s="62"/>
+      <c r="DO11" s="62"/>
+      <c r="DP11" s="62"/>
+      <c r="DQ11" s="62"/>
+      <c r="DR11" s="62"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="53" t="s">
@@ -10503,7 +10500,7 @@
       <c r="D12" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="28" t="s">
         <v>445</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -10521,7 +10518,7 @@
       <c r="J12" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K12" s="55" t="s">
         <v>346</v>
       </c>
       <c r="L12" s="19" t="s">
@@ -10536,7 +10533,7 @@
       <c r="O12" s="19" t="s">
         <v>448</v>
       </c>
-      <c r="P12" s="57" t="s">
+      <c r="P12" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q12" s="19" t="s">
@@ -10554,13 +10551,13 @@
       <c r="U12" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V12" s="58">
+      <c r="V12" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W12" s="59" t="s">
+      <c r="W12" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X12" s="58">
+      <c r="X12" s="57">
         <v>44593.0</v>
       </c>
       <c r="Y12" s="19" t="s">
@@ -10584,7 +10581,7 @@
       <c r="AE12" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF12" s="60" t="s">
+      <c r="AF12" s="59" t="s">
         <v>356</v>
       </c>
       <c r="AG12" s="19" t="s">
@@ -10605,7 +10602,7 @@
       <c r="AL12" s="19">
         <v>4999.0</v>
       </c>
-      <c r="AM12" s="58">
+      <c r="AM12" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN12" s="19">
@@ -10644,25 +10641,25 @@
       <c r="AY12" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="AZ12" s="57" t="s">
+      <c r="AZ12" s="56" t="s">
         <v>388</v>
       </c>
       <c r="BA12" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="BB12" s="58">
+      <c r="BB12" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC12" s="58">
+      <c r="BC12" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD12" s="58">
+      <c r="BD12" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE12" s="58">
+      <c r="BE12" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF12" s="58">
+      <c r="BF12" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG12" s="19">
@@ -10698,7 +10695,7 @@
       <c r="BQ12" s="19">
         <v>1140.0</v>
       </c>
-      <c r="BR12" s="61" t="s">
+      <c r="BR12" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS12" s="19" t="s">
@@ -10707,13 +10704,13 @@
       <c r="BT12" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="BU12" s="60" t="s">
+      <c r="BU12" s="59" t="s">
         <v>450</v>
       </c>
-      <c r="BV12" s="59" t="s">
+      <c r="BV12" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW12" s="59" t="s">
+      <c r="BW12" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX12" s="33" t="s">
@@ -10722,7 +10719,7 @@
       <c r="BY12" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ12" s="58">
+      <c r="BZ12" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA12" s="19" t="s">
@@ -10776,7 +10773,7 @@
       <c r="CQ12" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="CR12" s="58">
+      <c r="CR12" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS12" s="19" t="s">
@@ -10794,31 +10791,31 @@
       <c r="CW12" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX12" s="62" t="s">
+      <c r="CX12" s="61" t="s">
         <v>426</v>
       </c>
       <c r="CY12" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="CZ12" s="63"/>
-      <c r="DA12" s="63"/>
-      <c r="DB12" s="63"/>
-      <c r="DC12" s="63"/>
-      <c r="DD12" s="63"/>
-      <c r="DE12" s="63"/>
-      <c r="DF12" s="63"/>
-      <c r="DG12" s="63"/>
-      <c r="DH12" s="63"/>
-      <c r="DI12" s="63"/>
-      <c r="DJ12" s="63"/>
-      <c r="DK12" s="63"/>
-      <c r="DL12" s="63"/>
-      <c r="DM12" s="63"/>
-      <c r="DN12" s="63"/>
-      <c r="DO12" s="63"/>
-      <c r="DP12" s="63"/>
-      <c r="DQ12" s="63"/>
-      <c r="DR12" s="63"/>
+      <c r="CZ12" s="62"/>
+      <c r="DA12" s="62"/>
+      <c r="DB12" s="62"/>
+      <c r="DC12" s="62"/>
+      <c r="DD12" s="62"/>
+      <c r="DE12" s="62"/>
+      <c r="DF12" s="62"/>
+      <c r="DG12" s="62"/>
+      <c r="DH12" s="62"/>
+      <c r="DI12" s="62"/>
+      <c r="DJ12" s="62"/>
+      <c r="DK12" s="62"/>
+      <c r="DL12" s="62"/>
+      <c r="DM12" s="62"/>
+      <c r="DN12" s="62"/>
+      <c r="DO12" s="62"/>
+      <c r="DP12" s="62"/>
+      <c r="DQ12" s="62"/>
+      <c r="DR12" s="62"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="53" t="s">
@@ -10833,7 +10830,7 @@
       <c r="D13" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="28" t="s">
         <v>460</v>
       </c>
       <c r="F13" s="19" t="s">
@@ -10851,7 +10848,7 @@
       <c r="J13" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="55" t="s">
         <v>346</v>
       </c>
       <c r="L13" s="19" t="s">
@@ -10866,7 +10863,7 @@
       <c r="O13" s="19" t="s">
         <v>463</v>
       </c>
-      <c r="P13" s="57" t="s">
+      <c r="P13" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q13" s="19" t="s">
@@ -10884,13 +10881,13 @@
       <c r="U13" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V13" s="58">
+      <c r="V13" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W13" s="59" t="s">
+      <c r="W13" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X13" s="58">
+      <c r="X13" s="57">
         <v>44593.0</v>
       </c>
       <c r="Y13" s="19" t="s">
@@ -10914,7 +10911,7 @@
       <c r="AE13" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF13" s="60" t="s">
+      <c r="AF13" s="59" t="s">
         <v>465</v>
       </c>
       <c r="AG13" s="19" t="s">
@@ -10935,7 +10932,7 @@
       <c r="AL13" s="19">
         <v>5999.0</v>
       </c>
-      <c r="AM13" s="58">
+      <c r="AM13" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN13" s="19">
@@ -10974,25 +10971,25 @@
       <c r="AY13" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="AZ13" s="57" t="s">
+      <c r="AZ13" s="56" t="s">
         <v>413</v>
       </c>
       <c r="BA13" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="BB13" s="58">
+      <c r="BB13" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC13" s="58">
+      <c r="BC13" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD13" s="58">
+      <c r="BD13" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE13" s="58">
+      <c r="BE13" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF13" s="58">
+      <c r="BF13" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG13" s="19">
@@ -11028,7 +11025,7 @@
       <c r="BQ13" s="19">
         <v>1150.0</v>
       </c>
-      <c r="BR13" s="61" t="s">
+      <c r="BR13" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS13" s="19" t="s">
@@ -11037,13 +11034,13 @@
       <c r="BT13" s="19" t="s">
         <v>472</v>
       </c>
-      <c r="BU13" s="60" t="s">
+      <c r="BU13" s="59" t="s">
         <v>466</v>
       </c>
-      <c r="BV13" s="59" t="s">
+      <c r="BV13" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW13" s="59" t="s">
+      <c r="BW13" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX13" s="33" t="s">
@@ -11052,7 +11049,7 @@
       <c r="BY13" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ13" s="58">
+      <c r="BZ13" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA13" s="19" t="s">
@@ -11106,7 +11103,7 @@
       <c r="CQ13" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="CR13" s="58">
+      <c r="CR13" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS13" s="19" t="s">
@@ -11124,31 +11121,31 @@
       <c r="CW13" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX13" s="62" t="s">
+      <c r="CX13" s="61" t="s">
         <v>401</v>
       </c>
       <c r="CY13" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="CZ13" s="63"/>
-      <c r="DA13" s="63"/>
-      <c r="DB13" s="63"/>
-      <c r="DC13" s="63"/>
-      <c r="DD13" s="63"/>
-      <c r="DE13" s="63"/>
-      <c r="DF13" s="63"/>
-      <c r="DG13" s="63"/>
-      <c r="DH13" s="63"/>
-      <c r="DI13" s="63"/>
-      <c r="DJ13" s="63"/>
-      <c r="DK13" s="63"/>
-      <c r="DL13" s="63"/>
-      <c r="DM13" s="63"/>
-      <c r="DN13" s="63"/>
-      <c r="DO13" s="63"/>
-      <c r="DP13" s="63"/>
-      <c r="DQ13" s="63"/>
-      <c r="DR13" s="63"/>
+      <c r="CZ13" s="62"/>
+      <c r="DA13" s="62"/>
+      <c r="DB13" s="62"/>
+      <c r="DC13" s="62"/>
+      <c r="DD13" s="62"/>
+      <c r="DE13" s="62"/>
+      <c r="DF13" s="62"/>
+      <c r="DG13" s="62"/>
+      <c r="DH13" s="62"/>
+      <c r="DI13" s="62"/>
+      <c r="DJ13" s="62"/>
+      <c r="DK13" s="62"/>
+      <c r="DL13" s="62"/>
+      <c r="DM13" s="62"/>
+      <c r="DN13" s="62"/>
+      <c r="DO13" s="62"/>
+      <c r="DP13" s="62"/>
+      <c r="DQ13" s="62"/>
+      <c r="DR13" s="62"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="53" t="s">
@@ -11163,7 +11160,7 @@
       <c r="D14" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="28" t="s">
         <v>476</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -11181,7 +11178,7 @@
       <c r="J14" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="55" t="s">
         <v>346</v>
       </c>
       <c r="L14" s="19" t="s">
@@ -11196,7 +11193,7 @@
       <c r="O14" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="P14" s="57" t="s">
+      <c r="P14" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q14" s="19" t="s">
@@ -11214,13 +11211,13 @@
       <c r="U14" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V14" s="58">
+      <c r="V14" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W14" s="59" t="s">
+      <c r="W14" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X14" s="58">
+      <c r="X14" s="57">
         <v>44593.0</v>
       </c>
       <c r="Y14" s="19" t="s">
@@ -11244,7 +11241,7 @@
       <c r="AE14" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF14" s="60" t="s">
+      <c r="AF14" s="59" t="s">
         <v>481</v>
       </c>
       <c r="AG14" s="19" t="s">
@@ -11265,7 +11262,7 @@
       <c r="AL14" s="19">
         <v>6999.0</v>
       </c>
-      <c r="AM14" s="58">
+      <c r="AM14" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN14" s="19">
@@ -11304,25 +11301,25 @@
       <c r="AY14" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="AZ14" s="57" t="s">
+      <c r="AZ14" s="56" t="s">
         <v>413</v>
       </c>
       <c r="BA14" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="BB14" s="58">
+      <c r="BB14" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC14" s="58">
+      <c r="BC14" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD14" s="58">
+      <c r="BD14" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE14" s="58">
+      <c r="BE14" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF14" s="58">
+      <c r="BF14" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG14" s="19">
@@ -11358,7 +11355,7 @@
       <c r="BQ14" s="19">
         <v>1160.0</v>
       </c>
-      <c r="BR14" s="61" t="s">
+      <c r="BR14" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS14" s="19" t="s">
@@ -11367,13 +11364,13 @@
       <c r="BT14" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="BU14" s="60" t="s">
+      <c r="BU14" s="59" t="s">
         <v>482</v>
       </c>
-      <c r="BV14" s="59" t="s">
+      <c r="BV14" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW14" s="59" t="s">
+      <c r="BW14" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX14" s="33" t="s">
@@ -11382,7 +11379,7 @@
       <c r="BY14" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ14" s="58">
+      <c r="BZ14" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA14" s="19" t="s">
@@ -11436,7 +11433,7 @@
       <c r="CQ14" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="CR14" s="58">
+      <c r="CR14" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS14" s="19" t="s">
@@ -11454,31 +11451,31 @@
       <c r="CW14" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX14" s="62" t="s">
+      <c r="CX14" s="61" t="s">
         <v>376</v>
       </c>
       <c r="CY14" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="CZ14" s="63"/>
-      <c r="DA14" s="63"/>
-      <c r="DB14" s="63"/>
-      <c r="DC14" s="63"/>
-      <c r="DD14" s="63"/>
-      <c r="DE14" s="63"/>
-      <c r="DF14" s="63"/>
-      <c r="DG14" s="63"/>
-      <c r="DH14" s="63"/>
-      <c r="DI14" s="63"/>
-      <c r="DJ14" s="63"/>
-      <c r="DK14" s="63"/>
-      <c r="DL14" s="63"/>
-      <c r="DM14" s="63"/>
-      <c r="DN14" s="63"/>
-      <c r="DO14" s="63"/>
-      <c r="DP14" s="63"/>
-      <c r="DQ14" s="63"/>
-      <c r="DR14" s="63"/>
+      <c r="CZ14" s="62"/>
+      <c r="DA14" s="62"/>
+      <c r="DB14" s="62"/>
+      <c r="DC14" s="62"/>
+      <c r="DD14" s="62"/>
+      <c r="DE14" s="62"/>
+      <c r="DF14" s="62"/>
+      <c r="DG14" s="62"/>
+      <c r="DH14" s="62"/>
+      <c r="DI14" s="62"/>
+      <c r="DJ14" s="62"/>
+      <c r="DK14" s="62"/>
+      <c r="DL14" s="62"/>
+      <c r="DM14" s="62"/>
+      <c r="DN14" s="62"/>
+      <c r="DO14" s="62"/>
+      <c r="DP14" s="62"/>
+      <c r="DQ14" s="62"/>
+      <c r="DR14" s="62"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="53" t="s">
@@ -11493,7 +11490,7 @@
       <c r="D15" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="28" t="s">
         <v>493</v>
       </c>
       <c r="F15" s="19" t="s">
@@ -11511,7 +11508,7 @@
       <c r="J15" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K15" s="64">
+      <c r="K15" s="63">
         <v>1000.0</v>
       </c>
       <c r="L15" s="19" t="s">
@@ -11526,7 +11523,7 @@
       <c r="O15" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="P15" s="57" t="s">
+      <c r="P15" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q15" s="19" t="s">
@@ -11544,13 +11541,13 @@
       <c r="U15" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V15" s="58">
+      <c r="V15" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W15" s="59" t="s">
+      <c r="W15" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X15" s="58">
+      <c r="X15" s="57">
         <v>44593.0</v>
       </c>
       <c r="Y15" s="19" t="s">
@@ -11574,7 +11571,7 @@
       <c r="AE15" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF15" s="60" t="s">
+      <c r="AF15" s="59" t="s">
         <v>356</v>
       </c>
       <c r="AG15" s="19" t="s">
@@ -11595,7 +11592,7 @@
       <c r="AL15" s="19">
         <v>7999.0</v>
       </c>
-      <c r="AM15" s="58">
+      <c r="AM15" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN15" s="19">
@@ -11634,25 +11631,25 @@
       <c r="AY15" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="AZ15" s="57" t="s">
+      <c r="AZ15" s="56" t="s">
         <v>388</v>
       </c>
       <c r="BA15" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="BB15" s="58">
+      <c r="BB15" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC15" s="58">
+      <c r="BC15" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD15" s="58">
+      <c r="BD15" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE15" s="58">
+      <c r="BE15" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF15" s="58">
+      <c r="BF15" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG15" s="19">
@@ -11688,7 +11685,7 @@
       <c r="BQ15" s="19">
         <v>1170.0</v>
       </c>
-      <c r="BR15" s="61" t="s">
+      <c r="BR15" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS15" s="19" t="s">
@@ -11697,13 +11694,13 @@
       <c r="BT15" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="BU15" s="60" t="s">
+      <c r="BU15" s="59" t="s">
         <v>497</v>
       </c>
-      <c r="BV15" s="59" t="s">
+      <c r="BV15" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW15" s="59" t="s">
+      <c r="BW15" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX15" s="33" t="s">
@@ -11712,7 +11709,7 @@
       <c r="BY15" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ15" s="58">
+      <c r="BZ15" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA15" s="19" t="s">
@@ -11766,7 +11763,7 @@
       <c r="CQ15" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="CR15" s="58">
+      <c r="CR15" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS15" s="19" t="s">
@@ -11784,31 +11781,31 @@
       <c r="CW15" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX15" s="62" t="s">
+      <c r="CX15" s="61" t="s">
         <v>401</v>
       </c>
       <c r="CY15" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="CZ15" s="63"/>
-      <c r="DA15" s="63"/>
-      <c r="DB15" s="63"/>
-      <c r="DC15" s="63"/>
-      <c r="DD15" s="63"/>
-      <c r="DE15" s="63"/>
-      <c r="DF15" s="63"/>
-      <c r="DG15" s="63"/>
-      <c r="DH15" s="63"/>
-      <c r="DI15" s="63"/>
-      <c r="DJ15" s="63"/>
-      <c r="DK15" s="63"/>
-      <c r="DL15" s="63"/>
-      <c r="DM15" s="63"/>
-      <c r="DN15" s="63"/>
-      <c r="DO15" s="63"/>
-      <c r="DP15" s="63"/>
-      <c r="DQ15" s="63"/>
-      <c r="DR15" s="63"/>
+      <c r="CZ15" s="62"/>
+      <c r="DA15" s="62"/>
+      <c r="DB15" s="62"/>
+      <c r="DC15" s="62"/>
+      <c r="DD15" s="62"/>
+      <c r="DE15" s="62"/>
+      <c r="DF15" s="62"/>
+      <c r="DG15" s="62"/>
+      <c r="DH15" s="62"/>
+      <c r="DI15" s="62"/>
+      <c r="DJ15" s="62"/>
+      <c r="DK15" s="62"/>
+      <c r="DL15" s="62"/>
+      <c r="DM15" s="62"/>
+      <c r="DN15" s="62"/>
+      <c r="DO15" s="62"/>
+      <c r="DP15" s="62"/>
+      <c r="DQ15" s="62"/>
+      <c r="DR15" s="62"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="53" t="s">
@@ -11823,7 +11820,7 @@
       <c r="D16" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="28" t="s">
         <v>507</v>
       </c>
       <c r="F16" s="19" t="s">
@@ -11841,7 +11838,7 @@
       <c r="J16" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="63">
         <v>1001.0</v>
       </c>
       <c r="L16" s="19" t="s">
@@ -11856,7 +11853,7 @@
       <c r="O16" s="54" t="s">
         <v>510</v>
       </c>
-      <c r="P16" s="57" t="s">
+      <c r="P16" s="56" t="s">
         <v>350</v>
       </c>
       <c r="Q16" s="19" t="s">
@@ -11874,13 +11871,13 @@
       <c r="U16" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="V16" s="58">
+      <c r="V16" s="57">
         <v>45658.0</v>
       </c>
-      <c r="W16" s="59" t="s">
+      <c r="W16" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="X16" s="58">
+      <c r="X16" s="57">
         <v>44593.0</v>
       </c>
       <c r="Y16" s="19" t="s">
@@ -11904,7 +11901,7 @@
       <c r="AE16" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="AF16" s="60" t="s">
+      <c r="AF16" s="59" t="s">
         <v>356</v>
       </c>
       <c r="AG16" s="19" t="s">
@@ -11925,7 +11922,7 @@
       <c r="AL16" s="19">
         <v>8999.0</v>
       </c>
-      <c r="AM16" s="58">
+      <c r="AM16" s="57">
         <v>49310.0</v>
       </c>
       <c r="AN16" s="19">
@@ -11964,25 +11961,25 @@
       <c r="AY16" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="AZ16" s="57" t="s">
+      <c r="AZ16" s="56" t="s">
         <v>413</v>
       </c>
       <c r="BA16" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="BB16" s="58">
+      <c r="BB16" s="57">
         <v>44562.0</v>
       </c>
-      <c r="BC16" s="58">
+      <c r="BC16" s="57">
         <v>44713.0</v>
       </c>
-      <c r="BD16" s="58">
+      <c r="BD16" s="57">
         <v>45078.0</v>
       </c>
-      <c r="BE16" s="58">
+      <c r="BE16" s="57">
         <v>44743.0</v>
       </c>
-      <c r="BF16" s="58">
+      <c r="BF16" s="57">
         <v>45108.0</v>
       </c>
       <c r="BG16" s="19">
@@ -12018,7 +12015,7 @@
       <c r="BQ16" s="19">
         <v>1180.0</v>
       </c>
-      <c r="BR16" s="61" t="s">
+      <c r="BR16" s="60" t="s">
         <v>367</v>
       </c>
       <c r="BS16" s="19" t="s">
@@ -12027,13 +12024,13 @@
       <c r="BT16" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="BU16" s="60" t="s">
+      <c r="BU16" s="59" t="s">
         <v>512</v>
       </c>
-      <c r="BV16" s="59" t="s">
+      <c r="BV16" s="58" t="s">
         <v>352</v>
       </c>
-      <c r="BW16" s="59" t="s">
+      <c r="BW16" s="58" t="s">
         <v>352</v>
       </c>
       <c r="BX16" s="33" t="s">
@@ -12042,7 +12039,7 @@
       <c r="BY16" s="33" t="s">
         <v>355</v>
       </c>
-      <c r="BZ16" s="58">
+      <c r="BZ16" s="57">
         <v>44562.0</v>
       </c>
       <c r="CA16" s="19" t="s">
@@ -12096,7 +12093,7 @@
       <c r="CQ16" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="CR16" s="58">
+      <c r="CR16" s="57">
         <v>44227.0</v>
       </c>
       <c r="CS16" s="19" t="s">
@@ -12114,31 +12111,31 @@
       <c r="CW16" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="CX16" s="62" t="s">
+      <c r="CX16" s="61" t="s">
         <v>426</v>
       </c>
       <c r="CY16" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="CZ16" s="63"/>
-      <c r="DA16" s="63"/>
-      <c r="DB16" s="63"/>
-      <c r="DC16" s="63"/>
-      <c r="DD16" s="63"/>
-      <c r="DE16" s="63"/>
-      <c r="DF16" s="63"/>
-      <c r="DG16" s="63"/>
-      <c r="DH16" s="63"/>
-      <c r="DI16" s="63"/>
-      <c r="DJ16" s="63"/>
-      <c r="DK16" s="63"/>
-      <c r="DL16" s="63"/>
-      <c r="DM16" s="63"/>
-      <c r="DN16" s="63"/>
-      <c r="DO16" s="63"/>
-      <c r="DP16" s="63"/>
-      <c r="DQ16" s="63"/>
-      <c r="DR16" s="63"/>
+      <c r="CZ16" s="62"/>
+      <c r="DA16" s="62"/>
+      <c r="DB16" s="62"/>
+      <c r="DC16" s="62"/>
+      <c r="DD16" s="62"/>
+      <c r="DE16" s="62"/>
+      <c r="DF16" s="62"/>
+      <c r="DG16" s="62"/>
+      <c r="DH16" s="62"/>
+      <c r="DI16" s="62"/>
+      <c r="DJ16" s="62"/>
+      <c r="DK16" s="62"/>
+      <c r="DL16" s="62"/>
+      <c r="DM16" s="62"/>
+      <c r="DN16" s="62"/>
+      <c r="DO16" s="62"/>
+      <c r="DP16" s="62"/>
+      <c r="DQ16" s="62"/>
+      <c r="DR16" s="62"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="53" t="s">
@@ -12147,126 +12144,126 @@
       <c r="B17" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
-      <c r="Q17" s="65"/>
-      <c r="R17" s="65"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="65"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-      <c r="AA17" s="65"/>
-      <c r="AB17" s="65"/>
-      <c r="AC17" s="65"/>
-      <c r="AD17" s="65"/>
-      <c r="AE17" s="65"/>
-      <c r="AF17" s="65"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="65"/>
-      <c r="AJ17" s="65"/>
-      <c r="AK17" s="65"/>
-      <c r="AL17" s="65"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="65"/>
-      <c r="AO17" s="65"/>
-      <c r="AP17" s="65"/>
-      <c r="AQ17" s="65"/>
-      <c r="AR17" s="65"/>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65"/>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65"/>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65"/>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65"/>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65"/>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65"/>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65"/>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
-      <c r="BO17" s="65"/>
-      <c r="BP17" s="65"/>
-      <c r="BQ17" s="65"/>
-      <c r="BR17" s="65"/>
-      <c r="BS17" s="65"/>
-      <c r="BT17" s="65"/>
-      <c r="BU17" s="65"/>
-      <c r="BV17" s="65"/>
-      <c r="BW17" s="65"/>
-      <c r="BX17" s="65"/>
-      <c r="BY17" s="65"/>
-      <c r="BZ17" s="65"/>
-      <c r="CA17" s="65"/>
-      <c r="CB17" s="65"/>
-      <c r="CC17" s="65"/>
-      <c r="CD17" s="65"/>
-      <c r="CE17" s="65"/>
-      <c r="CF17" s="65"/>
-      <c r="CG17" s="65"/>
-      <c r="CH17" s="65"/>
-      <c r="CI17" s="65"/>
-      <c r="CJ17" s="65"/>
-      <c r="CK17" s="65"/>
-      <c r="CL17" s="65"/>
-      <c r="CM17" s="65"/>
-      <c r="CN17" s="65"/>
-      <c r="CO17" s="65"/>
-      <c r="CP17" s="65"/>
-      <c r="CQ17" s="65"/>
-      <c r="CR17" s="65"/>
-      <c r="CS17" s="65"/>
-      <c r="CT17" s="65"/>
-      <c r="CU17" s="65"/>
-      <c r="CV17" s="65"/>
-      <c r="CW17" s="65"/>
-      <c r="CX17" s="65"/>
-      <c r="CY17" s="65"/>
-      <c r="CZ17" s="65"/>
-      <c r="DA17" s="65"/>
-      <c r="DB17" s="65"/>
-      <c r="DC17" s="65"/>
-      <c r="DD17" s="65"/>
-      <c r="DE17" s="65"/>
-      <c r="DF17" s="65"/>
-      <c r="DG17" s="65"/>
-      <c r="DH17" s="65"/>
-      <c r="DI17" s="65"/>
-      <c r="DJ17" s="65"/>
-      <c r="DK17" s="65"/>
-      <c r="DL17" s="65"/>
-      <c r="DM17" s="65"/>
-      <c r="DN17" s="65"/>
-      <c r="DO17" s="65"/>
-      <c r="DP17" s="65"/>
-      <c r="DQ17" s="65"/>
-      <c r="DR17" s="65"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="64"/>
+      <c r="AC17" s="64"/>
+      <c r="AD17" s="64"/>
+      <c r="AE17" s="64"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
+      <c r="AH17" s="64"/>
+      <c r="AI17" s="64"/>
+      <c r="AJ17" s="64"/>
+      <c r="AK17" s="64"/>
+      <c r="AL17" s="64"/>
+      <c r="AM17" s="64"/>
+      <c r="AN17" s="64"/>
+      <c r="AO17" s="64"/>
+      <c r="AP17" s="64"/>
+      <c r="AQ17" s="64"/>
+      <c r="AR17" s="64"/>
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="64"/>
+      <c r="AW17" s="64"/>
+      <c r="AX17" s="64"/>
+      <c r="AY17" s="64"/>
+      <c r="AZ17" s="64"/>
+      <c r="BA17" s="64"/>
+      <c r="BB17" s="64"/>
+      <c r="BC17" s="64"/>
+      <c r="BD17" s="64"/>
+      <c r="BE17" s="64"/>
+      <c r="BF17" s="64"/>
+      <c r="BG17" s="64"/>
+      <c r="BH17" s="64"/>
+      <c r="BI17" s="64"/>
+      <c r="BJ17" s="64"/>
+      <c r="BK17" s="64"/>
+      <c r="BL17" s="64"/>
+      <c r="BM17" s="64"/>
+      <c r="BN17" s="64"/>
+      <c r="BO17" s="64"/>
+      <c r="BP17" s="64"/>
+      <c r="BQ17" s="64"/>
+      <c r="BR17" s="64"/>
+      <c r="BS17" s="64"/>
+      <c r="BT17" s="64"/>
+      <c r="BU17" s="64"/>
+      <c r="BV17" s="64"/>
+      <c r="BW17" s="64"/>
+      <c r="BX17" s="64"/>
+      <c r="BY17" s="64"/>
+      <c r="BZ17" s="64"/>
+      <c r="CA17" s="64"/>
+      <c r="CB17" s="64"/>
+      <c r="CC17" s="64"/>
+      <c r="CD17" s="64"/>
+      <c r="CE17" s="64"/>
+      <c r="CF17" s="64"/>
+      <c r="CG17" s="64"/>
+      <c r="CH17" s="64"/>
+      <c r="CI17" s="64"/>
+      <c r="CJ17" s="64"/>
+      <c r="CK17" s="64"/>
+      <c r="CL17" s="64"/>
+      <c r="CM17" s="64"/>
+      <c r="CN17" s="64"/>
+      <c r="CO17" s="64"/>
+      <c r="CP17" s="64"/>
+      <c r="CQ17" s="64"/>
+      <c r="CR17" s="64"/>
+      <c r="CS17" s="64"/>
+      <c r="CT17" s="64"/>
+      <c r="CU17" s="64"/>
+      <c r="CV17" s="64"/>
+      <c r="CW17" s="64"/>
+      <c r="CX17" s="64"/>
+      <c r="CY17" s="64"/>
+      <c r="CZ17" s="64"/>
+      <c r="DA17" s="64"/>
+      <c r="DB17" s="64"/>
+      <c r="DC17" s="64"/>
+      <c r="DD17" s="64"/>
+      <c r="DE17" s="64"/>
+      <c r="DF17" s="64"/>
+      <c r="DG17" s="64"/>
+      <c r="DH17" s="64"/>
+      <c r="DI17" s="64"/>
+      <c r="DJ17" s="64"/>
+      <c r="DK17" s="64"/>
+      <c r="DL17" s="64"/>
+      <c r="DM17" s="64"/>
+      <c r="DN17" s="64"/>
+      <c r="DO17" s="64"/>
+      <c r="DP17" s="64"/>
+      <c r="DQ17" s="64"/>
+      <c r="DR17" s="64"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="53" t="s">
@@ -12275,129 +12272,129 @@
       <c r="B18" s="54" t="s">
         <v>524</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="65"/>
-      <c r="AF18" s="65"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="65"/>
-      <c r="AI18" s="65"/>
-      <c r="AJ18" s="65"/>
-      <c r="AK18" s="65"/>
-      <c r="AL18" s="65"/>
-      <c r="AM18" s="65"/>
-      <c r="AN18" s="65"/>
-      <c r="AO18" s="65"/>
-      <c r="AP18" s="65"/>
-      <c r="AQ18" s="65"/>
-      <c r="AR18" s="65"/>
-      <c r="AS18" s="65"/>
-      <c r="AT18" s="65"/>
-      <c r="AU18" s="65"/>
-      <c r="AV18" s="65"/>
-      <c r="AW18" s="65"/>
-      <c r="AX18" s="65"/>
-      <c r="AY18" s="65"/>
-      <c r="AZ18" s="65"/>
-      <c r="BA18" s="65"/>
-      <c r="BB18" s="65"/>
-      <c r="BC18" s="65"/>
-      <c r="BD18" s="65"/>
-      <c r="BE18" s="65"/>
-      <c r="BF18" s="65"/>
-      <c r="BG18" s="65"/>
-      <c r="BH18" s="65"/>
-      <c r="BI18" s="65"/>
-      <c r="BJ18" s="65"/>
-      <c r="BK18" s="65"/>
-      <c r="BL18" s="65"/>
-      <c r="BM18" s="65"/>
-      <c r="BN18" s="65"/>
-      <c r="BO18" s="65"/>
-      <c r="BP18" s="65"/>
-      <c r="BQ18" s="65"/>
-      <c r="BR18" s="65"/>
-      <c r="BS18" s="65"/>
-      <c r="BT18" s="65"/>
-      <c r="BU18" s="65"/>
-      <c r="BV18" s="65"/>
-      <c r="BW18" s="65"/>
-      <c r="BX18" s="65"/>
-      <c r="BY18" s="65"/>
-      <c r="BZ18" s="65"/>
-      <c r="CA18" s="65"/>
-      <c r="CB18" s="65"/>
-      <c r="CC18" s="65"/>
-      <c r="CD18" s="65"/>
-      <c r="CE18" s="65"/>
-      <c r="CF18" s="65"/>
-      <c r="CG18" s="65"/>
-      <c r="CH18" s="65"/>
-      <c r="CI18" s="65"/>
-      <c r="CJ18" s="65"/>
-      <c r="CK18" s="65"/>
-      <c r="CL18" s="65"/>
-      <c r="CM18" s="65"/>
-      <c r="CN18" s="65"/>
-      <c r="CO18" s="65"/>
-      <c r="CP18" s="65"/>
-      <c r="CQ18" s="65"/>
-      <c r="CR18" s="65"/>
-      <c r="CS18" s="65"/>
-      <c r="CT18" s="65"/>
-      <c r="CU18" s="65"/>
-      <c r="CV18" s="65"/>
-      <c r="CW18" s="65"/>
-      <c r="CX18" s="65"/>
-      <c r="CY18" s="65"/>
-      <c r="CZ18" s="65"/>
-      <c r="DA18" s="65"/>
-      <c r="DB18" s="65"/>
-      <c r="DC18" s="65"/>
-      <c r="DD18" s="65"/>
-      <c r="DE18" s="65"/>
-      <c r="DF18" s="65"/>
-      <c r="DG18" s="65"/>
-      <c r="DH18" s="65"/>
-      <c r="DI18" s="65"/>
-      <c r="DJ18" s="65"/>
-      <c r="DK18" s="65"/>
-      <c r="DL18" s="65"/>
-      <c r="DM18" s="65"/>
-      <c r="DN18" s="65"/>
-      <c r="DO18" s="65"/>
-      <c r="DP18" s="65"/>
-      <c r="DQ18" s="65"/>
-      <c r="DR18" s="65"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="64"/>
+      <c r="AG18" s="64"/>
+      <c r="AH18" s="64"/>
+      <c r="AI18" s="64"/>
+      <c r="AJ18" s="64"/>
+      <c r="AK18" s="64"/>
+      <c r="AL18" s="64"/>
+      <c r="AM18" s="64"/>
+      <c r="AN18" s="64"/>
+      <c r="AO18" s="64"/>
+      <c r="AP18" s="64"/>
+      <c r="AQ18" s="64"/>
+      <c r="AR18" s="64"/>
+      <c r="AS18" s="64"/>
+      <c r="AT18" s="64"/>
+      <c r="AU18" s="64"/>
+      <c r="AV18" s="64"/>
+      <c r="AW18" s="64"/>
+      <c r="AX18" s="64"/>
+      <c r="AY18" s="64"/>
+      <c r="AZ18" s="64"/>
+      <c r="BA18" s="64"/>
+      <c r="BB18" s="64"/>
+      <c r="BC18" s="64"/>
+      <c r="BD18" s="64"/>
+      <c r="BE18" s="64"/>
+      <c r="BF18" s="64"/>
+      <c r="BG18" s="64"/>
+      <c r="BH18" s="64"/>
+      <c r="BI18" s="64"/>
+      <c r="BJ18" s="64"/>
+      <c r="BK18" s="64"/>
+      <c r="BL18" s="64"/>
+      <c r="BM18" s="64"/>
+      <c r="BN18" s="64"/>
+      <c r="BO18" s="64"/>
+      <c r="BP18" s="64"/>
+      <c r="BQ18" s="64"/>
+      <c r="BR18" s="64"/>
+      <c r="BS18" s="64"/>
+      <c r="BT18" s="64"/>
+      <c r="BU18" s="64"/>
+      <c r="BV18" s="64"/>
+      <c r="BW18" s="64"/>
+      <c r="BX18" s="64"/>
+      <c r="BY18" s="64"/>
+      <c r="BZ18" s="64"/>
+      <c r="CA18" s="64"/>
+      <c r="CB18" s="64"/>
+      <c r="CC18" s="64"/>
+      <c r="CD18" s="64"/>
+      <c r="CE18" s="64"/>
+      <c r="CF18" s="64"/>
+      <c r="CG18" s="64"/>
+      <c r="CH18" s="64"/>
+      <c r="CI18" s="64"/>
+      <c r="CJ18" s="64"/>
+      <c r="CK18" s="64"/>
+      <c r="CL18" s="64"/>
+      <c r="CM18" s="64"/>
+      <c r="CN18" s="64"/>
+      <c r="CO18" s="64"/>
+      <c r="CP18" s="64"/>
+      <c r="CQ18" s="64"/>
+      <c r="CR18" s="64"/>
+      <c r="CS18" s="64"/>
+      <c r="CT18" s="64"/>
+      <c r="CU18" s="64"/>
+      <c r="CV18" s="64"/>
+      <c r="CW18" s="64"/>
+      <c r="CX18" s="64"/>
+      <c r="CY18" s="64"/>
+      <c r="CZ18" s="64"/>
+      <c r="DA18" s="64"/>
+      <c r="DB18" s="64"/>
+      <c r="DC18" s="64"/>
+      <c r="DD18" s="64"/>
+      <c r="DE18" s="64"/>
+      <c r="DF18" s="64"/>
+      <c r="DG18" s="64"/>
+      <c r="DH18" s="64"/>
+      <c r="DI18" s="64"/>
+      <c r="DJ18" s="64"/>
+      <c r="DK18" s="64"/>
+      <c r="DL18" s="64"/>
+      <c r="DM18" s="64"/>
+      <c r="DN18" s="64"/>
+      <c r="DO18" s="64"/>
+      <c r="DP18" s="64"/>
+      <c r="DQ18" s="64"/>
+      <c r="DR18" s="64"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="65"/>
       <c r="AF19" s="54"/>
       <c r="CZ19" s="40"/>
       <c r="DA19" s="40"/>
@@ -12420,7 +12417,7 @@
       <c r="DR19" s="40"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="65"/>
       <c r="CZ20" s="40"/>
       <c r="DA20" s="40"/>
       <c r="DB20" s="40"/>
@@ -12442,7 +12439,7 @@
       <c r="DR20" s="40"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="65"/>
       <c r="CZ21" s="40"/>
       <c r="DA21" s="40"/>
       <c r="DB21" s="40"/>
@@ -12464,7 +12461,7 @@
       <c r="DR21" s="40"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
       <c r="CZ22" s="40"/>
       <c r="DA22" s="40"/>
       <c r="DB22" s="40"/>
@@ -12486,7 +12483,7 @@
       <c r="DR22" s="40"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
       <c r="CZ23" s="40"/>
       <c r="DA23" s="40"/>
       <c r="DB23" s="40"/>
@@ -12508,7 +12505,7 @@
       <c r="DR23" s="40"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
       <c r="CZ24" s="40"/>
       <c r="DA24" s="40"/>
       <c r="DB24" s="40"/>
@@ -12530,7 +12527,7 @@
       <c r="DR24" s="40"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="65"/>
       <c r="CZ25" s="40"/>
       <c r="DA25" s="40"/>
       <c r="DB25" s="40"/>
@@ -12552,7 +12549,7 @@
       <c r="DR25" s="40"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
       <c r="CZ26" s="40"/>
       <c r="DA26" s="40"/>
       <c r="DB26" s="40"/>
@@ -12574,7 +12571,7 @@
       <c r="DR26" s="40"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
       <c r="CZ27" s="40"/>
       <c r="DA27" s="40"/>
       <c r="DB27" s="40"/>
@@ -12596,7 +12593,7 @@
       <c r="DR27" s="40"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="65"/>
       <c r="CZ28" s="40"/>
       <c r="DA28" s="40"/>
       <c r="DB28" s="40"/>
@@ -12618,7 +12615,7 @@
       <c r="DR28" s="40"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="66"/>
+      <c r="A29" s="65"/>
       <c r="CZ29" s="40"/>
       <c r="DA29" s="40"/>
       <c r="DB29" s="40"/>
@@ -12640,7 +12637,7 @@
       <c r="DR29" s="40"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="65"/>
       <c r="CZ30" s="40"/>
       <c r="DA30" s="40"/>
       <c r="DB30" s="40"/>
@@ -12662,7 +12659,7 @@
       <c r="DR30" s="40"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="65"/>
       <c r="CZ31" s="40"/>
       <c r="DA31" s="40"/>
       <c r="DB31" s="40"/>
@@ -12684,7 +12681,7 @@
       <c r="DR31" s="40"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="66"/>
+      <c r="A32" s="65"/>
       <c r="CZ32" s="40"/>
       <c r="DA32" s="40"/>
       <c r="DB32" s="40"/>
@@ -12706,7 +12703,7 @@
       <c r="DR32" s="40"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="65"/>
       <c r="CZ33" s="40"/>
       <c r="DA33" s="40"/>
       <c r="DB33" s="40"/>
@@ -12728,7 +12725,7 @@
       <c r="DR33" s="40"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="66"/>
+      <c r="A34" s="65"/>
       <c r="CZ34" s="40"/>
       <c r="DA34" s="40"/>
       <c r="DB34" s="40"/>
@@ -12750,7 +12747,7 @@
       <c r="DR34" s="40"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="66"/>
+      <c r="A35" s="65"/>
       <c r="CZ35" s="40"/>
       <c r="DA35" s="40"/>
       <c r="DB35" s="40"/>
@@ -12772,7 +12769,7 @@
       <c r="DR35" s="40"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="66"/>
+      <c r="A36" s="65"/>
       <c r="CZ36" s="40"/>
       <c r="DA36" s="40"/>
       <c r="DB36" s="40"/>
@@ -12794,7 +12791,7 @@
       <c r="DR36" s="40"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="65"/>
       <c r="CZ37" s="40"/>
       <c r="DA37" s="40"/>
       <c r="DB37" s="40"/>
@@ -12816,7 +12813,7 @@
       <c r="DR37" s="40"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
       <c r="CZ38" s="40"/>
       <c r="DA38" s="40"/>
       <c r="DB38" s="40"/>
@@ -12838,7 +12835,7 @@
       <c r="DR38" s="40"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="65"/>
       <c r="CZ39" s="40"/>
       <c r="DA39" s="40"/>
       <c r="DB39" s="40"/>
@@ -12860,7 +12857,7 @@
       <c r="DR39" s="40"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
       <c r="CZ40" s="40"/>
       <c r="DA40" s="40"/>
       <c r="DB40" s="40"/>
@@ -12882,7 +12879,7 @@
       <c r="DR40" s="40"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
       <c r="CZ41" s="40"/>
       <c r="DA41" s="40"/>
       <c r="DB41" s="40"/>
@@ -12904,7 +12901,7 @@
       <c r="DR41" s="40"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
       <c r="CZ42" s="40"/>
       <c r="DA42" s="40"/>
       <c r="DB42" s="40"/>
@@ -12926,7 +12923,7 @@
       <c r="DR42" s="40"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="65"/>
       <c r="CZ43" s="40"/>
       <c r="DA43" s="40"/>
       <c r="DB43" s="40"/>
@@ -12948,7 +12945,7 @@
       <c r="DR43" s="40"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="65"/>
       <c r="CZ44" s="40"/>
       <c r="DA44" s="40"/>
       <c r="DB44" s="40"/>
@@ -12970,7 +12967,7 @@
       <c r="DR44" s="40"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="65"/>
       <c r="CZ45" s="40"/>
       <c r="DA45" s="40"/>
       <c r="DB45" s="40"/>
@@ -12992,7 +12989,7 @@
       <c r="DR45" s="40"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
       <c r="CZ46" s="40"/>
       <c r="DA46" s="40"/>
       <c r="DB46" s="40"/>
@@ -13014,7 +13011,7 @@
       <c r="DR46" s="40"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="66"/>
+      <c r="A47" s="65"/>
       <c r="CZ47" s="40"/>
       <c r="DA47" s="40"/>
       <c r="DB47" s="40"/>
@@ -13036,7 +13033,7 @@
       <c r="DR47" s="40"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="66"/>
+      <c r="A48" s="65"/>
       <c r="CZ48" s="40"/>
       <c r="DA48" s="40"/>
       <c r="DB48" s="40"/>
@@ -13058,7 +13055,7 @@
       <c r="DR48" s="40"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="65"/>
       <c r="CZ49" s="40"/>
       <c r="DA49" s="40"/>
       <c r="DB49" s="40"/>
@@ -13080,7 +13077,7 @@
       <c r="DR49" s="40"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="65"/>
       <c r="CZ50" s="40"/>
       <c r="DA50" s="40"/>
       <c r="DB50" s="40"/>
@@ -13102,7 +13099,7 @@
       <c r="DR50" s="40"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="66"/>
+      <c r="A51" s="65"/>
       <c r="CZ51" s="40"/>
       <c r="DA51" s="40"/>
       <c r="DB51" s="40"/>
@@ -13124,7 +13121,7 @@
       <c r="DR51" s="40"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="66"/>
+      <c r="A52" s="65"/>
       <c r="CZ52" s="40"/>
       <c r="DA52" s="40"/>
       <c r="DB52" s="40"/>
@@ -13146,7 +13143,7 @@
       <c r="DR52" s="40"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
       <c r="CZ53" s="40"/>
       <c r="DA53" s="40"/>
       <c r="DB53" s="40"/>
@@ -13168,7 +13165,7 @@
       <c r="DR53" s="40"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
       <c r="CZ54" s="40"/>
       <c r="DA54" s="40"/>
       <c r="DB54" s="40"/>
@@ -13190,7 +13187,7 @@
       <c r="DR54" s="40"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="65"/>
       <c r="CZ55" s="40"/>
       <c r="DA55" s="40"/>
       <c r="DB55" s="40"/>
@@ -13212,7 +13209,7 @@
       <c r="DR55" s="40"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
       <c r="CZ56" s="40"/>
       <c r="DA56" s="40"/>
       <c r="DB56" s="40"/>
@@ -13234,7 +13231,7 @@
       <c r="DR56" s="40"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
       <c r="CZ57" s="40"/>
       <c r="DA57" s="40"/>
       <c r="DB57" s="40"/>
@@ -13256,7 +13253,7 @@
       <c r="DR57" s="40"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
       <c r="CZ58" s="40"/>
       <c r="DA58" s="40"/>
       <c r="DB58" s="40"/>
@@ -13278,7 +13275,7 @@
       <c r="DR58" s="40"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
       <c r="CZ59" s="40"/>
       <c r="DA59" s="40"/>
       <c r="DB59" s="40"/>
@@ -13300,7 +13297,7 @@
       <c r="DR59" s="40"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="65"/>
       <c r="CZ60" s="40"/>
       <c r="DA60" s="40"/>
       <c r="DB60" s="40"/>
@@ -13322,7 +13319,7 @@
       <c r="DR60" s="40"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="65"/>
       <c r="CZ61" s="40"/>
       <c r="DA61" s="40"/>
       <c r="DB61" s="40"/>
@@ -13344,7 +13341,7 @@
       <c r="DR61" s="40"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="66"/>
+      <c r="A62" s="65"/>
       <c r="CZ62" s="40"/>
       <c r="DA62" s="40"/>
       <c r="DB62" s="40"/>
@@ -13366,7 +13363,7 @@
       <c r="DR62" s="40"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="65"/>
       <c r="CZ63" s="40"/>
       <c r="DA63" s="40"/>
       <c r="DB63" s="40"/>
@@ -13388,7 +13385,7 @@
       <c r="DR63" s="40"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="66"/>
+      <c r="A64" s="65"/>
       <c r="CZ64" s="40"/>
       <c r="DA64" s="40"/>
       <c r="DB64" s="40"/>
@@ -13410,7 +13407,7 @@
       <c r="DR64" s="40"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="66"/>
+      <c r="A65" s="65"/>
       <c r="CZ65" s="40"/>
       <c r="DA65" s="40"/>
       <c r="DB65" s="40"/>
@@ -13432,7 +13429,7 @@
       <c r="DR65" s="40"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="66"/>
+      <c r="A66" s="65"/>
       <c r="CZ66" s="40"/>
       <c r="DA66" s="40"/>
       <c r="DB66" s="40"/>
@@ -13454,7 +13451,7 @@
       <c r="DR66" s="40"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="66"/>
+      <c r="A67" s="65"/>
       <c r="CZ67" s="40"/>
       <c r="DA67" s="40"/>
       <c r="DB67" s="40"/>
@@ -13476,7 +13473,7 @@
       <c r="DR67" s="40"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="66"/>
+      <c r="A68" s="65"/>
       <c r="CZ68" s="40"/>
       <c r="DA68" s="40"/>
       <c r="DB68" s="40"/>
@@ -13498,7 +13495,7 @@
       <c r="DR68" s="40"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
       <c r="CZ69" s="40"/>
       <c r="DA69" s="40"/>
       <c r="DB69" s="40"/>
@@ -13520,7 +13517,7 @@
       <c r="DR69" s="40"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="66"/>
+      <c r="A70" s="65"/>
       <c r="CZ70" s="40"/>
       <c r="DA70" s="40"/>
       <c r="DB70" s="40"/>
@@ -13542,7 +13539,7 @@
       <c r="DR70" s="40"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="65"/>
       <c r="CZ71" s="40"/>
       <c r="DA71" s="40"/>
       <c r="DB71" s="40"/>
@@ -13564,7 +13561,7 @@
       <c r="DR71" s="40"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="66"/>
+      <c r="A72" s="65"/>
       <c r="CZ72" s="40"/>
       <c r="DA72" s="40"/>
       <c r="DB72" s="40"/>
@@ -13586,7 +13583,7 @@
       <c r="DR72" s="40"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="66"/>
+      <c r="A73" s="65"/>
       <c r="CZ73" s="40"/>
       <c r="DA73" s="40"/>
       <c r="DB73" s="40"/>
@@ -13608,7 +13605,7 @@
       <c r="DR73" s="40"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="66"/>
+      <c r="A74" s="65"/>
       <c r="CZ74" s="40"/>
       <c r="DA74" s="40"/>
       <c r="DB74" s="40"/>
@@ -13630,7 +13627,7 @@
       <c r="DR74" s="40"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
       <c r="CZ75" s="40"/>
       <c r="DA75" s="40"/>
       <c r="DB75" s="40"/>
@@ -13652,7 +13649,7 @@
       <c r="DR75" s="40"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="66"/>
+      <c r="A76" s="65"/>
       <c r="CZ76" s="40"/>
       <c r="DA76" s="40"/>
       <c r="DB76" s="40"/>
@@ -13674,7 +13671,7 @@
       <c r="DR76" s="40"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="66"/>
+      <c r="A77" s="65"/>
       <c r="CZ77" s="40"/>
       <c r="DA77" s="40"/>
       <c r="DB77" s="40"/>
@@ -13696,7 +13693,7 @@
       <c r="DR77" s="40"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="66"/>
+      <c r="A78" s="65"/>
       <c r="CZ78" s="40"/>
       <c r="DA78" s="40"/>
       <c r="DB78" s="40"/>
@@ -13718,7 +13715,7 @@
       <c r="DR78" s="40"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="66"/>
+      <c r="A79" s="65"/>
       <c r="CZ79" s="40"/>
       <c r="DA79" s="40"/>
       <c r="DB79" s="40"/>
@@ -13740,7 +13737,7 @@
       <c r="DR79" s="40"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="66"/>
+      <c r="A80" s="65"/>
       <c r="CZ80" s="40"/>
       <c r="DA80" s="40"/>
       <c r="DB80" s="40"/>
@@ -13762,7 +13759,7 @@
       <c r="DR80" s="40"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="66"/>
+      <c r="A81" s="65"/>
       <c r="CZ81" s="40"/>
       <c r="DA81" s="40"/>
       <c r="DB81" s="40"/>
@@ -13784,7 +13781,7 @@
       <c r="DR81" s="40"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="66"/>
+      <c r="A82" s="65"/>
       <c r="CZ82" s="40"/>
       <c r="DA82" s="40"/>
       <c r="DB82" s="40"/>
@@ -13806,7 +13803,7 @@
       <c r="DR82" s="40"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="66"/>
+      <c r="A83" s="65"/>
       <c r="CZ83" s="40"/>
       <c r="DA83" s="40"/>
       <c r="DB83" s="40"/>
@@ -13828,7 +13825,7 @@
       <c r="DR83" s="40"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="66"/>
+      <c r="A84" s="65"/>
       <c r="CZ84" s="40"/>
       <c r="DA84" s="40"/>
       <c r="DB84" s="40"/>
@@ -13850,7 +13847,7 @@
       <c r="DR84" s="40"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="66"/>
+      <c r="A85" s="65"/>
       <c r="CZ85" s="40"/>
       <c r="DA85" s="40"/>
       <c r="DB85" s="40"/>
@@ -13872,7 +13869,7 @@
       <c r="DR85" s="40"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="66"/>
+      <c r="A86" s="65"/>
       <c r="CZ86" s="40"/>
       <c r="DA86" s="40"/>
       <c r="DB86" s="40"/>
@@ -13894,7 +13891,7 @@
       <c r="DR86" s="40"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="66"/>
+      <c r="A87" s="65"/>
       <c r="CZ87" s="40"/>
       <c r="DA87" s="40"/>
       <c r="DB87" s="40"/>
@@ -13916,7 +13913,7 @@
       <c r="DR87" s="40"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="66"/>
+      <c r="A88" s="65"/>
       <c r="CZ88" s="40"/>
       <c r="DA88" s="40"/>
       <c r="DB88" s="40"/>
@@ -13938,7 +13935,7 @@
       <c r="DR88" s="40"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="66"/>
+      <c r="A89" s="65"/>
       <c r="CZ89" s="40"/>
       <c r="DA89" s="40"/>
       <c r="DB89" s="40"/>
@@ -13960,7 +13957,7 @@
       <c r="DR89" s="40"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="66"/>
+      <c r="A90" s="65"/>
       <c r="CZ90" s="40"/>
       <c r="DA90" s="40"/>
       <c r="DB90" s="40"/>
@@ -13982,7 +13979,7 @@
       <c r="DR90" s="40"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="66"/>
+      <c r="A91" s="65"/>
       <c r="CZ91" s="40"/>
       <c r="DA91" s="40"/>
       <c r="DB91" s="40"/>
@@ -14004,7 +14001,7 @@
       <c r="DR91" s="40"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="66"/>
+      <c r="A92" s="65"/>
       <c r="CZ92" s="40"/>
       <c r="DA92" s="40"/>
       <c r="DB92" s="40"/>
@@ -14026,7 +14023,7 @@
       <c r="DR92" s="40"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="66"/>
+      <c r="A93" s="65"/>
       <c r="CZ93" s="40"/>
       <c r="DA93" s="40"/>
       <c r="DB93" s="40"/>
@@ -14048,7 +14045,7 @@
       <c r="DR93" s="40"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="66"/>
+      <c r="A94" s="65"/>
       <c r="CZ94" s="40"/>
       <c r="DA94" s="40"/>
       <c r="DB94" s="40"/>
@@ -14070,7 +14067,7 @@
       <c r="DR94" s="40"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="66"/>
+      <c r="A95" s="65"/>
       <c r="CZ95" s="40"/>
       <c r="DA95" s="40"/>
       <c r="DB95" s="40"/>
@@ -14092,7 +14089,7 @@
       <c r="DR95" s="40"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="66"/>
+      <c r="A96" s="65"/>
       <c r="CZ96" s="40"/>
       <c r="DA96" s="40"/>
       <c r="DB96" s="40"/>
@@ -14114,7 +14111,7 @@
       <c r="DR96" s="40"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="66"/>
+      <c r="A97" s="65"/>
       <c r="CZ97" s="40"/>
       <c r="DA97" s="40"/>
       <c r="DB97" s="40"/>
@@ -14136,7 +14133,7 @@
       <c r="DR97" s="40"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="66"/>
+      <c r="A98" s="65"/>
       <c r="CZ98" s="40"/>
       <c r="DA98" s="40"/>
       <c r="DB98" s="40"/>
@@ -14158,7 +14155,7 @@
       <c r="DR98" s="40"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="66"/>
+      <c r="A99" s="65"/>
       <c r="CZ99" s="40"/>
       <c r="DA99" s="40"/>
       <c r="DB99" s="40"/>
@@ -14180,7 +14177,7 @@
       <c r="DR99" s="40"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="66"/>
+      <c r="A100" s="65"/>
       <c r="CZ100" s="40"/>
       <c r="DA100" s="40"/>
       <c r="DB100" s="40"/>
@@ -14202,7 +14199,7 @@
       <c r="DR100" s="40"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="66"/>
+      <c r="A101" s="65"/>
       <c r="CZ101" s="40"/>
       <c r="DA101" s="40"/>
       <c r="DB101" s="40"/>
@@ -14224,7 +14221,7 @@
       <c r="DR101" s="40"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="66"/>
+      <c r="A102" s="65"/>
       <c r="CZ102" s="40"/>
       <c r="DA102" s="40"/>
       <c r="DB102" s="40"/>
@@ -14246,7 +14243,7 @@
       <c r="DR102" s="40"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="65"/>
       <c r="CZ103" s="40"/>
       <c r="DA103" s="40"/>
       <c r="DB103" s="40"/>
@@ -14268,7 +14265,7 @@
       <c r="DR103" s="40"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="66"/>
+      <c r="A104" s="65"/>
       <c r="CZ104" s="40"/>
       <c r="DA104" s="40"/>
       <c r="DB104" s="40"/>
@@ -14290,7 +14287,7 @@
       <c r="DR104" s="40"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="66"/>
+      <c r="A105" s="65"/>
       <c r="CZ105" s="40"/>
       <c r="DA105" s="40"/>
       <c r="DB105" s="40"/>
@@ -14312,7 +14309,7 @@
       <c r="DR105" s="40"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="66"/>
+      <c r="A106" s="65"/>
       <c r="CZ106" s="40"/>
       <c r="DA106" s="40"/>
       <c r="DB106" s="40"/>
@@ -14334,7 +14331,7 @@
       <c r="DR106" s="40"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="66"/>
+      <c r="A107" s="65"/>
       <c r="CZ107" s="40"/>
       <c r="DA107" s="40"/>
       <c r="DB107" s="40"/>
@@ -14356,7 +14353,7 @@
       <c r="DR107" s="40"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="66"/>
+      <c r="A108" s="65"/>
       <c r="CZ108" s="40"/>
       <c r="DA108" s="40"/>
       <c r="DB108" s="40"/>
@@ -14378,7 +14375,7 @@
       <c r="DR108" s="40"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="65"/>
       <c r="CZ109" s="40"/>
       <c r="DA109" s="40"/>
       <c r="DB109" s="40"/>
@@ -14400,7 +14397,7 @@
       <c r="DR109" s="40"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="65"/>
       <c r="CZ110" s="40"/>
       <c r="DA110" s="40"/>
       <c r="DB110" s="40"/>
@@ -14422,7 +14419,7 @@
       <c r="DR110" s="40"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="65"/>
       <c r="CZ111" s="40"/>
       <c r="DA111" s="40"/>
       <c r="DB111" s="40"/>
@@ -14444,7 +14441,7 @@
       <c r="DR111" s="40"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="66"/>
+      <c r="A112" s="65"/>
       <c r="CZ112" s="40"/>
       <c r="DA112" s="40"/>
       <c r="DB112" s="40"/>
@@ -14466,7 +14463,7 @@
       <c r="DR112" s="40"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="66"/>
+      <c r="A113" s="65"/>
       <c r="CZ113" s="40"/>
       <c r="DA113" s="40"/>
       <c r="DB113" s="40"/>
@@ -14488,7 +14485,7 @@
       <c r="DR113" s="40"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="66"/>
+      <c r="A114" s="65"/>
       <c r="CZ114" s="40"/>
       <c r="DA114" s="40"/>
       <c r="DB114" s="40"/>
@@ -14510,7 +14507,7 @@
       <c r="DR114" s="40"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="66"/>
+      <c r="A115" s="65"/>
       <c r="CZ115" s="40"/>
       <c r="DA115" s="40"/>
       <c r="DB115" s="40"/>
@@ -14532,7 +14529,7 @@
       <c r="DR115" s="40"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="66"/>
+      <c r="A116" s="65"/>
       <c r="CZ116" s="40"/>
       <c r="DA116" s="40"/>
       <c r="DB116" s="40"/>
@@ -14554,7 +14551,7 @@
       <c r="DR116" s="40"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="66"/>
+      <c r="A117" s="65"/>
       <c r="CZ117" s="40"/>
       <c r="DA117" s="40"/>
       <c r="DB117" s="40"/>
@@ -14576,7 +14573,7 @@
       <c r="DR117" s="40"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="66"/>
+      <c r="A118" s="65"/>
       <c r="CZ118" s="40"/>
       <c r="DA118" s="40"/>
       <c r="DB118" s="40"/>
@@ -14598,7 +14595,7 @@
       <c r="DR118" s="40"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="66"/>
+      <c r="A119" s="65"/>
       <c r="CZ119" s="40"/>
       <c r="DA119" s="40"/>
       <c r="DB119" s="40"/>
@@ -14620,7 +14617,7 @@
       <c r="DR119" s="40"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="66"/>
+      <c r="A120" s="65"/>
       <c r="CZ120" s="40"/>
       <c r="DA120" s="40"/>
       <c r="DB120" s="40"/>
@@ -14642,7 +14639,7 @@
       <c r="DR120" s="40"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="66"/>
+      <c r="A121" s="65"/>
       <c r="CZ121" s="40"/>
       <c r="DA121" s="40"/>
       <c r="DB121" s="40"/>
@@ -14664,7 +14661,7 @@
       <c r="DR121" s="40"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="66"/>
+      <c r="A122" s="65"/>
       <c r="CZ122" s="40"/>
       <c r="DA122" s="40"/>
       <c r="DB122" s="40"/>
@@ -14686,7 +14683,7 @@
       <c r="DR122" s="40"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="66"/>
+      <c r="A123" s="65"/>
       <c r="CZ123" s="40"/>
       <c r="DA123" s="40"/>
       <c r="DB123" s="40"/>
@@ -14708,7 +14705,7 @@
       <c r="DR123" s="40"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="66"/>
+      <c r="A124" s="65"/>
       <c r="CZ124" s="40"/>
       <c r="DA124" s="40"/>
       <c r="DB124" s="40"/>
@@ -14730,7 +14727,7 @@
       <c r="DR124" s="40"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="66"/>
+      <c r="A125" s="65"/>
       <c r="CZ125" s="40"/>
       <c r="DA125" s="40"/>
       <c r="DB125" s="40"/>
@@ -14752,7 +14749,7 @@
       <c r="DR125" s="40"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="66"/>
+      <c r="A126" s="65"/>
       <c r="CZ126" s="40"/>
       <c r="DA126" s="40"/>
       <c r="DB126" s="40"/>
@@ -14774,7 +14771,7 @@
       <c r="DR126" s="40"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="66"/>
+      <c r="A127" s="65"/>
       <c r="CZ127" s="40"/>
       <c r="DA127" s="40"/>
       <c r="DB127" s="40"/>
@@ -14796,7 +14793,7 @@
       <c r="DR127" s="40"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="66"/>
+      <c r="A128" s="65"/>
       <c r="CZ128" s="40"/>
       <c r="DA128" s="40"/>
       <c r="DB128" s="40"/>
@@ -14818,7 +14815,7 @@
       <c r="DR128" s="40"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="66"/>
+      <c r="A129" s="65"/>
       <c r="CZ129" s="40"/>
       <c r="DA129" s="40"/>
       <c r="DB129" s="40"/>
@@ -14840,7 +14837,7 @@
       <c r="DR129" s="40"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="66"/>
+      <c r="A130" s="65"/>
       <c r="CZ130" s="40"/>
       <c r="DA130" s="40"/>
       <c r="DB130" s="40"/>
@@ -14862,7 +14859,7 @@
       <c r="DR130" s="40"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="66"/>
+      <c r="A131" s="65"/>
       <c r="CZ131" s="40"/>
       <c r="DA131" s="40"/>
       <c r="DB131" s="40"/>
@@ -14884,7 +14881,7 @@
       <c r="DR131" s="40"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="66"/>
+      <c r="A132" s="65"/>
       <c r="CZ132" s="40"/>
       <c r="DA132" s="40"/>
       <c r="DB132" s="40"/>
@@ -14906,7 +14903,7 @@
       <c r="DR132" s="40"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="66"/>
+      <c r="A133" s="65"/>
       <c r="CZ133" s="40"/>
       <c r="DA133" s="40"/>
       <c r="DB133" s="40"/>
@@ -14928,7 +14925,7 @@
       <c r="DR133" s="40"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="66"/>
+      <c r="A134" s="65"/>
       <c r="CZ134" s="40"/>
       <c r="DA134" s="40"/>
       <c r="DB134" s="40"/>
@@ -14950,7 +14947,7 @@
       <c r="DR134" s="40"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="66"/>
+      <c r="A135" s="65"/>
       <c r="CZ135" s="40"/>
       <c r="DA135" s="40"/>
       <c r="DB135" s="40"/>
@@ -14972,7 +14969,7 @@
       <c r="DR135" s="40"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="66"/>
+      <c r="A136" s="65"/>
       <c r="CZ136" s="40"/>
       <c r="DA136" s="40"/>
       <c r="DB136" s="40"/>
@@ -14994,7 +14991,7 @@
       <c r="DR136" s="40"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="66"/>
+      <c r="A137" s="65"/>
       <c r="CZ137" s="40"/>
       <c r="DA137" s="40"/>
       <c r="DB137" s="40"/>
@@ -15016,7 +15013,7 @@
       <c r="DR137" s="40"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="66"/>
+      <c r="A138" s="65"/>
       <c r="CZ138" s="40"/>
       <c r="DA138" s="40"/>
       <c r="DB138" s="40"/>
@@ -15038,7 +15035,7 @@
       <c r="DR138" s="40"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="66"/>
+      <c r="A139" s="65"/>
       <c r="CZ139" s="40"/>
       <c r="DA139" s="40"/>
       <c r="DB139" s="40"/>
@@ -15060,7 +15057,7 @@
       <c r="DR139" s="40"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="66"/>
+      <c r="A140" s="65"/>
       <c r="CZ140" s="40"/>
       <c r="DA140" s="40"/>
       <c r="DB140" s="40"/>
@@ -15082,7 +15079,7 @@
       <c r="DR140" s="40"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="66"/>
+      <c r="A141" s="65"/>
       <c r="CZ141" s="40"/>
       <c r="DA141" s="40"/>
       <c r="DB141" s="40"/>
@@ -15104,7 +15101,7 @@
       <c r="DR141" s="40"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="66"/>
+      <c r="A142" s="65"/>
       <c r="CZ142" s="40"/>
       <c r="DA142" s="40"/>
       <c r="DB142" s="40"/>
@@ -15126,7 +15123,7 @@
       <c r="DR142" s="40"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="66"/>
+      <c r="A143" s="65"/>
       <c r="CZ143" s="40"/>
       <c r="DA143" s="40"/>
       <c r="DB143" s="40"/>
@@ -15148,7 +15145,7 @@
       <c r="DR143" s="40"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="66"/>
+      <c r="A144" s="65"/>
       <c r="CZ144" s="40"/>
       <c r="DA144" s="40"/>
       <c r="DB144" s="40"/>
@@ -15170,7 +15167,7 @@
       <c r="DR144" s="40"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="66"/>
+      <c r="A145" s="65"/>
       <c r="CZ145" s="40"/>
       <c r="DA145" s="40"/>
       <c r="DB145" s="40"/>
@@ -15192,7 +15189,7 @@
       <c r="DR145" s="40"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="66"/>
+      <c r="A146" s="65"/>
       <c r="CZ146" s="40"/>
       <c r="DA146" s="40"/>
       <c r="DB146" s="40"/>
@@ -15214,7 +15211,7 @@
       <c r="DR146" s="40"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="66"/>
+      <c r="A147" s="65"/>
       <c r="CZ147" s="40"/>
       <c r="DA147" s="40"/>
       <c r="DB147" s="40"/>
@@ -15236,7 +15233,7 @@
       <c r="DR147" s="40"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="66"/>
+      <c r="A148" s="65"/>
       <c r="CZ148" s="40"/>
       <c r="DA148" s="40"/>
       <c r="DB148" s="40"/>
@@ -15258,7 +15255,7 @@
       <c r="DR148" s="40"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="66"/>
+      <c r="A149" s="65"/>
       <c r="CZ149" s="40"/>
       <c r="DA149" s="40"/>
       <c r="DB149" s="40"/>
@@ -15280,7 +15277,7 @@
       <c r="DR149" s="40"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="66"/>
+      <c r="A150" s="65"/>
       <c r="CZ150" s="40"/>
       <c r="DA150" s="40"/>
       <c r="DB150" s="40"/>
@@ -15302,7 +15299,7 @@
       <c r="DR150" s="40"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="66"/>
+      <c r="A151" s="65"/>
       <c r="CZ151" s="40"/>
       <c r="DA151" s="40"/>
       <c r="DB151" s="40"/>
@@ -15324,7 +15321,7 @@
       <c r="DR151" s="40"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="66"/>
+      <c r="A152" s="65"/>
       <c r="CZ152" s="40"/>
       <c r="DA152" s="40"/>
       <c r="DB152" s="40"/>
@@ -15346,7 +15343,7 @@
       <c r="DR152" s="40"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="66"/>
+      <c r="A153" s="65"/>
       <c r="CZ153" s="40"/>
       <c r="DA153" s="40"/>
       <c r="DB153" s="40"/>
@@ -15368,7 +15365,7 @@
       <c r="DR153" s="40"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="66"/>
+      <c r="A154" s="65"/>
       <c r="CZ154" s="40"/>
       <c r="DA154" s="40"/>
       <c r="DB154" s="40"/>
@@ -15390,7 +15387,7 @@
       <c r="DR154" s="40"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="66"/>
+      <c r="A155" s="65"/>
       <c r="CZ155" s="40"/>
       <c r="DA155" s="40"/>
       <c r="DB155" s="40"/>
@@ -15412,7 +15409,7 @@
       <c r="DR155" s="40"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="66"/>
+      <c r="A156" s="65"/>
       <c r="CZ156" s="40"/>
       <c r="DA156" s="40"/>
       <c r="DB156" s="40"/>
@@ -15434,7 +15431,7 @@
       <c r="DR156" s="40"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="66"/>
+      <c r="A157" s="65"/>
       <c r="CZ157" s="40"/>
       <c r="DA157" s="40"/>
       <c r="DB157" s="40"/>
@@ -15456,7 +15453,7 @@
       <c r="DR157" s="40"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="66"/>
+      <c r="A158" s="65"/>
       <c r="CZ158" s="40"/>
       <c r="DA158" s="40"/>
       <c r="DB158" s="40"/>
@@ -15478,7 +15475,7 @@
       <c r="DR158" s="40"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="66"/>
+      <c r="A159" s="65"/>
       <c r="CZ159" s="40"/>
       <c r="DA159" s="40"/>
       <c r="DB159" s="40"/>
@@ -15500,7 +15497,7 @@
       <c r="DR159" s="40"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="66"/>
+      <c r="A160" s="65"/>
       <c r="CZ160" s="40"/>
       <c r="DA160" s="40"/>
       <c r="DB160" s="40"/>
@@ -15522,7 +15519,7 @@
       <c r="DR160" s="40"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="66"/>
+      <c r="A161" s="65"/>
       <c r="CZ161" s="40"/>
       <c r="DA161" s="40"/>
       <c r="DB161" s="40"/>
@@ -15544,7 +15541,7 @@
       <c r="DR161" s="40"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="66"/>
+      <c r="A162" s="65"/>
       <c r="CZ162" s="40"/>
       <c r="DA162" s="40"/>
       <c r="DB162" s="40"/>
@@ -15566,7 +15563,7 @@
       <c r="DR162" s="40"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="66"/>
+      <c r="A163" s="65"/>
       <c r="CZ163" s="40"/>
       <c r="DA163" s="40"/>
       <c r="DB163" s="40"/>
@@ -15588,7 +15585,7 @@
       <c r="DR163" s="40"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="66"/>
+      <c r="A164" s="65"/>
       <c r="CZ164" s="40"/>
       <c r="DA164" s="40"/>
       <c r="DB164" s="40"/>
@@ -15610,7 +15607,7 @@
       <c r="DR164" s="40"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="66"/>
+      <c r="A165" s="65"/>
       <c r="CZ165" s="40"/>
       <c r="DA165" s="40"/>
       <c r="DB165" s="40"/>
@@ -15632,7 +15629,7 @@
       <c r="DR165" s="40"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="66"/>
+      <c r="A166" s="65"/>
       <c r="CZ166" s="40"/>
       <c r="DA166" s="40"/>
       <c r="DB166" s="40"/>
@@ -15654,7 +15651,7 @@
       <c r="DR166" s="40"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="66"/>
+      <c r="A167" s="65"/>
       <c r="CZ167" s="40"/>
       <c r="DA167" s="40"/>
       <c r="DB167" s="40"/>
@@ -15676,7 +15673,7 @@
       <c r="DR167" s="40"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="66"/>
+      <c r="A168" s="65"/>
       <c r="CZ168" s="40"/>
       <c r="DA168" s="40"/>
       <c r="DB168" s="40"/>
@@ -15698,7 +15695,7 @@
       <c r="DR168" s="40"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="66"/>
+      <c r="A169" s="65"/>
       <c r="CZ169" s="40"/>
       <c r="DA169" s="40"/>
       <c r="DB169" s="40"/>
@@ -15720,7 +15717,7 @@
       <c r="DR169" s="40"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="66"/>
+      <c r="A170" s="65"/>
       <c r="CZ170" s="40"/>
       <c r="DA170" s="40"/>
       <c r="DB170" s="40"/>
@@ -15742,7 +15739,7 @@
       <c r="DR170" s="40"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="66"/>
+      <c r="A171" s="65"/>
       <c r="CZ171" s="40"/>
       <c r="DA171" s="40"/>
       <c r="DB171" s="40"/>
@@ -15764,7 +15761,7 @@
       <c r="DR171" s="40"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="66"/>
+      <c r="A172" s="65"/>
       <c r="CZ172" s="40"/>
       <c r="DA172" s="40"/>
       <c r="DB172" s="40"/>
@@ -15786,7 +15783,7 @@
       <c r="DR172" s="40"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="66"/>
+      <c r="A173" s="65"/>
       <c r="CZ173" s="40"/>
       <c r="DA173" s="40"/>
       <c r="DB173" s="40"/>
@@ -15808,7 +15805,7 @@
       <c r="DR173" s="40"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="66"/>
+      <c r="A174" s="65"/>
       <c r="CZ174" s="40"/>
       <c r="DA174" s="40"/>
       <c r="DB174" s="40"/>
@@ -15830,7 +15827,7 @@
       <c r="DR174" s="40"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="66"/>
+      <c r="A175" s="65"/>
       <c r="CZ175" s="40"/>
       <c r="DA175" s="40"/>
       <c r="DB175" s="40"/>
@@ -15852,7 +15849,7 @@
       <c r="DR175" s="40"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="66"/>
+      <c r="A176" s="65"/>
       <c r="CZ176" s="40"/>
       <c r="DA176" s="40"/>
       <c r="DB176" s="40"/>
@@ -15874,7 +15871,7 @@
       <c r="DR176" s="40"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="66"/>
+      <c r="A177" s="65"/>
       <c r="CZ177" s="40"/>
       <c r="DA177" s="40"/>
       <c r="DB177" s="40"/>
@@ -15896,7 +15893,7 @@
       <c r="DR177" s="40"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="66"/>
+      <c r="A178" s="65"/>
       <c r="CZ178" s="40"/>
       <c r="DA178" s="40"/>
       <c r="DB178" s="40"/>
@@ -15918,7 +15915,7 @@
       <c r="DR178" s="40"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="66"/>
+      <c r="A179" s="65"/>
       <c r="CZ179" s="40"/>
       <c r="DA179" s="40"/>
       <c r="DB179" s="40"/>
@@ -15940,7 +15937,7 @@
       <c r="DR179" s="40"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="66"/>
+      <c r="A180" s="65"/>
       <c r="CZ180" s="40"/>
       <c r="DA180" s="40"/>
       <c r="DB180" s="40"/>
@@ -15962,7 +15959,7 @@
       <c r="DR180" s="40"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="66"/>
+      <c r="A181" s="65"/>
       <c r="CZ181" s="40"/>
       <c r="DA181" s="40"/>
       <c r="DB181" s="40"/>
@@ -15984,7 +15981,7 @@
       <c r="DR181" s="40"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="66"/>
+      <c r="A182" s="65"/>
       <c r="CZ182" s="40"/>
       <c r="DA182" s="40"/>
       <c r="DB182" s="40"/>
@@ -16006,7 +16003,7 @@
       <c r="DR182" s="40"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="66"/>
+      <c r="A183" s="65"/>
       <c r="CZ183" s="40"/>
       <c r="DA183" s="40"/>
       <c r="DB183" s="40"/>
@@ -16028,7 +16025,7 @@
       <c r="DR183" s="40"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="66"/>
+      <c r="A184" s="65"/>
       <c r="CZ184" s="40"/>
       <c r="DA184" s="40"/>
       <c r="DB184" s="40"/>
@@ -16050,7 +16047,7 @@
       <c r="DR184" s="40"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="66"/>
+      <c r="A185" s="65"/>
       <c r="CZ185" s="40"/>
       <c r="DA185" s="40"/>
       <c r="DB185" s="40"/>
@@ -16072,7 +16069,7 @@
       <c r="DR185" s="40"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="66"/>
+      <c r="A186" s="65"/>
       <c r="CZ186" s="40"/>
       <c r="DA186" s="40"/>
       <c r="DB186" s="40"/>
@@ -16094,7 +16091,7 @@
       <c r="DR186" s="40"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="66"/>
+      <c r="A187" s="65"/>
       <c r="CZ187" s="40"/>
       <c r="DA187" s="40"/>
       <c r="DB187" s="40"/>
@@ -16116,7 +16113,7 @@
       <c r="DR187" s="40"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="66"/>
+      <c r="A188" s="65"/>
       <c r="CZ188" s="40"/>
       <c r="DA188" s="40"/>
       <c r="DB188" s="40"/>
@@ -16138,7 +16135,7 @@
       <c r="DR188" s="40"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="66"/>
+      <c r="A189" s="65"/>
       <c r="CZ189" s="40"/>
       <c r="DA189" s="40"/>
       <c r="DB189" s="40"/>
@@ -16160,7 +16157,7 @@
       <c r="DR189" s="40"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="66"/>
+      <c r="A190" s="65"/>
       <c r="CZ190" s="40"/>
       <c r="DA190" s="40"/>
       <c r="DB190" s="40"/>
@@ -16182,7 +16179,7 @@
       <c r="DR190" s="40"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="66"/>
+      <c r="A191" s="65"/>
       <c r="CZ191" s="40"/>
       <c r="DA191" s="40"/>
       <c r="DB191" s="40"/>
@@ -16204,7 +16201,7 @@
       <c r="DR191" s="40"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="66"/>
+      <c r="A192" s="65"/>
       <c r="CZ192" s="40"/>
       <c r="DA192" s="40"/>
       <c r="DB192" s="40"/>
@@ -16226,7 +16223,7 @@
       <c r="DR192" s="40"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="66"/>
+      <c r="A193" s="65"/>
       <c r="CZ193" s="40"/>
       <c r="DA193" s="40"/>
       <c r="DB193" s="40"/>
@@ -16248,7 +16245,7 @@
       <c r="DR193" s="40"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="66"/>
+      <c r="A194" s="65"/>
       <c r="CZ194" s="40"/>
       <c r="DA194" s="40"/>
       <c r="DB194" s="40"/>
@@ -16270,7 +16267,7 @@
       <c r="DR194" s="40"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="66"/>
+      <c r="A195" s="65"/>
       <c r="CZ195" s="40"/>
       <c r="DA195" s="40"/>
       <c r="DB195" s="40"/>
@@ -16292,7 +16289,7 @@
       <c r="DR195" s="40"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="66"/>
+      <c r="A196" s="65"/>
       <c r="CZ196" s="40"/>
       <c r="DA196" s="40"/>
       <c r="DB196" s="40"/>
@@ -16314,7 +16311,7 @@
       <c r="DR196" s="40"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="66"/>
+      <c r="A197" s="65"/>
       <c r="CZ197" s="40"/>
       <c r="DA197" s="40"/>
       <c r="DB197" s="40"/>
@@ -16336,7 +16333,7 @@
       <c r="DR197" s="40"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="66"/>
+      <c r="A198" s="65"/>
       <c r="CZ198" s="40"/>
       <c r="DA198" s="40"/>
       <c r="DB198" s="40"/>
@@ -16358,7 +16355,7 @@
       <c r="DR198" s="40"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="66"/>
+      <c r="A199" s="65"/>
       <c r="CZ199" s="40"/>
       <c r="DA199" s="40"/>
       <c r="DB199" s="40"/>
@@ -16380,7 +16377,7 @@
       <c r="DR199" s="40"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="66"/>
+      <c r="A200" s="65"/>
       <c r="CZ200" s="40"/>
       <c r="DA200" s="40"/>
       <c r="DB200" s="40"/>
@@ -16402,7 +16399,7 @@
       <c r="DR200" s="40"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="66"/>
+      <c r="A201" s="65"/>
       <c r="CZ201" s="40"/>
       <c r="DA201" s="40"/>
       <c r="DB201" s="40"/>
@@ -16424,7 +16421,7 @@
       <c r="DR201" s="40"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="66"/>
+      <c r="A202" s="65"/>
       <c r="CZ202" s="40"/>
       <c r="DA202" s="40"/>
       <c r="DB202" s="40"/>
@@ -16446,7 +16443,7 @@
       <c r="DR202" s="40"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="66"/>
+      <c r="A203" s="65"/>
       <c r="CZ203" s="40"/>
       <c r="DA203" s="40"/>
       <c r="DB203" s="40"/>
@@ -16468,7 +16465,7 @@
       <c r="DR203" s="40"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="66"/>
+      <c r="A204" s="65"/>
       <c r="CZ204" s="40"/>
       <c r="DA204" s="40"/>
       <c r="DB204" s="40"/>
@@ -16490,7 +16487,7 @@
       <c r="DR204" s="40"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="66"/>
+      <c r="A205" s="65"/>
       <c r="CZ205" s="40"/>
       <c r="DA205" s="40"/>
       <c r="DB205" s="40"/>
@@ -16512,7 +16509,7 @@
       <c r="DR205" s="40"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="66"/>
+      <c r="A206" s="65"/>
       <c r="CZ206" s="40"/>
       <c r="DA206" s="40"/>
       <c r="DB206" s="40"/>
@@ -16534,7 +16531,7 @@
       <c r="DR206" s="40"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="66"/>
+      <c r="A207" s="65"/>
       <c r="CZ207" s="40"/>
       <c r="DA207" s="40"/>
       <c r="DB207" s="40"/>
@@ -16556,7 +16553,7 @@
       <c r="DR207" s="40"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="66"/>
+      <c r="A208" s="65"/>
       <c r="CZ208" s="40"/>
       <c r="DA208" s="40"/>
       <c r="DB208" s="40"/>
@@ -16578,7 +16575,7 @@
       <c r="DR208" s="40"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="66"/>
+      <c r="A209" s="65"/>
       <c r="CZ209" s="40"/>
       <c r="DA209" s="40"/>
       <c r="DB209" s="40"/>
@@ -16600,7 +16597,7 @@
       <c r="DR209" s="40"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="66"/>
+      <c r="A210" s="65"/>
       <c r="CZ210" s="40"/>
       <c r="DA210" s="40"/>
       <c r="DB210" s="40"/>
@@ -16622,7 +16619,7 @@
       <c r="DR210" s="40"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="66"/>
+      <c r="A211" s="65"/>
       <c r="CZ211" s="40"/>
       <c r="DA211" s="40"/>
       <c r="DB211" s="40"/>
@@ -16644,7 +16641,7 @@
       <c r="DR211" s="40"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="66"/>
+      <c r="A212" s="65"/>
       <c r="CZ212" s="40"/>
       <c r="DA212" s="40"/>
       <c r="DB212" s="40"/>
@@ -16666,7 +16663,7 @@
       <c r="DR212" s="40"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="66"/>
+      <c r="A213" s="65"/>
       <c r="CZ213" s="40"/>
       <c r="DA213" s="40"/>
       <c r="DB213" s="40"/>
@@ -16688,7 +16685,7 @@
       <c r="DR213" s="40"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="66"/>
+      <c r="A214" s="65"/>
       <c r="CZ214" s="40"/>
       <c r="DA214" s="40"/>
       <c r="DB214" s="40"/>
@@ -16710,7 +16707,7 @@
       <c r="DR214" s="40"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="66"/>
+      <c r="A215" s="65"/>
       <c r="CZ215" s="40"/>
       <c r="DA215" s="40"/>
       <c r="DB215" s="40"/>
@@ -16732,7 +16729,7 @@
       <c r="DR215" s="40"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="66"/>
+      <c r="A216" s="65"/>
       <c r="CZ216" s="40"/>
       <c r="DA216" s="40"/>
       <c r="DB216" s="40"/>
@@ -33163,7 +33160,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>247</v>
       </c>
       <c r="B1" s="39" t="s">
@@ -33175,7 +33172,7 @@
       <c r="D1" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>254</v>
       </c>
       <c r="F1" s="44"/>
@@ -33201,691 +33198,691 @@
       <c r="Z1" s="44"/>
     </row>
     <row r="2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="65"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="65"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="65"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="66"/>
+      <c r="A13" s="65"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="66"/>
+      <c r="A14" s="65"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="65"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="65"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="65"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="65"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="65"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="65"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="65"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="65"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="65"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="66"/>
+      <c r="A29" s="65"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="65"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="65"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="66"/>
+      <c r="A32" s="65"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="65"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="66"/>
+      <c r="A34" s="65"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="66"/>
+      <c r="A35" s="65"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="66"/>
+      <c r="A36" s="65"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="65"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="65"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="65"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="65"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="65"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="66"/>
+      <c r="A47" s="65"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="66"/>
+      <c r="A48" s="65"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="65"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="65"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="66"/>
+      <c r="A51" s="65"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="66"/>
+      <c r="A52" s="65"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="65"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="65"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="65"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="66"/>
+      <c r="A62" s="65"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="65"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="66"/>
+      <c r="A64" s="65"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="66"/>
+      <c r="A65" s="65"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="66"/>
+      <c r="A66" s="65"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="66"/>
+      <c r="A67" s="65"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="66"/>
+      <c r="A68" s="65"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="66"/>
+      <c r="A70" s="65"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="65"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="66"/>
+      <c r="A72" s="65"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="66"/>
+      <c r="A73" s="65"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="66"/>
+      <c r="A74" s="65"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="66"/>
+      <c r="A76" s="65"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="66"/>
+      <c r="A77" s="65"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="66"/>
+      <c r="A78" s="65"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="66"/>
+      <c r="A79" s="65"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="66"/>
+      <c r="A80" s="65"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="66"/>
+      <c r="A81" s="65"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="66"/>
+      <c r="A82" s="65"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="66"/>
+      <c r="A83" s="65"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="66"/>
+      <c r="A84" s="65"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="66"/>
+      <c r="A85" s="65"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="66"/>
+      <c r="A86" s="65"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="66"/>
+      <c r="A87" s="65"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="66"/>
+      <c r="A88" s="65"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="66"/>
+      <c r="A89" s="65"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="66"/>
+      <c r="A90" s="65"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="66"/>
+      <c r="A91" s="65"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="66"/>
+      <c r="A92" s="65"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="66"/>
+      <c r="A93" s="65"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="66"/>
+      <c r="A94" s="65"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="66"/>
+      <c r="A95" s="65"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="66"/>
+      <c r="A96" s="65"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="66"/>
+      <c r="A97" s="65"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="66"/>
+      <c r="A98" s="65"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="66"/>
+      <c r="A99" s="65"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="66"/>
+      <c r="A100" s="65"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="66"/>
+      <c r="A101" s="65"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="66"/>
+      <c r="A102" s="65"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="65"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="66"/>
+      <c r="A104" s="65"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="66"/>
+      <c r="A105" s="65"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="66"/>
+      <c r="A106" s="65"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="66"/>
+      <c r="A107" s="65"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="66"/>
+      <c r="A108" s="65"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="65"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="65"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="65"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="66"/>
+      <c r="A112" s="65"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="66"/>
+      <c r="A113" s="65"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="66"/>
+      <c r="A114" s="65"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="66"/>
+      <c r="A115" s="65"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="66"/>
+      <c r="A116" s="65"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="66"/>
+      <c r="A117" s="65"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="66"/>
+      <c r="A118" s="65"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="66"/>
+      <c r="A119" s="65"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="66"/>
+      <c r="A120" s="65"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="66"/>
+      <c r="A121" s="65"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="66"/>
+      <c r="A122" s="65"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="66"/>
+      <c r="A123" s="65"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="66"/>
+      <c r="A124" s="65"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="66"/>
+      <c r="A125" s="65"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="66"/>
+      <c r="A126" s="65"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="66"/>
+      <c r="A127" s="65"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="66"/>
+      <c r="A128" s="65"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="66"/>
+      <c r="A129" s="65"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="66"/>
+      <c r="A130" s="65"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="66"/>
+      <c r="A131" s="65"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="66"/>
+      <c r="A132" s="65"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="66"/>
+      <c r="A133" s="65"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="66"/>
+      <c r="A134" s="65"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="66"/>
+      <c r="A135" s="65"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="66"/>
+      <c r="A136" s="65"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="66"/>
+      <c r="A137" s="65"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="66"/>
+      <c r="A138" s="65"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="66"/>
+      <c r="A139" s="65"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="66"/>
+      <c r="A140" s="65"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="66"/>
+      <c r="A141" s="65"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="66"/>
+      <c r="A142" s="65"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="66"/>
+      <c r="A143" s="65"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="66"/>
+      <c r="A144" s="65"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="66"/>
+      <c r="A145" s="65"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="66"/>
+      <c r="A146" s="65"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="66"/>
+      <c r="A147" s="65"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="66"/>
+      <c r="A148" s="65"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="66"/>
+      <c r="A149" s="65"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="66"/>
+      <c r="A150" s="65"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="66"/>
+      <c r="A151" s="65"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="66"/>
+      <c r="A152" s="65"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="66"/>
+      <c r="A153" s="65"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="66"/>
+      <c r="A154" s="65"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="66"/>
+      <c r="A155" s="65"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="66"/>
+      <c r="A156" s="65"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="66"/>
+      <c r="A157" s="65"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="66"/>
+      <c r="A158" s="65"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="66"/>
+      <c r="A159" s="65"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="66"/>
+      <c r="A160" s="65"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="66"/>
+      <c r="A161" s="65"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="66"/>
+      <c r="A162" s="65"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="66"/>
+      <c r="A163" s="65"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="66"/>
+      <c r="A164" s="65"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="66"/>
+      <c r="A165" s="65"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="66"/>
+      <c r="A166" s="65"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="66"/>
+      <c r="A167" s="65"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="66"/>
+      <c r="A168" s="65"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="66"/>
+      <c r="A169" s="65"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="66"/>
+      <c r="A170" s="65"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="66"/>
+      <c r="A171" s="65"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="66"/>
+      <c r="A172" s="65"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="66"/>
+      <c r="A173" s="65"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="66"/>
+      <c r="A174" s="65"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="66"/>
+      <c r="A175" s="65"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="66"/>
+      <c r="A176" s="65"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="66"/>
+      <c r="A177" s="65"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="66"/>
+      <c r="A178" s="65"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="66"/>
+      <c r="A179" s="65"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="66"/>
+      <c r="A180" s="65"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="66"/>
+      <c r="A181" s="65"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="66"/>
+      <c r="A182" s="65"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="66"/>
+      <c r="A183" s="65"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="66"/>
+      <c r="A184" s="65"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="66"/>
+      <c r="A185" s="65"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="66"/>
+      <c r="A186" s="65"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="66"/>
+      <c r="A187" s="65"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="66"/>
+      <c r="A188" s="65"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="66"/>
+      <c r="A189" s="65"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="66"/>
+      <c r="A190" s="65"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="66"/>
+      <c r="A191" s="65"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="66"/>
+      <c r="A192" s="65"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="66"/>
+      <c r="A193" s="65"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="66"/>
+      <c r="A194" s="65"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="66"/>
+      <c r="A195" s="65"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="66"/>
+      <c r="A196" s="65"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="66"/>
+      <c r="A197" s="65"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="66"/>
+      <c r="A198" s="65"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="66"/>
+      <c r="A199" s="65"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="66"/>
+      <c r="A200" s="65"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="66"/>
+      <c r="A201" s="65"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="66"/>
+      <c r="A202" s="65"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="66"/>
+      <c r="A203" s="65"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="66"/>
+      <c r="A204" s="65"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="66"/>
+      <c r="A205" s="65"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="66"/>
+      <c r="A206" s="65"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="66"/>
+      <c r="A207" s="65"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="66"/>
+      <c r="A208" s="65"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="66"/>
+      <c r="A209" s="65"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="66"/>
+      <c r="A210" s="65"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="66"/>
+      <c r="A211" s="65"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="66"/>
+      <c r="A212" s="65"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="66"/>
+      <c r="A213" s="65"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="66"/>
+      <c r="A214" s="65"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="66"/>
+      <c r="A215" s="65"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="66"/>
+      <c r="A216" s="65"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="66"/>
+      <c r="A217" s="65"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="66"/>
+      <c r="A218" s="65"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="66"/>
+      <c r="A219" s="65"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="66"/>
+      <c r="A220" s="65"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -34708,210 +34705,210 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>257</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="J1" s="68" t="s">
+      <c r="J1" s="67" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="67" t="s">
         <v>274</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="67" t="s">
         <v>276</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="V1" s="68" t="s">
+      <c r="V1" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="W1" s="68" t="s">
+      <c r="W1" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="68" t="s">
+      <c r="X1" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="Y1" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="Z1" s="68" t="s">
+      <c r="Z1" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="AA1" s="68" t="s">
+      <c r="AA1" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="AB1" s="68" t="s">
+      <c r="AB1" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="AC1" s="68" t="s">
+      <c r="AC1" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" s="68" t="s">
+      <c r="AD1" s="67" t="s">
         <v>242</v>
       </c>
-      <c r="AE1" s="68" t="s">
+      <c r="AE1" s="67" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="47"/>
-      <c r="E2" s="71"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
       <c r="L2" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
       <c r="S2" s="47" t="s">
         <v>319</v>
       </c>
-      <c r="T2" s="71"/>
+      <c r="T2" s="70"/>
       <c r="U2" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="70"/>
     </row>
     <row r="3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
     </row>
     <row r="4">
       <c r="A4" s="48" t="s">
         <v>329</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
       <c r="L4" s="47"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
       <c r="AD4" s="48" t="s">
         <v>333</v>
       </c>
@@ -34920,121 +34917,121 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="47" t="s">
+      <c r="B5" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
     </row>
     <row r="6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
       <c r="S6" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="T6" s="71"/>
+      <c r="T6" s="70"/>
       <c r="U6" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="V6" s="71"/>
-      <c r="W6" s="71"/>
-      <c r="X6" s="71"/>
-      <c r="Y6" s="71"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -35055,7 +35052,7 @@
       <c r="H8" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J8" s="19" t="s">
@@ -35097,7 +35094,7 @@
       <c r="V8" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="W8" s="57" t="s">
+      <c r="W8" s="56" t="s">
         <v>370</v>
       </c>
       <c r="X8" s="19" t="s">
@@ -35121,7 +35118,7 @@
       <c r="AD8" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="AE8" s="57" t="s">
+      <c r="AE8" s="56" t="s">
         <v>364</v>
       </c>
     </row>
@@ -35129,7 +35126,7 @@
       <c r="A9" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C9" s="54" t="s">
@@ -35150,7 +35147,7 @@
       <c r="H9" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J9" s="19" t="s">
@@ -35192,7 +35189,7 @@
       <c r="V9" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="W9" s="57" t="s">
+      <c r="W9" s="56" t="s">
         <v>370</v>
       </c>
       <c r="X9" s="19" t="s">
@@ -35216,7 +35213,7 @@
       <c r="AD9" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="AE9" s="57" t="s">
+      <c r="AE9" s="56" t="s">
         <v>364</v>
       </c>
     </row>
@@ -35224,7 +35221,7 @@
       <c r="A10" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C10" s="54" t="s">
@@ -35245,7 +35242,7 @@
       <c r="H10" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J10" s="19" t="s">
@@ -35287,7 +35284,7 @@
       <c r="V10" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="W10" s="57" t="s">
+      <c r="W10" s="56" t="s">
         <v>396</v>
       </c>
       <c r="X10" s="19" t="s">
@@ -35311,7 +35308,7 @@
       <c r="AD10" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="AE10" s="57" t="s">
+      <c r="AE10" s="56" t="s">
         <v>391</v>
       </c>
     </row>
@@ -35319,7 +35316,7 @@
       <c r="A11" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C11" s="54" t="s">
@@ -35340,7 +35337,7 @@
       <c r="H11" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J11" s="19" t="s">
@@ -35382,7 +35379,7 @@
       <c r="V11" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="W11" s="57" t="s">
+      <c r="W11" s="56" t="s">
         <v>396</v>
       </c>
       <c r="X11" s="19" t="s">
@@ -35406,7 +35403,7 @@
       <c r="AD11" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="AE11" s="57" t="s">
+      <c r="AE11" s="56" t="s">
         <v>391</v>
       </c>
     </row>
@@ -35414,7 +35411,7 @@
       <c r="A12" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -35435,7 +35432,7 @@
       <c r="H12" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I12" s="76" t="s">
+      <c r="I12" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J12" s="19" t="s">
@@ -35477,7 +35474,7 @@
       <c r="V12" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="W12" s="57" t="s">
+      <c r="W12" s="56" t="s">
         <v>421</v>
       </c>
       <c r="X12" s="19" t="s">
@@ -35501,7 +35498,7 @@
       <c r="AD12" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="AE12" s="57" t="s">
+      <c r="AE12" s="56" t="s">
         <v>416</v>
       </c>
     </row>
@@ -35509,7 +35506,7 @@
       <c r="A13" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C13" s="54" t="s">
@@ -35530,7 +35527,7 @@
       <c r="H13" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J13" s="19" t="s">
@@ -35572,7 +35569,7 @@
       <c r="V13" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="W13" s="57" t="s">
+      <c r="W13" s="56" t="s">
         <v>421</v>
       </c>
       <c r="X13" s="19" t="s">
@@ -35596,7 +35593,7 @@
       <c r="AD13" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="AE13" s="57" t="s">
+      <c r="AE13" s="56" t="s">
         <v>416</v>
       </c>
     </row>
@@ -35604,7 +35601,7 @@
       <c r="A14" s="53" t="s">
         <v>427</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -35625,7 +35622,7 @@
       <c r="H14" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J14" s="19" t="s">
@@ -35667,7 +35664,7 @@
       <c r="V14" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="W14" s="57" t="s">
+      <c r="W14" s="56" t="s">
         <v>370</v>
       </c>
       <c r="X14" s="19" t="s">
@@ -35691,7 +35688,7 @@
       <c r="AD14" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="AE14" s="57" t="s">
+      <c r="AE14" s="56" t="s">
         <v>364</v>
       </c>
     </row>
@@ -35699,7 +35696,7 @@
       <c r="A15" s="53" t="s">
         <v>427</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C15" s="54" t="s">
@@ -35720,7 +35717,7 @@
       <c r="H15" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J15" s="19" t="s">
@@ -35762,7 +35759,7 @@
       <c r="V15" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="W15" s="57" t="s">
+      <c r="W15" s="56" t="s">
         <v>370</v>
       </c>
       <c r="X15" s="19" t="s">
@@ -35786,7 +35783,7 @@
       <c r="AD15" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="AE15" s="57" t="s">
+      <c r="AE15" s="56" t="s">
         <v>364</v>
       </c>
     </row>
@@ -35794,7 +35791,7 @@
       <c r="A16" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="B16" s="75" t="s">
+      <c r="B16" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C16" s="54" t="s">
@@ -35815,7 +35812,7 @@
       <c r="H16" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J16" s="19" t="s">
@@ -35857,7 +35854,7 @@
       <c r="V16" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="W16" s="57" t="s">
+      <c r="W16" s="56" t="s">
         <v>396</v>
       </c>
       <c r="X16" s="19" t="s">
@@ -35881,7 +35878,7 @@
       <c r="AD16" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="AE16" s="57" t="s">
+      <c r="AE16" s="56" t="s">
         <v>416</v>
       </c>
     </row>
@@ -35889,7 +35886,7 @@
       <c r="A17" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="B17" s="75" t="s">
+      <c r="B17" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C17" s="54" t="s">
@@ -35910,7 +35907,7 @@
       <c r="H17" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J17" s="19" t="s">
@@ -35952,7 +35949,7 @@
       <c r="V17" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="W17" s="57" t="s">
+      <c r="W17" s="56" t="s">
         <v>396</v>
       </c>
       <c r="X17" s="19" t="s">
@@ -35976,7 +35973,7 @@
       <c r="AD17" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="AE17" s="57" t="s">
+      <c r="AE17" s="56" t="s">
         <v>416</v>
       </c>
     </row>
@@ -35984,7 +35981,7 @@
       <c r="A18" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C18" s="54" t="s">
@@ -36005,7 +36002,7 @@
       <c r="H18" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J18" s="19" t="s">
@@ -36047,7 +36044,7 @@
       <c r="V18" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="W18" s="57" t="s">
+      <c r="W18" s="56" t="s">
         <v>421</v>
       </c>
       <c r="X18" s="19" t="s">
@@ -36071,7 +36068,7 @@
       <c r="AD18" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="AE18" s="57" t="s">
+      <c r="AE18" s="56" t="s">
         <v>391</v>
       </c>
     </row>
@@ -36079,7 +36076,7 @@
       <c r="A19" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C19" s="54" t="s">
@@ -36100,7 +36097,7 @@
       <c r="H19" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="I19" s="76" t="s">
+      <c r="I19" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J19" s="19" t="s">
@@ -36142,7 +36139,7 @@
       <c r="V19" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="W19" s="57" t="s">
+      <c r="W19" s="56" t="s">
         <v>421</v>
       </c>
       <c r="X19" s="19" t="s">
@@ -36166,7 +36163,7 @@
       <c r="AD19" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="AE19" s="57" t="s">
+      <c r="AE19" s="56" t="s">
         <v>391</v>
       </c>
     </row>
@@ -36174,7 +36171,7 @@
       <c r="A20" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C20" s="54" t="s">
@@ -36195,7 +36192,7 @@
       <c r="H20" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J20" s="19" t="s">
@@ -36237,7 +36234,7 @@
       <c r="V20" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="W20" s="57" t="s">
+      <c r="W20" s="56" t="s">
         <v>421</v>
       </c>
       <c r="X20" s="19" t="s">
@@ -36261,7 +36258,7 @@
       <c r="AD20" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="AE20" s="57" t="s">
+      <c r="AE20" s="56" t="s">
         <v>364</v>
       </c>
     </row>
@@ -36269,7 +36266,7 @@
       <c r="A21" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="74" t="s">
         <v>346</v>
       </c>
       <c r="C21" s="54" t="s">
@@ -36290,7 +36287,7 @@
       <c r="H21" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="I21" s="76" t="s">
+      <c r="I21" s="75" t="s">
         <v>352</v>
       </c>
       <c r="J21" s="19" t="s">
@@ -36332,7 +36329,7 @@
       <c r="V21" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="W21" s="57" t="s">
+      <c r="W21" s="56" t="s">
         <v>421</v>
       </c>
       <c r="X21" s="19" t="s">
@@ -36356,622 +36353,622 @@
       <c r="AD21" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="AE21" s="57" t="s">
+      <c r="AE21" s="56" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
       <c r="U22" s="54"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="65"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="65"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="66"/>
+      <c r="A29" s="65"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="65"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="65"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="66"/>
+      <c r="A32" s="65"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="65"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="66"/>
+      <c r="A34" s="65"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="66"/>
+      <c r="A35" s="65"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="66"/>
+      <c r="A36" s="65"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="65"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="65"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="65"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="65"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="65"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="66"/>
+      <c r="A47" s="65"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="66"/>
+      <c r="A48" s="65"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="65"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="65"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="66"/>
+      <c r="A51" s="65"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="66"/>
+      <c r="A52" s="65"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="65"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="65"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="65"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="66"/>
+      <c r="A62" s="65"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="65"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="66"/>
+      <c r="A64" s="65"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="66"/>
+      <c r="A65" s="65"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="66"/>
+      <c r="A66" s="65"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="66"/>
+      <c r="A67" s="65"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="66"/>
+      <c r="A68" s="65"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="66"/>
+      <c r="A70" s="65"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="65"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="66"/>
+      <c r="A72" s="65"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="66"/>
+      <c r="A73" s="65"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="66"/>
+      <c r="A74" s="65"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="66"/>
+      <c r="A76" s="65"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="66"/>
+      <c r="A77" s="65"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="66"/>
+      <c r="A78" s="65"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="66"/>
+      <c r="A79" s="65"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="66"/>
+      <c r="A80" s="65"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="66"/>
+      <c r="A81" s="65"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="66"/>
+      <c r="A82" s="65"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="66"/>
+      <c r="A83" s="65"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="66"/>
+      <c r="A84" s="65"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="66"/>
+      <c r="A85" s="65"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="66"/>
+      <c r="A86" s="65"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="66"/>
+      <c r="A87" s="65"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="66"/>
+      <c r="A88" s="65"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="66"/>
+      <c r="A89" s="65"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="66"/>
+      <c r="A90" s="65"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="66"/>
+      <c r="A91" s="65"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="66"/>
+      <c r="A92" s="65"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="66"/>
+      <c r="A93" s="65"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="66"/>
+      <c r="A94" s="65"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="66"/>
+      <c r="A95" s="65"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="66"/>
+      <c r="A96" s="65"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="66"/>
+      <c r="A97" s="65"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="66"/>
+      <c r="A98" s="65"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="66"/>
+      <c r="A99" s="65"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="66"/>
+      <c r="A100" s="65"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="66"/>
+      <c r="A101" s="65"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="66"/>
+      <c r="A102" s="65"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="65"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="66"/>
+      <c r="A104" s="65"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="66"/>
+      <c r="A105" s="65"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="66"/>
+      <c r="A106" s="65"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="66"/>
+      <c r="A107" s="65"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="66"/>
+      <c r="A108" s="65"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="65"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="65"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="65"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="66"/>
+      <c r="A112" s="65"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="66"/>
+      <c r="A113" s="65"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="66"/>
+      <c r="A114" s="65"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="66"/>
+      <c r="A115" s="65"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="66"/>
+      <c r="A116" s="65"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="66"/>
+      <c r="A117" s="65"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="66"/>
+      <c r="A118" s="65"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="66"/>
+      <c r="A119" s="65"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="66"/>
+      <c r="A120" s="65"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="66"/>
+      <c r="A121" s="65"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="66"/>
+      <c r="A122" s="65"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="66"/>
+      <c r="A123" s="65"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="66"/>
+      <c r="A124" s="65"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="66"/>
+      <c r="A125" s="65"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="66"/>
+      <c r="A126" s="65"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="66"/>
+      <c r="A127" s="65"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="66"/>
+      <c r="A128" s="65"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="66"/>
+      <c r="A129" s="65"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="66"/>
+      <c r="A130" s="65"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="66"/>
+      <c r="A131" s="65"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="66"/>
+      <c r="A132" s="65"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="66"/>
+      <c r="A133" s="65"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="66"/>
+      <c r="A134" s="65"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="66"/>
+      <c r="A135" s="65"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="66"/>
+      <c r="A136" s="65"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="66"/>
+      <c r="A137" s="65"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="66"/>
+      <c r="A138" s="65"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="66"/>
+      <c r="A139" s="65"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="66"/>
+      <c r="A140" s="65"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="66"/>
+      <c r="A141" s="65"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="66"/>
+      <c r="A142" s="65"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="66"/>
+      <c r="A143" s="65"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="66"/>
+      <c r="A144" s="65"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="66"/>
+      <c r="A145" s="65"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="66"/>
+      <c r="A146" s="65"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="66"/>
+      <c r="A147" s="65"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="66"/>
+      <c r="A148" s="65"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="66"/>
+      <c r="A149" s="65"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="66"/>
+      <c r="A150" s="65"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="66"/>
+      <c r="A151" s="65"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="66"/>
+      <c r="A152" s="65"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="66"/>
+      <c r="A153" s="65"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="66"/>
+      <c r="A154" s="65"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="66"/>
+      <c r="A155" s="65"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="66"/>
+      <c r="A156" s="65"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="66"/>
+      <c r="A157" s="65"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="66"/>
+      <c r="A158" s="65"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="66"/>
+      <c r="A159" s="65"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="66"/>
+      <c r="A160" s="65"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="66"/>
+      <c r="A161" s="65"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="66"/>
+      <c r="A162" s="65"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="66"/>
+      <c r="A163" s="65"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="66"/>
+      <c r="A164" s="65"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="66"/>
+      <c r="A165" s="65"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="66"/>
+      <c r="A166" s="65"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="66"/>
+      <c r="A167" s="65"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="66"/>
+      <c r="A168" s="65"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="66"/>
+      <c r="A169" s="65"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="66"/>
+      <c r="A170" s="65"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="66"/>
+      <c r="A171" s="65"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="66"/>
+      <c r="A172" s="65"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="66"/>
+      <c r="A173" s="65"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="66"/>
+      <c r="A174" s="65"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="66"/>
+      <c r="A175" s="65"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="66"/>
+      <c r="A176" s="65"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="66"/>
+      <c r="A177" s="65"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="66"/>
+      <c r="A178" s="65"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="66"/>
+      <c r="A179" s="65"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="66"/>
+      <c r="A180" s="65"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="66"/>
+      <c r="A181" s="65"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="66"/>
+      <c r="A182" s="65"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="66"/>
+      <c r="A183" s="65"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="66"/>
+      <c r="A184" s="65"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="66"/>
+      <c r="A185" s="65"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="66"/>
+      <c r="A186" s="65"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="66"/>
+      <c r="A187" s="65"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="66"/>
+      <c r="A188" s="65"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="66"/>
+      <c r="A189" s="65"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="66"/>
+      <c r="A190" s="65"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="66"/>
+      <c r="A191" s="65"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="66"/>
+      <c r="A192" s="65"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="66"/>
+      <c r="A193" s="65"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="66"/>
+      <c r="A194" s="65"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="66"/>
+      <c r="A195" s="65"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="66"/>
+      <c r="A196" s="65"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="66"/>
+      <c r="A197" s="65"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="66"/>
+      <c r="A198" s="65"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="66"/>
+      <c r="A199" s="65"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="66"/>
+      <c r="A200" s="65"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="66"/>
+      <c r="A201" s="65"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="66"/>
+      <c r="A202" s="65"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="66"/>
+      <c r="A203" s="65"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="66"/>
+      <c r="A204" s="65"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="66"/>
+      <c r="A205" s="65"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="66"/>
+      <c r="A206" s="65"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="66"/>
+      <c r="A207" s="65"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="66"/>
+      <c r="A208" s="65"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="66"/>
+      <c r="A209" s="65"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="66"/>
+      <c r="A210" s="65"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="66"/>
+      <c r="A211" s="65"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="66"/>
+      <c r="A212" s="65"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="66"/>
+      <c r="A213" s="65"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="66"/>
+      <c r="A214" s="65"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="66"/>
+      <c r="A215" s="65"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="66"/>
+      <c r="A216" s="65"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="66"/>
+      <c r="A217" s="65"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="66"/>
+      <c r="A218" s="65"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="66"/>
+      <c r="A219" s="65"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="66"/>
+      <c r="A220" s="65"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="66"/>
+      <c r="A221" s="65"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="66"/>
+      <c r="A222" s="65"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="66"/>
+      <c r="A223" s="65"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="66"/>
+      <c r="A224" s="65"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="66"/>
+      <c r="A225" s="65"/>
     </row>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -37784,13 +37781,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="66" t="s">
         <v>292</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>294</v>
       </c>
       <c r="D1" s="44"/>
@@ -37818,45 +37815,45 @@
       <c r="Z1" s="44"/>
     </row>
     <row r="2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70"/>
     </row>
     <row r="3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>492</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="76">
         <v>1000.0</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -37867,7 +37864,7 @@
       <c r="A8" s="53" t="s">
         <v>506</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="76">
         <v>1001.0</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -37878,7 +37875,7 @@
       <c r="A9" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>346</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -37889,7 +37886,7 @@
       <c r="A10" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>346</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -37900,7 +37897,7 @@
       <c r="A11" s="53" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>346</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -37911,7 +37908,7 @@
       <c r="A12" s="53" t="s">
         <v>427</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>346</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -37922,7 +37919,7 @@
       <c r="A13" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="55" t="s">
         <v>346</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -37933,7 +37930,7 @@
       <c r="A14" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="55" t="s">
         <v>346</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -37944,7 +37941,7 @@
       <c r="A15" s="53" t="s">
         <v>475</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>346</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -37952,619 +37949,619 @@
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="65"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="65"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="65"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="65"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="65"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="65"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="65"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="65"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="66"/>
+      <c r="A29" s="65"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="65"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="65"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="66"/>
+      <c r="A32" s="65"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="65"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="66"/>
+      <c r="A34" s="65"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="66"/>
+      <c r="A35" s="65"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="66"/>
+      <c r="A36" s="65"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="65"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="65"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="65"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="65"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="65"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="66"/>
+      <c r="A47" s="65"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="66"/>
+      <c r="A48" s="65"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="65"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="65"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="66"/>
+      <c r="A51" s="65"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="66"/>
+      <c r="A52" s="65"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="65"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="65"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="65"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="66"/>
+      <c r="A62" s="65"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="65"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="66"/>
+      <c r="A64" s="65"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="66"/>
+      <c r="A65" s="65"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="66"/>
+      <c r="A66" s="65"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="66"/>
+      <c r="A67" s="65"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="66"/>
+      <c r="A68" s="65"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="66"/>
+      <c r="A70" s="65"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="65"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="66"/>
+      <c r="A72" s="65"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="66"/>
+      <c r="A73" s="65"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="66"/>
+      <c r="A74" s="65"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="66"/>
+      <c r="A76" s="65"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="66"/>
+      <c r="A77" s="65"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="66"/>
+      <c r="A78" s="65"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="66"/>
+      <c r="A79" s="65"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="66"/>
+      <c r="A80" s="65"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="66"/>
+      <c r="A81" s="65"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="66"/>
+      <c r="A82" s="65"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="66"/>
+      <c r="A83" s="65"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="66"/>
+      <c r="A84" s="65"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="66"/>
+      <c r="A85" s="65"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="66"/>
+      <c r="A86" s="65"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="66"/>
+      <c r="A87" s="65"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="66"/>
+      <c r="A88" s="65"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="66"/>
+      <c r="A89" s="65"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="66"/>
+      <c r="A90" s="65"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="66"/>
+      <c r="A91" s="65"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="66"/>
+      <c r="A92" s="65"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="66"/>
+      <c r="A93" s="65"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="66"/>
+      <c r="A94" s="65"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="66"/>
+      <c r="A95" s="65"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="66"/>
+      <c r="A96" s="65"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="66"/>
+      <c r="A97" s="65"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="66"/>
+      <c r="A98" s="65"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="66"/>
+      <c r="A99" s="65"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="66"/>
+      <c r="A100" s="65"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="66"/>
+      <c r="A101" s="65"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="66"/>
+      <c r="A102" s="65"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="65"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="66"/>
+      <c r="A104" s="65"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="66"/>
+      <c r="A105" s="65"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="66"/>
+      <c r="A106" s="65"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="66"/>
+      <c r="A107" s="65"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="66"/>
+      <c r="A108" s="65"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="65"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="65"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="65"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="66"/>
+      <c r="A112" s="65"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="66"/>
+      <c r="A113" s="65"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="66"/>
+      <c r="A114" s="65"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="66"/>
+      <c r="A115" s="65"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="66"/>
+      <c r="A116" s="65"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="66"/>
+      <c r="A117" s="65"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="66"/>
+      <c r="A118" s="65"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="66"/>
+      <c r="A119" s="65"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="66"/>
+      <c r="A120" s="65"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="66"/>
+      <c r="A121" s="65"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="66"/>
+      <c r="A122" s="65"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="66"/>
+      <c r="A123" s="65"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="66"/>
+      <c r="A124" s="65"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="66"/>
+      <c r="A125" s="65"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="66"/>
+      <c r="A126" s="65"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="66"/>
+      <c r="A127" s="65"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="66"/>
+      <c r="A128" s="65"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="66"/>
+      <c r="A129" s="65"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="66"/>
+      <c r="A130" s="65"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="66"/>
+      <c r="A131" s="65"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="66"/>
+      <c r="A132" s="65"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="66"/>
+      <c r="A133" s="65"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="66"/>
+      <c r="A134" s="65"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="66"/>
+      <c r="A135" s="65"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="66"/>
+      <c r="A136" s="65"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="66"/>
+      <c r="A137" s="65"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="66"/>
+      <c r="A138" s="65"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="66"/>
+      <c r="A139" s="65"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="66"/>
+      <c r="A140" s="65"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="66"/>
+      <c r="A141" s="65"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="66"/>
+      <c r="A142" s="65"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="66"/>
+      <c r="A143" s="65"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="66"/>
+      <c r="A144" s="65"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="66"/>
+      <c r="A145" s="65"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="66"/>
+      <c r="A146" s="65"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="66"/>
+      <c r="A147" s="65"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="66"/>
+      <c r="A148" s="65"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="66"/>
+      <c r="A149" s="65"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="66"/>
+      <c r="A150" s="65"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="66"/>
+      <c r="A151" s="65"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="66"/>
+      <c r="A152" s="65"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="66"/>
+      <c r="A153" s="65"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="66"/>
+      <c r="A154" s="65"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="66"/>
+      <c r="A155" s="65"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="66"/>
+      <c r="A156" s="65"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="66"/>
+      <c r="A157" s="65"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="66"/>
+      <c r="A158" s="65"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="66"/>
+      <c r="A159" s="65"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="66"/>
+      <c r="A160" s="65"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="66"/>
+      <c r="A161" s="65"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="66"/>
+      <c r="A162" s="65"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="66"/>
+      <c r="A163" s="65"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="66"/>
+      <c r="A164" s="65"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="66"/>
+      <c r="A165" s="65"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="66"/>
+      <c r="A166" s="65"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="66"/>
+      <c r="A167" s="65"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="66"/>
+      <c r="A168" s="65"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="66"/>
+      <c r="A169" s="65"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="66"/>
+      <c r="A170" s="65"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="66"/>
+      <c r="A171" s="65"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="66"/>
+      <c r="A172" s="65"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="66"/>
+      <c r="A173" s="65"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="66"/>
+      <c r="A174" s="65"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="66"/>
+      <c r="A175" s="65"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="66"/>
+      <c r="A176" s="65"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="66"/>
+      <c r="A177" s="65"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="66"/>
+      <c r="A178" s="65"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="66"/>
+      <c r="A179" s="65"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="66"/>
+      <c r="A180" s="65"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="66"/>
+      <c r="A181" s="65"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="66"/>
+      <c r="A182" s="65"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="66"/>
+      <c r="A183" s="65"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="66"/>
+      <c r="A184" s="65"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="66"/>
+      <c r="A185" s="65"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="66"/>
+      <c r="A186" s="65"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="66"/>
+      <c r="A187" s="65"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="66"/>
+      <c r="A188" s="65"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="66"/>
+      <c r="A189" s="65"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="66"/>
+      <c r="A190" s="65"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="66"/>
+      <c r="A191" s="65"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="66"/>
+      <c r="A192" s="65"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="66"/>
+      <c r="A193" s="65"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="66"/>
+      <c r="A194" s="65"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="66"/>
+      <c r="A195" s="65"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="66"/>
+      <c r="A196" s="65"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="66"/>
+      <c r="A197" s="65"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="66"/>
+      <c r="A198" s="65"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="66"/>
+      <c r="A199" s="65"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="66"/>
+      <c r="A200" s="65"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="66"/>
+      <c r="A201" s="65"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="66"/>
+      <c r="A202" s="65"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="66"/>
+      <c r="A203" s="65"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="66"/>
+      <c r="A204" s="65"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="66"/>
+      <c r="A205" s="65"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="66"/>
+      <c r="A206" s="65"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="66"/>
+      <c r="A207" s="65"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="66"/>
+      <c r="A208" s="65"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="66"/>
+      <c r="A209" s="65"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="66"/>
+      <c r="A210" s="65"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="66"/>
+      <c r="A211" s="65"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="66"/>
+      <c r="A212" s="65"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="66"/>
+      <c r="A213" s="65"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="66"/>
+      <c r="A214" s="65"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="66"/>
+      <c r="A215" s="65"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="66"/>
+      <c r="A216" s="65"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="66"/>
+      <c r="A217" s="65"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="66"/>
+      <c r="A218" s="65"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="66"/>
+      <c r="A219" s="65"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="66"/>
+      <c r="A220" s="65"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -39374,13 +39371,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>538</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>539</v>
       </c>
     </row>
@@ -39388,10 +39385,10 @@
       <c r="A2" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>541</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="79" t="s">
         <v>542</v>
       </c>
     </row>
@@ -39399,10 +39396,10 @@
       <c r="A3" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>543</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="79" t="s">
         <v>544</v>
       </c>
     </row>
@@ -39410,7 +39407,7 @@
       <c r="A4" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>545</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -39421,7 +39418,7 @@
       <c r="A5" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>547</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -39432,10 +39429,10 @@
       <c r="A6" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>549</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="79" t="s">
         <v>550</v>
       </c>
     </row>
@@ -39443,10 +39440,10 @@
       <c r="A7" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="79" t="s">
         <v>552</v>
       </c>
     </row>
@@ -39454,10 +39451,10 @@
       <c r="A8" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>553</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="79" t="s">
         <v>554</v>
       </c>
     </row>
@@ -39465,10 +39462,10 @@
       <c r="A9" s="26" t="s">
         <v>540</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>555</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="79" t="s">
         <v>556</v>
       </c>
     </row>
@@ -39479,7 +39476,7 @@
       <c r="B10" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
         <v>558</v>
       </c>
     </row>
@@ -39490,12 +39487,12 @@
       <c r="B11" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="80" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="81" t="s">
         <v>540</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -39506,7 +39503,7 @@
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -39517,7 +39514,7 @@
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="83" t="s">
+      <c r="A14" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -39528,7 +39525,7 @@
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -39539,7 +39536,7 @@
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="82" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -40622,646 +40619,646 @@
       <c r="B6" s="51"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="65"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="65"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="65"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="66"/>
+      <c r="A13" s="65"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="66"/>
+      <c r="A14" s="65"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="65"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="65"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="65"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="65"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="65"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="65"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="65"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="65"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="65"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="65"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="65"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="66"/>
+      <c r="A26" s="65"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="65"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="65"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="66"/>
+      <c r="A29" s="65"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="65"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="65"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="66"/>
+      <c r="A32" s="65"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="65"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="66"/>
+      <c r="A34" s="65"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="66"/>
+      <c r="A35" s="65"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="66"/>
+      <c r="A36" s="65"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="65"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="65"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="65"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="66"/>
+      <c r="A40" s="65"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="65"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="65"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="65"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="65"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="65"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="65"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="66"/>
+      <c r="A47" s="65"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="66"/>
+      <c r="A48" s="65"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="65"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="65"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="66"/>
+      <c r="A51" s="65"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="66"/>
+      <c r="A52" s="65"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="65"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="65"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="65"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="65"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="65"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="65"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="65"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="65"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="66"/>
+      <c r="A62" s="65"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="65"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="66"/>
+      <c r="A64" s="65"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="66"/>
+      <c r="A65" s="65"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="66"/>
+      <c r="A66" s="65"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="66"/>
+      <c r="A67" s="65"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="66"/>
+      <c r="A68" s="65"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="66"/>
+      <c r="A69" s="65"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="66"/>
+      <c r="A70" s="65"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="66"/>
+      <c r="A71" s="65"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="66"/>
+      <c r="A72" s="65"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="66"/>
+      <c r="A73" s="65"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="66"/>
+      <c r="A74" s="65"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="66"/>
+      <c r="A75" s="65"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="66"/>
+      <c r="A76" s="65"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="66"/>
+      <c r="A77" s="65"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="66"/>
+      <c r="A78" s="65"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="66"/>
+      <c r="A79" s="65"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="66"/>
+      <c r="A80" s="65"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="66"/>
+      <c r="A81" s="65"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="66"/>
+      <c r="A82" s="65"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="66"/>
+      <c r="A83" s="65"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="66"/>
+      <c r="A84" s="65"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="66"/>
+      <c r="A85" s="65"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="66"/>
+      <c r="A86" s="65"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="66"/>
+      <c r="A87" s="65"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="66"/>
+      <c r="A88" s="65"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="66"/>
+      <c r="A89" s="65"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="66"/>
+      <c r="A90" s="65"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="66"/>
+      <c r="A91" s="65"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="66"/>
+      <c r="A92" s="65"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="66"/>
+      <c r="A93" s="65"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="66"/>
+      <c r="A94" s="65"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="66"/>
+      <c r="A95" s="65"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="66"/>
+      <c r="A96" s="65"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="66"/>
+      <c r="A97" s="65"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="66"/>
+      <c r="A98" s="65"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="66"/>
+      <c r="A99" s="65"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="66"/>
+      <c r="A100" s="65"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="66"/>
+      <c r="A101" s="65"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="66"/>
+      <c r="A102" s="65"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="66"/>
+      <c r="A103" s="65"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="66"/>
+      <c r="A104" s="65"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="66"/>
+      <c r="A105" s="65"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="66"/>
+      <c r="A106" s="65"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="66"/>
+      <c r="A107" s="65"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="66"/>
+      <c r="A108" s="65"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="66"/>
+      <c r="A109" s="65"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="66"/>
+      <c r="A110" s="65"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="66"/>
+      <c r="A111" s="65"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="66"/>
+      <c r="A112" s="65"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="66"/>
+      <c r="A113" s="65"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="A114" s="66"/>
+      <c r="A114" s="65"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="A115" s="66"/>
+      <c r="A115" s="65"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="66"/>
+      <c r="A116" s="65"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="66"/>
+      <c r="A117" s="65"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="66"/>
+      <c r="A118" s="65"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="66"/>
+      <c r="A119" s="65"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="66"/>
+      <c r="A120" s="65"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="66"/>
+      <c r="A121" s="65"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="66"/>
+      <c r="A122" s="65"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="A123" s="66"/>
+      <c r="A123" s="65"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="A124" s="66"/>
+      <c r="A124" s="65"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="A125" s="66"/>
+      <c r="A125" s="65"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="66"/>
+      <c r="A126" s="65"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="66"/>
+      <c r="A127" s="65"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="66"/>
+      <c r="A128" s="65"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="66"/>
+      <c r="A129" s="65"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="66"/>
+      <c r="A130" s="65"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="66"/>
+      <c r="A131" s="65"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="66"/>
+      <c r="A132" s="65"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="66"/>
+      <c r="A133" s="65"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="A134" s="66"/>
+      <c r="A134" s="65"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="A135" s="66"/>
+      <c r="A135" s="65"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="66"/>
+      <c r="A136" s="65"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="66"/>
+      <c r="A137" s="65"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="66"/>
+      <c r="A138" s="65"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="66"/>
+      <c r="A139" s="65"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="66"/>
+      <c r="A140" s="65"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="66"/>
+      <c r="A141" s="65"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="66"/>
+      <c r="A142" s="65"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="66"/>
+      <c r="A143" s="65"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="66"/>
+      <c r="A144" s="65"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="66"/>
+      <c r="A145" s="65"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="66"/>
+      <c r="A146" s="65"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="66"/>
+      <c r="A147" s="65"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="66"/>
+      <c r="A148" s="65"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="66"/>
+      <c r="A149" s="65"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="66"/>
+      <c r="A150" s="65"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="66"/>
+      <c r="A151" s="65"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="66"/>
+      <c r="A152" s="65"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="66"/>
+      <c r="A153" s="65"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="66"/>
+      <c r="A154" s="65"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="66"/>
+      <c r="A155" s="65"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="66"/>
+      <c r="A156" s="65"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="66"/>
+      <c r="A157" s="65"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="66"/>
+      <c r="A158" s="65"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="66"/>
+      <c r="A159" s="65"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="66"/>
+      <c r="A160" s="65"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="66"/>
+      <c r="A161" s="65"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="66"/>
+      <c r="A162" s="65"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="66"/>
+      <c r="A163" s="65"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="66"/>
+      <c r="A164" s="65"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="66"/>
+      <c r="A165" s="65"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="66"/>
+      <c r="A166" s="65"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="66"/>
+      <c r="A167" s="65"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="66"/>
+      <c r="A168" s="65"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="66"/>
+      <c r="A169" s="65"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="66"/>
+      <c r="A170" s="65"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="66"/>
+      <c r="A171" s="65"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="66"/>
+      <c r="A172" s="65"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="66"/>
+      <c r="A173" s="65"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="66"/>
+      <c r="A174" s="65"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="66"/>
+      <c r="A175" s="65"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="66"/>
+      <c r="A176" s="65"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="66"/>
+      <c r="A177" s="65"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="66"/>
+      <c r="A178" s="65"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="66"/>
+      <c r="A179" s="65"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="66"/>
+      <c r="A180" s="65"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="66"/>
+      <c r="A181" s="65"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="66"/>
+      <c r="A182" s="65"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="66"/>
+      <c r="A183" s="65"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="66"/>
+      <c r="A184" s="65"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="66"/>
+      <c r="A185" s="65"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="66"/>
+      <c r="A186" s="65"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="66"/>
+      <c r="A187" s="65"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="66"/>
+      <c r="A188" s="65"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="66"/>
+      <c r="A189" s="65"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="66"/>
+      <c r="A190" s="65"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="66"/>
+      <c r="A191" s="65"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="66"/>
+      <c r="A192" s="65"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="66"/>
+      <c r="A193" s="65"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="66"/>
+      <c r="A194" s="65"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="66"/>
+      <c r="A195" s="65"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="66"/>
+      <c r="A196" s="65"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="66"/>
+      <c r="A197" s="65"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="66"/>
+      <c r="A198" s="65"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="66"/>
+      <c r="A199" s="65"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="66"/>
+      <c r="A200" s="65"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="66"/>
+      <c r="A201" s="65"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="66"/>
+      <c r="A202" s="65"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="66"/>
+      <c r="A203" s="65"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="66"/>
+      <c r="A204" s="65"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="66"/>
+      <c r="A205" s="65"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="66"/>
+      <c r="A206" s="65"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="66"/>
+      <c r="A207" s="65"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="66"/>
+      <c r="A208" s="65"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="66"/>
+      <c r="A209" s="65"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="66"/>
+      <c r="A210" s="65"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="66"/>
+      <c r="A211" s="65"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="66"/>
+      <c r="A212" s="65"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="66"/>
+      <c r="A213" s="65"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="66"/>
+      <c r="A214" s="65"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="66"/>
+      <c r="A215" s="65"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="66"/>
+      <c r="A216" s="65"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="66"/>
+      <c r="A217" s="65"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="66"/>
+      <c r="A218" s="65"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="66"/>
+      <c r="A219" s="65"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="66"/>
+      <c r="A220" s="65"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="574">
   <si>
     <t>Date</t>
   </si>
@@ -1273,15 +1273,18 @@
     <t>ID_NUMEMP*EMP*ST_CODCOU</t>
   </si>
   <si>
+    <t>ID_NUMGRO*GRO*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>ID_REFCOM*REFCOM*ST_DES</t>
+  </si>
+  <si>
     <t>INTERNALVALUE</t>
   </si>
   <si>
     <t>TYPEMAT</t>
   </si>
   <si>
-    <t>GROUPE</t>
-  </si>
-  <si>
     <t>CRITICITE</t>
   </si>
   <si>
@@ -1297,13 +1300,22 @@
     <t>input</t>
   </si>
   <si>
+    <t>select*name</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
     <t>select</t>
   </si>
   <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>checkbox</t>
+    <t>//input[@id='EMP_CODLON' and not(@type='hidden')]</t>
+  </si>
+  <si>
+    <t>//input[@id='GRO_CODLON' and not(@type='hidden')]</t>
   </si>
   <si>
     <t>CAS_DE_TEST</t>
@@ -7961,8 +7973,8 @@
       <c r="AY3" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="AZ3" s="45" t="s">
-        <v>9</v>
+      <c r="AZ3" s="47" t="s">
+        <v>329</v>
       </c>
       <c r="BA3" s="45" t="s">
         <v>9</v>
@@ -8003,8 +8015,8 @@
       <c r="BM3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="BN3" s="45" t="s">
-        <v>9</v>
+      <c r="BN3" s="47" t="s">
+        <v>330</v>
       </c>
       <c r="BO3" s="45" t="s">
         <v>9</v>
@@ -8139,7 +8151,7 @@
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45"/>
@@ -8172,7 +8184,7 @@
       <c r="AD4" s="45"/>
       <c r="AE4" s="45"/>
       <c r="AF4" s="47" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG4" s="45"/>
       <c r="AH4" s="45"/>
@@ -8193,9 +8205,7 @@
       <c r="AW4" s="45"/>
       <c r="AX4" s="45"/>
       <c r="AY4" s="45"/>
-      <c r="AZ4" s="47" t="s">
-        <v>331</v>
-      </c>
+      <c r="AZ4" s="47"/>
       <c r="BA4" s="45"/>
       <c r="BB4" s="45"/>
       <c r="BC4" s="45"/>
@@ -8208,7 +8218,7 @@
       <c r="BJ4" s="45"/>
       <c r="BK4" s="45"/>
       <c r="BL4" s="47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="BM4" s="45"/>
       <c r="BN4" s="45"/>
@@ -8248,10 +8258,10 @@
       <c r="CV4" s="45"/>
       <c r="CW4" s="45"/>
       <c r="CX4" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="CY4" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="CY4" s="47" t="s">
-        <v>332</v>
       </c>
       <c r="CZ4" s="48"/>
       <c r="DA4" s="48"/>
@@ -8275,7 +8285,7 @@
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B5" s="45" t="s">
         <v>9</v>
@@ -8599,124 +8609,128 @@
     </row>
     <row r="6">
       <c r="A6" s="45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="45"/>
       <c r="E6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F6" s="45"/>
       <c r="G6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I6" s="45"/>
       <c r="J6" s="45"/>
       <c r="K6" s="45"/>
       <c r="L6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M6" s="45"/>
       <c r="N6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P6" s="47" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="45"/>
       <c r="R6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="T6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="U6" s="45"/>
       <c r="V6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="W6" s="45"/>
       <c r="X6" s="45"/>
       <c r="Y6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA6" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AB6" s="45"/>
       <c r="AC6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AD6" s="45"/>
       <c r="AE6" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF6" s="47" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AG6" s="45"/>
       <c r="AH6" s="45"/>
       <c r="AI6" s="45"/>
       <c r="AJ6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AL6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AP6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AQ6" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AR6" s="45"/>
       <c r="AS6" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AT6" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AU6" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AV6" s="47" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AW6" s="45"/>
       <c r="AX6" s="45"/>
-      <c r="AY6" s="45"/>
-      <c r="AZ6" s="45"/>
+      <c r="AY6" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="AZ6" s="47" t="s">
+        <v>343</v>
+      </c>
       <c r="BA6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BB6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BC6" s="45"/>
       <c r="BD6" s="45"/>
@@ -8727,16 +8741,16 @@
       <c r="BI6" s="45"/>
       <c r="BJ6" s="45"/>
       <c r="BK6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BL6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BM6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BN6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BO6" s="45"/>
       <c r="BP6" s="45"/>
@@ -8744,10 +8758,10 @@
       <c r="BR6" s="45"/>
       <c r="BS6" s="45"/>
       <c r="BT6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BU6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BV6" s="45"/>
       <c r="BW6" s="45"/>
@@ -8766,100 +8780,100 @@
       <c r="CJ6" s="45"/>
       <c r="CK6" s="45"/>
       <c r="CL6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CM6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CN6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CO6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CP6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CQ6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CR6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CS6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CT6" s="45"/>
       <c r="CU6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CV6" s="47" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="CW6" s="45"/>
       <c r="CX6" s="45"/>
       <c r="CY6" s="45"/>
       <c r="CZ6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DA6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DB6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DC6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DD6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DE6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DF6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DG6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DH6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DI6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DJ6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DK6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DL6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DM6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DN6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DO6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DP6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DQ6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="DR6" s="49" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>9</v>
@@ -9189,61 +9203,61 @@
     </row>
     <row r="8">
       <c r="A8" s="52" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C8" s="53">
         <v>1005.0</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K8" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N8" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="O8" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="P8" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>344</v>
-      </c>
       <c r="R8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S8" s="33" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="T8" s="19">
         <v>10000.0</v>
@@ -9255,49 +9269,49 @@
         <v>45658.0</v>
       </c>
       <c r="W8" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X8" s="56">
         <v>44593.0</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AC8" s="19">
         <v>1000.0</v>
       </c>
       <c r="AD8" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF8" s="58" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG8" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ8" s="53" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL8" s="19">
         <v>9999.0</v>
@@ -9312,40 +9326,40 @@
         <v>10000.0</v>
       </c>
       <c r="AP8" s="19" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AQ8" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AR8" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AS8" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AT8" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AU8" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AV8" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW8" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AX8" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AY8" s="19" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AZ8" s="55" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="BA8" s="19" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="BB8" s="56">
         <v>44562.0</v>
@@ -9369,22 +9383,22 @@
         <v>12.0</v>
       </c>
       <c r="BI8" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ8" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK8" s="19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="BL8" s="19" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="BM8" s="19" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="BN8" s="19" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="BO8" s="19">
         <v>1000.0</v>
@@ -9396,106 +9410,106 @@
         <v>1100.0</v>
       </c>
       <c r="BR8" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT8" s="19" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="BU8" s="58" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="BV8" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW8" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX8" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY8" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ8" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB8" s="19" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="CC8" s="19" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="CD8" s="19" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="CE8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH8" s="19" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="CI8" s="19" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="CJ8" s="19" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="CK8" s="19" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="CL8" s="53" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="CM8" s="53" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="CN8" s="53" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="CO8" s="53" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="CP8" s="53" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="CQ8" s="19" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="CR8" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS8" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT8" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU8" s="19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="CV8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CW8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX8" s="60" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="CY8" s="19" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="CZ8" s="61"/>
       <c r="DA8" s="61"/>
@@ -9519,115 +9533,115 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P9" s="55" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q9" s="19" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S9" s="33" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="T9" s="19">
         <v>20000.0</v>
       </c>
       <c r="U9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V9" s="56">
         <v>45658.0</v>
       </c>
       <c r="W9" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X9" s="56">
         <v>44593.0</v>
       </c>
       <c r="Y9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AC9" s="19">
         <v>1010.0</v>
       </c>
       <c r="AD9" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF9" s="58" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG9" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ9" s="53" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL9" s="19">
         <v>1999.0</v>
@@ -9642,40 +9656,40 @@
         <v>20000.0</v>
       </c>
       <c r="AP9" s="19" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AQ9" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AR9" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AS9" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AT9" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AU9" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AV9" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW9" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AX9" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AY9" s="19" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AZ9" s="55" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="BA9" s="19" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="BB9" s="56">
         <v>44562.0</v>
@@ -9699,22 +9713,22 @@
         <v>12.0</v>
       </c>
       <c r="BI9" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ9" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK9" s="19" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="BL9" s="19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="BM9" s="19" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="BN9" s="19" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="BO9" s="19">
         <v>1010.0</v>
@@ -9726,106 +9740,106 @@
         <v>1110.0</v>
       </c>
       <c r="BR9" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT9" s="19" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="BU9" s="58" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="BV9" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW9" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX9" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY9" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ9" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB9" s="19" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="CC9" s="19" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="CD9" s="19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="CE9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH9" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="CI9" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="CJ9" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="CK9" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="CL9" s="53" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="CM9" s="53" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="CN9" s="53" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="CO9" s="53" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="CP9" s="53" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="CQ9" s="19" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="CR9" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS9" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT9" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU9" s="19" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="CV9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CW9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX9" s="60" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="CY9" s="19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="CZ9" s="61"/>
       <c r="DA9" s="61"/>
@@ -9849,73 +9863,73 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P10" s="55" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S10" s="33" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="T10" s="19">
         <v>30000.0</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V10" s="56">
         <v>45658.0</v>
       </c>
       <c r="W10" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X10" s="56">
         <v>44593.0</v>
@@ -9927,37 +9941,37 @@
         <v>44652.0</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AC10" s="19">
         <v>1020.0</v>
       </c>
       <c r="AD10" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF10" s="58" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG10" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ10" s="53" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AK10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL10" s="19">
         <v>2999.0</v>
@@ -9972,40 +9986,40 @@
         <v>30000.0</v>
       </c>
       <c r="AP10" s="19" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AQ10" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AR10" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AS10" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AT10" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AU10" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AV10" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW10" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AX10" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AY10" s="19" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AZ10" s="55" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="BA10" s="19" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="BB10" s="56">
         <v>44562.0</v>
@@ -10029,22 +10043,22 @@
         <v>12.0</v>
       </c>
       <c r="BI10" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ10" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK10" s="19" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="BL10" s="19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="BM10" s="19" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="BN10" s="19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="BO10" s="19">
         <v>1020.0</v>
@@ -10056,106 +10070,106 @@
         <v>1120.0</v>
       </c>
       <c r="BR10" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT10" s="19" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="BU10" s="58" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="BV10" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW10" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX10" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY10" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ10" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB10" s="19" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="CC10" s="19" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="CD10" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="CE10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH10" s="19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="CI10" s="19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="CJ10" s="19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="CK10" s="19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="CL10" s="53" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="CM10" s="53" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="CN10" s="53" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="CO10" s="53" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="CP10" s="53" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="CQ10" s="19" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="CR10" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS10" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT10" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU10" s="19" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="CV10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CW10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX10" s="60" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="CY10" s="19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="CZ10" s="61"/>
       <c r="DA10" s="61"/>
@@ -10179,115 +10193,115 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K11" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="P11" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="S11" s="33" t="s">
         <v>346</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="M11" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="P11" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="S11" s="33" t="s">
-        <v>342</v>
       </c>
       <c r="T11" s="19">
         <v>40000.0</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V11" s="56">
         <v>45658.0</v>
       </c>
       <c r="W11" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X11" s="56">
         <v>44593.0</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB11" s="19" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AC11" s="19">
         <v>1030.0</v>
       </c>
       <c r="AD11" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE11" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF11" s="58" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG11" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ11" s="53" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL11" s="19">
         <v>3999.0</v>
@@ -10302,40 +10316,40 @@
         <v>40000.0</v>
       </c>
       <c r="AP11" s="19" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AQ11" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AR11" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AS11" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AT11" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AU11" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AV11" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW11" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AX11" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AY11" s="19" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AZ11" s="55" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="BA11" s="19" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="BB11" s="56">
         <v>44562.0</v>
@@ -10359,22 +10373,22 @@
         <v>12.0</v>
       </c>
       <c r="BI11" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ11" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK11" s="19" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="BL11" s="19" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="BM11" s="19" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="BN11" s="19" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="BO11" s="19">
         <v>1030.0</v>
@@ -10386,106 +10400,106 @@
         <v>1130.0</v>
       </c>
       <c r="BR11" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT11" s="19" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="BU11" s="58" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="BV11" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW11" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX11" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY11" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ11" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB11" s="19" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="CC11" s="19" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="CD11" s="19" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="CE11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH11" s="19" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="CI11" s="19" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="CJ11" s="19" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="CK11" s="19" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="CL11" s="53" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="CM11" s="53" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="CN11" s="53" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="CO11" s="53" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="CP11" s="53" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="CQ11" s="19" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="CR11" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS11" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT11" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU11" s="19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="CV11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CW11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX11" s="60" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="CY11" s="19" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="CZ11" s="61"/>
       <c r="DA11" s="61"/>
@@ -10509,115 +10523,115 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K12" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="L12" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q12" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="R12" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="S12" s="33" t="s">
         <v>346</v>
-      </c>
-      <c r="L12" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="M12" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>447</v>
-      </c>
-      <c r="O12" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="P12" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q12" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="R12" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="S12" s="33" t="s">
-        <v>342</v>
       </c>
       <c r="T12" s="19">
         <v>50000.0</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V12" s="56">
         <v>45658.0</v>
       </c>
       <c r="W12" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X12" s="56">
         <v>44593.0</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB12" s="19" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AC12" s="19">
         <v>1040.0</v>
       </c>
       <c r="AD12" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE12" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF12" s="58" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG12" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ12" s="53" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL12" s="19">
         <v>4999.0</v>
@@ -10632,40 +10646,40 @@
         <v>50000.0</v>
       </c>
       <c r="AP12" s="19" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AQ12" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AR12" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AS12" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AT12" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AU12" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AV12" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW12" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AX12" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AY12" s="19" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AZ12" s="55" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="BA12" s="19" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="BB12" s="56">
         <v>44562.0</v>
@@ -10689,22 +10703,22 @@
         <v>12.0</v>
       </c>
       <c r="BI12" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ12" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK12" s="19" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="BL12" s="19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="BM12" s="19" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="BN12" s="19" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="BO12" s="19">
         <v>1040.0</v>
@@ -10716,106 +10730,106 @@
         <v>1140.0</v>
       </c>
       <c r="BR12" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT12" s="19" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="BU12" s="58" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="BV12" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW12" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX12" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY12" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ12" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB12" s="19" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="CC12" s="19" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="CD12" s="19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="CE12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH12" s="19" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="CI12" s="19" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="CJ12" s="19" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="CK12" s="19" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="CL12" s="53" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="CM12" s="53" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="CN12" s="53" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="CO12" s="53" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="CP12" s="53" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="CQ12" s="19" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="CR12" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS12" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT12" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU12" s="19" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="CV12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CW12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX12" s="60" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="CY12" s="19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="CZ12" s="61"/>
       <c r="DA12" s="61"/>
@@ -10839,115 +10853,115 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K13" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P13" s="55" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S13" s="33" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="T13" s="19">
         <v>60000.0</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V13" s="56">
         <v>45658.0</v>
       </c>
       <c r="W13" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X13" s="56">
         <v>44593.0</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB13" s="19" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="AC13" s="19">
         <v>1050.0</v>
       </c>
       <c r="AD13" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE13" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF13" s="58" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AG13" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ13" s="53" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AK13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AL13" s="19">
         <v>5999.0</v>
@@ -10962,40 +10976,40 @@
         <v>60000.0</v>
       </c>
       <c r="AP13" s="19" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AQ13" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AR13" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AS13" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AT13" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AU13" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AV13" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW13" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AX13" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AY13" s="19" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AZ13" s="55" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="BA13" s="19" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="BB13" s="56">
         <v>44562.0</v>
@@ -11019,22 +11033,22 @@
         <v>12.0</v>
       </c>
       <c r="BI13" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ13" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK13" s="19" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="BL13" s="19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="BM13" s="19" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="BN13" s="19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="BO13" s="19">
         <v>1050.0</v>
@@ -11046,106 +11060,106 @@
         <v>1150.0</v>
       </c>
       <c r="BR13" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT13" s="19" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="BU13" s="58" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="BV13" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW13" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX13" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY13" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ13" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB13" s="19" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="CC13" s="19" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="CD13" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="CE13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH13" s="19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="CI13" s="19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="CJ13" s="19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="CK13" s="19" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="CL13" s="53" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="CM13" s="53" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="CN13" s="53" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="CO13" s="53" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="CP13" s="53" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="CQ13" s="19" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="CR13" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS13" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT13" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU13" s="19" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="CV13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CW13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX13" s="60" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="CY13" s="19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="CZ13" s="61"/>
       <c r="DA13" s="61"/>
@@ -11169,115 +11183,115 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K14" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="P14" s="55" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="R14" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="S14" s="33" t="s">
         <v>346</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="M14" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="P14" s="55" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q14" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="S14" s="33" t="s">
-        <v>342</v>
       </c>
       <c r="T14" s="19">
         <v>70000.0</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V14" s="56">
         <v>45658.0</v>
       </c>
       <c r="W14" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X14" s="56">
         <v>44593.0</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB14" s="19" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AC14" s="19">
         <v>1060.0</v>
       </c>
       <c r="AD14" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE14" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF14" s="58" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AG14" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ14" s="53" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AK14" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL14" s="19">
         <v>6999.0</v>
@@ -11292,40 +11306,40 @@
         <v>70000.0</v>
       </c>
       <c r="AP14" s="19" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AQ14" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AR14" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AS14" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AT14" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AU14" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AV14" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW14" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AX14" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AY14" s="19" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AZ14" s="55" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="BA14" s="19" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="BB14" s="56">
         <v>44562.0</v>
@@ -11349,22 +11363,22 @@
         <v>12.0</v>
       </c>
       <c r="BI14" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ14" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK14" s="19" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="BL14" s="19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="BM14" s="19" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="BN14" s="19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="BO14" s="19">
         <v>1060.0</v>
@@ -11376,106 +11390,106 @@
         <v>1160.0</v>
       </c>
       <c r="BR14" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT14" s="19" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="BU14" s="58" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="BV14" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW14" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX14" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY14" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ14" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB14" s="19" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="CC14" s="19" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="CD14" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="CE14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH14" s="19" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="CI14" s="19" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="CJ14" s="19" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="CK14" s="19" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="CL14" s="53" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="CM14" s="53" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="CN14" s="53" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="CO14" s="53" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="CP14" s="53" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="CQ14" s="19" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="CR14" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS14" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT14" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU14" s="19" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="CV14" s="19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="CW14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX14" s="60" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="CY14" s="19" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="CZ14" s="61"/>
       <c r="DA14" s="61"/>
@@ -11499,115 +11513,115 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="52" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K15" s="62">
         <v>1000.0</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="P15" s="55" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S15" s="33" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="T15" s="19">
         <v>80000.0</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V15" s="56">
         <v>45658.0</v>
       </c>
       <c r="W15" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X15" s="56">
         <v>44593.0</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AB15" s="19" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AC15" s="19">
         <v>1070.0</v>
       </c>
       <c r="AD15" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE15" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF15" s="58" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG15" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ15" s="53" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AK15" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AL15" s="19">
         <v>7999.0</v>
@@ -11622,40 +11636,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP15" s="19" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AQ15" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AR15" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AS15" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AT15" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AU15" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AV15" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW15" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AX15" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AY15" s="19" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AZ15" s="55" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="BA15" s="19" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="BB15" s="56">
         <v>44562.0</v>
@@ -11679,22 +11693,22 @@
         <v>12.0</v>
       </c>
       <c r="BI15" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ15" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK15" s="19" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="BL15" s="19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="BM15" s="19" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="BN15" s="19" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="BO15" s="19">
         <v>1070.0</v>
@@ -11706,106 +11720,106 @@
         <v>1170.0</v>
       </c>
       <c r="BR15" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT15" s="19" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="BU15" s="58" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="BV15" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW15" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX15" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY15" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ15" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB15" s="19" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="CC15" s="19" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="CD15" s="19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="CE15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH15" s="19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="CI15" s="19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="CJ15" s="19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="CK15" s="19" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="CL15" s="53" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="CM15" s="53" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="CN15" s="53" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="CO15" s="53" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="CP15" s="53" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="CQ15" s="19" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="CR15" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS15" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT15" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU15" s="19" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="CV15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CW15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX15" s="60" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="CY15" s="19" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="CZ15" s="61"/>
       <c r="DA15" s="61"/>
@@ -11829,115 +11843,115 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K16" s="62">
         <v>1001.0</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="O16" s="53" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="P16" s="55" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S16" s="33" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="T16" s="19">
         <v>90000.0</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="V16" s="56">
         <v>45658.0</v>
       </c>
       <c r="W16" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="X16" s="56">
         <v>44593.0</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AB16" s="19" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="AC16" s="19">
         <v>1080.0</v>
       </c>
       <c r="AD16" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AE16" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AF16" s="58" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AG16" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AJ16" s="53" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="AK16" s="19" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="AL16" s="19">
         <v>8999.0</v>
@@ -11952,40 +11966,40 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="19" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="AQ16" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AR16" s="19" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AS16" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AT16" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AU16" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AV16" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="AW16" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AX16" s="19" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AY16" s="19" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="AZ16" s="55" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="BA16" s="19" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="BB16" s="56">
         <v>44562.0</v>
@@ -12009,22 +12023,22 @@
         <v>12.0</v>
       </c>
       <c r="BI16" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BJ16" s="33" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BK16" s="19" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="BL16" s="19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="BM16" s="19" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="BN16" s="19" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="BO16" s="19">
         <v>1080.0</v>
@@ -12036,106 +12050,106 @@
         <v>1180.0</v>
       </c>
       <c r="BR16" s="59" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="BS16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="BT16" s="19" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="BU16" s="58" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="BV16" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BW16" s="57" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="BX16" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BY16" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="BZ16" s="56">
         <v>44562.0</v>
       </c>
       <c r="CA16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CB16" s="19" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="CC16" s="19" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="CD16" s="19" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="CE16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CF16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CG16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CH16" s="19" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="CI16" s="19" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="CJ16" s="19" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="CK16" s="19" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="CL16" s="53" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="CM16" s="53" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="CN16" s="53" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="CO16" s="53" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="CP16" s="53" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="CQ16" s="19" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="CR16" s="56">
         <v>44227.0</v>
       </c>
       <c r="CS16" s="19" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="CT16" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="CU16" s="19" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="CV16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CW16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="CX16" s="60" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="CY16" s="19" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="CZ16" s="61"/>
       <c r="DA16" s="61"/>
@@ -12159,10 +12173,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C17" s="63"/>
       <c r="D17" s="63"/>
@@ -12287,10 +12301,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="52" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C18" s="63"/>
       <c r="D18" s="63"/>
@@ -33237,7 +33251,7 @@
     </row>
     <row r="4">
       <c r="A4" s="67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="69"/>
@@ -33246,7 +33260,7 @@
     </row>
     <row r="5">
       <c r="A5" s="67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
@@ -33255,7 +33269,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
@@ -34899,7 +34913,7 @@
     </row>
     <row r="4">
       <c r="A4" s="47" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="69"/>
@@ -34930,18 +34944,18 @@
       <c r="AB4" s="69"/>
       <c r="AC4" s="69"/>
       <c r="AD4" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE4" s="47" t="s">
         <v>333</v>
-      </c>
-      <c r="AE4" s="47" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
@@ -34975,7 +34989,7 @@
     </row>
     <row r="6">
       <c r="A6" s="67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="69"/>
@@ -34995,11 +35009,11 @@
       <c r="Q6" s="69"/>
       <c r="R6" s="69"/>
       <c r="S6" s="46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="T6" s="69"/>
       <c r="U6" s="46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V6" s="69"/>
       <c r="W6" s="69"/>
@@ -35014,7 +35028,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="70" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B7" s="71"/>
       <c r="C7" s="72"/>
@@ -35049,1332 +35063,1332 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I8" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="R8" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="S8" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="T8" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="U8" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="M8" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="S8" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="T8" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="U8" s="19" t="s">
+      <c r="V8" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="W8" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y8" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="V8" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="W8" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>344</v>
-      </c>
       <c r="Z8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB8" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AE8" s="55" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D9" s="53">
         <v>1005.0</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I9" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>531</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="R9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="S9" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="U9" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q9" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="R9" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="S9" s="53" t="s">
-        <v>357</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="U9" s="19" t="s">
+      <c r="V9" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>374</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y9" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="V9" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="W9" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>344</v>
-      </c>
       <c r="Z9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA9" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB9" s="19">
         <v>1100.0</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AE9" s="55" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S10" s="53" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="T10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="W10" s="55" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB10" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AE10" s="55" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B11" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="53" t="s">
-        <v>377</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>342</v>
-      </c>
       <c r="G11" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I11" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S11" s="53" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="U11" s="19" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="V11" s="19" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="W11" s="55" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="X11" s="19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Y11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA11" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB11" s="19">
         <v>1110.0</v>
       </c>
       <c r="AC11" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD11" s="19" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AE11" s="55" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I12" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L12" s="19" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="N12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S12" s="53" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="T12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="V12" s="19" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="W12" s="55" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="X12" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Y12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA12" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB12" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC12" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD12" s="19" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AE12" s="55" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="I13" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S13" s="53" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="W13" s="55" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="X13" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Y13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA13" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB13" s="19">
         <v>1120.0</v>
       </c>
       <c r="AC13" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD13" s="19" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AE13" s="55" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I14" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="N14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S14" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="T14" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="U14" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="T14" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="U14" s="19" t="s">
-        <v>430</v>
-      </c>
       <c r="V14" s="19" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="W14" s="55" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="X14" s="19" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Y14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA14" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB14" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC14" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD14" s="19" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AE14" s="55" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="52" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B15" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>427</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>342</v>
-      </c>
       <c r="G15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="N15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S15" s="53" t="s">
+        <v>438</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="U15" s="19" t="s">
         <v>434</v>
       </c>
-      <c r="T15" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>430</v>
-      </c>
       <c r="V15" s="19" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="W15" s="55" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="X15" s="19" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Y15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA15" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB15" s="19">
         <v>1130.0</v>
       </c>
       <c r="AC15" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD15" s="19" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AE15" s="55" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="52" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B16" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I16" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S16" s="53" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="T16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="V16" s="19" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="W16" s="55" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="X16" s="19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Y16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA16" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB16" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC16" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD16" s="19" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AE16" s="55" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="52" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I17" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S17" s="53" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="V17" s="19" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="W17" s="55" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="X17" s="19" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Y17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA17" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB17" s="19">
         <v>1140.0</v>
       </c>
       <c r="AC17" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD17" s="19" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AE17" s="55" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="52" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I18" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L18" s="19" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S18" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="U18" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="T18" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>462</v>
-      </c>
       <c r="V18" s="19" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="W18" s="55" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="X18" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Y18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA18" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB18" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC18" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD18" s="19" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AE18" s="55" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="52" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B19" s="73" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>463</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="53" t="s">
-        <v>459</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>342</v>
-      </c>
       <c r="G19" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I19" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S19" s="53" t="s">
+        <v>470</v>
+      </c>
+      <c r="T19" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="U19" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="T19" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>462</v>
-      </c>
       <c r="V19" s="19" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="W19" s="55" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="X19" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Y19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA19" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB19" s="19">
         <v>1150.0</v>
       </c>
       <c r="AC19" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD19" s="19" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AE19" s="55" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="52" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B20" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I20" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S20" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="T20" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="T20" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="U20" s="19" t="s">
-        <v>478</v>
-      </c>
       <c r="V20" s="19" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="W20" s="55" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="X20" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Y20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA20" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB20" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC20" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD20" s="19" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AE20" s="55" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="52" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="I21" s="74" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="N21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="S21" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="T21" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="U21" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="T21" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>478</v>
-      </c>
       <c r="V21" s="19" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="W21" s="55" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="X21" s="19" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Y21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="Z21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AA21" s="19" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AB21" s="19">
         <v>1160.0</v>
       </c>
       <c r="AC21" s="19" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AD21" s="19" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AE21" s="55" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -37850,122 +37864,122 @@
     </row>
     <row r="4">
       <c r="A4" s="67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="69"/>
     </row>
     <row r="5">
       <c r="A5" s="67" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="68"/>
       <c r="C5" s="69"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="70" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B6" s="71"/>
       <c r="C6" s="72"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="52" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B7" s="75">
         <v>1000.0</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="52" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B8" s="75">
         <v>1001.0</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="52" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="52" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="52" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="52" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="52" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="52" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="52" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -39392,134 +39406,134 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="76" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B4" s="78" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B6" s="78" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B7" s="78" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B9" s="78" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="80" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -39527,10 +39541,10 @@
         <v>23</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -39538,10 +39552,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -39549,10 +39563,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -39560,10 +39574,10 @@
         <v>23</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -40581,7 +40595,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="42"/>
       <c r="B1" s="43" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
@@ -40622,19 +40636,19 @@
     </row>
     <row r="4">
       <c r="A4" s="45" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="45"/>
     </row>
     <row r="5">
       <c r="A5" s="45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B5" s="45"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="50" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B6" s="50"/>
     </row>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -16,14 +16,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="12T57bC3ZiOjxt9S9KaXP/1ps//GPg3o1GnWoqLGxrY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="xjx+GA446zragWnVLQIrMU/et8pD43CGr/Qcsqx7+GM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="599">
   <si>
     <t>Date</t>
   </si>
@@ -2467,7 +2467,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2714,9 +2714,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -47402,26 +47399,16 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="89" t="s">
-        <v>575</v>
+        <v>28</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="C13" s="12" t="s">
         <v>597</v>
       </c>
     </row>
+    <row r="13" ht="12.75" customHeight="1"/>
     <row r="14" ht="12.75" customHeight="1"/>
     <row r="15" ht="12.75" customHeight="1"/>
     <row r="16" ht="12.75" customHeight="1"/>
@@ -48403,7 +48390,6 @@
     <row r="992" ht="12.75" customHeight="1"/>
     <row r="993" ht="12.75" customHeight="1"/>
     <row r="994" ht="12.75" customHeight="1"/>
-    <row r="995" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -10,20 +10,21 @@
     <sheet state="visible" name="001B" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="001C" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="IHMTO" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="MODELE" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="INTERNALVALUE" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="MODELE" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="xjx+GA446zragWnVLQIrMU/et8pD43CGr/Qcsqx7+GM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="nPMxbupF/NV3wDlCphb2a8ne1onFk1r2dHk67qiBlGE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2603" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="609">
   <si>
     <t>Date</t>
   </si>
@@ -1383,6 +1384,9 @@
     <t>MAT.NU_TYP</t>
   </si>
   <si>
+    <t>MAT.NU_TYPPRO</t>
+  </si>
+  <si>
     <t>SEQUENCE</t>
   </si>
   <si>
@@ -1464,9 +1468,6 @@
     <t>TNR</t>
   </si>
   <si>
-    <t>Non suivi en Stock</t>
-  </si>
-  <si>
     <t>FOU.RT.MAT.001.CRE.01</t>
   </si>
   <si>
@@ -1809,9 +1810,6 @@
     <t>A1B6</t>
   </si>
   <si>
-    <t>Suivi en Stock</t>
-  </si>
-  <si>
     <t>FOU.RT.MAT.001.CRE.06</t>
   </si>
   <si>
@@ -1860,9 +1858,6 @@
     <t>A1B7</t>
   </si>
   <si>
-    <t>Moyen</t>
-  </si>
-  <si>
     <t>FOU.RT.MAT.001.CRE.07</t>
   </si>
   <si>
@@ -2011,6 +2006,9 @@
   </si>
   <si>
     <t>RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>MAT_CONTRA.ST_TYP</t>
   </si>
   <si>
     <t>BTMAT_ID</t>
@@ -2157,6 +2155,39 @@
   </si>
   <si>
     <t>//span[contains(@style, 'display') and contains(@style, 'block')]//button[@value='Valider']</t>
+  </si>
+  <si>
+    <t>PARA</t>
+  </si>
+  <si>
+    <t>VALEUR INTERNE</t>
+  </si>
+  <si>
+    <t>VALEUR</t>
+  </si>
+  <si>
+    <t>Non suivi en Stock</t>
+  </si>
+  <si>
+    <t>Suivi en Stock</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Bien patrimonial principal</t>
+  </si>
+  <si>
+    <t>Bien patrimonial secondaire</t>
+  </si>
+  <si>
+    <t>Le type du contrat de services</t>
+  </si>
+  <si>
+    <t>Le type du contrat d’assurance</t>
+  </si>
+  <si>
+    <t>Le type du contrat de location</t>
   </si>
   <si>
     <t>Champ</t>
@@ -2467,7 +2498,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2718,6 +2749,24 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2755,6 +2804,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7309,7 +7362,7 @@
     <col customWidth="1" min="53" max="53" width="19.25"/>
     <col customWidth="1" min="63" max="63" width="25.5"/>
     <col customWidth="1" min="65" max="65" width="21.0"/>
-    <col customWidth="1" min="70" max="70" width="30.0"/>
+    <col customWidth="1" min="70" max="70" width="13.5"/>
     <col customWidth="1" min="73" max="73" width="22.13"/>
     <col customWidth="1" min="76" max="77" width="10.25"/>
     <col customWidth="1" min="79" max="79" width="7.75"/>
@@ -8486,7 +8539,9 @@
       <c r="BO4" s="49"/>
       <c r="BP4" s="49"/>
       <c r="BQ4" s="49"/>
-      <c r="BR4" s="49"/>
+      <c r="BR4" s="51" t="s">
+        <v>348</v>
+      </c>
       <c r="BS4" s="49"/>
       <c r="BT4" s="49"/>
       <c r="BU4" s="49"/>
@@ -8550,7 +8605,7 @@
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>9</v>
@@ -8580,7 +8635,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="51" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>9</v>
@@ -8884,128 +8939,128 @@
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
       <c r="L6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M6" s="49"/>
       <c r="N6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="49"/>
       <c r="R6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="U6" s="49"/>
       <c r="V6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="W6" s="49"/>
       <c r="X6" s="49"/>
       <c r="Y6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AA6" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB6" s="49"/>
       <c r="AC6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AD6" s="49"/>
       <c r="AE6" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF6" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG6" s="49"/>
       <c r="AH6" s="49"/>
       <c r="AI6" s="49"/>
       <c r="AJ6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AM6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AP6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AQ6" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AR6" s="49"/>
       <c r="AS6" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AT6" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AU6" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AV6" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AW6" s="49"/>
       <c r="AX6" s="49"/>
       <c r="AY6" s="51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AZ6" s="51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="BA6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BB6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BC6" s="49"/>
       <c r="BD6" s="49"/>
@@ -9016,16 +9071,16 @@
       <c r="BI6" s="49"/>
       <c r="BJ6" s="49"/>
       <c r="BK6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BL6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BM6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BN6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BO6" s="49"/>
       <c r="BP6" s="49"/>
@@ -9033,10 +9088,10 @@
       <c r="BR6" s="49"/>
       <c r="BS6" s="49"/>
       <c r="BT6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BU6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="BV6" s="49"/>
       <c r="BW6" s="49"/>
@@ -9055,122 +9110,122 @@
       <c r="CJ6" s="49"/>
       <c r="CK6" s="49"/>
       <c r="CL6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CM6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CN6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CO6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CP6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CQ6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CR6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CS6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CT6" s="49"/>
       <c r="CU6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CV6" s="51" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="CW6" s="49"/>
       <c r="CX6" s="49"/>
       <c r="CY6" s="49"/>
       <c r="CZ6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DA6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DB6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DC6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DD6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DE6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DF6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DG6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DH6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DI6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DJ6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DK6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DL6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DM6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DN6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DO6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DP6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DQ6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DR6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DS6" s="53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="DT6" s="53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="DU6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DV6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DW6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DX6" s="53" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="DY6" s="53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="DZ6" s="53"/>
     </row>
     <row r="7">
       <c r="A7" s="54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>9</v>
@@ -9508,61 +9563,61 @@
     </row>
     <row r="8">
       <c r="A8" s="56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="K8" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="N8" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P8" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="T8" s="12">
         <v>10000.0</v>
@@ -9574,49 +9629,49 @@
         <v>45658.0</v>
       </c>
       <c r="W8" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X8" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AC8" s="12">
         <v>1000.0</v>
       </c>
       <c r="AD8" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE8" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF8" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="AF8" s="34">
+        <v>0.0</v>
       </c>
       <c r="AG8" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH8" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AH8" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="AI8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ8" s="57" t="s">
         <v>376</v>
       </c>
       <c r="AK8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL8" s="12">
         <v>9999.0</v>
@@ -9637,7 +9692,7 @@
         <v>378</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AS8" s="12" t="s">
         <v>378</v>
@@ -9649,7 +9704,7 @@
         <v>378</v>
       </c>
       <c r="AV8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW8" s="12" t="s">
         <v>378</v>
@@ -9688,10 +9743,10 @@
         <v>12.0</v>
       </c>
       <c r="BI8" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ8" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK8" s="12" t="s">
         <v>382</v>
@@ -9718,7 +9773,7 @@
         <v>0.0</v>
       </c>
       <c r="BS8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT8" s="12" t="s">
         <v>386</v>
@@ -9727,22 +9782,22 @@
         <v>376</v>
       </c>
       <c r="BV8" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW8" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX8" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY8" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ8" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB8" s="12" t="s">
         <v>387</v>
@@ -9754,25 +9809,25 @@
         <v>389</v>
       </c>
       <c r="CE8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CF8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CG8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CH8" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="CI8" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="CJ8" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="CK8" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="CL8" s="57" t="s">
         <v>390</v>
@@ -9799,16 +9854,16 @@
         <v>392</v>
       </c>
       <c r="CT8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU8" s="12" t="s">
         <v>393</v>
       </c>
       <c r="CV8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CW8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX8" s="64" t="s">
         <v>394</v>
@@ -9859,37 +9914,37 @@
         <v>397</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>398</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K9" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>399</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>400</v>
@@ -9898,13 +9953,13 @@
         <v>401</v>
       </c>
       <c r="P9" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>402</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S9" s="35" t="s">
         <v>403</v>
@@ -9913,25 +9968,25 @@
         <v>20000.0</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V9" s="61">
         <v>45658.0</v>
       </c>
       <c r="W9" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X9" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>404</v>
@@ -9940,28 +9995,28 @@
         <v>1010.0</v>
       </c>
       <c r="AD9" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE9" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF9" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="AF9" s="34">
+        <v>0.0</v>
       </c>
       <c r="AG9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH9" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AH9" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="AI9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ9" s="57" t="s">
         <v>405</v>
       </c>
       <c r="AK9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL9" s="12">
         <v>1999.0</v>
@@ -9982,25 +10037,25 @@
         <v>378</v>
       </c>
       <c r="AR9" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AS9" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AT9" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AU9" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AV9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW9" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AX9" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AY9" s="12" t="s">
         <v>407</v>
@@ -10033,10 +10088,10 @@
         <v>12.0</v>
       </c>
       <c r="BI9" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ9" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK9" s="12" t="s">
         <v>410</v>
@@ -10063,7 +10118,7 @@
         <v>0.0</v>
       </c>
       <c r="BS9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT9" s="12" t="s">
         <v>414</v>
@@ -10072,22 +10127,22 @@
         <v>405</v>
       </c>
       <c r="BV9" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW9" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX9" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY9" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ9" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB9" s="12" t="s">
         <v>415</v>
@@ -10099,13 +10154,13 @@
         <v>417</v>
       </c>
       <c r="CE9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CF9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CG9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CH9" s="12" t="s">
         <v>400</v>
@@ -10144,16 +10199,16 @@
         <v>392</v>
       </c>
       <c r="CT9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU9" s="12" t="s">
         <v>420</v>
       </c>
       <c r="CV9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CW9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX9" s="64" t="s">
         <v>421</v>
@@ -10206,37 +10261,37 @@
         <v>424</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E10" s="29" t="s">
         <v>425</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K10" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>426</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>427</v>
@@ -10245,13 +10300,13 @@
         <v>428</v>
       </c>
       <c r="P10" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>429</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S10" s="35" t="s">
         <v>430</v>
@@ -10260,13 +10315,13 @@
         <v>30000.0</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V10" s="61">
         <v>45658.0</v>
       </c>
       <c r="W10" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X10" s="61">
         <v>44593.0</v>
@@ -10278,7 +10333,7 @@
         <v>44652.0</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB10" s="12" t="s">
         <v>431</v>
@@ -10287,28 +10342,28 @@
         <v>1020.0</v>
       </c>
       <c r="AD10" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF10" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="AF10" s="34">
+        <v>0.0</v>
       </c>
       <c r="AG10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH10" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AH10" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="AI10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ10" s="57" t="s">
         <v>432</v>
       </c>
       <c r="AK10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL10" s="12">
         <v>2999.0</v>
@@ -10329,7 +10384,7 @@
         <v>378</v>
       </c>
       <c r="AR10" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AS10" s="12" t="s">
         <v>378</v>
@@ -10341,7 +10396,7 @@
         <v>378</v>
       </c>
       <c r="AV10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW10" s="12" t="s">
         <v>378</v>
@@ -10380,10 +10435,10 @@
         <v>12.0</v>
       </c>
       <c r="BI10" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ10" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK10" s="12" t="s">
         <v>437</v>
@@ -10410,7 +10465,7 @@
         <v>0.0</v>
       </c>
       <c r="BS10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT10" s="12" t="s">
         <v>441</v>
@@ -10419,22 +10474,22 @@
         <v>432</v>
       </c>
       <c r="BV10" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW10" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX10" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY10" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ10" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB10" s="12" t="s">
         <v>442</v>
@@ -10446,13 +10501,13 @@
         <v>444</v>
       </c>
       <c r="CE10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CF10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CG10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CH10" s="12" t="s">
         <v>427</v>
@@ -10491,16 +10546,16 @@
         <v>392</v>
       </c>
       <c r="CT10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU10" s="12" t="s">
         <v>447</v>
       </c>
       <c r="CV10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CW10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX10" s="64" t="s">
         <v>448</v>
@@ -10553,37 +10608,37 @@
         <v>450</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>451</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>452</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>453</v>
@@ -10592,40 +10647,40 @@
         <v>454</v>
       </c>
       <c r="P11" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="12" t="s">
         <v>455</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S11" s="35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T11" s="12">
         <v>40000.0</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V11" s="61">
         <v>45658.0</v>
       </c>
       <c r="W11" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X11" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB11" s="12" t="s">
         <v>456</v>
@@ -10634,22 +10689,22 @@
         <v>1030.0</v>
       </c>
       <c r="AD11" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF11" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="AF11" s="34">
+        <v>0.0</v>
       </c>
       <c r="AG11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH11" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AH11" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="AI11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ11" s="57" t="s">
         <v>457</v>
@@ -10676,25 +10731,25 @@
         <v>378</v>
       </c>
       <c r="AR11" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AS11" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AT11" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AU11" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AV11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW11" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AX11" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AY11" s="12" t="s">
         <v>460</v>
@@ -10727,10 +10782,10 @@
         <v>12.0</v>
       </c>
       <c r="BI11" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ11" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK11" s="12" t="s">
         <v>462</v>
@@ -10757,7 +10812,7 @@
         <v>0.0</v>
       </c>
       <c r="BS11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT11" s="12" t="s">
         <v>464</v>
@@ -10766,22 +10821,22 @@
         <v>457</v>
       </c>
       <c r="BV11" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW11" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX11" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY11" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ11" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB11" s="12" t="s">
         <v>387</v>
@@ -10793,13 +10848,13 @@
         <v>389</v>
       </c>
       <c r="CE11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CF11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CG11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CH11" s="12" t="s">
         <v>453</v>
@@ -10838,16 +10893,16 @@
         <v>392</v>
       </c>
       <c r="CT11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU11" s="12" t="s">
         <v>393</v>
       </c>
       <c r="CV11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CW11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX11" s="64" t="s">
         <v>394</v>
@@ -10878,7 +10933,7 @@
         <v>422</v>
       </c>
       <c r="DT11" s="40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="DU11" s="65"/>
       <c r="DV11" s="65"/>
@@ -10900,37 +10955,37 @@
         <v>468</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E12" s="29" t="s">
         <v>469</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K12" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>470</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>471</v>
@@ -10939,40 +10994,40 @@
         <v>472</v>
       </c>
       <c r="P12" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q12" s="12" t="s">
         <v>455</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S12" s="35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T12" s="12">
         <v>50000.0</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V12" s="61">
         <v>45658.0</v>
       </c>
       <c r="W12" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X12" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB12" s="12" t="s">
         <v>473</v>
@@ -10981,22 +11036,22 @@
         <v>1040.0</v>
       </c>
       <c r="AD12" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF12" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="AF12" s="34">
+        <v>0.0</v>
       </c>
       <c r="AG12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH12" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AH12" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="AI12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ12" s="57" t="s">
         <v>474</v>
@@ -11020,28 +11075,28 @@
         <v>475</v>
       </c>
       <c r="AQ12" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AR12" s="12" t="s">
         <v>378</v>
       </c>
       <c r="AS12" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AT12" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AU12" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AV12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW12" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AX12" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AY12" s="12" t="s">
         <v>476</v>
@@ -11074,10 +11129,10 @@
         <v>12.0</v>
       </c>
       <c r="BI12" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ12" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK12" s="12" t="s">
         <v>478</v>
@@ -11104,7 +11159,7 @@
         <v>0.0</v>
       </c>
       <c r="BS12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT12" s="12" t="s">
         <v>480</v>
@@ -11113,22 +11168,22 @@
         <v>474</v>
       </c>
       <c r="BV12" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW12" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX12" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY12" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ12" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB12" s="12" t="s">
         <v>415</v>
@@ -11140,13 +11195,13 @@
         <v>417</v>
       </c>
       <c r="CE12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CF12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CG12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CH12" s="12" t="s">
         <v>471</v>
@@ -11185,16 +11240,16 @@
         <v>392</v>
       </c>
       <c r="CT12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU12" s="12" t="s">
         <v>447</v>
       </c>
       <c r="CV12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CW12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX12" s="64" t="s">
         <v>448</v>
@@ -11225,7 +11280,7 @@
         <v>422</v>
       </c>
       <c r="DT12" s="40" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="DU12" s="65"/>
       <c r="DV12" s="65"/>
@@ -11247,37 +11302,37 @@
         <v>484</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E13" s="29" t="s">
         <v>485</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K13" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>486</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>487</v>
@@ -11286,13 +11341,13 @@
         <v>488</v>
       </c>
       <c r="P13" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>402</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S13" s="35" t="s">
         <v>403</v>
@@ -11301,25 +11356,25 @@
         <v>60000.0</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V13" s="61">
         <v>45658.0</v>
       </c>
       <c r="W13" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X13" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB13" s="12" t="s">
         <v>489</v>
@@ -11328,28 +11383,28 @@
         <v>1050.0</v>
       </c>
       <c r="AD13" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF13" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AF13" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI13" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ13" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AK13" s="12" t="s">
         <v>364</v>
-      </c>
-      <c r="AH13" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="AI13" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="AJ13" s="57" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK13" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="AL13" s="12">
         <v>5999.0</v>
@@ -11364,40 +11419,40 @@
         <v>60000.0</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AQ13" s="12" t="s">
         <v>378</v>
       </c>
       <c r="AR13" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AS13" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AT13" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AU13" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AV13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW13" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AX13" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AY13" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AZ13" s="60" t="s">
         <v>435</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="BB13" s="61">
         <v>44562.0</v>
@@ -11421,19 +11476,19 @@
         <v>12.0</v>
       </c>
       <c r="BI13" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ13" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK13" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="BL13" s="12" t="s">
         <v>438</v>
       </c>
       <c r="BM13" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="BN13" s="12" t="s">
         <v>440</v>
@@ -11451,31 +11506,31 @@
         <v>0.0</v>
       </c>
       <c r="BS13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT13" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="BU13" s="34" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="BV13" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW13" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX13" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY13" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ13" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB13" s="12" t="s">
         <v>442</v>
@@ -11487,13 +11542,13 @@
         <v>444</v>
       </c>
       <c r="CE13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CF13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CG13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CH13" s="12" t="s">
         <v>487</v>
@@ -11508,22 +11563,22 @@
         <v>487</v>
       </c>
       <c r="CL13" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="CM13" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="CN13" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="CO13" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="CP13" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="CQ13" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="CM13" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="CN13" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="CO13" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="CP13" s="57" t="s">
-        <v>491</v>
-      </c>
-      <c r="CQ13" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="CR13" s="61">
         <v>44227.0</v>
@@ -11532,16 +11587,16 @@
         <v>392</v>
       </c>
       <c r="CT13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU13" s="12" t="s">
         <v>420</v>
       </c>
       <c r="CV13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CW13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX13" s="64" t="s">
         <v>421</v>
@@ -11576,117 +11631,117 @@
       <c r="DX13" s="65"/>
       <c r="DY13" s="65"/>
       <c r="DZ13" s="67" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
+        <v>500</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="M14" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="K14" s="59" t="s">
-        <v>365</v>
-      </c>
-      <c r="L14" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>505</v>
-      </c>
       <c r="P14" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>455</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T14" s="12">
         <v>70000.0</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V14" s="61">
         <v>45658.0</v>
       </c>
       <c r="W14" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X14" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AC14" s="12">
         <v>1060.0</v>
       </c>
       <c r="AD14" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE14" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF14" s="34" t="s">
-        <v>507</v>
+        <v>373</v>
+      </c>
+      <c r="AF14" s="34">
+        <v>2.0</v>
       </c>
       <c r="AG14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH14" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AH14" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="AI14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ14" s="57" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AK14" s="12" t="s">
         <v>458</v>
@@ -11704,40 +11759,40 @@
         <v>70000.0</v>
       </c>
       <c r="AP14" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AQ14" s="12" t="s">
         <v>378</v>
       </c>
       <c r="AR14" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AS14" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AT14" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AU14" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AV14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW14" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AX14" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AY14" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AZ14" s="60" t="s">
         <v>435</v>
       </c>
       <c r="BA14" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="BB14" s="61">
         <v>44562.0</v>
@@ -11761,19 +11816,19 @@
         <v>12.0</v>
       </c>
       <c r="BI14" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ14" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK14" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BL14" s="12" t="s">
         <v>438</v>
       </c>
       <c r="BM14" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="BN14" s="12" t="s">
         <v>440</v>
@@ -11791,31 +11846,31 @@
         <v>0.0</v>
       </c>
       <c r="BS14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT14" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="BU14" s="34" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="BV14" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW14" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX14" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY14" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ14" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB14" s="12" t="s">
         <v>442</v>
@@ -11827,43 +11882,43 @@
         <v>444</v>
       </c>
       <c r="CE14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CF14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CG14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CH14" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="CI14" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="CJ14" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="CK14" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="CL14" s="57" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CM14" s="57" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CN14" s="57" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CO14" s="57" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CP14" s="57" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="CQ14" s="12" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="CR14" s="61">
         <v>44227.0</v>
@@ -11872,16 +11927,16 @@
         <v>392</v>
       </c>
       <c r="CT14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU14" s="12" t="s">
         <v>393</v>
       </c>
       <c r="CV14" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="CW14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX14" s="64" t="s">
         <v>394</v>
@@ -11916,117 +11971,117 @@
       <c r="DX14" s="65"/>
       <c r="DY14" s="65"/>
       <c r="DZ14" s="67" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K15" s="68">
         <v>1002.0</v>
       </c>
       <c r="L15" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>522</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>523</v>
-      </c>
       <c r="P15" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>455</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T15" s="12">
         <v>40000.0</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V15" s="61">
         <v>45658.0</v>
       </c>
       <c r="W15" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X15" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AC15" s="12">
         <v>1000.0</v>
       </c>
       <c r="AD15" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE15" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF15" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="AF15" s="34">
+        <v>0.0</v>
       </c>
       <c r="AG15" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH15" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AH15" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="AI15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ15" s="57" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AK15" s="12" t="s">
         <v>458</v>
@@ -12044,13 +12099,13 @@
         <v>80000.0</v>
       </c>
       <c r="AP15" s="12" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>378</v>
       </c>
       <c r="AR15" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AS15" s="12" t="s">
         <v>378</v>
@@ -12062,7 +12117,7 @@
         <v>378</v>
       </c>
       <c r="AV15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW15" s="12" t="s">
         <v>378</v>
@@ -12071,13 +12126,13 @@
         <v>378</v>
       </c>
       <c r="AY15" s="12" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AZ15" s="60" t="s">
         <v>380</v>
       </c>
       <c r="BA15" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="BB15" s="69">
         <v>44197.0</v>
@@ -12095,25 +12150,25 @@
         <v>44743.0</v>
       </c>
       <c r="BG15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BH15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BI15" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ15" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK15" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="BL15" s="12" t="s">
         <v>383</v>
       </c>
       <c r="BM15" s="12" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BN15" s="12" t="s">
         <v>385</v>
@@ -12131,31 +12186,31 @@
         <v>0.0</v>
       </c>
       <c r="BS15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT15" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BU15" s="34" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="BV15" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW15" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX15" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY15" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ15" s="61">
         <v>44197.0</v>
       </c>
       <c r="CA15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB15" s="12" t="s">
         <v>387</v>
@@ -12167,43 +12222,43 @@
         <v>444</v>
       </c>
       <c r="CE15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CF15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CG15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CH15" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="CI15" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="CJ15" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="CK15" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="CL15" s="57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="CM15" s="57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="CN15" s="57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="CO15" s="57" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="CP15" s="57" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="CQ15" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="CR15" s="61">
         <v>43861.0</v>
@@ -12212,16 +12267,16 @@
         <v>392</v>
       </c>
       <c r="CT15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU15" s="12" t="s">
         <v>393</v>
       </c>
       <c r="CV15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CW15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX15" s="64" t="s">
         <v>448</v>
@@ -12230,11 +12285,11 @@
         <v>383</v>
       </c>
       <c r="CZ15" s="40" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="DA15" s="65"/>
       <c r="DB15" s="40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="DC15" s="40" t="s">
         <v>383</v>
@@ -12246,10 +12301,10 @@
         <v>380</v>
       </c>
       <c r="DF15" s="40" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="DG15" s="40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="DH15" s="40" t="s">
         <v>393</v>
@@ -12258,25 +12313,25 @@
         <v>385</v>
       </c>
       <c r="DJ15" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="DK15" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="DL15" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="DM15" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="DN15" s="40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="DO15" s="65"/>
       <c r="DP15" s="65"/>
       <c r="DQ15" s="65"/>
       <c r="DR15" s="40" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="DS15" s="65"/>
       <c r="DT15" s="65"/>
@@ -12289,115 +12344,115 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K16" s="68">
         <v>1003.0</v>
       </c>
       <c r="L16" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="O16" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="O16" s="57" t="s">
-        <v>543</v>
-      </c>
       <c r="P16" s="60" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="T16" s="12">
         <v>90000.0</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V16" s="61">
         <v>45658.0</v>
       </c>
       <c r="W16" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="X16" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA16" s="12" t="s">
         <v>378</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AC16" s="12">
         <v>1080.0</v>
       </c>
       <c r="AD16" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF16" s="34" t="s">
-        <v>375</v>
+        <v>373</v>
+      </c>
+      <c r="AF16" s="34">
+        <v>0.0</v>
       </c>
       <c r="AG16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH16" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AH16" s="12" t="s">
-        <v>363</v>
-      </c>
       <c r="AI16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ16" s="57" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AK16" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AL16" s="12">
         <v>8999.0</v>
@@ -12412,40 +12467,40 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="12" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AR16" s="12" t="s">
         <v>378</v>
       </c>
       <c r="AS16" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AT16" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AU16" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AV16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AW16" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AX16" s="12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AY16" s="12" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AZ16" s="60" t="s">
         <v>435</v>
       </c>
       <c r="BA16" s="12" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="BB16" s="61">
         <v>44562.0</v>
@@ -12469,19 +12524,19 @@
         <v>12.0</v>
       </c>
       <c r="BI16" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BJ16" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BK16" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="BL16" s="12" t="s">
         <v>438</v>
       </c>
       <c r="BM16" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BN16" s="12" t="s">
         <v>440</v>
@@ -12499,31 +12554,31 @@
         <v>0.0</v>
       </c>
       <c r="BS16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="BT16" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BU16" s="34" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="BV16" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BW16" s="62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BX16" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BY16" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="BZ16" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CB16" s="12" t="s">
         <v>442</v>
@@ -12532,46 +12587,46 @@
         <v>443</v>
       </c>
       <c r="CD16" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="CE16" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CF16" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CG16" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="CH16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="CI16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="CJ16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="CK16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="CL16" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="CM16" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="CN16" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="CO16" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="CP16" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="CQ16" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="CE16" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="CF16" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="CG16" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="CH16" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="CI16" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="CJ16" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="CK16" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="CL16" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="CM16" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="CN16" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="CO16" s="57" t="s">
-        <v>554</v>
-      </c>
-      <c r="CP16" s="57" t="s">
-        <v>545</v>
-      </c>
-      <c r="CQ16" s="12" t="s">
-        <v>555</v>
       </c>
       <c r="CR16" s="61">
         <v>44227.0</v>
@@ -12580,16 +12635,16 @@
         <v>392</v>
       </c>
       <c r="CT16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CU16" s="12" t="s">
         <v>447</v>
       </c>
       <c r="CV16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CW16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="CX16" s="64" t="s">
         <v>448</v>
@@ -12627,10 +12682,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
@@ -12763,10 +12818,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -41081,17 +41136,19 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="6.0" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1.0" ySplit="7.0" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1" pane="topRight"/>
-      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7" pane="bottomRight"/>
+      <selection activeCell="A8" sqref="A8" pane="bottomLeft"/>
+      <selection activeCell="B8" sqref="B8" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="20.75"/>
-    <col customWidth="1" min="3" max="6" width="12.63"/>
+    <col customWidth="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" min="4" max="4" width="19.5"/>
+    <col customWidth="1" min="5" max="6" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -41152,7 +41209,7 @@
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
@@ -41161,24 +41218,32 @@
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
+      <c r="D5" s="50" t="s">
+        <v>556</v>
+      </c>
       <c r="E5" s="77"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="72"/>
+    <row r="6">
+      <c r="A6" s="75" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="A7" s="78" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="72"/>
@@ -41819,7 +41884,9 @@
     <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="72"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="A221" s="72"/>
+    </row>
     <row r="222" ht="15.75" customHeight="1"/>
     <row r="223" ht="15.75" customHeight="1"/>
     <row r="224" ht="15.75" customHeight="1"/>
@@ -42599,6 +42666,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -42818,10 +42886,10 @@
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -42855,7 +42923,7 @@
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -42875,11 +42943,11 @@
       <c r="Q5" s="77"/>
       <c r="R5" s="77"/>
       <c r="S5" s="50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="T5" s="77"/>
       <c r="U5" s="50" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V5" s="77"/>
       <c r="W5" s="77"/>
@@ -42894,7 +42962,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="80"/>
@@ -42929,67 +42997,67 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>560</v>
-      </c>
       <c r="M7" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S7" s="57" t="s">
         <v>376</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V7" s="12" t="s">
         <v>384</v>
@@ -43001,19 +43069,19 @@
         <v>389</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB7" s="12">
         <v>1100.0</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD7" s="12" t="s">
         <v>448</v>
@@ -43024,67 +43092,67 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D8" s="57">
         <v>1005.0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I8" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>370</v>
-      </c>
       <c r="K8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S8" s="57" t="s">
         <v>376</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>384</v>
@@ -43096,19 +43164,19 @@
         <v>389</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB8" s="12">
         <v>1100.0</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD8" s="12" t="s">
         <v>448</v>
@@ -43122,61 +43190,61 @@
         <v>397</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>397</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S9" s="57" t="s">
         <v>405</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U9" s="12" t="s">
         <v>400</v>
@@ -43191,22 +43259,22 @@
         <v>417</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB9" s="12">
         <v>1110.0</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AE9" s="60" t="s">
         <v>411</v>
@@ -43217,61 +43285,61 @@
         <v>397</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>397</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>402</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S10" s="57" t="s">
         <v>405</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>400</v>
@@ -43286,22 +43354,22 @@
         <v>417</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB10" s="12">
         <v>1110.0</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AE10" s="60" t="s">
         <v>411</v>
@@ -43312,61 +43380,61 @@
         <v>424</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>424</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S11" s="57" t="s">
         <v>432</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U11" s="12" t="s">
         <v>427</v>
@@ -43381,19 +43449,19 @@
         <v>444</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB11" s="12">
         <v>1120.0</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD11" s="12" t="s">
         <v>394</v>
@@ -43407,61 +43475,61 @@
         <v>424</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>424</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>429</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>564</v>
-      </c>
       <c r="M12" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S12" s="57" t="s">
         <v>432</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>427</v>
@@ -43476,19 +43544,19 @@
         <v>444</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB12" s="12">
         <v>1120.0</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD12" s="12" t="s">
         <v>394</v>
@@ -43502,61 +43570,61 @@
         <v>450</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>450</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I13" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S13" s="57" t="s">
         <v>457</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>453</v>
@@ -43571,19 +43639,19 @@
         <v>389</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB13" s="12">
         <v>1130.0</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD13" s="12" t="s">
         <v>448</v>
@@ -43597,55 +43665,55 @@
         <v>450</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>450</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>455</v>
       </c>
       <c r="I14" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S14" s="57" t="s">
         <v>457</v>
@@ -43666,19 +43734,19 @@
         <v>389</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB14" s="12">
         <v>1130.0</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD14" s="12" t="s">
         <v>448</v>
@@ -43692,61 +43760,61 @@
         <v>468</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C15" s="57" t="s">
         <v>468</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I15" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S15" s="57" t="s">
         <v>474</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U15" s="12" t="s">
         <v>471</v>
@@ -43761,19 +43829,19 @@
         <v>417</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB15" s="12">
         <v>1140.0</v>
       </c>
       <c r="AC15" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD15" s="12" t="s">
         <v>394</v>
@@ -43787,55 +43855,55 @@
         <v>468</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>468</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>455</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S16" s="57" t="s">
         <v>474</v>
@@ -43856,19 +43924,19 @@
         <v>417</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB16" s="12">
         <v>1140.0</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD16" s="12" t="s">
         <v>394</v>
@@ -43882,67 +43950,67 @@
         <v>484</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>484</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I17" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S17" s="57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>487</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W17" s="60" t="s">
         <v>443</v>
@@ -43951,22 +44019,22 @@
         <v>444</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA17" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB17" s="12">
         <v>1150.0</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AE17" s="60" t="s">
         <v>411</v>
@@ -43977,67 +44045,67 @@
         <v>484</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C18" s="57" t="s">
         <v>484</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>402</v>
       </c>
       <c r="I18" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S18" s="57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U18" s="12" t="s">
         <v>487</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W18" s="60" t="s">
         <v>443</v>
@@ -44046,22 +44114,22 @@
         <v>444</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB18" s="12">
         <v>1150.0</v>
       </c>
       <c r="AC18" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AE18" s="60" t="s">
         <v>411</v>
@@ -44069,70 +44137,70 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C19" s="57" t="s">
         <v>484</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I19" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S19" s="57" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="W19" s="60" t="s">
         <v>443</v>
@@ -44141,19 +44209,19 @@
         <v>444</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB19" s="12">
         <v>1160.0</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD19" s="12" t="s">
         <v>448</v>
@@ -44164,70 +44232,70 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C20" s="57" t="s">
         <v>484</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>455</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S20" s="57" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="T20" s="12" t="s">
         <v>458</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="W20" s="60" t="s">
         <v>443</v>
@@ -44236,19 +44304,19 @@
         <v>444</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AB20" s="12">
         <v>1160.0</v>
       </c>
       <c r="AC20" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD20" s="12" t="s">
         <v>448</v>
@@ -45719,7 +45787,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" s="77"/>
     </row>
@@ -45732,60 +45800,60 @@
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C4" s="77"/>
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="83" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="80"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B7" s="84">
         <v>1002.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B8" s="84">
         <v>1003.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -45793,10 +45861,10 @@
         <v>397</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -45804,10 +45872,10 @@
         <v>424</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -45815,10 +45883,10 @@
         <v>450</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -45826,10 +45894,10 @@
         <v>468</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -45837,21 +45905,21 @@
         <v>484</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -47278,123 +47346,123 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="85" t="s">
+        <v>571</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>572</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="C1" s="86" t="s">
         <v>573</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" s="87" t="s">
         <v>575</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="C2" s="87" t="s">
         <v>576</v>
-      </c>
-      <c r="C2" s="87" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B3" s="87" t="s">
+        <v>577</v>
+      </c>
+      <c r="C3" s="87" t="s">
         <v>578</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B4" s="87" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>580</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B5" s="87" t="s">
+        <v>581</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>582</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B6" s="87" t="s">
+        <v>583</v>
+      </c>
+      <c r="C6" s="87" t="s">
         <v>584</v>
-      </c>
-      <c r="C6" s="87" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B7" s="87" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7" s="87" t="s">
         <v>586</v>
-      </c>
-      <c r="C7" s="87" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B8" s="87" t="s">
+        <v>587</v>
+      </c>
+      <c r="C8" s="87" t="s">
         <v>588</v>
-      </c>
-      <c r="C8" s="87" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B9" s="87" t="s">
+        <v>589</v>
+      </c>
+      <c r="C9" s="87" t="s">
         <v>590</v>
-      </c>
-      <c r="C9" s="87" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C10" s="88" t="s">
         <v>592</v>
-      </c>
-      <c r="C10" s="88" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C11" s="88" t="s">
         <v>594</v>
-      </c>
-      <c r="C11" s="88" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -47402,10 +47470,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>596</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1"/>
@@ -48402,6 +48470,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="21.63"/>
+    <col customWidth="1" min="3" max="3" width="23.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="90" t="s">
+        <v>597</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>598</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="B2" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="93">
+        <v>1.0</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="93">
+        <v>2.0</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="95">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="B6" s="95">
+        <v>1.0</v>
+      </c>
+      <c r="C6" s="94" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="92" t="s">
+        <v>556</v>
+      </c>
+      <c r="B7" s="93">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="92" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="93">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="92" t="s">
+        <v>556</v>
+      </c>
+      <c r="B9" s="93">
+        <v>2.0</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -48422,7 +48608,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="44"/>
       <c r="B1" s="45" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -48463,19 +48649,19 @@
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B4" s="49"/>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" s="49"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B6" s="54"/>
     </row>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="610">
   <si>
     <t>Date</t>
   </si>
@@ -1258,688 +1258,691 @@
     <t>ST_DESID_NUMCRI</t>
   </si>
   <si>
+    <t>ST_DESIMP</t>
+  </si>
+  <si>
+    <t>ST_DESGRO</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODCOM</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODCAL</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODGAR</t>
+  </si>
+  <si>
+    <t>ST_DESID_REFCOM</t>
+  </si>
+  <si>
+    <t>ST_NOM_ID_CODINTPRO</t>
+  </si>
+  <si>
+    <t>ST_NOM_ID_CODINTGES</t>
+  </si>
+  <si>
+    <t>ST_NOM_ID_CODINTEXP</t>
+  </si>
+  <si>
+    <t>ST_NOM_ID_CODINTMAI</t>
+  </si>
+  <si>
+    <t>ST_DESEMP</t>
+  </si>
+  <si>
+    <t>ST_CODLON</t>
+  </si>
+  <si>
+    <t>EQU_DES</t>
+  </si>
+  <si>
+    <t>ST_DESMAG</t>
+  </si>
+  <si>
+    <t>ST_DESID_CODFOU</t>
+  </si>
+  <si>
+    <t>CHOIX</t>
+  </si>
+  <si>
+    <t>CHOIX2</t>
+  </si>
+  <si>
+    <t>EQU_CODLON</t>
+  </si>
+  <si>
+    <t>MATID_CODMAG</t>
+  </si>
+  <si>
+    <t>MATID_CODFOU</t>
+  </si>
+  <si>
+    <t>MATST_AUT</t>
+  </si>
+  <si>
+    <t>MATMAKE_DEM</t>
+  </si>
+  <si>
+    <t>SCENARIO</t>
+  </si>
+  <si>
+    <t>RT.ART*001*ID_CODART</t>
+  </si>
+  <si>
+    <t>MP.CPT*001*ID_CODCOM</t>
+  </si>
+  <si>
+    <t>RO.ORG*001*ID_CODGES</t>
+  </si>
+  <si>
+    <t>RO.FOU*001*ID_CODFOU</t>
+  </si>
+  <si>
+    <t>RO.CAL*001*ID_CODCAL</t>
+  </si>
+  <si>
+    <t>RT.EMP*001*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>RO.IMP*001*ID_CODIMP</t>
+  </si>
+  <si>
+    <t>RT.MAT*001*ID_CODMATPRI</t>
+  </si>
+  <si>
+    <t>RO.ACT*001*ID_CODINT</t>
+  </si>
+  <si>
+    <t>RT.MOY*001*ID_CODMOY</t>
+  </si>
+  <si>
+    <t>FOREIGNKEY</t>
+  </si>
+  <si>
+    <t>ID_NUMEQU*EQU*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>ID_NUMGRO*GRO*ST_CODCOU</t>
+  </si>
+  <si>
+    <t>ID_NUMCRI*CRI*ST_DES</t>
+  </si>
+  <si>
+    <t>ID_REFCOM*REFCOM*ST_DES</t>
+  </si>
+  <si>
+    <t>ID_TYPENJ*TYPENJ*ST_DES</t>
+  </si>
+  <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>MAT.NU_TYP</t>
+  </si>
+  <si>
+    <t>MAT.NU_TYPPRO</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>MATDOC_ID</t>
+  </si>
+  <si>
+    <t>LOCATOR</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>select*name</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>//input[@id='EMP_CODLON' and not(@type='hidden')]</t>
+  </si>
+  <si>
+    <t>//input[@id='GRO_CODLON' and not(@type='hidden')]</t>
+  </si>
+  <si>
+    <t>CAS_DE_TEST</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>EQU.RT.MAT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_01</t>
+  </si>
+  <si>
+    <t>$NULL</t>
+  </si>
+  <si>
+    <t>$NU</t>
+  </si>
+  <si>
+    <t>$SEQUENCEID</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>C2.1 MATRICULE POSE</t>
+  </si>
+  <si>
+    <t>DEFAUT</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A1B1</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>GROUPE01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 01</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 01</t>
+  </si>
+  <si>
+    <t>REFCOMPTA01</t>
+  </si>
+  <si>
+    <t>MAT0001</t>
+  </si>
+  <si>
+    <t>METH01</t>
+  </si>
+  <si>
+    <t>ETAVIS01</t>
+  </si>
+  <si>
+    <t>BON ETAT</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 01</t>
+  </si>
+  <si>
+    <t>HEURES</t>
+  </si>
+  <si>
+    <t>GAR12M</t>
+  </si>
+  <si>
+    <t>Pérennité</t>
+  </si>
+  <si>
+    <t>POSE</t>
+  </si>
+  <si>
+    <t>C2.1</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_02</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>C2.2 MATRICULE DEPOSE EN STOCK</t>
+  </si>
+  <si>
+    <t>EN STOCK</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A1B2</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>GROUPE02</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 02</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>CRITICITE02</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 02</t>
+  </si>
+  <si>
+    <t>REFCOMPTA02</t>
+  </si>
+  <si>
+    <t>MAT0002</t>
+  </si>
+  <si>
+    <t>METH02</t>
+  </si>
+  <si>
+    <t>ETAVIS02</t>
+  </si>
+  <si>
+    <t>PASSABLE</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 02</t>
+  </si>
+  <si>
+    <t>GAR24M</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>DEPOSE</t>
+  </si>
+  <si>
+    <t>C2.2</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_03</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>C2.3 MATRICULE DEPOSE EN REPARATION</t>
+  </si>
+  <si>
+    <t>A REPARER</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A1B3</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>GROUPE03</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 03</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>CRITICITE03</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 03</t>
+  </si>
+  <si>
+    <t>REFCOMPTA03</t>
+  </si>
+  <si>
+    <t>MAT0003</t>
+  </si>
+  <si>
+    <t>METH03</t>
+  </si>
+  <si>
+    <t>ETAVIS03</t>
+  </si>
+  <si>
+    <t>A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 03</t>
+  </si>
+  <si>
+    <t>GAR36M</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>C2.3</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_04</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>C2.4 MATRICULE DEPOSE AUTRE</t>
+  </si>
+  <si>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>A1B4</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>REMARQUE AUTRE</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 04</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 04</t>
+  </si>
+  <si>
+    <t>MAT0004</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 04</t>
+  </si>
+  <si>
+    <t>C2.4</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_05</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>C3.2 MATRICULE BIEN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>A1B5</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 05</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 05</t>
+  </si>
+  <si>
+    <t>MAT0005</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 05</t>
+  </si>
+  <si>
+    <t>C3.2</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_06</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>C3.3 MATRICULE GERE EN STOCK</t>
+  </si>
+  <si>
+    <t>A1B6</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 06</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 06</t>
+  </si>
+  <si>
+    <t>MAT0006</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 06</t>
+  </si>
+  <si>
+    <t>C3.3</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_07</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>C3.4 MATRICULE MOYEN</t>
+  </si>
+  <si>
+    <t>A1B7</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 07</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 07</t>
+  </si>
+  <si>
+    <t>MAT0007</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 07</t>
+  </si>
+  <si>
+    <t>MOY.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>C3.4</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_LEC_01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>MATRICULE DEPOSE AUTRE</t>
+  </si>
+  <si>
+    <t>A1B9</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 08</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 08</t>
+  </si>
+  <si>
+    <t>MAT0008</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 08</t>
+  </si>
+  <si>
+    <t>ARTICLE STOCK</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
     <t>IMP.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ST_DESGRO</t>
-  </si>
-  <si>
-    <t>ST_DESID_CODCOM</t>
-  </si>
-  <si>
-    <t>ST_DESID_CODCAL</t>
-  </si>
-  <si>
-    <t>ST_DESID_CODGAR</t>
-  </si>
-  <si>
-    <t>ST_DESID_REFCOM</t>
-  </si>
-  <si>
-    <t>ST_NOM_ID_CODINTPRO</t>
-  </si>
-  <si>
-    <t>ST_NOM_ID_CODINTGES</t>
-  </si>
-  <si>
-    <t>ST_NOM_ID_CODINTEXP</t>
-  </si>
-  <si>
-    <t>ST_NOM_ID_CODINTMAI</t>
-  </si>
-  <si>
-    <t>ST_DESEMP</t>
-  </si>
-  <si>
-    <t>ST_CODLON</t>
-  </si>
-  <si>
-    <t>EQU_DES</t>
-  </si>
-  <si>
-    <t>ST_DESMAG</t>
-  </si>
-  <si>
-    <t>ST_DESID_CODFOU</t>
-  </si>
-  <si>
-    <t>CHOIX</t>
-  </si>
-  <si>
-    <t>CHOIX2</t>
-  </si>
-  <si>
-    <t>EQU_CODLON</t>
-  </si>
-  <si>
-    <t>MATID_CODMAG</t>
-  </si>
-  <si>
-    <t>MATID_CODFOU</t>
-  </si>
-  <si>
-    <t>MATST_AUT</t>
-  </si>
-  <si>
-    <t>MATMAKE_DEM</t>
-  </si>
-  <si>
-    <t>SCENARIO</t>
-  </si>
-  <si>
-    <t>RT.ART*001*ID_CODART</t>
-  </si>
-  <si>
-    <t>MP.CPT*001*ID_CODCOM</t>
-  </si>
-  <si>
-    <t>RO.ORG*001*ID_CODGES</t>
-  </si>
-  <si>
-    <t>RO.FOU*001*ID_CODFOU</t>
-  </si>
-  <si>
-    <t>RO.CAL*001*ID_CODCAL</t>
-  </si>
-  <si>
-    <t>RT.EMP*001*ST_CODCOU</t>
-  </si>
-  <si>
-    <t>RO.IMP*001*ID_CODIMP</t>
-  </si>
-  <si>
-    <t>RT.MAT*001*ID_CODMATPRI</t>
-  </si>
-  <si>
-    <t>RO.ACT*001*ID_CODINT</t>
-  </si>
-  <si>
-    <t>RT.MOY*001*ID_CODMOY</t>
-  </si>
-  <si>
-    <t>FOREIGNKEY</t>
-  </si>
-  <si>
-    <t>ID_NUMEQU*EQU*ST_CODCOU</t>
-  </si>
-  <si>
-    <t>ID_NUMEMP*EMP*ST_CODCOU</t>
-  </si>
-  <si>
-    <t>ID_NUMGRO*GRO*ST_CODCOU</t>
-  </si>
-  <si>
-    <t>ID_NUMCRI*CRI*ST_DES</t>
-  </si>
-  <si>
-    <t>ID_REFCOM*REFCOM*ST_DES</t>
-  </si>
-  <si>
-    <t>ID_TYPENJ*TYPENJ*ST_DES</t>
-  </si>
-  <si>
-    <t>INTERNALVALUE</t>
-  </si>
-  <si>
-    <t>MAT.NU_TYP</t>
-  </si>
-  <si>
-    <t>MAT.NU_TYPPRO</t>
-  </si>
-  <si>
-    <t>SEQUENCE</t>
-  </si>
-  <si>
-    <t>MATDOC_ID</t>
-  </si>
-  <si>
-    <t>LOCATOR</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>select*name</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>//input[@id='EMP_CODLON' and not(@type='hidden')]</t>
-  </si>
-  <si>
-    <t>//input[@id='GRO_CODLON' and not(@type='hidden')]</t>
-  </si>
-  <si>
-    <t>CAS_DE_TEST</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>EQU.RT.MAT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_01</t>
-  </si>
-  <si>
-    <t>$NULL</t>
-  </si>
-  <si>
-    <t>$NU</t>
-  </si>
-  <si>
-    <t>$SEQUENCEID</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>C2.1 MATRICULE POSE</t>
-  </si>
-  <si>
-    <t>DEFAUT</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>$DATETIMESYS</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>A1B1</t>
-  </si>
-  <si>
-    <t>TNR</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>GROUPE01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 01</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>CRITICITE01</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 01</t>
-  </si>
-  <si>
-    <t>REFCOMPTA01</t>
-  </si>
-  <si>
-    <t>MAT0001</t>
-  </si>
-  <si>
-    <t>METH01</t>
-  </si>
-  <si>
-    <t>ETAVIS01</t>
-  </si>
-  <si>
-    <t>BON ETAT</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 01</t>
-  </si>
-  <si>
-    <t>HEURES</t>
-  </si>
-  <si>
-    <t>GAR12M</t>
-  </si>
-  <si>
-    <t>Pérennité</t>
-  </si>
-  <si>
-    <t>POSE</t>
-  </si>
-  <si>
-    <t>C2.1</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_02</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>C2.2 MATRICULE DEPOSE EN STOCK</t>
-  </si>
-  <si>
-    <t>EN STOCK</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A1B2</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>GROUPE02</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 02</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>CRITICITE02</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 02</t>
-  </si>
-  <si>
-    <t>REFCOMPTA02</t>
-  </si>
-  <si>
-    <t>MAT0002</t>
-  </si>
-  <si>
-    <t>METH02</t>
-  </si>
-  <si>
-    <t>ETAVIS02</t>
-  </si>
-  <si>
-    <t>PASSABLE</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 02</t>
-  </si>
-  <si>
-    <t>GAR24M</t>
-  </si>
-  <si>
-    <t>Accessibilité</t>
-  </si>
-  <si>
-    <t>DEPOSE</t>
-  </si>
-  <si>
-    <t>C2.2</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_03</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>C2.3 MATRICULE DEPOSE EN REPARATION</t>
-  </si>
-  <si>
-    <t>A REPARER</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>A1B3</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>GROUPE03</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 03</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>CRITICITE03</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 03</t>
-  </si>
-  <si>
-    <t>REFCOMPTA03</t>
-  </si>
-  <si>
-    <t>MAT0003</t>
-  </si>
-  <si>
-    <t>METH03</t>
-  </si>
-  <si>
-    <t>ETAVIS03</t>
-  </si>
-  <si>
-    <t>A REMPLACER</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 03</t>
-  </si>
-  <si>
-    <t>GAR36M</t>
-  </si>
-  <si>
-    <t>Sécurité</t>
-  </si>
-  <si>
-    <t>C2.3</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_04</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>C2.4 MATRICULE DEPOSE AUTRE</t>
-  </si>
-  <si>
-    <t>AUTRE</t>
-  </si>
-  <si>
-    <t>A1B4</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>REMARQUE AUTRE</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 04</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 04</t>
-  </si>
-  <si>
-    <t>MAT0004</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 04</t>
-  </si>
-  <si>
-    <t>C2.4</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_05</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>C3.2 MATRICULE BIEN PATRIMONIAL</t>
-  </si>
-  <si>
-    <t>A1B5</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 05</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 05</t>
-  </si>
-  <si>
-    <t>MAT0005</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 05</t>
-  </si>
-  <si>
-    <t>C3.2</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_06</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>C3.3 MATRICULE GERE EN STOCK</t>
-  </si>
-  <si>
-    <t>A1B6</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 06</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 06</t>
-  </si>
-  <si>
-    <t>MAT0006</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 06</t>
-  </si>
-  <si>
-    <t>C3.3</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_07</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>C3.4 MATRICULE MOYEN</t>
-  </si>
-  <si>
-    <t>A1B7</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 07</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 07</t>
-  </si>
-  <si>
-    <t>MAT0007</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 07</t>
-  </si>
-  <si>
-    <t>MOY.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>C3.4</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_LEC_01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>MATRICULE DEPOSE AUTRE</t>
-  </si>
-  <si>
-    <t>A1B9</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 08</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 08</t>
-  </si>
-  <si>
-    <t>MAT0008</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 08</t>
-  </si>
-  <si>
-    <t>ARTICLE STOCK</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.LEC.01</t>
   </si>
   <si>
     <t>COMPTEUR HORAIRE</t>
@@ -12295,13 +12298,13 @@
         <v>383</v>
       </c>
       <c r="DD15" s="40" t="s">
-        <v>306</v>
+        <v>534</v>
       </c>
       <c r="DE15" s="40" t="s">
         <v>380</v>
       </c>
       <c r="DF15" s="40" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="DG15" s="40" t="s">
         <v>524</v>
@@ -12313,19 +12316,19 @@
         <v>385</v>
       </c>
       <c r="DJ15" s="40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="DK15" s="40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="DL15" s="40" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="DM15" s="12" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="DN15" s="40" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="DO15" s="65"/>
       <c r="DP15" s="65"/>
@@ -12344,10 +12347,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>364</v>
@@ -12356,7 +12359,7 @@
         <v>362</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>364</v>
@@ -12377,16 +12380,16 @@
         <v>1003.0</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>364</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P16" s="60" t="s">
         <v>370</v>
@@ -12425,7 +12428,7 @@
         <v>378</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AC16" s="12">
         <v>1080.0</v>
@@ -12449,10 +12452,10 @@
         <v>364</v>
       </c>
       <c r="AJ16" s="57" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AK16" s="12" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AL16" s="12">
         <v>8999.0</v>
@@ -12467,7 +12470,7 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="12" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AQ16" s="12" t="s">
         <v>373</v>
@@ -12494,13 +12497,13 @@
         <v>373</v>
       </c>
       <c r="AY16" s="12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AZ16" s="60" t="s">
         <v>435</v>
       </c>
       <c r="BA16" s="12" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="BB16" s="61">
         <v>44562.0</v>
@@ -12530,13 +12533,13 @@
         <v>364</v>
       </c>
       <c r="BK16" s="12" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="BL16" s="12" t="s">
         <v>438</v>
       </c>
       <c r="BM16" s="12" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="BN16" s="12" t="s">
         <v>440</v>
@@ -12557,10 +12560,10 @@
         <v>364</v>
       </c>
       <c r="BT16" s="12" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="BU16" s="34" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="BV16" s="62" t="s">
         <v>372</v>
@@ -12587,7 +12590,7 @@
         <v>443</v>
       </c>
       <c r="CD16" s="12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="CE16" s="12" t="s">
         <v>364</v>
@@ -12599,34 +12602,34 @@
         <v>364</v>
       </c>
       <c r="CH16" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="CI16" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="CJ16" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="CK16" s="12" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="CL16" s="57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CM16" s="57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CN16" s="57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CO16" s="57" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="CP16" s="57" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="CQ16" s="12" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="CR16" s="61">
         <v>44227.0</v>
@@ -12682,10 +12685,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
@@ -12818,10 +12821,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -41223,7 +41226,7 @@
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
       <c r="D5" s="50" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E5" s="77"/>
     </row>
@@ -42889,7 +42892,7 @@
         <v>349</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C4" s="77"/>
       <c r="D4" s="77"/>
@@ -43024,16 +43027,16 @@
         <v>372</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>364</v>
@@ -43125,10 +43128,10 @@
         <v>364</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>364</v>
@@ -43214,16 +43217,16 @@
         <v>372</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>364</v>
@@ -43274,7 +43277,7 @@
         <v>375</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AE9" s="60" t="s">
         <v>411</v>
@@ -43309,16 +43312,16 @@
         <v>372</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>364</v>
@@ -43369,7 +43372,7 @@
         <v>375</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AE10" s="60" t="s">
         <v>411</v>
@@ -43404,16 +43407,16 @@
         <v>372</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>364</v>
@@ -43499,16 +43502,16 @@
         <v>372</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>364</v>
@@ -43594,16 +43597,16 @@
         <v>372</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>364</v>
@@ -43689,16 +43692,16 @@
         <v>372</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>364</v>
@@ -43784,16 +43787,16 @@
         <v>372</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>364</v>
@@ -43879,16 +43882,16 @@
         <v>372</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>364</v>
@@ -43974,16 +43977,16 @@
         <v>372</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>364</v>
@@ -44034,7 +44037,7 @@
         <v>375</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AE17" s="60" t="s">
         <v>411</v>
@@ -44069,16 +44072,16 @@
         <v>372</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>364</v>
@@ -44129,7 +44132,7 @@
         <v>375</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AE18" s="60" t="s">
         <v>411</v>
@@ -44164,16 +44167,16 @@
         <v>372</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>364</v>
@@ -44259,16 +44262,16 @@
         <v>372</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>364</v>
@@ -45787,7 +45790,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C2" s="77"/>
     </row>
@@ -45813,7 +45816,7 @@
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="83" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -45831,18 +45834,18 @@
         <v>1002.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B8" s="84">
         <v>1003.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -45853,7 +45856,7 @@
         <v>366</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -45864,7 +45867,7 @@
         <v>366</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -45875,7 +45878,7 @@
         <v>366</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -45886,7 +45889,7 @@
         <v>366</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -45897,7 +45900,7 @@
         <v>366</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -45908,7 +45911,7 @@
         <v>366</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -45919,7 +45922,7 @@
         <v>366</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -47346,123 +47349,123 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="85" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -47470,10 +47473,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1"/>
@@ -48482,13 +48485,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="90" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2">
@@ -48499,7 +48502,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="3">
@@ -48510,7 +48513,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4">
@@ -48521,7 +48524,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5">
@@ -48532,7 +48535,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6">
@@ -48543,40 +48546,40 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="92" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B7" s="93">
         <v>0.0</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="92" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B8" s="93">
         <v>1.0</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="92" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B9" s="93">
         <v>2.0</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -48608,7 +48611,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="44"/>
       <c r="B1" s="45" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2616" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="621">
   <si>
     <t>Date</t>
   </si>
@@ -1369,670 +1369,676 @@
     <t>ID_NUMGRO*GRO*ST_CODCOU</t>
   </si>
   <si>
+    <t>ID_NUMCRI*CRI*ID_NUMCRI</t>
+  </si>
+  <si>
+    <t>ID_REFCOM*REFCOM*ST_DES</t>
+  </si>
+  <si>
+    <t>ID_TYPENJ*TYPENJ*ST_DES</t>
+  </si>
+  <si>
+    <t>INTERNALVALUE</t>
+  </si>
+  <si>
+    <t>MAT.ST_ETA</t>
+  </si>
+  <si>
+    <t>MAT.NU_TYP</t>
+  </si>
+  <si>
+    <t>MAT.NU_TYPPRO</t>
+  </si>
+  <si>
+    <t>SEQUENCE</t>
+  </si>
+  <si>
+    <t>MATDOC_ID</t>
+  </si>
+  <si>
+    <t>LOCATOR</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>select*name</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>//input[@id='EMP_CODLON' and not(@type='hidden')]</t>
+  </si>
+  <si>
+    <t>//input[@id='GRO_CODLON' and not(@type='hidden')]</t>
+  </si>
+  <si>
+    <t>CAS_DE_TEST</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>EQU.RT.MAT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_01</t>
+  </si>
+  <si>
+    <t>$NULL</t>
+  </si>
+  <si>
+    <t>$NU</t>
+  </si>
+  <si>
+    <t>$SEQUENCEID</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>C2.1 MATRICULE POSE</t>
+  </si>
+  <si>
+    <t>DEFAUT</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>$DATETIMESYS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A1B1</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>GROUPE01</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 01</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 01</t>
+  </si>
+  <si>
+    <t>REFCOMPTA01</t>
+  </si>
+  <si>
+    <t>MAT0001</t>
+  </si>
+  <si>
+    <t>METH01</t>
+  </si>
+  <si>
+    <t>ETAVIS01</t>
+  </si>
+  <si>
+    <t>BON ETAT</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 01</t>
+  </si>
+  <si>
+    <t>HEURES</t>
+  </si>
+  <si>
+    <t>GAR12M</t>
+  </si>
+  <si>
+    <t>Pérennité</t>
+  </si>
+  <si>
+    <t>POSE</t>
+  </si>
+  <si>
+    <t>C2.1</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_02</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>C2.2 MATRICULE DEPOSE EN STOCK</t>
+  </si>
+  <si>
+    <t>EN STOCK</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A1B2</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>GROUPE02</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 02</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.02.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 02</t>
+  </si>
+  <si>
+    <t>REFCOMPTA02</t>
+  </si>
+  <si>
+    <t>MAT0002</t>
+  </si>
+  <si>
+    <t>METH02</t>
+  </si>
+  <si>
+    <t>ETAVIS02</t>
+  </si>
+  <si>
+    <t>PASSABLE</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 02</t>
+  </si>
+  <si>
+    <t>GAR24M</t>
+  </si>
+  <si>
+    <t>Accessibilité</t>
+  </si>
+  <si>
+    <t>DEPOSE</t>
+  </si>
+  <si>
+    <t>C2.2</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_03</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>C2.3 MATRICULE DEPOSE EN REPARATION</t>
+  </si>
+  <si>
+    <t>A REPARER</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A1B3</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>GROUPE03</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 03</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.03.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 03</t>
+  </si>
+  <si>
+    <t>REFCOMPTA03</t>
+  </si>
+  <si>
+    <t>MAT0003</t>
+  </si>
+  <si>
+    <t>METH03</t>
+  </si>
+  <si>
+    <t>ETAVIS03</t>
+  </si>
+  <si>
+    <t>A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.03</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 03</t>
+  </si>
+  <si>
+    <t>GAR36M</t>
+  </si>
+  <si>
+    <t>Sécurité</t>
+  </si>
+  <si>
+    <t>C2.3</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_04</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>C2.4 MATRICULE DEPOSE AUTRE</t>
+  </si>
+  <si>
+    <t>AUTRE</t>
+  </si>
+  <si>
+    <t>A1B4</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>REMARQUE AUTRE</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 04</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.04.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 04</t>
+  </si>
+  <si>
+    <t>MAT0004</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.04</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 04</t>
+  </si>
+  <si>
+    <t>C2.4</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_05</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>C3.2 MATRICULE BIEN PATRIMONIAL</t>
+  </si>
+  <si>
+    <t>A1B5</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 05</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.05.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 05</t>
+  </si>
+  <si>
+    <t>MAT0005</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.05</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 05</t>
+  </si>
+  <si>
+    <t>C3.2</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_06</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>C3.3 MATRICULE GERE EN STOCK</t>
+  </si>
+  <si>
+    <t>A1B6</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 06</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.06.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 06</t>
+  </si>
+  <si>
+    <t>MAT0006</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.06</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 06</t>
+  </si>
+  <si>
+    <t>C3.3</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_CRE_07</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>C3.4 MATRICULE MOYEN</t>
+  </si>
+  <si>
+    <t>A1B7</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 07</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.CRE.07.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 07</t>
+  </si>
+  <si>
+    <t>MAT0007</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 07</t>
+  </si>
+  <si>
+    <t>MOY.RT.MAT.001.CRE.07</t>
+  </si>
+  <si>
+    <t>C3.4</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ART_RT_MAT_001_LEC_01</t>
+  </si>
+  <si>
+    <t>CPT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>MATRICULE DEPOSE AUTRE</t>
+  </si>
+  <si>
+    <t>A1B9</t>
+  </si>
+  <si>
+    <t>FOU.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CAL.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>REF FOURNISSEUR 08</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.LEC.01.........</t>
+  </si>
+  <si>
+    <t>AFF COMPTABLE 08</t>
+  </si>
+  <si>
+    <t>MAT0008</t>
+  </si>
+  <si>
+    <t>ACT.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>REF CONSTRUCTEUR 08</t>
+  </si>
+  <si>
+    <t>ARTICLE STOCK</t>
+  </si>
+  <si>
+    <t>ORG.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>CRITICITE01</t>
+  </si>
+  <si>
+    <t>IMP.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>COMPTEUR HORAIRE</t>
+  </si>
+  <si>
+    <t>NOM08 PRENOM08</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.LEC.01</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ART_UPD_RT_MAT_001_MAJ_01</t>
+  </si>
+  <si>
+    <t>CPT.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>ORG.UPD.RT.MAT.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>UPD.A1B9</t>
+  </si>
+  <si>
+    <t>FOU.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>UPD.REMARQUE AUTRE</t>
+  </si>
+  <si>
+    <t>CAL.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>EMP.UPD.RT.MAT.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>UPD.REF FOURNISSEUR 09</t>
+  </si>
+  <si>
+    <t>IMP.UPD.RT.MAT.001.MAJ.01.....</t>
+  </si>
+  <si>
+    <t>UPD.AFF COMPTABLE 09</t>
+  </si>
+  <si>
+    <t>UPD.MAT0009</t>
+  </si>
+  <si>
+    <t>UPD.A REMPLACER</t>
+  </si>
+  <si>
+    <t>ACT.UPD.RT.MAT.001.MAJ.01</t>
+  </si>
+  <si>
+    <t>UPD.REF CONSTRUCTEUR 09</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.SUP.01</t>
+  </si>
+  <si>
+    <t>RT.MAT.001.REC.01</t>
+  </si>
+  <si>
+    <t>MAT_CONTRA.ST_TYP</t>
+  </si>
+  <si>
     <t>ID_NUMCRI*CRI*ST_DES</t>
   </si>
   <si>
-    <t>ID_REFCOM*REFCOM*ST_DES</t>
-  </si>
-  <si>
-    <t>ID_TYPENJ*TYPENJ*ST_DES</t>
-  </si>
-  <si>
-    <t>INTERNALVALUE</t>
-  </si>
-  <si>
-    <t>MAT.NU_TYP</t>
-  </si>
-  <si>
-    <t>MAT.NU_TYPPRO</t>
-  </si>
-  <si>
-    <t>SEQUENCE</t>
-  </si>
-  <si>
-    <t>MATDOC_ID</t>
-  </si>
-  <si>
-    <t>LOCATOR</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>select*name</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>checkbox</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>//input[@id='EMP_CODLON' and not(@type='hidden')]</t>
-  </si>
-  <si>
-    <t>//input[@id='GRO_CODLON' and not(@type='hidden')]</t>
-  </si>
-  <si>
-    <t>CAS_DE_TEST</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>EQU.RT.MAT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_01</t>
-  </si>
-  <si>
-    <t>$NULL</t>
-  </si>
-  <si>
-    <t>$NU</t>
-  </si>
-  <si>
-    <t>$SEQUENCEID</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>C2.1 MATRICULE POSE</t>
-  </si>
-  <si>
-    <t>DEFAUT</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>$DATETIMESYS</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>A1B1</t>
-  </si>
-  <si>
-    <t>TNR</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>GROUPE01</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 01</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.01.........</t>
-  </si>
-  <si>
-    <t>CRITICITE01</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 01</t>
-  </si>
-  <si>
-    <t>REFCOMPTA01</t>
-  </si>
-  <si>
-    <t>MAT0001</t>
-  </si>
-  <si>
-    <t>METH01</t>
-  </si>
-  <si>
-    <t>ETAVIS01</t>
-  </si>
-  <si>
-    <t>BON ETAT</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 01</t>
-  </si>
-  <si>
-    <t>HEURES</t>
-  </si>
-  <si>
-    <t>GAR12M</t>
-  </si>
-  <si>
-    <t>Pérennité</t>
-  </si>
-  <si>
-    <t>POSE</t>
-  </si>
-  <si>
-    <t>C2.1</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_02</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>C2.2 MATRICULE DEPOSE EN STOCK</t>
-  </si>
-  <si>
-    <t>EN STOCK</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>A1B2</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.02.........</t>
-  </si>
-  <si>
-    <t>GROUPE02</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 02</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.02.........</t>
+    <t>BTMAT_ID</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.01</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.02</t>
+  </si>
+  <si>
+    <t>Image</t>
   </si>
   <si>
     <t>CRITICITE02</t>
   </si>
   <si>
-    <t>AFF COMPTABLE 02</t>
-  </si>
-  <si>
-    <t>REFCOMPTA02</t>
-  </si>
-  <si>
-    <t>MAT0002</t>
-  </si>
-  <si>
-    <t>METH02</t>
-  </si>
-  <si>
-    <t>ETAVIS02</t>
-  </si>
-  <si>
-    <t>PASSABLE</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 02</t>
-  </si>
-  <si>
-    <t>GAR24M</t>
-  </si>
-  <si>
-    <t>Accessibilité</t>
-  </si>
-  <si>
-    <t>DEPOSE</t>
-  </si>
-  <si>
-    <t>C2.2</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_03</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>C2.3 MATRICULE DEPOSE EN REPARATION</t>
-  </si>
-  <si>
-    <t>A REPARER</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>A1B3</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
-    <t>GROUPE03</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 03</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.03.........</t>
+    <t>D</t>
+  </si>
+  <si>
+    <t>EMP.RT.MAT.001.CRE.03</t>
   </si>
   <si>
     <t>CRITICITE03</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 03</t>
-  </si>
-  <si>
-    <t>REFCOMPTA03</t>
-  </si>
-  <si>
-    <t>MAT0003</t>
-  </si>
-  <si>
-    <t>METH03</t>
-  </si>
-  <si>
-    <t>ETAVIS03</t>
-  </si>
-  <si>
-    <t>A REMPLACER</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.03</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 03</t>
-  </si>
-  <si>
-    <t>GAR36M</t>
-  </si>
-  <si>
-    <t>Sécurité</t>
-  </si>
-  <si>
-    <t>C2.3</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_04</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>C2.4 MATRICULE DEPOSE AUTRE</t>
-  </si>
-  <si>
-    <t>AUTRE</t>
-  </si>
-  <si>
-    <t>A1B4</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>REMARQUE AUTRE</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 04</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 04</t>
-  </si>
-  <si>
-    <t>MAT0004</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.04</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 04</t>
-  </si>
-  <si>
-    <t>C2.4</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_05</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>C3.2 MATRICULE BIEN PATRIMONIAL</t>
-  </si>
-  <si>
-    <t>A1B5</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 05</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 05</t>
-  </si>
-  <si>
-    <t>MAT0005</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.05</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 05</t>
-  </si>
-  <si>
-    <t>C3.2</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_06</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>C3.3 MATRICULE GERE EN STOCK</t>
-  </si>
-  <si>
-    <t>A1B6</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 06</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 06</t>
-  </si>
-  <si>
-    <t>MAT0006</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.06</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 06</t>
-  </si>
-  <si>
-    <t>C3.3</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_CRE_07</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>C3.4 MATRICULE MOYEN</t>
-  </si>
-  <si>
-    <t>A1B7</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 07</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.CRE.07.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 07</t>
-  </si>
-  <si>
-    <t>MAT0007</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 07</t>
-  </si>
-  <si>
-    <t>MOY.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>C3.4</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ART_RT_MAT_001_LEC_01</t>
-  </si>
-  <si>
-    <t>CPT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>MATRICULE DEPOSE AUTRE</t>
-  </si>
-  <si>
-    <t>A1B9</t>
-  </si>
-  <si>
-    <t>FOU.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>CAL.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>REF FOURNISSEUR 08</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.LEC.01.........</t>
-  </si>
-  <si>
-    <t>AFF COMPTABLE 08</t>
-  </si>
-  <si>
-    <t>MAT0008</t>
-  </si>
-  <si>
-    <t>ACT.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>REF CONSTRUCTEUR 08</t>
-  </si>
-  <si>
-    <t>ARTICLE STOCK</t>
-  </si>
-  <si>
-    <t>ORG.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>IMP.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>COMPTEUR HORAIRE</t>
-  </si>
-  <si>
-    <t>NOM08 PRENOM08</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.LEC.01</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ART_UPD_RT_MAT_001_MAJ_01</t>
-  </si>
-  <si>
-    <t>CPT.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>ORG.UPD.RT.MAT.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>UPD.A1B9</t>
-  </si>
-  <si>
-    <t>FOU.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>UPD.REMARQUE AUTRE</t>
-  </si>
-  <si>
-    <t>CAL.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>EMP.UPD.RT.MAT.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>UPD.REF FOURNISSEUR 09</t>
-  </si>
-  <si>
-    <t>IMP.UPD.RT.MAT.001.MAJ.01.....</t>
-  </si>
-  <si>
-    <t>UPD.AFF COMPTABLE 09</t>
-  </si>
-  <si>
-    <t>UPD.MAT0009</t>
-  </si>
-  <si>
-    <t>UPD.A REMPLACER</t>
-  </si>
-  <si>
-    <t>ACT.UPD.RT.MAT.001.MAJ.01</t>
-  </si>
-  <si>
-    <t>UPD.REF CONSTRUCTEUR 09</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.SUP.01</t>
-  </si>
-  <si>
-    <t>RT.MAT.001.REC.01</t>
-  </si>
-  <si>
-    <t>MAT_CONTRA.ST_TYP</t>
-  </si>
-  <si>
-    <t>BTMAT_ID</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.01</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.03</t>
   </si>
   <si>
     <t>EMP.RT.MAT.001.CRE.04</t>
@@ -2160,6 +2166,30 @@
     <t>//span[contains(@style, 'display') and contains(@style, 'block')]//button[@value='Valider']</t>
   </si>
   <si>
+    <t>radio_ST_POSP</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_POSP']</t>
+  </si>
+  <si>
+    <t>radio_ST_POSS</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_POSS']</t>
+  </si>
+  <si>
+    <t>radio_ST_POSR</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_POSR']</t>
+  </si>
+  <si>
+    <t>radio_ST_POSA</t>
+  </si>
+  <si>
+    <t>//input[@id='ST_POSA']</t>
+  </si>
+  <si>
     <t>PARA</t>
   </si>
   <si>
@@ -2191,6 +2221,9 @@
   </si>
   <si>
     <t>Le type du contrat de location</t>
+  </si>
+  <si>
+    <t>Defaut</t>
   </si>
   <si>
     <t>Champ</t>
@@ -2501,7 +2534,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2769,6 +2802,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8486,7 +8522,9 @@
       <c r="M4" s="49"/>
       <c r="N4" s="49"/>
       <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
+      <c r="P4" s="51" t="s">
+        <v>347</v>
+      </c>
       <c r="Q4" s="49"/>
       <c r="R4" s="49"/>
       <c r="S4" s="49"/>
@@ -8503,7 +8541,7 @@
       <c r="AD4" s="49"/>
       <c r="AE4" s="49"/>
       <c r="AF4" s="51" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG4" s="49"/>
       <c r="AH4" s="49"/>
@@ -8543,7 +8581,7 @@
       <c r="BP4" s="49"/>
       <c r="BQ4" s="49"/>
       <c r="BR4" s="51" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="BS4" s="49"/>
       <c r="BT4" s="49"/>
@@ -8608,7 +8646,7 @@
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B5" s="49" t="s">
         <v>9</v>
@@ -8638,7 +8676,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="51" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L5" s="49" t="s">
         <v>9</v>
@@ -8942,128 +8980,128 @@
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I6" s="49"/>
       <c r="J6" s="49"/>
       <c r="K6" s="49"/>
       <c r="L6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M6" s="49"/>
       <c r="N6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P6" s="51" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="49"/>
       <c r="R6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S6" s="51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="T6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U6" s="49"/>
       <c r="V6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="W6" s="49"/>
       <c r="X6" s="49"/>
       <c r="Y6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA6" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AB6" s="49"/>
       <c r="AC6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AD6" s="49"/>
       <c r="AE6" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF6" s="51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG6" s="49"/>
       <c r="AH6" s="49"/>
       <c r="AI6" s="49"/>
       <c r="AJ6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AK6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AP6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AQ6" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AR6" s="49"/>
       <c r="AS6" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AT6" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AU6" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AV6" s="51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AW6" s="49"/>
       <c r="AX6" s="49"/>
       <c r="AY6" s="51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AZ6" s="51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="BA6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BB6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BC6" s="49"/>
       <c r="BD6" s="49"/>
@@ -9074,16 +9112,16 @@
       <c r="BI6" s="49"/>
       <c r="BJ6" s="49"/>
       <c r="BK6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BL6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BM6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BN6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BO6" s="49"/>
       <c r="BP6" s="49"/>
@@ -9091,10 +9129,10 @@
       <c r="BR6" s="49"/>
       <c r="BS6" s="49"/>
       <c r="BT6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BU6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="BV6" s="49"/>
       <c r="BW6" s="49"/>
@@ -9113,122 +9151,122 @@
       <c r="CJ6" s="49"/>
       <c r="CK6" s="49"/>
       <c r="CL6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CM6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CN6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CO6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CP6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CQ6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CR6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CS6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CT6" s="49"/>
       <c r="CU6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CV6" s="51" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="CW6" s="49"/>
       <c r="CX6" s="49"/>
       <c r="CY6" s="49"/>
       <c r="CZ6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DA6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DB6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DC6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DD6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DE6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DF6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DG6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DH6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DI6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DJ6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DK6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DL6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DM6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DN6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DO6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DP6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DQ6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DR6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DS6" s="53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="DT6" s="53" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="DU6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DV6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DW6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DX6" s="53" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="DY6" s="53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="DZ6" s="53"/>
     </row>
     <row r="7">
       <c r="A7" s="54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>9</v>
@@ -9566,61 +9604,61 @@
     </row>
     <row r="8">
       <c r="A8" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J8" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K8" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K8" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="N8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P8" s="60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="T8" s="12">
         <v>10000.0</v>
@@ -9632,49 +9670,49 @@
         <v>45658.0</v>
       </c>
       <c r="W8" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X8" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AC8" s="12">
         <v>1000.0</v>
       </c>
       <c r="AD8" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE8" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF8" s="34">
         <v>0.0</v>
       </c>
       <c r="AG8" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH8" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH8" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ8" s="57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AK8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL8" s="12">
         <v>9999.0</v>
@@ -9689,40 +9727,40 @@
         <v>10000.0</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AS8" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AT8" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AU8" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AV8" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AW8" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AX8" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AY8" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AZ8" s="60" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="BA8" s="12" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="BB8" s="61">
         <v>44562.0</v>
@@ -9746,16 +9784,16 @@
         <v>12.0</v>
       </c>
       <c r="BI8" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ8" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK8" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="BL8" s="12" t="s">
         <v>383</v>
+      </c>
+      <c r="BL8" s="12">
+        <v>1.0</v>
       </c>
       <c r="BM8" s="12" t="s">
         <v>384</v>
@@ -9776,31 +9814,31 @@
         <v>0.0</v>
       </c>
       <c r="BS8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT8" s="12" t="s">
         <v>386</v>
       </c>
       <c r="BU8" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="BV8" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="BW8" s="62" t="s">
+        <v>373</v>
+      </c>
+      <c r="BX8" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="BV8" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="BW8" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="BX8" s="35" t="s">
-        <v>375</v>
-      </c>
       <c r="BY8" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ8" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB8" s="12" t="s">
         <v>387</v>
@@ -9812,25 +9850,25 @@
         <v>389</v>
       </c>
       <c r="CE8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CF8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CG8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CH8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="CI8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="CJ8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="CK8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="CL8" s="57" t="s">
         <v>390</v>
@@ -9845,7 +9883,7 @@
         <v>390</v>
       </c>
       <c r="CP8" s="57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="CQ8" s="12" t="s">
         <v>391</v>
@@ -9857,22 +9895,22 @@
         <v>392</v>
       </c>
       <c r="CT8" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="CU8" s="12" t="s">
         <v>393</v>
       </c>
       <c r="CV8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CW8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CX8" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="CY8" s="12" t="s">
-        <v>383</v>
+      <c r="CY8" s="12">
+        <v>1.0</v>
       </c>
       <c r="CZ8" s="65"/>
       <c r="DA8" s="65"/>
@@ -9917,37 +9955,37 @@
         <v>397</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E9" s="29" t="s">
         <v>398</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K9" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>399</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>400</v>
@@ -9956,13 +9994,13 @@
         <v>401</v>
       </c>
       <c r="P9" s="60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>402</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S9" s="35" t="s">
         <v>403</v>
@@ -9971,25 +10009,25 @@
         <v>20000.0</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V9" s="61">
         <v>45658.0</v>
       </c>
       <c r="W9" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X9" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB9" s="12" t="s">
         <v>404</v>
@@ -9998,28 +10036,28 @@
         <v>1010.0</v>
       </c>
       <c r="AD9" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE9" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF9" s="34">
         <v>0.0</v>
       </c>
       <c r="AG9" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH9" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH9" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ9" s="57" t="s">
         <v>405</v>
       </c>
       <c r="AK9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL9" s="12">
         <v>1999.0</v>
@@ -10037,28 +10075,28 @@
         <v>406</v>
       </c>
       <c r="AQ9" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AR9" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AS9" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AT9" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AU9" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AV9" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AW9" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AX9" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AY9" s="12" t="s">
         <v>407</v>
@@ -10091,22 +10129,22 @@
         <v>12.0</v>
       </c>
       <c r="BI9" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ9" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK9" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="BL9" s="12" t="s">
+      <c r="BL9" s="12">
+        <v>2.0</v>
+      </c>
+      <c r="BM9" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="BM9" s="12" t="s">
+      <c r="BN9" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="BN9" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="BO9" s="12">
         <v>1010.0</v>
@@ -10121,49 +10159,49 @@
         <v>0.0</v>
       </c>
       <c r="BS9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT9" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BU9" s="34" t="s">
         <v>405</v>
       </c>
       <c r="BV9" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BW9" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BX9" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BY9" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ9" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB9" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="CC9" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="CC9" s="12" t="s">
+      <c r="CD9" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="CD9" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="CE9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CF9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CG9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CH9" s="12" t="s">
         <v>400</v>
@@ -10178,22 +10216,22 @@
         <v>400</v>
       </c>
       <c r="CL9" s="57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CM9" s="57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CN9" s="57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CO9" s="57" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CP9" s="57" t="s">
         <v>405</v>
       </c>
       <c r="CQ9" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="CR9" s="61">
         <v>44227.0</v>
@@ -10202,22 +10240,22 @@
         <v>392</v>
       </c>
       <c r="CT9" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CU9" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="CV9" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="CU9" s="12" t="s">
+      <c r="CW9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CX9" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="CV9" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CW9" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CX9" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY9" s="12" t="s">
-        <v>411</v>
+      <c r="CY9" s="12">
+        <v>2.0</v>
       </c>
       <c r="CZ9" s="65"/>
       <c r="DA9" s="65"/>
@@ -10239,7 +10277,7 @@
       <c r="DQ9" s="65"/>
       <c r="DR9" s="65"/>
       <c r="DS9" s="40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="DT9" s="40" t="s">
         <v>403</v>
@@ -10253,78 +10291,78 @@
       <c r="DX9" s="65"/>
       <c r="DY9" s="65"/>
       <c r="DZ9" s="67" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>424</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="J10" s="12" t="s">
+      <c r="M10" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K10" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="L10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="P10" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q10" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="P10" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q10" s="12" t="s">
+      <c r="R10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="S10" s="35" t="s">
         <v>429</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>430</v>
       </c>
       <c r="T10" s="12">
         <v>30000.0</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V10" s="61">
         <v>45658.0</v>
       </c>
       <c r="W10" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X10" s="61">
         <v>44593.0</v>
@@ -10336,37 +10374,37 @@
         <v>44652.0</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AC10" s="12">
         <v>1020.0</v>
       </c>
       <c r="AD10" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF10" s="34">
         <v>0.0</v>
       </c>
       <c r="AG10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH10" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH10" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ10" s="57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AK10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL10" s="12">
         <v>2999.0</v>
@@ -10381,40 +10419,40 @@
         <v>30000.0</v>
       </c>
       <c r="AP10" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AY10" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="AQ10" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR10" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS10" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT10" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AU10" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AV10" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW10" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AX10" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AY10" s="12" t="s">
+      <c r="AZ10" s="60" t="s">
         <v>434</v>
       </c>
-      <c r="AZ10" s="60" t="s">
+      <c r="BA10" s="12" t="s">
         <v>435</v>
-      </c>
-      <c r="BA10" s="12" t="s">
-        <v>436</v>
       </c>
       <c r="BB10" s="61">
         <v>44562.0</v>
@@ -10438,22 +10476,22 @@
         <v>12.0</v>
       </c>
       <c r="BI10" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ10" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK10" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="BL10" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="BM10" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="BL10" s="12" t="s">
+      <c r="BN10" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="BM10" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="BN10" s="12" t="s">
-        <v>440</v>
       </c>
       <c r="BO10" s="12">
         <v>1020.0</v>
@@ -10468,79 +10506,79 @@
         <v>0.0</v>
       </c>
       <c r="BS10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT10" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="BU10" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="BV10" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BW10" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BX10" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BY10" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ10" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB10" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="CC10" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="CD10" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="CC10" s="12" t="s">
+      <c r="CE10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CF10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CG10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CH10" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="CI10" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="CJ10" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="CK10" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="CL10" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="CD10" s="12" t="s">
+      <c r="CM10" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="CN10" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="CO10" s="57" t="s">
+        <v>443</v>
+      </c>
+      <c r="CP10" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="CQ10" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="CE10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CF10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CG10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CH10" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="CI10" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="CJ10" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="CK10" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="CL10" s="57" t="s">
-        <v>445</v>
-      </c>
-      <c r="CM10" s="57" t="s">
-        <v>445</v>
-      </c>
-      <c r="CN10" s="57" t="s">
-        <v>445</v>
-      </c>
-      <c r="CO10" s="57" t="s">
-        <v>445</v>
-      </c>
-      <c r="CP10" s="57" t="s">
-        <v>432</v>
-      </c>
-      <c r="CQ10" s="12" t="s">
-        <v>446</v>
       </c>
       <c r="CR10" s="61">
         <v>44227.0</v>
@@ -10549,22 +10587,22 @@
         <v>392</v>
       </c>
       <c r="CT10" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CU10" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="CV10" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="CU10" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="CV10" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="CW10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CX10" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="CY10" s="12" t="s">
-        <v>438</v>
+        <v>446</v>
+      </c>
+      <c r="CY10" s="12">
+        <v>3.0</v>
       </c>
       <c r="CZ10" s="65"/>
       <c r="DA10" s="65"/>
@@ -10586,10 +10624,10 @@
       <c r="DQ10" s="65"/>
       <c r="DR10" s="65"/>
       <c r="DS10" s="40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="DT10" s="40" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="DU10" s="65"/>
       <c r="DV10" s="65"/>
@@ -10600,120 +10638,120 @@
       <c r="DX10" s="65"/>
       <c r="DY10" s="65"/>
       <c r="DZ10" s="67" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K11" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L11" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>450</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="M11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="J11" s="12" t="s">
+      <c r="O11" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="P11" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="R11" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K11" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="P11" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="S11" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T11" s="12">
         <v>40000.0</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V11" s="61">
         <v>45658.0</v>
       </c>
       <c r="W11" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X11" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AC11" s="12">
         <v>1030.0</v>
       </c>
       <c r="AD11" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF11" s="34">
         <v>0.0</v>
       </c>
       <c r="AG11" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH11" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH11" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ11" s="57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AK11" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL11" s="12">
         <v>3999.0</v>
@@ -10728,40 +10766,40 @@
         <v>40000.0</v>
       </c>
       <c r="AP11" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ11" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AU11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV11" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX11" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY11" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="AZ11" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA11" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="AQ11" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR11" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS11" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AT11" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AU11" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AV11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW11" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX11" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY11" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="AZ11" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA11" s="12" t="s">
-        <v>461</v>
       </c>
       <c r="BB11" s="61">
         <v>44562.0</v>
@@ -10785,19 +10823,19 @@
         <v>12.0</v>
       </c>
       <c r="BI11" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ11" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK11" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="BL11" s="12" t="s">
-        <v>383</v>
+        <v>460</v>
+      </c>
+      <c r="BL11" s="12">
+        <v>1.0</v>
       </c>
       <c r="BM11" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BN11" s="12" t="s">
         <v>385</v>
@@ -10815,31 +10853,31 @@
         <v>0.0</v>
       </c>
       <c r="BS11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT11" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BU11" s="34" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BV11" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BW11" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BX11" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BY11" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ11" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB11" s="12" t="s">
         <v>387</v>
@@ -10851,43 +10889,43 @@
         <v>389</v>
       </c>
       <c r="CE11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CF11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CG11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CH11" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="CI11" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="CJ11" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="CK11" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="CL11" s="57" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="CM11" s="57" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="CN11" s="57" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="CO11" s="57" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="CP11" s="57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="CQ11" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="CR11" s="61">
         <v>44227.0</v>
@@ -10896,22 +10934,22 @@
         <v>392</v>
       </c>
       <c r="CT11" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="CU11" s="12" t="s">
         <v>393</v>
       </c>
       <c r="CV11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CW11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CX11" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="CY11" s="12" t="s">
-        <v>383</v>
+      <c r="CY11" s="12">
+        <v>1.0</v>
       </c>
       <c r="CZ11" s="65"/>
       <c r="DA11" s="65"/>
@@ -10933,10 +10971,10 @@
       <c r="DQ11" s="65"/>
       <c r="DR11" s="65"/>
       <c r="DS11" s="40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="DT11" s="40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="DU11" s="65"/>
       <c r="DV11" s="65"/>
@@ -10947,120 +10985,120 @@
       </c>
       <c r="DY11" s="66"/>
       <c r="DZ11" s="67" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K12" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="M12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="J12" s="12" t="s">
+      <c r="O12" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="P12" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="R12" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K12" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="P12" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="S12" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T12" s="12">
         <v>50000.0</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V12" s="61">
         <v>45658.0</v>
       </c>
       <c r="W12" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X12" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AC12" s="12">
         <v>1040.0</v>
       </c>
       <c r="AD12" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF12" s="34">
         <v>0.0</v>
       </c>
       <c r="AG12" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH12" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH12" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ12" s="57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AK12" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL12" s="12">
         <v>4999.0</v>
@@ -11075,40 +11113,40 @@
         <v>50000.0</v>
       </c>
       <c r="AP12" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AQ12" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AR12" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AS12" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AT12" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AU12" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AV12" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AW12" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AX12" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AY12" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AZ12" s="60" t="s">
         <v>408</v>
       </c>
       <c r="BA12" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BB12" s="61">
         <v>44562.0</v>
@@ -11132,22 +11170,22 @@
         <v>12.0</v>
       </c>
       <c r="BI12" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ12" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK12" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="BL12" s="12" t="s">
-        <v>411</v>
+        <v>476</v>
+      </c>
+      <c r="BL12" s="12">
+        <v>2.0</v>
       </c>
       <c r="BM12" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BN12" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BO12" s="12">
         <v>1040.0</v>
@@ -11162,79 +11200,79 @@
         <v>0.0</v>
       </c>
       <c r="BS12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT12" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="BU12" s="34" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="BV12" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BW12" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BX12" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BY12" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ12" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB12" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="CC12" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="CC12" s="12" t="s">
+      <c r="CD12" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="CD12" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="CE12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CF12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CG12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CH12" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="CI12" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="CJ12" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="CK12" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="CL12" s="57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="CM12" s="57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="CN12" s="57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="CO12" s="57" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="CP12" s="57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="CQ12" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="CR12" s="61">
         <v>44227.0</v>
@@ -11243,22 +11281,22 @@
         <v>392</v>
       </c>
       <c r="CT12" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CU12" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="CV12" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="CU12" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="CV12" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="CW12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CX12" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="CY12" s="12" t="s">
-        <v>438</v>
+        <v>446</v>
+      </c>
+      <c r="CY12" s="12">
+        <v>3.0</v>
       </c>
       <c r="CZ12" s="65"/>
       <c r="DA12" s="65"/>
@@ -11280,10 +11318,10 @@
       <c r="DQ12" s="65"/>
       <c r="DR12" s="65"/>
       <c r="DS12" s="40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="DT12" s="40" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="DU12" s="65"/>
       <c r="DV12" s="65"/>
@@ -11294,63 +11332,63 @@
       </c>
       <c r="DY12" s="65"/>
       <c r="DZ12" s="67" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
+        <v>482</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="M13" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="K13" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>488</v>
-      </c>
       <c r="P13" s="60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="12" t="s">
         <v>402</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S13" s="35" t="s">
         <v>403</v>
@@ -11359,55 +11397,55 @@
         <v>60000.0</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V13" s="61">
         <v>45658.0</v>
       </c>
       <c r="W13" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X13" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AC13" s="12">
         <v>1050.0</v>
       </c>
       <c r="AD13" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE13" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF13" s="34">
         <v>1.0</v>
       </c>
       <c r="AG13" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH13" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH13" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ13" s="57" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AK13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL13" s="12">
         <v>5999.0</v>
@@ -11422,40 +11460,40 @@
         <v>60000.0</v>
       </c>
       <c r="AP13" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="AQ13" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AU13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV13" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX13" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY13" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="AZ13" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="BA13" s="12" t="s">
         <v>491</v>
-      </c>
-      <c r="AQ13" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR13" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS13" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AT13" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AU13" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AV13" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW13" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX13" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY13" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="AZ13" s="60" t="s">
-        <v>435</v>
-      </c>
-      <c r="BA13" s="12" t="s">
-        <v>493</v>
       </c>
       <c r="BB13" s="61">
         <v>44562.0</v>
@@ -11479,22 +11517,22 @@
         <v>12.0</v>
       </c>
       <c r="BI13" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ13" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK13" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="BL13" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="BL13" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="BM13" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="BN13" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="BM13" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="BN13" s="12" t="s">
-        <v>440</v>
       </c>
       <c r="BO13" s="12">
         <v>1050.0</v>
@@ -11509,79 +11547,79 @@
         <v>0.0</v>
       </c>
       <c r="BS13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT13" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="BU13" s="34" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="BV13" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BW13" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BX13" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BY13" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ13" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB13" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="CC13" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="CD13" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="CC13" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="CD13" s="12" t="s">
-        <v>444</v>
-      </c>
       <c r="CE13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CF13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CG13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CH13" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="CI13" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="CJ13" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="CK13" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="CL13" s="57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="CM13" s="57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="CN13" s="57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="CO13" s="57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="CP13" s="57" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="CQ13" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="CR13" s="61">
         <v>44227.0</v>
@@ -11590,22 +11628,22 @@
         <v>392</v>
       </c>
       <c r="CT13" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CU13" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="CV13" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="CU13" s="12" t="s">
+      <c r="CW13" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CX13" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="CV13" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CW13" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CX13" s="64" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY13" s="12" t="s">
-        <v>411</v>
+      <c r="CY13" s="12">
+        <v>2.0</v>
       </c>
       <c r="CZ13" s="65"/>
       <c r="DA13" s="65"/>
@@ -11634,120 +11672,120 @@
       <c r="DX13" s="65"/>
       <c r="DY13" s="65"/>
       <c r="DZ13" s="67" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
+        <v>498</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="M14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="J14" s="12" t="s">
+      <c r="O14" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="P14" s="60" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="R14" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="K14" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="P14" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="S14" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T14" s="12">
         <v>70000.0</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V14" s="61">
         <v>45658.0</v>
       </c>
       <c r="W14" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X14" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AC14" s="12">
         <v>1060.0</v>
       </c>
       <c r="AD14" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE14" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF14" s="34">
         <v>2.0</v>
       </c>
       <c r="AG14" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH14" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH14" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ14" s="57" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AK14" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL14" s="12">
         <v>6999.0</v>
@@ -11762,40 +11800,40 @@
         <v>70000.0</v>
       </c>
       <c r="AP14" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="AQ14" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AU14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV14" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX14" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY14" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="AZ14" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="BA14" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="AQ14" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR14" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS14" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AT14" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AU14" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AV14" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW14" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX14" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY14" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="AZ14" s="60" t="s">
-        <v>435</v>
-      </c>
-      <c r="BA14" s="12" t="s">
-        <v>509</v>
       </c>
       <c r="BB14" s="61">
         <v>44562.0</v>
@@ -11819,22 +11857,22 @@
         <v>12.0</v>
       </c>
       <c r="BI14" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ14" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK14" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="BL14" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="BL14" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="BM14" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="BN14" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="BM14" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="BN14" s="12" t="s">
-        <v>440</v>
       </c>
       <c r="BO14" s="12">
         <v>1060.0</v>
@@ -11849,79 +11887,79 @@
         <v>0.0</v>
       </c>
       <c r="BS14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT14" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BU14" s="34" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="BV14" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BW14" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BX14" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BY14" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ14" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB14" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="CC14" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="CD14" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="CC14" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="CD14" s="12" t="s">
-        <v>444</v>
-      </c>
       <c r="CE14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CF14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CG14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CH14" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="CI14" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="CJ14" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="CK14" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="CL14" s="57" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="CM14" s="57" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="CN14" s="57" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="CO14" s="57" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="CP14" s="57" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="CQ14" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="CR14" s="61">
         <v>44227.0</v>
@@ -11930,22 +11968,22 @@
         <v>392</v>
       </c>
       <c r="CT14" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="CU14" s="12" t="s">
         <v>393</v>
       </c>
       <c r="CV14" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CW14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CX14" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="CY14" s="12" t="s">
-        <v>383</v>
+      <c r="CY14" s="12">
+        <v>1.0</v>
       </c>
       <c r="CZ14" s="65"/>
       <c r="DA14" s="65"/>
@@ -11974,120 +12012,120 @@
       <c r="DX14" s="65"/>
       <c r="DY14" s="65"/>
       <c r="DZ14" s="67" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K15" s="68">
         <v>1002.0</v>
       </c>
       <c r="L15" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="N15" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>521</v>
-      </c>
       <c r="P15" s="60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S15" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T15" s="12">
         <v>40000.0</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V15" s="61">
         <v>45658.0</v>
       </c>
       <c r="W15" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X15" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AC15" s="12">
         <v>1000.0</v>
       </c>
       <c r="AD15" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE15" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF15" s="34">
         <v>0.0</v>
       </c>
       <c r="AG15" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH15" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH15" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ15" s="57" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AK15" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AL15" s="12">
         <v>8000.0</v>
@@ -12102,40 +12140,40 @@
         <v>80000.0</v>
       </c>
       <c r="AP15" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="AQ15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AR15" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AT15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AV15" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AY15" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="AZ15" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA15" s="12" t="s">
         <v>524</v>
-      </c>
-      <c r="AQ15" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AR15" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AS15" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT15" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AU15" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AV15" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW15" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AX15" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AY15" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="AZ15" s="60" t="s">
-        <v>380</v>
-      </c>
-      <c r="BA15" s="12" t="s">
-        <v>526</v>
       </c>
       <c r="BB15" s="69">
         <v>44197.0</v>
@@ -12153,25 +12191,25 @@
         <v>44743.0</v>
       </c>
       <c r="BG15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BH15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BI15" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ15" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK15" s="12" t="s">
-        <v>527</v>
-      </c>
-      <c r="BL15" s="12" t="s">
-        <v>383</v>
+        <v>525</v>
+      </c>
+      <c r="BL15" s="12">
+        <v>1.0</v>
       </c>
       <c r="BM15" s="12" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="BN15" s="12" t="s">
         <v>385</v>
@@ -12189,31 +12227,31 @@
         <v>0.0</v>
       </c>
       <c r="BS15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT15" s="12" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="BU15" s="34" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="BV15" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BW15" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BX15" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BY15" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ15" s="61">
         <v>44197.0</v>
       </c>
       <c r="CA15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB15" s="12" t="s">
         <v>387</v>
@@ -12222,46 +12260,46 @@
         <v>388</v>
       </c>
       <c r="CD15" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="CE15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CF15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CG15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CH15" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CI15" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CJ15" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CK15" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CL15" s="57" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="CM15" s="57" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="CN15" s="57" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="CO15" s="57" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="CP15" s="57" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="CQ15" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="CR15" s="61">
         <v>43861.0</v>
@@ -12270,44 +12308,44 @@
         <v>392</v>
       </c>
       <c r="CT15" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="CU15" s="12" t="s">
         <v>393</v>
       </c>
       <c r="CV15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CW15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CX15" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="CY15" s="12" t="s">
-        <v>383</v>
+        <v>446</v>
+      </c>
+      <c r="CY15" s="12">
+        <v>1.0</v>
       </c>
       <c r="CZ15" s="40" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="DA15" s="65"/>
       <c r="DB15" s="40" t="s">
+        <v>531</v>
+      </c>
+      <c r="DC15" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="DD15" s="40" t="s">
         <v>533</v>
       </c>
-      <c r="DC15" s="40" t="s">
-        <v>383</v>
-      </c>
-      <c r="DD15" s="40" t="s">
+      <c r="DE15" s="40" t="s">
+        <v>381</v>
+      </c>
+      <c r="DF15" s="40" t="s">
         <v>534</v>
       </c>
-      <c r="DE15" s="40" t="s">
-        <v>380</v>
-      </c>
-      <c r="DF15" s="40" t="s">
-        <v>535</v>
-      </c>
       <c r="DG15" s="40" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="DH15" s="40" t="s">
         <v>393</v>
@@ -12316,25 +12354,25 @@
         <v>385</v>
       </c>
       <c r="DJ15" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="DK15" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="DL15" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="DM15" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="DN15" s="40" t="s">
         <v>536</v>
-      </c>
-      <c r="DK15" s="40" t="s">
-        <v>536</v>
-      </c>
-      <c r="DL15" s="40" t="s">
-        <v>536</v>
-      </c>
-      <c r="DM15" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="DN15" s="40" t="s">
-        <v>537</v>
       </c>
       <c r="DO15" s="65"/>
       <c r="DP15" s="65"/>
       <c r="DQ15" s="65"/>
       <c r="DR15" s="40" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="DS15" s="65"/>
       <c r="DT15" s="65"/>
@@ -12347,115 +12385,115 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
+        <v>537</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>538</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>539</v>
-      </c>
       <c r="F16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K16" s="68">
         <v>1003.0</v>
       </c>
       <c r="L16" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="N16" s="12" t="s">
+      <c r="O16" s="57" t="s">
         <v>541</v>
       </c>
-      <c r="O16" s="57" t="s">
-        <v>542</v>
-      </c>
       <c r="P16" s="60" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S16" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="T16" s="12">
         <v>90000.0</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V16" s="61">
         <v>45658.0</v>
       </c>
       <c r="W16" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="X16" s="61">
         <v>44593.0</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AC16" s="12">
         <v>1080.0</v>
       </c>
       <c r="AD16" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF16" s="34">
         <v>0.0</v>
       </c>
       <c r="AG16" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AH16" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AH16" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="AI16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AJ16" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="AK16" s="12" t="s">
         <v>544</v>
-      </c>
-      <c r="AK16" s="12" t="s">
-        <v>545</v>
       </c>
       <c r="AL16" s="12">
         <v>8999.0</v>
@@ -12470,40 +12508,40 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="AQ16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AR16" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AT16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AU16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AV16" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AX16" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="AY16" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="AQ16" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AR16" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="AS16" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AT16" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AU16" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AV16" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="AW16" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AX16" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="AY16" s="12" t="s">
+      <c r="AZ16" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="BA16" s="12" t="s">
         <v>547</v>
-      </c>
-      <c r="AZ16" s="60" t="s">
-        <v>435</v>
-      </c>
-      <c r="BA16" s="12" t="s">
-        <v>548</v>
       </c>
       <c r="BB16" s="61">
         <v>44562.0</v>
@@ -12527,22 +12565,22 @@
         <v>12.0</v>
       </c>
       <c r="BI16" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BJ16" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BK16" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="BL16" s="12">
+        <v>3.0</v>
+      </c>
+      <c r="BM16" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="BL16" s="12" t="s">
+      <c r="BN16" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="BM16" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="BN16" s="12" t="s">
-        <v>440</v>
       </c>
       <c r="BO16" s="12">
         <v>1080.0</v>
@@ -12557,79 +12595,79 @@
         <v>0.0</v>
       </c>
       <c r="BS16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="BT16" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BU16" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="BV16" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BW16" s="62" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="BX16" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BY16" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="BZ16" s="61">
         <v>44562.0</v>
       </c>
       <c r="CA16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CB16" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="CC16" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="CD16" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="CE16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CF16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CG16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="CH16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="CI16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="CJ16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="CK16" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="CL16" s="57" t="s">
         <v>552</v>
       </c>
-      <c r="CE16" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CF16" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CG16" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="CH16" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="CI16" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="CJ16" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="CK16" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="CL16" s="57" t="s">
+      <c r="CM16" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="CN16" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="CO16" s="57" t="s">
+        <v>552</v>
+      </c>
+      <c r="CP16" s="57" t="s">
+        <v>543</v>
+      </c>
+      <c r="CQ16" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="CM16" s="57" t="s">
-        <v>553</v>
-      </c>
-      <c r="CN16" s="57" t="s">
-        <v>553</v>
-      </c>
-      <c r="CO16" s="57" t="s">
-        <v>553</v>
-      </c>
-      <c r="CP16" s="57" t="s">
-        <v>544</v>
-      </c>
-      <c r="CQ16" s="12" t="s">
-        <v>554</v>
       </c>
       <c r="CR16" s="61">
         <v>44227.0</v>
@@ -12638,22 +12676,22 @@
         <v>392</v>
       </c>
       <c r="CT16" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="CU16" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="CV16" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="CU16" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="CV16" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="CW16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="CX16" s="64" t="s">
-        <v>448</v>
-      </c>
-      <c r="CY16" s="12" t="s">
-        <v>438</v>
+        <v>446</v>
+      </c>
+      <c r="CY16" s="12">
+        <v>3.0</v>
       </c>
       <c r="CZ16" s="65"/>
       <c r="DA16" s="65"/>
@@ -12685,10 +12723,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C17" s="71"/>
       <c r="D17" s="71"/>
@@ -12821,10 +12859,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C18" s="71"/>
       <c r="D18" s="71"/>
@@ -41212,7 +41250,7 @@
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="77"/>
@@ -41226,13 +41264,13 @@
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
       <c r="D5" s="50" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E5" s="77"/>
     </row>
     <row r="6">
       <c r="A6" s="75" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B6" s="76"/>
       <c r="C6" s="77"/>
@@ -41241,7 +41279,7 @@
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="78" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
@@ -42884,12 +42922,12 @@
         <v>345</v>
       </c>
       <c r="AE3" s="51" t="s">
-        <v>343</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B4" s="75" t="s">
         <v>558</v>
@@ -42926,7 +42964,7 @@
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -42946,11 +42984,11 @@
       <c r="Q5" s="77"/>
       <c r="R5" s="77"/>
       <c r="S5" s="50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="T5" s="77"/>
       <c r="U5" s="50" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V5" s="77"/>
       <c r="W5" s="77"/>
@@ -42965,7 +43003,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="78" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="80"/>
@@ -43000,37 +43038,37 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I7" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>559</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>560</v>
@@ -43039,28 +43077,28 @@
         <v>560</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S7" s="57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V7" s="12" t="s">
         <v>384</v>
@@ -43072,60 +43110,60 @@
         <v>389</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB7" s="12">
         <v>1100.0</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AE7" s="60" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D8" s="57">
         <v>1005.0</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I8" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>371</v>
-      </c>
       <c r="K8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>560</v>
@@ -43134,28 +43172,28 @@
         <v>560</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S8" s="57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>384</v>
@@ -43167,25 +43205,25 @@
         <v>389</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA8" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB8" s="12">
         <v>1100.0</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AE8" s="60" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -43193,34 +43231,34 @@
         <v>397</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C9" s="57" t="s">
         <v>397</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I9" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>559</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>561</v>
@@ -43229,58 +43267,58 @@
         <v>561</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S9" s="57" t="s">
         <v>405</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U9" s="12" t="s">
         <v>400</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W9" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="X9" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="X9" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="Y9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA9" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB9" s="12">
         <v>1110.0</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD9" s="12" t="s">
         <v>562</v>
       </c>
       <c r="AE9" s="60" t="s">
-        <v>411</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -43288,34 +43326,34 @@
         <v>397</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>397</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>402</v>
       </c>
       <c r="I10" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>561</v>
@@ -43324,316 +43362,316 @@
         <v>561</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S10" s="57" t="s">
         <v>405</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U10" s="12" t="s">
         <v>400</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W10" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="X10" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="X10" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="Y10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA10" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB10" s="12">
         <v>1110.0</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD10" s="12" t="s">
         <v>562</v>
       </c>
       <c r="AE10" s="60" t="s">
-        <v>411</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I11" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J11" s="12" t="s">
         <v>559</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S11" s="57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W11" s="60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB11" s="12">
         <v>1120.0</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD11" s="12" t="s">
         <v>394</v>
       </c>
       <c r="AE11" s="60" t="s">
-        <v>438</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I12" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S12" s="57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="W12" s="60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X12" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB12" s="12">
         <v>1120.0</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD12" s="12" t="s">
         <v>394</v>
       </c>
       <c r="AE12" s="60" t="s">
-        <v>438</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I13" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>559</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S13" s="57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="W13" s="60" t="s">
         <v>388</v>
@@ -43642,93 +43680,93 @@
         <v>389</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA13" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB13" s="12">
         <v>1130.0</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AE13" s="60" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H14" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="I14" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="S14" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="I14" s="82" t="s">
-        <v>372</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="S14" s="57" t="s">
-        <v>457</v>
-      </c>
       <c r="T14" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="W14" s="60" t="s">
         <v>388</v>
@@ -43737,595 +43775,595 @@
         <v>389</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB14" s="12">
         <v>1130.0</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AE14" s="60" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I15" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J15" s="12" t="s">
         <v>559</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S15" s="57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="W15" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="X15" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="X15" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="Y15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA15" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB15" s="12">
         <v>1140.0</v>
       </c>
       <c r="AC15" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD15" s="12" t="s">
         <v>394</v>
       </c>
       <c r="AE15" s="60" t="s">
-        <v>438</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I16" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S16" s="57" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="W16" s="60" t="s">
+        <v>415</v>
+      </c>
+      <c r="X16" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="X16" s="12" t="s">
-        <v>417</v>
-      </c>
       <c r="Y16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB16" s="12">
         <v>1140.0</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD16" s="12" t="s">
         <v>394</v>
       </c>
       <c r="AE16" s="60" t="s">
-        <v>438</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I17" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>559</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S17" s="57" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W17" s="60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X17" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA17" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB17" s="12">
         <v>1150.0</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD17" s="12" t="s">
         <v>562</v>
       </c>
       <c r="AE17" s="60" t="s">
-        <v>411</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>402</v>
       </c>
       <c r="I18" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S18" s="57" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="W18" s="60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA18" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB18" s="12">
         <v>1150.0</v>
       </c>
       <c r="AC18" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD18" s="12" t="s">
         <v>562</v>
       </c>
       <c r="AE18" s="60" t="s">
-        <v>411</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I19" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J19" s="12" t="s">
         <v>559</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S19" s="57" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="W19" s="60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA19" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB19" s="12">
         <v>1160.0</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AE19" s="60" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I20" s="82" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="S20" s="57" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="W20" s="60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AA20" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AB20" s="12">
         <v>1160.0</v>
       </c>
       <c r="AC20" s="12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="AE20" s="60" t="s">
-        <v>383</v>
+        <v>532</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -45790,7 +45828,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C2" s="77"/>
     </row>
@@ -45803,60 +45841,60 @@
     </row>
     <row r="4">
       <c r="A4" s="75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C4" s="77"/>
     </row>
     <row r="5">
       <c r="A5" s="75" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="83" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="78" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="80"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B7" s="84">
         <v>1002.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B8" s="84">
         <v>1003.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -45864,65 +45902,65 @@
         <v>397</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -47349,123 +47387,123 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="85" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -47473,16 +47511,56 @@
         <v>28</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>600</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>604</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>606</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>607</v>
+      </c>
+    </row>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -48480,106 +48558,118 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.63"/>
+    <col customWidth="1" min="2" max="2" width="17.75"/>
     <col customWidth="1" min="3" max="3" width="23.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="90" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="92" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B2" s="93">
         <v>0.0</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="92" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B3" s="93">
         <v>1.0</v>
       </c>
       <c r="C3" s="92" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="92" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B4" s="93">
         <v>2.0</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B5" s="95">
         <v>0.0</v>
       </c>
       <c r="C5" s="94" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B6" s="95">
         <v>1.0</v>
       </c>
       <c r="C6" s="94" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="92" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B7" s="93">
         <v>0.0</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="92" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B8" s="93">
         <v>1.0</v>
       </c>
       <c r="C8" s="92" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="92" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B9" s="93">
         <v>2.0</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>608</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -48611,7 +48701,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="44"/>
       <c r="B1" s="45" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -48652,19 +48742,19 @@
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B4" s="49"/>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B5" s="49"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="54" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B6" s="54"/>
     </row>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -2193,10 +2193,10 @@
     <t>PARA</t>
   </si>
   <si>
-    <t>VALEUR INTERNE</t>
-  </si>
-  <si>
-    <t>VALEUR</t>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>TEXTE IHM</t>
   </si>
   <si>
     <t>Non suivi en Stock</t>
@@ -2534,7 +2534,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2788,8 +2788,11 @@
     <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -48558,7 +48561,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.63"/>
-    <col customWidth="1" min="2" max="2" width="17.75"/>
+    <col customWidth="1" min="2" max="2" width="7.63"/>
     <col customWidth="1" min="3" max="3" width="23.75"/>
   </cols>
   <sheetData>
@@ -48569,100 +48572,100 @@
       <c r="B1" s="91" t="s">
         <v>609</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="92" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="94">
         <v>0.0</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="94">
         <v>1.0</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="93" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>348</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="94">
         <v>2.0</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="93" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="95" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="96">
         <v>0.0</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="95" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="95" t="s">
         <v>349</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="96">
         <v>1.0</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="95" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="93" t="s">
         <v>556</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="94">
         <v>0.0</v>
       </c>
-      <c r="C7" s="92" t="s">
+      <c r="C7" s="93" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="93" t="s">
         <v>556</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="94">
         <v>1.0</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="93" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="93" t="s">
         <v>556</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="94">
         <v>2.0</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="93" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="97" t="s">
         <v>347</v>
       </c>
       <c r="B10" s="12" t="s">

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -17,14 +17,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="nPMxbupF/NV3wDlCphb2a8ne1onFk1r2dHk67qiBlGE="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="WJn/X2NuL75VQtsPkZWna57iRDFCKbG0SaTvTVElzPY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="629">
   <si>
     <t>Date</t>
   </si>
@@ -2060,6 +2060,30 @@
   </si>
   <si>
     <t>NOTES DU MATRICULE</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE MODIFIEES</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE 01</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE 02</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE 03</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE 04</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE 05</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE 06</t>
+  </si>
+  <si>
+    <t>NOTES DU MATRICULE 07</t>
   </si>
   <si>
     <t>TAB</t>
@@ -45788,7 +45812,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="31.88"/>
     <col customWidth="1" min="2" max="2" width="19.13"/>
-    <col customWidth="1" min="3" max="3" width="19.63"/>
+    <col customWidth="1" min="3" max="3" width="29.63"/>
     <col customWidth="1" min="4" max="6" width="12.63"/>
   </cols>
   <sheetData>
@@ -45886,7 +45910,7 @@
         <v>1003.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -45897,7 +45921,7 @@
         <v>367</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -45908,7 +45932,7 @@
         <v>367</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -45919,7 +45943,7 @@
         <v>367</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -45930,7 +45954,7 @@
         <v>367</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -45941,7 +45965,7 @@
         <v>367</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
@@ -45952,7 +45976,7 @@
         <v>367</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
@@ -45963,7 +45987,7 @@
         <v>367</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -47390,123 +47414,123 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="85" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B1" s="86" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B2" s="87" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="C11" s="88" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -47514,54 +47538,54 @@
         <v>28</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -48536,12 +48560,6 @@
     <row r="986" ht="12.75" customHeight="1"/>
     <row r="987" ht="12.75" customHeight="1"/>
     <row r="988" ht="12.75" customHeight="1"/>
-    <row r="989" ht="12.75" customHeight="1"/>
-    <row r="990" ht="12.75" customHeight="1"/>
-    <row r="991" ht="12.75" customHeight="1"/>
-    <row r="992" ht="12.75" customHeight="1"/>
-    <row r="993" ht="12.75" customHeight="1"/>
-    <row r="994" ht="12.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -48567,13 +48585,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="90" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="B1" s="91" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2">
@@ -48584,7 +48602,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="93" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3">
@@ -48595,7 +48613,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4">
@@ -48606,7 +48624,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="93" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="5">
@@ -48617,7 +48635,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="95" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6">
@@ -48628,7 +48646,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7">
@@ -48639,7 +48657,7 @@
         <v>0.0</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="8">
@@ -48650,7 +48668,7 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="93" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9">
@@ -48661,7 +48679,7 @@
         <v>2.0</v>
       </c>
       <c r="C9" s="93" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10">
@@ -48672,7 +48690,7 @@
         <v>371</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -48704,7 +48722,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="44"/>
       <c r="B1" s="45" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2614" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2615" uniqueCount="629">
   <si>
     <t>Date</t>
   </si>
@@ -12396,7 +12396,9 @@
         <v>536</v>
       </c>
       <c r="DO15" s="65"/>
-      <c r="DP15" s="65"/>
+      <c r="DP15" s="40" t="s">
+        <v>366</v>
+      </c>
       <c r="DQ15" s="65"/>
       <c r="DR15" s="40" t="s">
         <v>521</v>
@@ -47544,7 +47546,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="40" t="s">
         <v>585</v>
       </c>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="617">
   <si>
     <t>Date</t>
   </si>
@@ -1603,9 +1603,6 @@
     <t>CAL.RT.MAT.001.CRE.03</t>
   </si>
   <si>
-    <t>EMP.RT.MAT.001.CRE.03.........</t>
-  </si>
-  <si>
     <t>GROUPE03</t>
   </si>
   <si>
@@ -1657,9 +1654,6 @@
     <t>CAL.RT.MAT.001.CRE.04</t>
   </si>
   <si>
-    <t>EMP.RT.MAT.001.CRE.04.........</t>
-  </si>
-  <si>
     <t>REF FOURNISSEUR 04</t>
   </si>
   <si>
@@ -1705,9 +1699,6 @@
     <t>CAL.RT.MAT.001.CRE.05</t>
   </si>
   <si>
-    <t>EMP.RT.MAT.001.CRE.05.........</t>
-  </si>
-  <si>
     <t>REF FOURNISSEUR 05</t>
   </si>
   <si>
@@ -1753,9 +1744,6 @@
     <t>CAL.RT.MAT.001.CRE.06</t>
   </si>
   <si>
-    <t>EMP.RT.MAT.001.CRE.06.........</t>
-  </si>
-  <si>
     <t>REF FOURNISSEUR 06</t>
   </si>
   <si>
@@ -1799,9 +1787,6 @@
   </si>
   <si>
     <t>CAL.RT.MAT.001.CRE.07</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.07.........</t>
   </si>
   <si>
     <t>REF FOURNISSEUR 07</t>
@@ -10460,13 +10445,13 @@
         <v>374</v>
       </c>
       <c r="AY10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ10" s="60" t="s">
         <v>421</v>
       </c>
-      <c r="AZ10" s="60" t="s">
+      <c r="BA10" s="12" t="s">
         <v>422</v>
-      </c>
-      <c r="BA10" s="12" t="s">
-        <v>423</v>
       </c>
       <c r="BB10" s="62">
         <v>44562.0</v>
@@ -10496,16 +10481,16 @@
         <v>365</v>
       </c>
       <c r="BK10" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BL10" s="12">
         <v>3.0</v>
       </c>
       <c r="BM10" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="BN10" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="BN10" s="12" t="s">
-        <v>426</v>
       </c>
       <c r="BO10" s="12" t="s">
         <v>365</v>
@@ -10523,7 +10508,7 @@
         <v>365</v>
       </c>
       <c r="BT10" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BU10" s="34" t="s">
         <v>419</v>
@@ -10565,34 +10550,34 @@
         <v>365</v>
       </c>
       <c r="CH10" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="CI10" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="CJ10" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="CK10" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="CL10" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="CI10" s="29" t="s">
+      <c r="CM10" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="CJ10" s="29" t="s">
+      <c r="CN10" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="CK10" s="29" t="s">
+      <c r="CO10" s="57" t="s">
         <v>428</v>
-      </c>
-      <c r="CL10" s="57" t="s">
-        <v>429</v>
-      </c>
-      <c r="CM10" s="57" t="s">
-        <v>429</v>
-      </c>
-      <c r="CN10" s="57" t="s">
-        <v>429</v>
-      </c>
-      <c r="CO10" s="57" t="s">
-        <v>429</v>
       </c>
       <c r="CP10" s="57" t="s">
         <v>419</v>
       </c>
       <c r="CQ10" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CR10" s="62">
         <v>44227.0</v>
@@ -10604,7 +10589,7 @@
         <v>366</v>
       </c>
       <c r="CU10" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CV10" s="12" t="s">
         <v>365</v>
@@ -10652,15 +10637,15 @@
       <c r="DX10" s="64"/>
       <c r="DY10" s="64"/>
       <c r="DZ10" s="66" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>365</v>
@@ -10669,7 +10654,7 @@
         <v>363</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>365</v>
@@ -10690,16 +10675,16 @@
         <v>367</v>
       </c>
       <c r="L11" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>436</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>437</v>
       </c>
       <c r="P11" s="60" t="s">
         <v>371</v>
@@ -10780,7 +10765,7 @@
         <v>40000.0</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AQ11" s="12" t="s">
         <v>377</v>
@@ -10807,13 +10792,13 @@
         <v>374</v>
       </c>
       <c r="AY11" s="12" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="AZ11" s="60" t="s">
         <v>378</v>
       </c>
       <c r="BA11" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="BB11" s="62">
         <v>44562.0</v>
@@ -10843,13 +10828,13 @@
         <v>365</v>
       </c>
       <c r="BK11" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="BL11" s="12">
         <v>1.0</v>
       </c>
       <c r="BM11" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="BN11" s="12" t="s">
         <v>382</v>
@@ -10870,10 +10855,10 @@
         <v>365</v>
       </c>
       <c r="BT11" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BU11" s="34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BV11" s="61" t="s">
         <v>373</v>
@@ -10912,34 +10897,34 @@
         <v>365</v>
       </c>
       <c r="CH11" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="CI11" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="CJ11" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="CK11" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="CL11" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="CM11" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="CN11" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="CO11" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="CP11" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="CQ11" s="12" t="s">
         <v>445</v>
-      </c>
-      <c r="CI11" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="CJ11" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="CK11" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="CL11" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="CM11" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="CN11" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="CO11" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="CP11" s="57" t="s">
-        <v>444</v>
-      </c>
-      <c r="CQ11" s="12" t="s">
-        <v>447</v>
       </c>
       <c r="CR11" s="62">
         <v>44227.0</v>
@@ -10999,15 +10984,15 @@
       </c>
       <c r="DY11" s="65"/>
       <c r="DZ11" s="66" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>365</v>
@@ -11016,7 +11001,7 @@
         <v>363</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>365</v>
@@ -11037,16 +11022,16 @@
         <v>367</v>
       </c>
       <c r="L12" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="P12" s="60" t="s">
         <v>371</v>
@@ -11127,7 +11112,7 @@
         <v>50000.0</v>
       </c>
       <c r="AP12" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AQ12" s="12" t="s">
         <v>374</v>
@@ -11154,13 +11139,13 @@
         <v>374</v>
       </c>
       <c r="AY12" s="12" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="AZ12" s="60" t="s">
         <v>400</v>
       </c>
       <c r="BA12" s="12" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="BB12" s="62">
         <v>44562.0</v>
@@ -11190,13 +11175,13 @@
         <v>365</v>
       </c>
       <c r="BK12" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="BL12" s="12">
         <v>2.0</v>
       </c>
       <c r="BM12" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="BN12" s="12" t="s">
         <v>404</v>
@@ -11217,10 +11202,10 @@
         <v>365</v>
       </c>
       <c r="BT12" s="12" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="BU12" s="34" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="BV12" s="61" t="s">
         <v>373</v>
@@ -11259,34 +11244,34 @@
         <v>365</v>
       </c>
       <c r="CH12" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="CI12" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="CJ12" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="CK12" s="29" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="CL12" s="57" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="CM12" s="57" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="CN12" s="57" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="CO12" s="57" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="CP12" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="CQ12" s="12" t="s">
         <v>460</v>
-      </c>
-      <c r="CQ12" s="12" t="s">
-        <v>463</v>
       </c>
       <c r="CR12" s="62">
         <v>44227.0</v>
@@ -11298,7 +11283,7 @@
         <v>366</v>
       </c>
       <c r="CU12" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CV12" s="12" t="s">
         <v>365</v>
@@ -11346,15 +11331,15 @@
       </c>
       <c r="DY12" s="64"/>
       <c r="DZ12" s="66" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>365</v>
@@ -11363,7 +11348,7 @@
         <v>363</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>365</v>
@@ -11384,16 +11369,16 @@
         <v>367</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M13" s="12" t="s">
         <v>365</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="P13" s="60" t="s">
         <v>371</v>
@@ -11474,7 +11459,7 @@
         <v>60000.0</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="AQ13" s="12" t="s">
         <v>377</v>
@@ -11501,13 +11486,13 @@
         <v>374</v>
       </c>
       <c r="AY13" s="12" t="s">
-        <v>471</v>
+        <v>365</v>
       </c>
       <c r="AZ13" s="60" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="BB13" s="62">
         <v>44562.0</v>
@@ -11537,16 +11522,16 @@
         <v>365</v>
       </c>
       <c r="BK13" s="12" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="BL13" s="12">
         <v>3.0</v>
       </c>
       <c r="BM13" s="12" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="BN13" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BO13" s="12" t="s">
         <v>365</v>
@@ -11564,10 +11549,10 @@
         <v>365</v>
       </c>
       <c r="BT13" s="12" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="BU13" s="34" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="BV13" s="61" t="s">
         <v>373</v>
@@ -11606,34 +11591,34 @@
         <v>365</v>
       </c>
       <c r="CH13" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="CI13" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="CJ13" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="CK13" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="CL13" s="57" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="CM13" s="57" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="CN13" s="57" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="CO13" s="57" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="CP13" s="57" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="CQ13" s="12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="CR13" s="62">
         <v>44227.0</v>
@@ -11686,15 +11671,15 @@
       <c r="DX13" s="64"/>
       <c r="DY13" s="64"/>
       <c r="DZ13" s="66" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>365</v>
@@ -11703,7 +11688,7 @@
         <v>363</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>365</v>
@@ -11724,16 +11709,16 @@
         <v>367</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>365</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P14" s="60" t="s">
         <v>371</v>
@@ -11814,7 +11799,7 @@
         <v>70000.0</v>
       </c>
       <c r="AP14" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AQ14" s="12" t="s">
         <v>377</v>
@@ -11841,13 +11826,13 @@
         <v>374</v>
       </c>
       <c r="AY14" s="12" t="s">
-        <v>487</v>
+        <v>365</v>
       </c>
       <c r="AZ14" s="60" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BA14" s="12" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="BB14" s="62">
         <v>44562.0</v>
@@ -11877,16 +11862,16 @@
         <v>365</v>
       </c>
       <c r="BK14" s="12" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="BL14" s="12">
         <v>3.0</v>
       </c>
       <c r="BM14" s="12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="BN14" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BO14" s="12" t="s">
         <v>365</v>
@@ -11904,10 +11889,10 @@
         <v>365</v>
       </c>
       <c r="BT14" s="12" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="BU14" s="34" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="BV14" s="61" t="s">
         <v>373</v>
@@ -11946,34 +11931,34 @@
         <v>365</v>
       </c>
       <c r="CH14" s="29" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="CI14" s="29" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="CJ14" s="29" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="CK14" s="29" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="CL14" s="57" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="CM14" s="57" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="CN14" s="57" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="CO14" s="57" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="CP14" s="57" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="CQ14" s="12" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="CR14" s="62">
         <v>44227.0</v>
@@ -11988,7 +11973,7 @@
         <v>389</v>
       </c>
       <c r="CV14" s="12" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="CW14" s="12" t="s">
         <v>365</v>
@@ -12026,15 +12011,15 @@
       <c r="DX14" s="64"/>
       <c r="DY14" s="64"/>
       <c r="DZ14" s="66" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>365</v>
@@ -12043,7 +12028,7 @@
         <v>363</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>365</v>
@@ -12064,16 +12049,16 @@
         <v>1002.0</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>365</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P15" s="60" t="s">
         <v>371</v>
@@ -12139,7 +12124,7 @@
         <v>365</v>
       </c>
       <c r="AK15" s="12" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AL15" s="12">
         <v>8000.0</v>
@@ -12154,7 +12139,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP15" s="12" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>377</v>
@@ -12181,13 +12166,13 @@
         <v>377</v>
       </c>
       <c r="AY15" s="12" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AZ15" s="60" t="s">
         <v>378</v>
       </c>
       <c r="BA15" s="12" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="BB15" s="68">
         <v>44197.0</v>
@@ -12217,13 +12202,13 @@
         <v>365</v>
       </c>
       <c r="BK15" s="12" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="BL15" s="12">
         <v>1.0</v>
       </c>
       <c r="BM15" s="12" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="BN15" s="12" t="s">
         <v>382</v>
@@ -12244,10 +12229,10 @@
         <v>365</v>
       </c>
       <c r="BT15" s="12" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="BU15" s="34" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="BV15" s="61" t="s">
         <v>373</v>
@@ -12286,34 +12271,34 @@
         <v>365</v>
       </c>
       <c r="CH15" s="69" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="CI15" s="69" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="CJ15" s="69" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="CK15" s="69" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="CL15" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="CM15" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="CN15" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="CO15" s="57" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="CP15" s="57" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="CQ15" s="12" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="CR15" s="62">
         <v>43861.0</v>
@@ -12340,26 +12325,26 @@
         <v>365</v>
       </c>
       <c r="CZ15" s="40" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="DA15" s="64"/>
       <c r="DB15" s="40" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="DC15" s="40" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="DD15" s="40" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="DE15" s="40" t="s">
         <v>378</v>
       </c>
       <c r="DF15" s="40" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="DG15" s="40" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="DH15" s="40" t="s">
         <v>389</v>
@@ -12368,19 +12353,19 @@
         <v>382</v>
       </c>
       <c r="DJ15" s="40" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="DK15" s="40" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="DL15" s="40" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="DM15" s="12" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="DN15" s="40" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="DO15" s="64"/>
       <c r="DP15" s="40" t="s">
@@ -12388,7 +12373,7 @@
       </c>
       <c r="DQ15" s="64"/>
       <c r="DR15" s="40" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="DS15" s="64"/>
       <c r="DT15" s="64"/>
@@ -12401,10 +12386,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>365</v>
@@ -12413,7 +12398,7 @@
         <v>363</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>365</v>
@@ -12434,16 +12419,16 @@
         <v>1003.0</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="M16" s="12" t="s">
         <v>365</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="O16" s="57" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="P16" s="60" t="s">
         <v>371</v>
@@ -12509,7 +12494,7 @@
         <v>365</v>
       </c>
       <c r="AK16" s="12" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="AL16" s="12">
         <v>8999.0</v>
@@ -12524,7 +12509,7 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="12" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AQ16" s="12" t="s">
         <v>374</v>
@@ -12551,13 +12536,13 @@
         <v>374</v>
       </c>
       <c r="AY16" s="12" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="AZ16" s="60" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BA16" s="12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="BB16" s="62">
         <v>44562.0</v>
@@ -12587,16 +12572,16 @@
         <v>365</v>
       </c>
       <c r="BK16" s="12" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="BL16" s="12">
         <v>3.0</v>
       </c>
       <c r="BM16" s="12" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="BN16" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BO16" s="12" t="s">
         <v>365</v>
@@ -12614,10 +12599,10 @@
         <v>365</v>
       </c>
       <c r="BT16" s="12" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="BU16" s="34" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="BV16" s="61" t="s">
         <v>373</v>
@@ -12656,34 +12641,34 @@
         <v>365</v>
       </c>
       <c r="CH16" s="69" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CI16" s="69" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CJ16" s="69" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CK16" s="69" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="CL16" s="57" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="CM16" s="57" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="CN16" s="57" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="CO16" s="57" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="CP16" s="57" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="CQ16" s="12" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="CR16" s="62">
         <v>44227.0</v>
@@ -12695,7 +12680,7 @@
         <v>366</v>
       </c>
       <c r="CU16" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CV16" s="12" t="s">
         <v>365</v>
@@ -12739,10 +12724,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
@@ -12875,10 +12860,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -41280,7 +41265,7 @@
       <c r="B5" s="75"/>
       <c r="C5" s="76"/>
       <c r="D5" s="50" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="E5" s="76"/>
     </row>
@@ -42938,7 +42923,7 @@
         <v>345</v>
       </c>
       <c r="AE3" s="51" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
@@ -42946,7 +42931,7 @@
         <v>350</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -43081,16 +43066,16 @@
         <v>373</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>365</v>
@@ -43120,10 +43105,10 @@
         <v>381</v>
       </c>
       <c r="W7" s="60" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Y7" s="12" t="s">
         <v>365</v>
@@ -43141,10 +43126,10 @@
         <v>375</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AE7" s="60" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -43182,10 +43167,10 @@
         <v>365</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>365</v>
@@ -43215,10 +43200,10 @@
         <v>381</v>
       </c>
       <c r="W8" s="60" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Y8" s="12" t="s">
         <v>365</v>
@@ -43236,10 +43221,10 @@
         <v>375</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AE8" s="60" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -43271,16 +43256,16 @@
         <v>373</v>
       </c>
       <c r="J9" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>546</v>
-      </c>
       <c r="M9" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>365</v>
@@ -43310,10 +43295,10 @@
         <v>403</v>
       </c>
       <c r="W9" s="60" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Y9" s="12" t="s">
         <v>365</v>
@@ -43331,10 +43316,10 @@
         <v>375</v>
       </c>
       <c r="AD9" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AE9" s="60" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -43360,22 +43345,22 @@
         <v>375</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I10" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>365</v>
@@ -43405,10 +43390,10 @@
         <v>403</v>
       </c>
       <c r="W10" s="60" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Y10" s="12" t="s">
         <v>365</v>
@@ -43426,10 +43411,10 @@
         <v>375</v>
       </c>
       <c r="AD10" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AE10" s="60" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -43461,16 +43446,16 @@
         <v>373</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="N11" s="12" t="s">
         <v>365</v>
@@ -43497,13 +43482,13 @@
         <v>416</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W11" s="60" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Y11" s="12" t="s">
         <v>365</v>
@@ -43521,10 +43506,10 @@
         <v>375</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE11" s="60" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -43550,22 +43535,22 @@
         <v>365</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="I12" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>365</v>
@@ -43592,13 +43577,13 @@
         <v>416</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W12" s="60" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X12" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Y12" s="12" t="s">
         <v>365</v>
@@ -43616,21 +43601,21 @@
         <v>375</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE12" s="60" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>365</v>
@@ -43651,16 +43636,16 @@
         <v>373</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>365</v>
@@ -43678,22 +43663,22 @@
         <v>365</v>
       </c>
       <c r="S13" s="57" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W13" s="60" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Y13" s="12" t="s">
         <v>365</v>
@@ -43711,21 +43696,21 @@
         <v>375</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AE13" s="60" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>365</v>
@@ -43740,22 +43725,22 @@
         <v>365</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I14" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>365</v>
@@ -43773,22 +43758,22 @@
         <v>365</v>
       </c>
       <c r="S14" s="57" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W14" s="60" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Y14" s="12" t="s">
         <v>365</v>
@@ -43806,21 +43791,21 @@
         <v>375</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AE14" s="60" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>365</v>
@@ -43841,16 +43826,16 @@
         <v>373</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>365</v>
@@ -43868,22 +43853,22 @@
         <v>365</v>
       </c>
       <c r="S15" s="57" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="W15" s="60" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Y15" s="12" t="s">
         <v>365</v>
@@ -43901,21 +43886,21 @@
         <v>375</v>
       </c>
       <c r="AD15" s="12" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE15" s="60" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>365</v>
@@ -43930,22 +43915,22 @@
         <v>365</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I16" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>365</v>
@@ -43963,22 +43948,22 @@
         <v>365</v>
       </c>
       <c r="S16" s="57" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="W16" s="60" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="Y16" s="12" t="s">
         <v>365</v>
@@ -43996,21 +43981,21 @@
         <v>375</v>
       </c>
       <c r="AD16" s="12" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="AE16" s="60" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>365</v>
@@ -44031,16 +44016,16 @@
         <v>373</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>365</v>
@@ -44058,22 +44043,22 @@
         <v>365</v>
       </c>
       <c r="S17" s="57" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="W17" s="60" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X17" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Y17" s="12" t="s">
         <v>365</v>
@@ -44091,21 +44076,21 @@
         <v>375</v>
       </c>
       <c r="AD17" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AE17" s="60" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>365</v>
@@ -44120,22 +44105,22 @@
         <v>375</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="I18" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>365</v>
@@ -44153,22 +44138,22 @@
         <v>365</v>
       </c>
       <c r="S18" s="57" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="W18" s="60" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>365</v>
@@ -44186,21 +44171,21 @@
         <v>375</v>
       </c>
       <c r="AD18" s="12" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="AE18" s="60" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>365</v>
@@ -44221,16 +44206,16 @@
         <v>373</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>365</v>
@@ -44248,22 +44233,22 @@
         <v>365</v>
       </c>
       <c r="S19" s="57" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="W19" s="60" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>365</v>
@@ -44281,21 +44266,21 @@
         <v>375</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AE19" s="60" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>365</v>
@@ -44310,22 +44295,22 @@
         <v>365</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="I20" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>365</v>
@@ -44343,22 +44328,22 @@
         <v>365</v>
       </c>
       <c r="S20" s="57" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="W20" s="60" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>365</v>
@@ -44376,10 +44361,10 @@
         <v>375</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="AE20" s="60" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -45843,7 +45828,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C2" s="76"/>
     </row>
@@ -45869,7 +45854,7 @@
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="82" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -45881,24 +45866,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B7" s="83">
         <v>1002.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B8" s="83">
         <v>1003.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -45909,7 +45894,7 @@
         <v>367</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -45920,7 +45905,7 @@
         <v>367</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -45931,51 +45916,51 @@
         <v>367</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B14" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B15" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -47402,123 +47387,123 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="84" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>578</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>583</v>
-      </c>
       <c r="C4" s="12" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -47526,54 +47511,54 @@
         <v>28</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -48573,13 +48558,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="88" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B1" s="89" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2">
@@ -48590,7 +48575,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3">
@@ -48601,7 +48586,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4">
@@ -48612,7 +48597,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="5">
@@ -48623,7 +48608,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="6">
@@ -48634,40 +48619,40 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="91" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B7" s="92">
         <v>0.0</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="91" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B8" s="92">
         <v>1.0</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="91" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B9" s="92">
         <v>2.0</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10">
@@ -48678,7 +48663,7 @@
         <v>371</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -48710,7 +48695,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="44"/>
       <c r="B1" s="45" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="616">
   <si>
     <t>Date</t>
   </si>
@@ -1535,9 +1535,6 @@
   </si>
   <si>
     <t>CAL.RT.MAT.001.CRE.02</t>
-  </si>
-  <si>
-    <t>EMP.RT.MAT.001.CRE.02.........</t>
   </si>
   <si>
     <t>GROUPE02</t>
@@ -9669,7 +9666,7 @@
         <v>45658.0</v>
       </c>
       <c r="W8" s="61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="X8" s="62">
         <v>44593.0</v>
@@ -9824,14 +9821,14 @@
       <c r="BV8" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="BW8" s="61" t="s">
-        <v>373</v>
+      <c r="BW8" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="BX8" s="35" t="s">
         <v>375</v>
       </c>
       <c r="BY8" s="35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BZ8" s="62">
         <v>44562.0</v>
@@ -10007,14 +10004,14 @@
       <c r="T9" s="12">
         <v>20000.0</v>
       </c>
-      <c r="U9" s="12" t="s">
-        <v>365</v>
+      <c r="U9" s="61" t="s">
+        <v>373</v>
       </c>
       <c r="V9" s="62">
         <v>45658.0</v>
       </c>
       <c r="W9" s="61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="X9" s="62">
         <v>44593.0</v>
@@ -10098,13 +10095,13 @@
         <v>374</v>
       </c>
       <c r="AY9" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ9" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="AZ9" s="60" t="s">
+      <c r="BA9" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="BA9" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="BB9" s="62">
         <v>44562.0</v>
@@ -10134,16 +10131,16 @@
         <v>365</v>
       </c>
       <c r="BK9" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BL9" s="12">
         <v>2.0</v>
       </c>
       <c r="BM9" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="BN9" s="12" t="s">
         <v>403</v>
-      </c>
-      <c r="BN9" s="12" t="s">
-        <v>404</v>
       </c>
       <c r="BO9" s="12" t="s">
         <v>365</v>
@@ -10161,22 +10158,22 @@
         <v>365</v>
       </c>
       <c r="BT9" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="BU9" s="34" t="s">
         <v>405</v>
-      </c>
-      <c r="BU9" s="34" t="s">
-        <v>406</v>
       </c>
       <c r="BV9" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="BW9" s="61" t="s">
-        <v>373</v>
+      <c r="BW9" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="BX9" s="35" t="s">
         <v>375</v>
       </c>
       <c r="BY9" s="35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BZ9" s="62">
         <v>44562.0</v>
@@ -10203,34 +10200,34 @@
         <v>365</v>
       </c>
       <c r="CH9" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="CI9" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="CJ9" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="CK9" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="CL9" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="CI9" s="29" t="s">
+      <c r="CM9" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="CJ9" s="29" t="s">
+      <c r="CN9" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="CK9" s="29" t="s">
+      <c r="CO9" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="CL9" s="57" t="s">
+      <c r="CP9" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="CQ9" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="CM9" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="CN9" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="CO9" s="57" t="s">
-        <v>408</v>
-      </c>
-      <c r="CP9" s="57" t="s">
-        <v>406</v>
-      </c>
-      <c r="CQ9" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="CR9" s="62">
         <v>44227.0</v>
@@ -10242,7 +10239,7 @@
         <v>366</v>
       </c>
       <c r="CU9" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="CV9" s="12" t="s">
         <v>365</v>
@@ -10276,7 +10273,7 @@
       <c r="DQ9" s="64"/>
       <c r="DR9" s="64"/>
       <c r="DS9" s="40" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="DT9" s="40" t="s">
         <v>397</v>
@@ -10290,15 +10287,15 @@
       <c r="DX9" s="64"/>
       <c r="DY9" s="64"/>
       <c r="DZ9" s="66" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>365</v>
@@ -10307,7 +10304,7 @@
         <v>363</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>365</v>
@@ -10328,16 +10325,16 @@
         <v>367</v>
       </c>
       <c r="L10" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="M10" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="P10" s="60" t="s">
         <v>371</v>
@@ -10349,19 +10346,19 @@
         <v>365</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="T10" s="12">
         <v>30000.0</v>
       </c>
-      <c r="U10" s="12" t="s">
-        <v>365</v>
+      <c r="U10" s="61" t="s">
+        <v>373</v>
       </c>
       <c r="V10" s="62">
         <v>45658.0</v>
       </c>
       <c r="W10" s="61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="X10" s="62">
         <v>44593.0</v>
@@ -10400,7 +10397,7 @@
         <v>365</v>
       </c>
       <c r="AJ10" s="57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AK10" s="12" t="s">
         <v>365</v>
@@ -10418,7 +10415,7 @@
         <v>30000.0</v>
       </c>
       <c r="AP10" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AQ10" s="12" t="s">
         <v>377</v>
@@ -10448,10 +10445,10 @@
         <v>365</v>
       </c>
       <c r="AZ10" s="60" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA10" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="BA10" s="12" t="s">
-        <v>422</v>
       </c>
       <c r="BB10" s="62">
         <v>44562.0</v>
@@ -10481,16 +10478,16 @@
         <v>365</v>
       </c>
       <c r="BK10" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BL10" s="12">
         <v>3.0</v>
       </c>
       <c r="BM10" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="BN10" s="12" t="s">
         <v>424</v>
-      </c>
-      <c r="BN10" s="12" t="s">
-        <v>425</v>
       </c>
       <c r="BO10" s="12" t="s">
         <v>365</v>
@@ -10508,22 +10505,22 @@
         <v>365</v>
       </c>
       <c r="BT10" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BU10" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BV10" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="BW10" s="61" t="s">
-        <v>373</v>
+      <c r="BW10" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="BX10" s="35" t="s">
         <v>375</v>
       </c>
       <c r="BY10" s="35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BZ10" s="62">
         <v>44562.0</v>
@@ -10550,34 +10547,34 @@
         <v>365</v>
       </c>
       <c r="CH10" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="CI10" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="CJ10" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="CK10" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="CL10" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="CI10" s="29" t="s">
+      <c r="CM10" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="CJ10" s="29" t="s">
+      <c r="CN10" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="CK10" s="29" t="s">
+      <c r="CO10" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="CL10" s="57" t="s">
+      <c r="CP10" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="CQ10" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="CM10" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="CN10" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="CO10" s="57" t="s">
-        <v>428</v>
-      </c>
-      <c r="CP10" s="57" t="s">
-        <v>419</v>
-      </c>
-      <c r="CQ10" s="12" t="s">
-        <v>429</v>
       </c>
       <c r="CR10" s="62">
         <v>44227.0</v>
@@ -10589,7 +10586,7 @@
         <v>366</v>
       </c>
       <c r="CU10" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CV10" s="12" t="s">
         <v>365</v>
@@ -10623,10 +10620,10 @@
       <c r="DQ10" s="64"/>
       <c r="DR10" s="64"/>
       <c r="DS10" s="40" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="DT10" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DU10" s="64"/>
       <c r="DV10" s="64"/>
@@ -10637,15 +10634,15 @@
       <c r="DX10" s="64"/>
       <c r="DY10" s="64"/>
       <c r="DZ10" s="66" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>365</v>
@@ -10654,7 +10651,7 @@
         <v>363</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>365</v>
@@ -10675,16 +10672,16 @@
         <v>367</v>
       </c>
       <c r="L11" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>435</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>436</v>
       </c>
       <c r="P11" s="60" t="s">
         <v>371</v>
@@ -10701,14 +10698,14 @@
       <c r="T11" s="12">
         <v>40000.0</v>
       </c>
-      <c r="U11" s="12" t="s">
-        <v>365</v>
+      <c r="U11" s="61" t="s">
+        <v>373</v>
       </c>
       <c r="V11" s="62">
         <v>45658.0</v>
       </c>
       <c r="W11" s="61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="X11" s="62">
         <v>44593.0</v>
@@ -10765,7 +10762,7 @@
         <v>40000.0</v>
       </c>
       <c r="AP11" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AQ11" s="12" t="s">
         <v>377</v>
@@ -10798,7 +10795,7 @@
         <v>378</v>
       </c>
       <c r="BA11" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BB11" s="62">
         <v>44562.0</v>
@@ -10828,13 +10825,13 @@
         <v>365</v>
       </c>
       <c r="BK11" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BL11" s="12">
         <v>1.0</v>
       </c>
       <c r="BM11" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BN11" s="12" t="s">
         <v>382</v>
@@ -10855,22 +10852,22 @@
         <v>365</v>
       </c>
       <c r="BT11" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="BU11" s="34" t="s">
         <v>441</v>
-      </c>
-      <c r="BU11" s="34" t="s">
-        <v>442</v>
       </c>
       <c r="BV11" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="BW11" s="61" t="s">
-        <v>373</v>
+      <c r="BW11" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="BX11" s="35" t="s">
         <v>375</v>
       </c>
       <c r="BY11" s="35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BZ11" s="62">
         <v>44562.0</v>
@@ -10897,34 +10894,34 @@
         <v>365</v>
       </c>
       <c r="CH11" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="CI11" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="CJ11" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="CK11" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="CL11" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="CI11" s="29" t="s">
+      <c r="CM11" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="CJ11" s="29" t="s">
+      <c r="CN11" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="CK11" s="29" t="s">
+      <c r="CO11" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="CL11" s="57" t="s">
+      <c r="CP11" s="57" t="s">
+        <v>441</v>
+      </c>
+      <c r="CQ11" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="CM11" s="57" t="s">
-        <v>444</v>
-      </c>
-      <c r="CN11" s="57" t="s">
-        <v>444</v>
-      </c>
-      <c r="CO11" s="57" t="s">
-        <v>444</v>
-      </c>
-      <c r="CP11" s="57" t="s">
-        <v>442</v>
-      </c>
-      <c r="CQ11" s="12" t="s">
-        <v>445</v>
       </c>
       <c r="CR11" s="62">
         <v>44227.0</v>
@@ -10970,7 +10967,7 @@
       <c r="DQ11" s="64"/>
       <c r="DR11" s="64"/>
       <c r="DS11" s="40" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="DT11" s="40" t="s">
         <v>363</v>
@@ -10984,15 +10981,15 @@
       </c>
       <c r="DY11" s="65"/>
       <c r="DZ11" s="66" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>365</v>
@@ -11001,7 +10998,7 @@
         <v>363</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>365</v>
@@ -11022,16 +11019,16 @@
         <v>367</v>
       </c>
       <c r="L12" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N12" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="P12" s="60" t="s">
         <v>371</v>
@@ -11048,14 +11045,14 @@
       <c r="T12" s="12">
         <v>50000.0</v>
       </c>
-      <c r="U12" s="12" t="s">
-        <v>365</v>
+      <c r="U12" s="61" t="s">
+        <v>373</v>
       </c>
       <c r="V12" s="62">
         <v>45658.0</v>
       </c>
       <c r="W12" s="61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="X12" s="62">
         <v>44593.0</v>
@@ -11112,7 +11109,7 @@
         <v>50000.0</v>
       </c>
       <c r="AP12" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AQ12" s="12" t="s">
         <v>374</v>
@@ -11142,10 +11139,10 @@
         <v>365</v>
       </c>
       <c r="AZ12" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BA12" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BB12" s="62">
         <v>44562.0</v>
@@ -11175,16 +11172,16 @@
         <v>365</v>
       </c>
       <c r="BK12" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BL12" s="12">
         <v>2.0</v>
       </c>
       <c r="BM12" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BN12" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BO12" s="12" t="s">
         <v>365</v>
@@ -11202,22 +11199,22 @@
         <v>365</v>
       </c>
       <c r="BT12" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="BU12" s="34" t="s">
         <v>456</v>
-      </c>
-      <c r="BU12" s="34" t="s">
-        <v>457</v>
       </c>
       <c r="BV12" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="BW12" s="61" t="s">
-        <v>373</v>
+      <c r="BW12" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="BX12" s="35" t="s">
         <v>375</v>
       </c>
       <c r="BY12" s="35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BZ12" s="62">
         <v>44562.0</v>
@@ -11244,34 +11241,34 @@
         <v>365</v>
       </c>
       <c r="CH12" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="CI12" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="CJ12" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="CK12" s="29" t="s">
+        <v>457</v>
+      </c>
+      <c r="CL12" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="CI12" s="29" t="s">
+      <c r="CM12" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="CJ12" s="29" t="s">
+      <c r="CN12" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="CK12" s="29" t="s">
+      <c r="CO12" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="CL12" s="57" t="s">
+      <c r="CP12" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="CQ12" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="CM12" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="CN12" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="CO12" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="CP12" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="CQ12" s="12" t="s">
-        <v>460</v>
       </c>
       <c r="CR12" s="62">
         <v>44227.0</v>
@@ -11283,7 +11280,7 @@
         <v>366</v>
       </c>
       <c r="CU12" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CV12" s="12" t="s">
         <v>365</v>
@@ -11317,7 +11314,7 @@
       <c r="DQ12" s="64"/>
       <c r="DR12" s="64"/>
       <c r="DS12" s="40" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="DT12" s="40" t="s">
         <v>363</v>
@@ -11331,15 +11328,15 @@
       </c>
       <c r="DY12" s="64"/>
       <c r="DZ12" s="66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>365</v>
@@ -11348,7 +11345,7 @@
         <v>363</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>365</v>
@@ -11369,16 +11366,16 @@
         <v>367</v>
       </c>
       <c r="L13" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="M13" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>465</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>466</v>
       </c>
       <c r="P13" s="60" t="s">
         <v>371</v>
@@ -11395,14 +11392,14 @@
       <c r="T13" s="12">
         <v>60000.0</v>
       </c>
-      <c r="U13" s="12" t="s">
-        <v>365</v>
+      <c r="U13" s="61" t="s">
+        <v>373</v>
       </c>
       <c r="V13" s="62">
         <v>45658.0</v>
       </c>
       <c r="W13" s="61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="X13" s="62">
         <v>44593.0</v>
@@ -11459,7 +11456,7 @@
         <v>60000.0</v>
       </c>
       <c r="AP13" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AQ13" s="12" t="s">
         <v>377</v>
@@ -11489,10 +11486,10 @@
         <v>365</v>
       </c>
       <c r="AZ13" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BA13" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="BB13" s="62">
         <v>44562.0</v>
@@ -11522,16 +11519,16 @@
         <v>365</v>
       </c>
       <c r="BK13" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BL13" s="12">
         <v>3.0</v>
       </c>
       <c r="BM13" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BN13" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BO13" s="12" t="s">
         <v>365</v>
@@ -11549,22 +11546,22 @@
         <v>365</v>
       </c>
       <c r="BT13" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="BU13" s="34" t="s">
         <v>471</v>
-      </c>
-      <c r="BU13" s="34" t="s">
-        <v>472</v>
       </c>
       <c r="BV13" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="BW13" s="61" t="s">
-        <v>373</v>
+      <c r="BW13" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="BX13" s="35" t="s">
         <v>375</v>
       </c>
       <c r="BY13" s="35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BZ13" s="62">
         <v>44562.0</v>
@@ -11591,34 +11588,34 @@
         <v>365</v>
       </c>
       <c r="CH13" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="CI13" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="CJ13" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="CK13" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="CL13" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="CI13" s="29" t="s">
+      <c r="CM13" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="CJ13" s="29" t="s">
+      <c r="CN13" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="CK13" s="29" t="s">
+      <c r="CO13" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="CL13" s="57" t="s">
+      <c r="CP13" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="CQ13" s="12" t="s">
         <v>474</v>
-      </c>
-      <c r="CM13" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="CN13" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="CO13" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="CP13" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="CQ13" s="12" t="s">
-        <v>475</v>
       </c>
       <c r="CR13" s="62">
         <v>44227.0</v>
@@ -11630,7 +11627,7 @@
         <v>366</v>
       </c>
       <c r="CU13" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="CV13" s="12" t="s">
         <v>365</v>
@@ -11671,15 +11668,15 @@
       <c r="DX13" s="64"/>
       <c r="DY13" s="64"/>
       <c r="DZ13" s="66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>365</v>
@@ -11688,7 +11685,7 @@
         <v>363</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>365</v>
@@ -11709,16 +11706,16 @@
         <v>367</v>
       </c>
       <c r="L14" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="M14" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="O14" s="12" t="s">
         <v>480</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>481</v>
       </c>
       <c r="P14" s="60" t="s">
         <v>371</v>
@@ -11735,14 +11732,14 @@
       <c r="T14" s="12">
         <v>70000.0</v>
       </c>
-      <c r="U14" s="12" t="s">
-        <v>365</v>
+      <c r="U14" s="61" t="s">
+        <v>373</v>
       </c>
       <c r="V14" s="62">
         <v>45658.0</v>
       </c>
       <c r="W14" s="61" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="X14" s="62">
         <v>44593.0</v>
@@ -11799,7 +11796,7 @@
         <v>70000.0</v>
       </c>
       <c r="AP14" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AQ14" s="12" t="s">
         <v>377</v>
@@ -11829,10 +11826,10 @@
         <v>365</v>
       </c>
       <c r="AZ14" s="60" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BA14" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BB14" s="62">
         <v>44562.0</v>
@@ -11862,16 +11859,16 @@
         <v>365</v>
       </c>
       <c r="BK14" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BL14" s="12">
         <v>3.0</v>
       </c>
       <c r="BM14" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BN14" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BO14" s="12" t="s">
         <v>365</v>
@@ -11889,22 +11886,22 @@
         <v>365</v>
       </c>
       <c r="BT14" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="BU14" s="34" t="s">
         <v>486</v>
-      </c>
-      <c r="BU14" s="34" t="s">
-        <v>487</v>
       </c>
       <c r="BV14" s="61" t="s">
         <v>373</v>
       </c>
-      <c r="BW14" s="61" t="s">
-        <v>373</v>
+      <c r="BW14" s="35" t="s">
+        <v>365</v>
       </c>
       <c r="BX14" s="35" t="s">
         <v>375</v>
       </c>
       <c r="BY14" s="35" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BZ14" s="62">
         <v>44562.0</v>
@@ -11931,34 +11928,34 @@
         <v>365</v>
       </c>
       <c r="CH14" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="CI14" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="CJ14" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="CK14" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="CL14" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="CI14" s="29" t="s">
+      <c r="CM14" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="CJ14" s="29" t="s">
+      <c r="CN14" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="CK14" s="29" t="s">
+      <c r="CO14" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="CL14" s="57" t="s">
+      <c r="CP14" s="57" t="s">
+        <v>486</v>
+      </c>
+      <c r="CQ14" s="12" t="s">
         <v>489</v>
-      </c>
-      <c r="CM14" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="CN14" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="CO14" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="CP14" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="CQ14" s="12" t="s">
-        <v>490</v>
       </c>
       <c r="CR14" s="62">
         <v>44227.0</v>
@@ -11973,7 +11970,7 @@
         <v>389</v>
       </c>
       <c r="CV14" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="CW14" s="12" t="s">
         <v>365</v>
@@ -12011,15 +12008,15 @@
       <c r="DX14" s="64"/>
       <c r="DY14" s="64"/>
       <c r="DZ14" s="66" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>365</v>
@@ -12028,7 +12025,7 @@
         <v>363</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>365</v>
@@ -12049,16 +12046,16 @@
         <v>1002.0</v>
       </c>
       <c r="L15" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="M15" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>496</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>497</v>
       </c>
       <c r="P15" s="60" t="s">
         <v>371</v>
@@ -12124,7 +12121,7 @@
         <v>365</v>
       </c>
       <c r="AK15" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AL15" s="12">
         <v>8000.0</v>
@@ -12139,7 +12136,7 @@
         <v>80000.0</v>
       </c>
       <c r="AP15" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AQ15" s="12" t="s">
         <v>377</v>
@@ -12166,13 +12163,13 @@
         <v>377</v>
       </c>
       <c r="AY15" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AZ15" s="60" t="s">
         <v>378</v>
       </c>
       <c r="BA15" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BB15" s="68">
         <v>44197.0</v>
@@ -12202,13 +12199,13 @@
         <v>365</v>
       </c>
       <c r="BK15" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BL15" s="12">
         <v>1.0</v>
       </c>
       <c r="BM15" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BN15" s="12" t="s">
         <v>382</v>
@@ -12229,10 +12226,10 @@
         <v>365</v>
       </c>
       <c r="BT15" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="BU15" s="34" t="s">
         <v>504</v>
-      </c>
-      <c r="BU15" s="34" t="s">
-        <v>505</v>
       </c>
       <c r="BV15" s="61" t="s">
         <v>373</v>
@@ -12271,34 +12268,34 @@
         <v>365</v>
       </c>
       <c r="CH15" s="69" t="s">
+        <v>505</v>
+      </c>
+      <c r="CI15" s="69" t="s">
+        <v>505</v>
+      </c>
+      <c r="CJ15" s="69" t="s">
+        <v>505</v>
+      </c>
+      <c r="CK15" s="69" t="s">
+        <v>505</v>
+      </c>
+      <c r="CL15" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="CI15" s="69" t="s">
+      <c r="CM15" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="CJ15" s="69" t="s">
+      <c r="CN15" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="CK15" s="69" t="s">
+      <c r="CO15" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="CL15" s="57" t="s">
+      <c r="CP15" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="CQ15" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="CM15" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="CN15" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="CO15" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="CP15" s="57" t="s">
-        <v>505</v>
-      </c>
-      <c r="CQ15" s="12" t="s">
-        <v>508</v>
       </c>
       <c r="CR15" s="62">
         <v>43861.0</v>
@@ -12325,26 +12322,26 @@
         <v>365</v>
       </c>
       <c r="CZ15" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="DA15" s="64"/>
       <c r="DB15" s="40" t="s">
+        <v>509</v>
+      </c>
+      <c r="DC15" s="40" t="s">
         <v>510</v>
       </c>
-      <c r="DC15" s="40" t="s">
+      <c r="DD15" s="40" t="s">
         <v>511</v>
-      </c>
-      <c r="DD15" s="40" t="s">
-        <v>512</v>
       </c>
       <c r="DE15" s="40" t="s">
         <v>378</v>
       </c>
       <c r="DF15" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="DG15" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="DH15" s="40" t="s">
         <v>389</v>
@@ -12353,19 +12350,19 @@
         <v>382</v>
       </c>
       <c r="DJ15" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="DK15" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="DL15" s="40" t="s">
+        <v>513</v>
+      </c>
+      <c r="DM15" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="DN15" s="40" t="s">
         <v>514</v>
-      </c>
-      <c r="DK15" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="DL15" s="40" t="s">
-        <v>514</v>
-      </c>
-      <c r="DM15" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="DN15" s="40" t="s">
-        <v>515</v>
       </c>
       <c r="DO15" s="64"/>
       <c r="DP15" s="40" t="s">
@@ -12373,7 +12370,7 @@
       </c>
       <c r="DQ15" s="64"/>
       <c r="DR15" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="DS15" s="64"/>
       <c r="DT15" s="64"/>
@@ -12386,10 +12383,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>365</v>
@@ -12398,7 +12395,7 @@
         <v>363</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>365</v>
@@ -12419,16 +12416,16 @@
         <v>1003.0</v>
       </c>
       <c r="L16" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="M16" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="N16" s="12" t="s">
+      <c r="O16" s="57" t="s">
         <v>519</v>
-      </c>
-      <c r="O16" s="57" t="s">
-        <v>520</v>
       </c>
       <c r="P16" s="60" t="s">
         <v>371</v>
@@ -12494,7 +12491,7 @@
         <v>365</v>
       </c>
       <c r="AK16" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AL16" s="12">
         <v>8999.0</v>
@@ -12509,7 +12506,7 @@
         <v>90000.0</v>
       </c>
       <c r="AP16" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AQ16" s="12" t="s">
         <v>374</v>
@@ -12536,13 +12533,13 @@
         <v>374</v>
       </c>
       <c r="AY16" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AZ16" s="60" t="s">
+        <v>420</v>
+      </c>
+      <c r="BA16" s="12" t="s">
         <v>522</v>
-      </c>
-      <c r="AZ16" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="BA16" s="12" t="s">
-        <v>523</v>
       </c>
       <c r="BB16" s="62">
         <v>44562.0</v>
@@ -12572,16 +12569,16 @@
         <v>365</v>
       </c>
       <c r="BK16" s="12" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BL16" s="12">
         <v>3.0</v>
       </c>
       <c r="BM16" s="12" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="BN16" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BO16" s="12" t="s">
         <v>365</v>
@@ -12599,10 +12596,10 @@
         <v>365</v>
       </c>
       <c r="BT16" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="BU16" s="34" t="s">
         <v>526</v>
-      </c>
-      <c r="BU16" s="34" t="s">
-        <v>527</v>
       </c>
       <c r="BV16" s="61" t="s">
         <v>373</v>
@@ -12641,34 +12638,34 @@
         <v>365</v>
       </c>
       <c r="CH16" s="69" t="s">
+        <v>527</v>
+      </c>
+      <c r="CI16" s="69" t="s">
+        <v>527</v>
+      </c>
+      <c r="CJ16" s="69" t="s">
+        <v>527</v>
+      </c>
+      <c r="CK16" s="69" t="s">
+        <v>527</v>
+      </c>
+      <c r="CL16" s="57" t="s">
         <v>528</v>
       </c>
-      <c r="CI16" s="69" t="s">
+      <c r="CM16" s="57" t="s">
         <v>528</v>
       </c>
-      <c r="CJ16" s="69" t="s">
+      <c r="CN16" s="57" t="s">
         <v>528</v>
       </c>
-      <c r="CK16" s="69" t="s">
+      <c r="CO16" s="57" t="s">
         <v>528</v>
       </c>
-      <c r="CL16" s="57" t="s">
+      <c r="CP16" s="57" t="s">
+        <v>526</v>
+      </c>
+      <c r="CQ16" s="12" t="s">
         <v>529</v>
-      </c>
-      <c r="CM16" s="57" t="s">
-        <v>529</v>
-      </c>
-      <c r="CN16" s="57" t="s">
-        <v>529</v>
-      </c>
-      <c r="CO16" s="57" t="s">
-        <v>529</v>
-      </c>
-      <c r="CP16" s="57" t="s">
-        <v>527</v>
-      </c>
-      <c r="CQ16" s="12" t="s">
-        <v>530</v>
       </c>
       <c r="CR16" s="62">
         <v>44227.0</v>
@@ -12680,7 +12677,7 @@
         <v>366</v>
       </c>
       <c r="CU16" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="CV16" s="12" t="s">
         <v>365</v>
@@ -12724,10 +12721,10 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
@@ -12860,10 +12857,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -41265,7 +41262,7 @@
       <c r="B5" s="75"/>
       <c r="C5" s="76"/>
       <c r="D5" s="50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E5" s="76"/>
     </row>
@@ -42923,7 +42920,7 @@
         <v>345</v>
       </c>
       <c r="AE3" s="51" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4">
@@ -42931,7 +42928,7 @@
         <v>350</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
@@ -43066,16 +43063,16 @@
         <v>373</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>537</v>
-      </c>
       <c r="M7" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>365</v>
@@ -43105,10 +43102,10 @@
         <v>381</v>
       </c>
       <c r="W7" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="X7" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>539</v>
       </c>
       <c r="Y7" s="12" t="s">
         <v>365</v>
@@ -43126,10 +43123,10 @@
         <v>375</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AE7" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -43167,10 +43164,10 @@
         <v>365</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>365</v>
@@ -43200,10 +43197,10 @@
         <v>381</v>
       </c>
       <c r="W8" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="X8" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>539</v>
       </c>
       <c r="Y8" s="12" t="s">
         <v>365</v>
@@ -43221,10 +43218,10 @@
         <v>375</v>
       </c>
       <c r="AD8" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AE8" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -43256,16 +43253,16 @@
         <v>373</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>365</v>
@@ -43283,7 +43280,7 @@
         <v>365</v>
       </c>
       <c r="S9" s="57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>365</v>
@@ -43292,13 +43289,13 @@
         <v>395</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W9" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="X9" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="Y9" s="12" t="s">
         <v>365</v>
@@ -43316,10 +43313,10 @@
         <v>375</v>
       </c>
       <c r="AD9" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE9" s="60" t="s">
         <v>544</v>
-      </c>
-      <c r="AE9" s="60" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -43345,22 +43342,22 @@
         <v>375</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I10" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>365</v>
@@ -43378,7 +43375,7 @@
         <v>365</v>
       </c>
       <c r="S10" s="57" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>365</v>
@@ -43387,13 +43384,13 @@
         <v>395</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W10" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="X10" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="Y10" s="12" t="s">
         <v>365</v>
@@ -43411,21 +43408,21 @@
         <v>375</v>
       </c>
       <c r="AD10" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE10" s="60" t="s">
         <v>544</v>
-      </c>
-      <c r="AE10" s="60" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>365</v>
@@ -43446,49 +43443,49 @@
         <v>373</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L11" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="S11" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="W11" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="M11" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="S11" s="57" t="s">
-        <v>419</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="U11" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="V11" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="W11" s="60" t="s">
+      <c r="X11" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="X11" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="Y11" s="12" t="s">
         <v>365</v>
@@ -43506,21 +43503,21 @@
         <v>375</v>
       </c>
       <c r="AD11" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE11" s="60" t="s">
         <v>551</v>
-      </c>
-      <c r="AE11" s="60" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B12" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C12" s="57" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>365</v>
@@ -43535,55 +43532,55 @@
         <v>365</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I12" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J12" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="L12" s="12" t="s">
+      <c r="M12" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="S12" s="57" t="s">
+        <v>418</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="W12" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="S12" s="57" t="s">
-        <v>419</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="U12" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="W12" s="60" t="s">
+      <c r="X12" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="Y12" s="12" t="s">
         <v>365</v>
@@ -43601,21 +43598,21 @@
         <v>375</v>
       </c>
       <c r="AD12" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE12" s="60" t="s">
         <v>551</v>
-      </c>
-      <c r="AE12" s="60" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B13" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>365</v>
@@ -43636,16 +43633,16 @@
         <v>373</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N13" s="12" t="s">
         <v>365</v>
@@ -43663,22 +43660,22 @@
         <v>365</v>
       </c>
       <c r="S13" s="57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T13" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="W13" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="X13" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>539</v>
       </c>
       <c r="Y13" s="12" t="s">
         <v>365</v>
@@ -43696,21 +43693,21 @@
         <v>375</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AE13" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B14" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>365</v>
@@ -43725,22 +43722,22 @@
         <v>365</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I14" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>365</v>
@@ -43758,22 +43755,22 @@
         <v>365</v>
       </c>
       <c r="S14" s="57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="W14" s="60" t="s">
+        <v>537</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>538</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>539</v>
       </c>
       <c r="Y14" s="12" t="s">
         <v>365</v>
@@ -43791,21 +43788,21 @@
         <v>375</v>
       </c>
       <c r="AD14" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AE14" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>365</v>
@@ -43826,16 +43823,16 @@
         <v>373</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N15" s="12" t="s">
         <v>365</v>
@@ -43853,22 +43850,22 @@
         <v>365</v>
       </c>
       <c r="S15" s="57" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W15" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="X15" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="Y15" s="12" t="s">
         <v>365</v>
@@ -43886,21 +43883,21 @@
         <v>375</v>
       </c>
       <c r="AD15" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE15" s="60" t="s">
         <v>551</v>
-      </c>
-      <c r="AE15" s="60" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B16" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>365</v>
@@ -43915,22 +43912,22 @@
         <v>365</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I16" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>365</v>
@@ -43948,22 +43945,22 @@
         <v>365</v>
       </c>
       <c r="S16" s="57" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W16" s="60" t="s">
+        <v>541</v>
+      </c>
+      <c r="X16" s="12" t="s">
         <v>542</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>543</v>
       </c>
       <c r="Y16" s="12" t="s">
         <v>365</v>
@@ -43981,21 +43978,21 @@
         <v>375</v>
       </c>
       <c r="AD16" s="12" t="s">
+        <v>550</v>
+      </c>
+      <c r="AE16" s="60" t="s">
         <v>551</v>
-      </c>
-      <c r="AE16" s="60" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B17" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>365</v>
@@ -44016,16 +44013,16 @@
         <v>373</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>365</v>
@@ -44043,22 +44040,22 @@
         <v>365</v>
       </c>
       <c r="S17" s="57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T17" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W17" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="X17" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="X17" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="Y17" s="12" t="s">
         <v>365</v>
@@ -44076,21 +44073,21 @@
         <v>375</v>
       </c>
       <c r="AD17" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE17" s="60" t="s">
         <v>544</v>
-      </c>
-      <c r="AE17" s="60" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B18" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>365</v>
@@ -44105,22 +44102,22 @@
         <v>375</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I18" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>365</v>
@@ -44138,22 +44135,22 @@
         <v>365</v>
       </c>
       <c r="S18" s="57" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T18" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="W18" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="X18" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="Y18" s="12" t="s">
         <v>365</v>
@@ -44171,21 +44168,21 @@
         <v>375</v>
       </c>
       <c r="AD18" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE18" s="60" t="s">
         <v>544</v>
-      </c>
-      <c r="AE18" s="60" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>365</v>
@@ -44206,16 +44203,16 @@
         <v>373</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>365</v>
@@ -44233,22 +44230,22 @@
         <v>365</v>
       </c>
       <c r="S19" s="57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T19" s="12" t="s">
         <v>365</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W19" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="X19" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="X19" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>365</v>
@@ -44266,21 +44263,21 @@
         <v>375</v>
       </c>
       <c r="AD19" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AE19" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B20" s="80" t="s">
         <v>367</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>365</v>
@@ -44295,22 +44292,22 @@
         <v>365</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I20" s="81" t="s">
         <v>373</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>365</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>365</v>
@@ -44328,22 +44325,22 @@
         <v>365</v>
       </c>
       <c r="S20" s="57" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W20" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="X20" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="X20" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="Y20" s="12" t="s">
         <v>365</v>
@@ -44361,10 +44358,10 @@
         <v>375</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AE20" s="60" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
@@ -45828,7 +45825,7 @@
         <v>44</v>
       </c>
       <c r="B2" s="74" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C2" s="76"/>
     </row>
@@ -45854,7 +45851,7 @@
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="82" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -45866,24 +45863,24 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" s="83">
         <v>1002.0</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B8" s="83">
         <v>1003.0</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -45894,7 +45891,7 @@
         <v>367</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -45905,62 +45902,62 @@
         <v>367</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B11" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B12" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B13" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B14" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B15" s="59" t="s">
         <v>367</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
@@ -47387,123 +47384,123 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="84" t="s">
+        <v>569</v>
+      </c>
+      <c r="B1" s="85" t="s">
         <v>570</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="C1" s="85" t="s">
         <v>571</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>573</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="C2" s="86" t="s">
         <v>574</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B3" s="86" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>576</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B4" s="86" t="s">
+        <v>577</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>578</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B5" s="86" t="s">
+        <v>579</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>580</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" s="86" t="s">
+        <v>581</v>
+      </c>
+      <c r="C6" s="86" t="s">
         <v>582</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B7" s="86" t="s">
+        <v>583</v>
+      </c>
+      <c r="C7" s="86" t="s">
         <v>584</v>
-      </c>
-      <c r="C7" s="86" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" s="86" t="s">
+        <v>585</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>586</v>
-      </c>
-      <c r="C8" s="86" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B9" s="86" t="s">
+        <v>587</v>
+      </c>
+      <c r="C9" s="86" t="s">
         <v>588</v>
-      </c>
-      <c r="C9" s="86" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>589</v>
+      </c>
+      <c r="C10" s="69" t="s">
         <v>590</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>591</v>
+      </c>
+      <c r="C11" s="69" t="s">
         <v>592</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -47511,54 +47508,54 @@
         <v>28</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>594</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>596</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B14" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>598</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>600</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="C16" s="40" t="s">
         <v>602</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1"/>
@@ -48558,13 +48555,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="88" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1" s="89" t="s">
         <v>604</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>605</v>
-      </c>
-      <c r="C1" s="90" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="2">
@@ -48575,7 +48572,7 @@
         <v>0.0</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3">
@@ -48586,7 +48583,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4">
@@ -48597,7 +48594,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5">
@@ -48608,7 +48605,7 @@
         <v>0.0</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6">
@@ -48619,40 +48616,40 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="91" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B7" s="92">
         <v>0.0</v>
       </c>
       <c r="C7" s="91" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="91" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B8" s="92">
         <v>1.0</v>
       </c>
       <c r="C8" s="91" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="91" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B9" s="92">
         <v>2.0</v>
       </c>
       <c r="C9" s="91" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10">
@@ -48663,7 +48660,7 @@
         <v>371</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -48695,7 +48692,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="44"/>
       <c r="B1" s="45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>

--- a/TNR_JDD/JDD.RT.MAT.xlsx
+++ b/TNR_JDD/JDD.RT.MAT.xlsx
@@ -17,14 +17,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="JNJny